--- a/sample3.xlsx
+++ b/sample3.xlsx
@@ -35,14 +35,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D3D3D3"/>
-        <bgColor rgb="00D3D3D3"/>
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ADD8E6"/>
-        <bgColor rgb="00ADD8E6"/>
+        <fgColor rgb="00D3D3D3"/>
+        <bgColor rgb="00D3D3D3"/>
       </patternFill>
     </fill>
   </fills>
@@ -468,17 +468,17 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>Programmer(รณยุทธ)</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Service(วัฒพงษ์)</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
+          <t>Programmer(วินัย)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -550,20 +550,20 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>Programmer(รณยุทธ)</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Service(วัฒพงษ์)</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
+          <t>Programmer(วินัย)</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
@@ -575,12 +575,12 @@
         <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
-      </c>
-      <c r="M3" s="2" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
@@ -597,7 +597,7 @@
       <c r="Q3" t="n">
         <v>3</v>
       </c>
-      <c r="S3" s="2" t="inlineStr">
+      <c r="S3" s="1" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
@@ -609,10 +609,10 @@
         <v>4</v>
       </c>
       <c r="V3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -624,7 +624,7 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="G4" s="1" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
@@ -636,12 +636,12 @@
         <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="M4" s="1" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
@@ -658,7 +658,7 @@
       <c r="Q4" t="n">
         <v>3</v>
       </c>
-      <c r="S4" s="2" t="inlineStr">
+      <c r="S4" s="1" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
@@ -670,10 +670,10 @@
         <v>4</v>
       </c>
       <c r="V4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -682,22 +682,22 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(พลกฤต)</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>Service(ราเชน)</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ปรมะ)</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
@@ -714,7 +714,7 @@
       <c r="K5" t="n">
         <v>6</v>
       </c>
-      <c r="M5" s="2" t="inlineStr">
+      <c r="M5" s="1" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
@@ -723,30 +723,30 @@
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
       </c>
       <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" t="n">
         <v>4</v>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="T5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" t="n">
-        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>4</v>
       </c>
       <c r="W5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -755,22 +755,22 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(พลกฤต)</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>Service(ราเชน)</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ปรมะ)</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
@@ -779,47 +779,47 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M6" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
         <v>4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>7</v>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="S6" s="2" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="T6" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" t="n">
-        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>4</v>
       </c>
       <c r="W6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -831,7 +831,7 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="G7" s="1" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
@@ -840,47 +840,47 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6</v>
+      </c>
+      <c r="M7" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
         <v>4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>7</v>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="S7" s="2" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="T7" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" t="n">
-        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>4</v>
       </c>
       <c r="W7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -891,20 +891,20 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
+          <t>Service(นที)</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(สัญญา)</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Service(จีรวัฒน์)</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
@@ -921,13 +921,13 @@
       <c r="K8" t="n">
         <v>6</v>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="M8" s="1" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
@@ -936,15 +936,15 @@
         <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="S8" s="2" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="S8" s="1" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
         <v>4</v>
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -964,20 +964,20 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
+          <t>Service(นที)</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(สัญญา)</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Service(จีรวัฒน์)</t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
@@ -986,47 +986,47 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M9" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" t="n">
         <v>4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>7</v>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="S9" s="2" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="T9" t="n">
-        <v>1</v>
-      </c>
-      <c r="U9" t="n">
-        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>4</v>
       </c>
       <c r="W9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1040,20 +1040,20 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>Programmer(ภูวเนตร)</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
+          <t>Service(สุเมธร์)</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
+          <t>Service(สุเมธร์)</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
@@ -1062,47 +1062,47 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6</v>
+      </c>
+      <c r="M10" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" t="n">
         <v>4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>7</v>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="T10" t="n">
-        <v>1</v>
-      </c>
-      <c r="U10" t="n">
-        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>4</v>
       </c>
       <c r="W10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1113,20 +1113,20 @@
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
+          <t>Programmer(ราเชนทร์)</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>Service(นฤชิต)</t>
         </is>
       </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" s="1" t="inlineStr">
         <is>
           <t>Programmer(ชานนท์)</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
@@ -1135,47 +1135,47 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
-      </c>
-      <c r="M11" s="1" t="inlineStr">
+        <v>8</v>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
-      </c>
-      <c r="S11" s="1" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V11" t="n">
         <v>5</v>
       </c>
       <c r="W11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -1186,20 +1186,20 @@
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
+          <t>Programmer(ราเชนทร์)</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>Service(นฤชิต)</t>
         </is>
       </c>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E12" s="1" t="inlineStr">
         <is>
           <t>Programmer(ชานนท์)</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
@@ -1208,15 +1208,15 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>6</v>
-      </c>
-      <c r="M12" s="1" t="inlineStr">
+        <v>8</v>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
@@ -1233,7 +1233,7 @@
       <c r="Q12" t="n">
         <v>3</v>
       </c>
-      <c r="S12" s="1" t="inlineStr">
+      <c r="S12" s="2" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
@@ -1242,13 +1242,13 @@
         <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -1262,20 +1262,20 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>Service(ราเชน)</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>Programmer(รณยุทธ)</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
-        </is>
-      </c>
-      <c r="G13" s="1" t="inlineStr">
+          <t>Programmer(รณยุทธ)</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
@@ -1284,47 +1284,47 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
+        <v>8</v>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" t="n">
         <v>6</v>
       </c>
-      <c r="M13" s="1" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>4</v>
-      </c>
-      <c r="S13" s="1" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="T13" t="n">
-        <v>1</v>
-      </c>
-      <c r="U13" t="n">
-        <v>4</v>
-      </c>
       <c r="V13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W13" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -1333,22 +1333,22 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ปรมะ)</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>Service(วัฒพงษ์)</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
           <t>Programmer(วินัย)</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
-        </is>
-      </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
@@ -1365,7 +1365,7 @@
       <c r="K14" t="n">
         <v>6</v>
       </c>
-      <c r="M14" s="1" t="inlineStr">
+      <c r="M14" s="2" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
@@ -1374,15 +1374,15 @@
         <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
         <v>5</v>
       </c>
-      <c r="S14" s="1" t="inlineStr">
+      <c r="S14" s="2" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
@@ -1391,10 +1391,10 @@
         <v>2</v>
       </c>
       <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
         <v>5</v>
-      </c>
-      <c r="V14" t="n">
-        <v>4</v>
       </c>
       <c r="W14" t="n">
         <v>11</v>
@@ -1406,22 +1406,22 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ปรมะ)</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
+          <t>Service(วัฒพงษ์)</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="inlineStr">
+        <is>
           <t>Programmer(วินัย)</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
-        </is>
-      </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
@@ -1430,15 +1430,15 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
         <v>7</v>
       </c>
-      <c r="M15" s="1" t="inlineStr">
+      <c r="M15" s="2" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
@@ -1450,27 +1450,27 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
         <v>4</v>
       </c>
-      <c r="S15" s="1" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="T15" t="n">
-        <v>1</v>
-      </c>
-      <c r="U15" t="n">
-        <v>4</v>
-      </c>
-      <c r="V15" t="n">
-        <v>6</v>
-      </c>
       <c r="W15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1482,7 +1482,7 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
@@ -1494,12 +1494,12 @@
         <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
-      </c>
-      <c r="M16" s="1" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
@@ -1516,7 +1516,7 @@
       <c r="Q16" t="n">
         <v>3</v>
       </c>
-      <c r="S16" s="1" t="inlineStr">
+      <c r="S16" s="2" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
@@ -1528,10 +1528,10 @@
         <v>4</v>
       </c>
       <c r="V16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1542,17 +1542,17 @@
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>Programmer(พลกฤต)</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>Service(จีรวัฒน์)</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(สัญญา)</t>
         </is>
       </c>
     </row>
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>Programmer(พลกฤต)</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>Service(จีรวัฒน์)</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(สัญญา)</t>
         </is>
       </c>
     </row>
@@ -1594,19 +1594,19 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Service(นฤชิต)</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="D20" s="1" t="inlineStr">
         <is>
           <t>Programmer(ชานนท์)</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
+          <t>Service(นที)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1631,19 +1631,19 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Service(นฤชิต)</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="D21" s="1" t="inlineStr">
         <is>
           <t>Programmer(ชานนท์)</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
+          <t>Service(นที)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1716,7 +1716,7 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
+      <c r="G22" s="1" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
@@ -1733,13 +1733,13 @@
       <c r="K22" t="n">
         <v>4</v>
       </c>
-      <c r="M22" s="2" t="inlineStr">
+      <c r="M22" s="1" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1748,15 +1748,15 @@
         <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
-      </c>
-      <c r="S22" s="2" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="S22" s="1" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" t="n">
         <v>2</v>
@@ -1765,7 +1765,7 @@
         <v>3</v>
       </c>
       <c r="W22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1776,20 +1776,20 @@
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
+          <t>Programmer(ปรมะ)</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(พลกฤต)</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
+          <t>Service(วัฒพงษ์)</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ภูวเนตร)</t>
+        </is>
+      </c>
+      <c r="G23" s="1" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
@@ -1806,7 +1806,7 @@
       <c r="K23" t="n">
         <v>4</v>
       </c>
-      <c r="M23" s="2" t="inlineStr">
+      <c r="M23" s="1" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
@@ -1818,12 +1818,12 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="S23" s="2" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="S23" s="1" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
@@ -1835,10 +1835,10 @@
         <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1849,20 +1849,20 @@
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
+          <t>Programmer(ปรมะ)</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(พลกฤต)</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
+          <t>Service(วัฒพงษ์)</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ภูวเนตร)</t>
+        </is>
+      </c>
+      <c r="G24" s="1" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
@@ -1879,39 +1879,39 @@
       <c r="K24" t="n">
         <v>4</v>
       </c>
-      <c r="M24" s="2" t="inlineStr">
+      <c r="M24" s="1" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="S24" s="2" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="S24" s="1" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -1923,7 +1923,7 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
+      <c r="G25" s="1" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
@@ -1940,13 +1940,13 @@
       <c r="K25" t="n">
         <v>3</v>
       </c>
-      <c r="M25" s="2" t="inlineStr">
+      <c r="M25" s="1" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
         <v>1</v>
@@ -1955,15 +1955,15 @@
         <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="S25" s="2" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="S25" s="1" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
         <v>2</v>
@@ -1972,7 +1972,7 @@
         <v>3</v>
       </c>
       <c r="W25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -1981,22 +1981,22 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(พลกฤต)</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>Service(สุเมธร์)</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
+          <t>Programmer(สัญญา)</t>
+        </is>
+      </c>
+      <c r="G26" s="1" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
@@ -2005,15 +2005,15 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
         <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
-      </c>
-      <c r="M26" s="2" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="M26" s="1" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
@@ -2022,15 +2022,15 @@
         <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
         <v>2</v>
       </c>
-      <c r="S26" s="2" t="inlineStr">
+      <c r="S26" s="1" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
@@ -2042,10 +2042,10 @@
         <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -2054,22 +2054,22 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(พลกฤต)</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>Service(สุเมธร์)</t>
         </is>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
+          <t>Programmer(สัญญา)</t>
+        </is>
+      </c>
+      <c r="G27" s="1" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
@@ -2078,15 +2078,15 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
-      </c>
-      <c r="M27" s="2" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="M27" s="1" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
@@ -2098,12 +2098,12 @@
         <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>3</v>
-      </c>
-      <c r="S27" s="2" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="S27" s="1" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
@@ -2112,13 +2112,13 @@
         <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
         <v>2</v>
       </c>
       <c r="W27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -2130,7 +2130,7 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
+      <c r="G28" s="1" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
@@ -2147,7 +2147,7 @@
       <c r="K28" t="n">
         <v>4</v>
       </c>
-      <c r="M28" s="2" t="inlineStr">
+      <c r="M28" s="1" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
@@ -2156,15 +2156,15 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
-      </c>
-      <c r="S28" s="2" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="S28" s="1" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
@@ -2173,13 +2173,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
         <v>3</v>
       </c>
       <c r="W28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -2190,20 +2190,20 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
+          <t>Service(นฤชิต)</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
           <t>Programmer(วินัย)</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="inlineStr">
+      <c r="E29" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ราเชนทร์)</t>
+        </is>
+      </c>
+      <c r="G29" s="1" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
@@ -2212,15 +2212,15 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
-      </c>
-      <c r="M29" s="2" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="M29" s="1" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
@@ -2232,12 +2232,12 @@
         <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>3</v>
-      </c>
-      <c r="S29" s="2" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="S29" s="1" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
@@ -2246,13 +2246,13 @@
         <v>1</v>
       </c>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
         <v>2</v>
       </c>
       <c r="W29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -2263,20 +2263,20 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
+          <t>Service(นฤชิต)</t>
+        </is>
+      </c>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
           <t>Programmer(วินัย)</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
-        </is>
-      </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="E30" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ราเชนทร์)</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
@@ -2285,21 +2285,21 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
-      </c>
-      <c r="M30" s="1" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2308,24 +2308,24 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
-      </c>
-      <c r="S30" s="1" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -2337,22 +2337,22 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
-        <is>
-          <t>Service(นฤชิต)</t>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ปรมะ)</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>Service(วัฒพงษ์)</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="G31" s="1" t="inlineStr">
+          <t>Programmer(ภูวเนตร)</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
@@ -2361,21 +2361,21 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>3</v>
-      </c>
-      <c r="M31" s="1" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>1</v>
@@ -2384,24 +2384,24 @@
         <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
-      </c>
-      <c r="S31" s="1" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
         <v>2</v>
       </c>
       <c r="W31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -2412,20 +2412,20 @@
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+          <t>Programmer(ชานนท์)</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
         <is>
           <t>Service(จีรวัฒน์)</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="G32" s="1" t="inlineStr">
+          <t>Service(ราเชน)</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
@@ -2437,12 +2437,12 @@
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>3</v>
-      </c>
-      <c r="M32" s="1" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
@@ -2451,15 +2451,15 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>2</v>
-      </c>
-      <c r="S32" s="1" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="S32" s="2" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
@@ -2468,13 +2468,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -2485,20 +2485,20 @@
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+          <t>Programmer(ชานนท์)</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
         <is>
           <t>Service(จีรวัฒน์)</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="G33" s="1" t="inlineStr">
+          <t>Service(ราเชน)</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
@@ -2510,12 +2510,12 @@
         <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>3</v>
-      </c>
-      <c r="M33" s="1" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
@@ -2524,15 +2524,15 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>1</v>
-      </c>
-      <c r="S33" s="1" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="S33" s="2" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W33" t="n">
         <v>4</v>
@@ -2561,20 +2561,20 @@
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
+          <t>Programmer(สัญญา)</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
           <t>Service(วัฒพงษ์)</t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
-        </is>
-      </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="E34" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(สัญญา)</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
@@ -2583,15 +2583,15 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>3</v>
-      </c>
-      <c r="M34" s="1" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
@@ -2600,15 +2600,15 @@
         <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
-      </c>
-      <c r="S34" s="1" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="S34" s="2" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
@@ -2620,10 +2620,10 @@
         <v>2</v>
       </c>
       <c r="V34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -2634,20 +2634,20 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="inlineStr">
+          <t>Service(นที)</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="inlineStr">
         <is>
           <t>Programmer(พลกฤต)</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
-        <is>
-          <t>Service(ราเชน)</t>
-        </is>
-      </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>Service(สุเมธร์)</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
@@ -2659,35 +2659,35 @@
         <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>4</v>
-      </c>
-      <c r="M35" s="1" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>1</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
         <v>2</v>
       </c>
-      <c r="S35" s="1" t="inlineStr">
+      <c r="S35" s="2" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>3</v>
@@ -2696,7 +2696,7 @@
         <v>2</v>
       </c>
       <c r="W35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -2707,17 +2707,17 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr">
+          <t>Service(นที)</t>
+        </is>
+      </c>
+      <c r="D36" s="1" t="inlineStr">
         <is>
           <t>Programmer(พลกฤต)</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
-        <is>
-          <t>Service(ราเชน)</t>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>Service(สุเมธร์)</t>
         </is>
       </c>
     </row>
@@ -2744,17 +2744,17 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
-        </is>
-      </c>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>Service(นฤชิต)</t>
+        </is>
+      </c>
+      <c r="D38" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ราเชนทร์)</t>
+        </is>
+      </c>
+      <c r="E38" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(รณยุทธ)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2786,20 +2786,20 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="inlineStr">
+          <t>Service(นฤชิต)</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ราเชนทร์)</t>
+        </is>
+      </c>
+      <c r="E39" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(รณยุทธ)</t>
+        </is>
+      </c>
+      <c r="G39" s="1" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
@@ -2808,10 +2808,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K39" t="n">
         <v>15</v>
@@ -2826,7 +2826,7 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
-      <c r="G40" s="2" t="inlineStr">
+      <c r="G40" s="1" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
@@ -2835,10 +2835,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K40" t="n">
         <v>15</v>
@@ -2850,22 +2850,22 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>Service(ราเชน)</t>
+        </is>
+      </c>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ภูวเนตร)</t>
         </is>
       </c>
       <c r="E41" s="1" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="inlineStr">
+          <t>Programmer(ปรมะ)</t>
+        </is>
+      </c>
+      <c r="G41" s="1" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
@@ -2889,22 +2889,22 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>Service(ราเชน)</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ภูวเนตร)</t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="inlineStr">
+          <t>Programmer(ปรมะ)</t>
+        </is>
+      </c>
+      <c r="G42" s="1" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
@@ -2913,10 +2913,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K42" t="n">
         <v>15</v>
@@ -2931,7 +2931,7 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
-      <c r="G43" s="2" t="inlineStr">
+      <c r="G43" s="1" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
@@ -2957,20 +2957,20 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>Service(จีรวัฒน์)</t>
         </is>
       </c>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
-        </is>
-      </c>
-      <c r="E44" s="1" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="inlineStr">
+          <t>Programmer(วินัย)</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>Service(สุเมธร์)</t>
+        </is>
+      </c>
+      <c r="G44" s="1" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
@@ -2979,10 +2979,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K44" t="n">
         <v>15</v>
@@ -2996,20 +2996,20 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>Service(จีรวัฒน์)</t>
         </is>
       </c>
       <c r="D45" s="1" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
-        </is>
-      </c>
-      <c r="E45" s="1" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="inlineStr">
+          <t>Programmer(วินัย)</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>Service(สุเมธร์)</t>
+        </is>
+      </c>
+      <c r="G45" s="1" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
@@ -3018,10 +3018,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K45" t="n">
         <v>15</v>
@@ -3036,7 +3036,7 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
-      <c r="G46" s="2" t="inlineStr">
+      <c r="G46" s="1" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
@@ -3045,10 +3045,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K46" t="n">
         <v>15</v>
@@ -3062,20 +3062,20 @@
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>Service(วัฒพงษ์)</t>
         </is>
       </c>
       <c r="D47" s="1" t="inlineStr">
         <is>
+          <t>Programmer(สัญญา)</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
           <t>Service(นฤชิต)</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" s="2" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
@@ -3084,10 +3084,10 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K47" t="n">
         <v>15</v>
@@ -3099,22 +3099,22 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t>Service(นฤชิต)</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(พลกฤต)</t>
-        </is>
-      </c>
-      <c r="E48" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
-        </is>
-      </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>Service(นที)</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(รณยุทธ)</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ราเชนทร์)</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
@@ -3123,10 +3123,10 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K48" t="n">
         <v>15</v>
@@ -3141,7 +3141,7 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" s="2" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
@@ -3150,10 +3150,10 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K49" t="n">
         <v>15</v>
@@ -3167,20 +3167,20 @@
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
+          <t>Programmer(ชานนท์)</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
+          <t>Service(วัฒพงษ์)</t>
+        </is>
+      </c>
+      <c r="E50" s="1" t="inlineStr">
+        <is>
           <t>Programmer(ภูวเนตร)</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
-        </is>
-      </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" s="2" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J50" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K50" t="n">
         <v>15</v>
@@ -3206,20 +3206,20 @@
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
-        </is>
-      </c>
-      <c r="E51" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
-        </is>
-      </c>
-      <c r="G51" s="1" t="inlineStr">
+          <t>Programmer(ปรมะ)</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>Service(ราเชน)</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(พลกฤต)</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
@@ -3228,10 +3228,10 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K51" t="n">
         <v>15</v>
@@ -3246,22 +3246,22 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(พลกฤต)</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
-        </is>
-      </c>
-      <c r="E52" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
-        </is>
-      </c>
-      <c r="G52" s="1" t="inlineStr">
+          <t>Service(จีรวัฒน์)</t>
+        </is>
+      </c>
+      <c r="E52" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ปรมะ)</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
@@ -3287,17 +3287,17 @@
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>Service(สุเมธร์)</t>
         </is>
       </c>
       <c r="D53" s="1" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
+          <t>Programmer(วินัย)</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>Service(นที)</t>
         </is>
       </c>
     </row>
@@ -3309,17 +3309,17 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
+          <t>Service(นฤชิต)</t>
         </is>
       </c>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>Programmer(รณยุทธ)</t>
+        </is>
+      </c>
+      <c r="E54" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ราเชนทร์)</t>
         </is>
       </c>
     </row>
@@ -3334,17 +3334,17 @@
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>Service(จีรวัฒน์)</t>
+        </is>
+      </c>
+      <c r="D55" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(วินัย)</t>
         </is>
       </c>
       <c r="E55" s="1" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
+          <t>Programmer(ชานนท์)</t>
         </is>
       </c>
     </row>
@@ -3354,19 +3354,19 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
+      <c r="C56" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ภูวเนตร)</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>Service(นฤชิต)</t>
         </is>
       </c>
       <c r="E56" s="1" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
+          <t>Programmer(สัญญา)</t>
         </is>
       </c>
     </row>
@@ -3376,19 +3376,19 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C57" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
+      <c r="C57" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(สัญญา)</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>Service(ราเชน)</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>Service(นที)</t>
         </is>
       </c>
     </row>
@@ -3408,19 +3408,19 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(พลกฤต)</t>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
+      <c r="C59" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ราเชนทร์)</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>Service(ราเชน)</t>
         </is>
       </c>
       <c r="E59" s="1" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
+          <t>Programmer(รณยุทธ)</t>
         </is>
       </c>
     </row>
@@ -3432,17 +3432,17 @@
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
+          <t>Programmer(ชานนท์)</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>Service(สุเมธร์)</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
           <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
-        </is>
-      </c>
-      <c r="E60" s="1" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
         </is>
       </c>
     </row>
@@ -3464,15 +3464,15 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Programmer(วินัย)</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
-        </is>
-      </c>
-      <c r="E62" s="2" t="inlineStr">
+          <t>Service(สุเมธร์)</t>
+        </is>
+      </c>
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ภูวเนตร)</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="inlineStr">
         <is>
           <t>Programmer(พลกฤต)</t>
         </is>
@@ -3486,15 +3486,15 @@
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>Service(นที)</t>
         </is>
       </c>
       <c r="D63" s="1" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="E63" s="1" t="inlineStr">
+          <t>Programmer(รณยุทธ)</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
         <is>
           <t>Service(จีรวัฒน์)</t>
         </is>
@@ -3516,19 +3516,19 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="D65" s="1" t="inlineStr">
+      <c r="C65" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ราเชนทร์)</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
         <is>
           <t>Service(ราเชน)</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>Service(วัฒพงษ์)</t>
         </is>
       </c>
     </row>
@@ -3540,17 +3540,17 @@
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
+          <t>Service(นที)</t>
+        </is>
+      </c>
+      <c r="D66" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ปรมะ)</t>
+        </is>
+      </c>
+      <c r="E66" s="1" t="inlineStr">
+        <is>
           <t>Programmer(ชานนท์)</t>
-        </is>
-      </c>
-      <c r="D66" s="1" t="inlineStr">
-        <is>
-          <t>Service(นฤชิต)</t>
-        </is>
-      </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
         </is>
       </c>
     </row>
@@ -3572,17 +3572,17 @@
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="D68" s="2" t="inlineStr">
+          <t>Service(สุเมธร์)</t>
+        </is>
+      </c>
+      <c r="D68" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(รณยุทธ)</t>
+        </is>
+      </c>
+      <c r="E68" s="1" t="inlineStr">
         <is>
           <t>Programmer(ชานนท์)</t>
-        </is>
-      </c>
-      <c r="E68" s="1" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
         </is>
       </c>
     </row>
@@ -3594,15 +3594,15 @@
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
-        </is>
-      </c>
-      <c r="E69" s="2" t="inlineStr">
+          <t>Service(วัฒพงษ์)</t>
+        </is>
+      </c>
+      <c r="D69" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ราเชนทร์)</t>
+        </is>
+      </c>
+      <c r="E69" s="1" t="inlineStr">
         <is>
           <t>Programmer(ภูวเนตร)</t>
         </is>
@@ -3626,17 +3626,17 @@
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
-        </is>
-      </c>
-      <c r="D71" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
-        </is>
-      </c>
-      <c r="E71" s="1" t="inlineStr">
-        <is>
           <t>Service(สุเมธร์)</t>
+        </is>
+      </c>
+      <c r="D71" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ปรมะ)</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>Service(นที)</t>
         </is>
       </c>
     </row>
@@ -3646,19 +3646,19 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C72" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
+      <c r="C72" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(วินัย)</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>Service(จีรวัฒน์)</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>Programmer(วินัย)</t>
+          <t>Service(นฤชิต)</t>
         </is>
       </c>
     </row>
@@ -3673,17 +3673,17 @@
       </c>
       <c r="C73" s="1" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
+          <t>Programmer(ชานนท์)</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
-        </is>
-      </c>
-      <c r="E73" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>Service(นที)</t>
+        </is>
+      </c>
+      <c r="E73" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(พลกฤต)</t>
         </is>
       </c>
     </row>
@@ -3693,19 +3693,19 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C74" s="1" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>Service(ราเชน)</t>
         </is>
       </c>
       <c r="D74" s="1" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>Programmer(สัญญา)</t>
         </is>
       </c>
       <c r="E74" s="1" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
+          <t>Programmer(พลกฤต)</t>
         </is>
       </c>
     </row>
@@ -3715,19 +3715,19 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C75" s="1" t="inlineStr">
-        <is>
-          <t>Service(ราเชน)</t>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>Service(จีรวัฒน์)</t>
         </is>
       </c>
       <c r="D75" s="1" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
+          <t>Programmer(วินัย)</t>
         </is>
       </c>
       <c r="E75" s="1" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
+          <t>Programmer(ภูวเนตร)</t>
         </is>
       </c>
     </row>
@@ -3742,17 +3742,17 @@
       </c>
       <c r="C76" s="1" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
-        </is>
-      </c>
-      <c r="D76" s="1" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
+          <t>Programmer(ราเชนทร์)</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>Service(นฤชิต)</t>
         </is>
       </c>
       <c r="E76" s="1" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>Programmer(ราเชนทร์)</t>
         </is>
       </c>
     </row>
@@ -3762,19 +3762,19 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
+      <c r="C77" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(รณยุทธ)</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>Service(วัฒพงษ์)</t>
         </is>
       </c>
       <c r="E77" s="1" t="inlineStr">
         <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>Programmer(รณยุทธ)</t>
         </is>
       </c>
     </row>
@@ -3786,17 +3786,17 @@
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
-        </is>
-      </c>
-      <c r="D78" s="2" t="inlineStr">
+          <t>Service(สุเมธร์)</t>
+        </is>
+      </c>
+      <c r="D78" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ภูวเนตร)</t>
+        </is>
+      </c>
+      <c r="E78" s="1" t="inlineStr">
         <is>
           <t>Programmer(ปรมะ)</t>
-        </is>
-      </c>
-      <c r="E78" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
         </is>
       </c>
     </row>
@@ -3816,19 +3816,19 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C80" s="1" t="inlineStr">
         <is>
           <t>Programmer(สัญญา)</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>Service(นที)</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>Service(จีรวัฒน์)</t>
         </is>
       </c>
     </row>
@@ -3838,19 +3838,19 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C81" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
-        </is>
-      </c>
-      <c r="D81" s="1" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
+      <c r="C81" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ชานนท์)</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>Service(วัฒพงษ์)</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>Service(ราเชน)</t>
         </is>
       </c>
     </row>
@@ -3870,19 +3870,19 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C83" s="2" t="inlineStr">
+      <c r="C83" s="1" t="inlineStr">
         <is>
           <t>Programmer(วินัย)</t>
         </is>
       </c>
-      <c r="D83" s="1" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>Service(นที)</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>Service(ราเชน)</t>
         </is>
       </c>
     </row>
@@ -3894,17 +3894,17 @@
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>Service(นฤชิต)</t>
         </is>
       </c>
       <c r="D84" s="1" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
-        </is>
-      </c>
-      <c r="E84" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>Programmer(ภูวเนตร)</t>
+        </is>
+      </c>
+      <c r="E84" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(พลกฤต)</t>
         </is>
       </c>
     </row>
@@ -3926,17 +3926,17 @@
       </c>
       <c r="C86" s="1" t="inlineStr">
         <is>
+          <t>Programmer(ภูวเนตร)</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
           <t>Service(นฤชิต)</t>
         </is>
       </c>
-      <c r="D86" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
-        </is>
-      </c>
-      <c r="E86" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
+      <c r="E86" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(พลกฤต)</t>
         </is>
       </c>
     </row>
@@ -3946,19 +3946,19 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C87" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
+      <c r="C87" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ราเชนทร์)</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>Service(สุเมธร์)</t>
         </is>
       </c>
       <c r="E87" s="1" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
+          <t>Programmer(ชานนท์)</t>
         </is>
       </c>
     </row>
@@ -3980,17 +3980,17 @@
       </c>
       <c r="C89" s="1" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="D89" s="1" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="E89" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
+          <t>Programmer(ปรมะ)</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>Service(จีรวัฒน์)</t>
+        </is>
+      </c>
+      <c r="E89" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ราเชนทร์)</t>
         </is>
       </c>
     </row>
@@ -4000,19 +4000,19 @@
           <t>ดึก (24.00-8.00)</t>
         </is>
       </c>
-      <c r="C90" s="2" t="inlineStr">
+      <c r="C90" s="1" t="inlineStr">
         <is>
           <t>Programmer(สัญญา)</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
+          <t>Service(ราเชน)</t>
         </is>
       </c>
       <c r="E90" s="1" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
+          <t>Programmer(รณยุทธ)</t>
         </is>
       </c>
     </row>
@@ -4032,19 +4032,19 @@
           <t>บ่าย (16.00-24.00)</t>
         </is>
       </c>
-      <c r="C92" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(พลกฤต)</t>
-        </is>
-      </c>
-      <c r="D92" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
+      <c r="C92" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(รณยุทธ)</t>
+        </is>
+      </c>
+      <c r="D92" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(ชานนท์)</t>
         </is>
       </c>
       <c r="E92" s="1" t="inlineStr">
         <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>Programmer(วินัย)</t>
         </is>
       </c>
     </row>
@@ -4056,17 +4056,17 @@
       </c>
       <c r="C93" s="1" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>Programmer(ภูวเนตร)</t>
         </is>
       </c>
       <c r="D93" s="1" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="E93" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>Programmer(สัญญา)</t>
+        </is>
+      </c>
+      <c r="E93" s="1" t="inlineStr">
+        <is>
+          <t>Programmer(วินัย)</t>
         </is>
       </c>
     </row>

--- a/sample3.xlsx
+++ b/sample3.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="18">
     <fill>
       <patternFill/>
     </fill>
@@ -41,8 +41,92 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="000E9691"/>
+        <bgColor rgb="000E9691"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00D3D3D3"/>
         <bgColor rgb="00D3D3D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AA19FE"/>
+        <bgColor rgb="00AA19FE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E45AE8"/>
+        <bgColor rgb="00E45AE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002391E7"/>
+        <bgColor rgb="002391E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F392F5"/>
+        <bgColor rgb="00F392F5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008C8B20"/>
+        <bgColor rgb="008C8B20"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004C2E7A"/>
+        <bgColor rgb="004C2E7A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003FBF6E"/>
+        <bgColor rgb="003FBF6E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006A361C"/>
+        <bgColor rgb="006A361C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CE5501"/>
+        <bgColor rgb="00CE5501"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003B55EB"/>
+        <bgColor rgb="003B55EB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A0F588"/>
+        <bgColor rgb="00A0F588"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0049E1D4"/>
+        <bgColor rgb="0049E1D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002EA76D"/>
+        <bgColor rgb="002EA76D"/>
       </patternFill>
     </fill>
   </fills>
@@ -58,10 +142,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -427,7 +525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W93"/>
+  <dimension ref="A1:W189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +539,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
@@ -463,37 +561,37 @@
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -503,17 +601,17 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -523,17 +621,17 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -545,22 +643,22 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
@@ -621,7 +719,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
@@ -679,22 +777,22 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
@@ -752,22 +850,22 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
@@ -828,7 +926,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
@@ -886,22 +984,22 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
@@ -959,22 +1057,22 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
@@ -1035,22 +1133,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
@@ -1108,22 +1206,22 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1152,13 +1250,13 @@
         <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
@@ -1169,34 +1267,34 @@
         <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>5</v>
       </c>
       <c r="W11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1208,47 +1306,47 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>6</v>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
         <v>4</v>
       </c>
-      <c r="J12" t="n">
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" t="n">
         <v>4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>8</v>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="S12" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="T12" t="n">
-        <v>1</v>
-      </c>
-      <c r="U12" t="n">
-        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>5</v>
       </c>
       <c r="W12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1257,22 +1355,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>Service(ราเชน)</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
-        </is>
-      </c>
-      <c r="E13" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1284,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
@@ -1318,34 +1416,34 @@
         <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>6</v>
       </c>
       <c r="W13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>Programmer(วินัย)</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1357,13 +1455,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
         <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
@@ -1371,54 +1469,54 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" t="n">
         <v>5</v>
       </c>
-      <c r="S14" s="2" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="T14" t="n">
-        <v>2</v>
-      </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>4</v>
       </c>
-      <c r="V14" t="n">
-        <v>5</v>
-      </c>
       <c r="W14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>Programmer(วินัย)</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1433,10 +1531,10 @@
         <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
@@ -1447,13 +1545,13 @@
         <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
@@ -1464,13 +1562,13 @@
         <v>1</v>
       </c>
       <c r="U15" t="n">
+        <v>6</v>
+      </c>
+      <c r="V15" t="n">
         <v>5</v>
       </c>
-      <c r="V15" t="n">
-        <v>4</v>
-      </c>
       <c r="W15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -1479,7 +1577,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1491,13 +1589,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
         <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
@@ -1505,7 +1603,7 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
         <v>1</v>
@@ -1514,7 +1612,7 @@
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
@@ -1522,59 +1620,59 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>5</v>
       </c>
       <c r="W16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
     </row>
@@ -1584,29 +1682,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>Service(นฤชิต)</t>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1628,37 +1726,37 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>Service(นฤชิต)</t>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E21" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1668,17 +1766,17 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -1688,17 +1786,17 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -1713,7 +1811,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
@@ -1742,10 +1840,10 @@
         <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>2</v>
@@ -1759,10 +1857,10 @@
         <v>1</v>
       </c>
       <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
         <v>2</v>
-      </c>
-      <c r="V22" t="n">
-        <v>3</v>
       </c>
       <c r="W22" t="n">
         <v>6</v>
@@ -1771,22 +1869,22 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
@@ -1812,10 +1910,10 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -1829,10 +1927,10 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
         <v>3</v>
@@ -1844,22 +1942,22 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
@@ -1885,13 +1983,13 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
         <v>2</v>
@@ -1902,13 +2000,13 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>3</v>
       </c>
       <c r="V24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W24" t="n">
         <v>6</v>
@@ -1920,7 +2018,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
@@ -1932,41 +2030,41 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
         <v>2</v>
       </c>
       <c r="K25" t="n">
+        <v>4</v>
+      </c>
+      <c r="M25" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>3</v>
-      </c>
-      <c r="M25" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>3</v>
-      </c>
-      <c r="S25" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="T25" t="n">
-        <v>1</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2</v>
       </c>
       <c r="V25" t="n">
         <v>3</v>
@@ -1978,22 +2076,22 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="E26" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
@@ -2019,10 +2117,10 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -2036,10 +2134,10 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
         <v>3</v>
@@ -2051,22 +2149,22 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="E27" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
@@ -2095,10 +2193,10 @@
         <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
         <v>2</v>
@@ -2112,10 +2210,10 @@
         <v>1</v>
       </c>
       <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
         <v>3</v>
-      </c>
-      <c r="V27" t="n">
-        <v>2</v>
       </c>
       <c r="W27" t="n">
         <v>6</v>
@@ -2127,7 +2225,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
@@ -2185,22 +2283,22 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>Service(นฤชิต)</t>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
-        </is>
-      </c>
-      <c r="E29" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
@@ -2226,13 +2324,13 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
         <v>2</v>
@@ -2243,13 +2341,13 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>3</v>
       </c>
       <c r="V29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W29" t="n">
         <v>6</v>
@@ -2258,22 +2356,22 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>Service(นฤชิต)</t>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
-        </is>
-      </c>
-      <c r="E30" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -2299,7 +2397,7 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2308,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
@@ -2316,7 +2414,7 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" t="n">
         <v>1</v>
@@ -2325,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="W30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -2334,22 +2432,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -2361,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
@@ -2375,16 +2473,16 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
@@ -2392,7 +2490,7 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" t="n">
         <v>2</v>
@@ -2401,28 +2499,28 @@
         <v>2</v>
       </c>
       <c r="W31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>Service(จีรวัฒน์)</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>Service(ราเชน)</t>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -2448,7 +2546,7 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2457,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
@@ -2465,7 +2563,7 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32" t="n">
         <v>1</v>
@@ -2474,28 +2572,28 @@
         <v>1</v>
       </c>
       <c r="W32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Service(จีรวัฒน์)</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>Service(ราเชน)</t>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E33" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -2507,30 +2605,30 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
         <v>2</v>
       </c>
-      <c r="J33" t="n">
-        <v>2</v>
-      </c>
-      <c r="K33" t="n">
-        <v>4</v>
-      </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
@@ -2538,7 +2636,7 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" t="n">
         <v>2</v>
@@ -2547,7 +2645,7 @@
         <v>2</v>
       </c>
       <c r="W33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -2556,22 +2654,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="E34" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -2600,51 +2698,51 @@
         <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>1</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1</v>
+      </c>
+      <c r="W34" t="n">
         <v>3</v>
-      </c>
-      <c r="S34" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="T34" t="n">
-        <v>1</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2</v>
-      </c>
-      <c r="V34" t="n">
-        <v>2</v>
-      </c>
-      <c r="W34" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(พลกฤต)</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E35" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -2656,68 +2754,68 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
         <v>2</v>
       </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>1</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1</v>
+      </c>
+      <c r="W35" t="n">
         <v>3</v>
-      </c>
-      <c r="M35" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2</v>
-      </c>
-      <c r="S35" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>3</v>
-      </c>
-      <c r="V35" t="n">
-        <v>2</v>
-      </c>
-      <c r="W35" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(พลกฤต)</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E36" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
     </row>
@@ -2727,7 +2825,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2739,22 +2837,22 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>Service(นฤชิต)</t>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2781,22 +2879,22 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>Service(นฤชิต)</t>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
@@ -2823,7 +2921,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr">
@@ -2847,22 +2945,22 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>Service(ราเชน)</t>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="E41" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="G41" s="1" t="inlineStr">
@@ -2886,22 +2984,22 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>Service(ราเชน)</t>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="G42" s="1" t="inlineStr">
@@ -2913,10 +3011,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J42" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K42" t="n">
         <v>15</v>
@@ -2928,7 +3026,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="G43" s="1" t="inlineStr">
@@ -2952,22 +3050,22 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E44" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="G44" s="1" t="inlineStr">
@@ -2991,22 +3089,22 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
-        </is>
-      </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="G45" s="1" t="inlineStr">
@@ -3033,7 +3131,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="G46" s="1" t="inlineStr">
@@ -3057,22 +3155,22 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
@@ -3096,22 +3194,22 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
-        </is>
-      </c>
-      <c r="E48" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
@@ -3138,7 +3236,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
@@ -3150,10 +3248,10 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K49" t="n">
         <v>15</v>
@@ -3162,22 +3260,22 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E50" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
@@ -3189,10 +3287,10 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J50" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K50" t="n">
         <v>15</v>
@@ -3201,22 +3299,22 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E51" s="1" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
@@ -3228,10 +3326,10 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J51" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K51" t="n">
         <v>15</v>
@@ -3243,22 +3341,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>Service(จีรวัฒน์)</t>
-        </is>
-      </c>
-      <c r="E52" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
@@ -3282,44 +3380,44 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>Service(นฤชิต)</t>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
-        </is>
-      </c>
-      <c r="E54" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
     </row>
@@ -3329,66 +3427,66 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E55" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>สัญญา</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="E56" s="1" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
-        </is>
-      </c>
-      <c r="E57" s="2" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E57" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
     </row>
@@ -3398,51 +3496,51 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="E59" s="1" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>ปรมะ</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="E60" s="2" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E60" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
     </row>
@@ -3452,51 +3550,51 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C62" s="2" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C62" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="E62" s="1" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>วินัย</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C63" s="2" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="D63" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
-        </is>
-      </c>
-      <c r="E63" s="2" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C63" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E63" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
     </row>
@@ -3506,51 +3604,51 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
-        </is>
-      </c>
-      <c r="E65" s="2" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E65" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="D66" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="E66" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
     </row>
@@ -3560,51 +3658,51 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C68" s="2" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="D68" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
-        </is>
-      </c>
-      <c r="E68" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C68" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C69" s="2" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="D69" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
-        </is>
-      </c>
-      <c r="E69" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C69" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
     </row>
@@ -3614,51 +3712,51 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C71" s="2" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="D71" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
-        </is>
-      </c>
-      <c r="E71" s="2" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E71" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
-          <t>Programmer(วินัย)</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>Service(จีรวัฒน์)</t>
-        </is>
-      </c>
-      <c r="E72" s="2" t="inlineStr">
-        <is>
-          <t>Service(นฤชิต)</t>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E72" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
         </is>
       </c>
     </row>
@@ -3668,66 +3766,66 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="C73" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="E73" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C74" s="2" t="inlineStr">
-        <is>
-          <t>Service(ราเชน)</t>
-        </is>
-      </c>
-      <c r="D74" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C74" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="E74" s="1" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C75" s="2" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
-        </is>
-      </c>
-      <c r="D75" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="E75" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
     </row>
@@ -3737,66 +3835,66 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="C76" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
-        </is>
-      </c>
-      <c r="E76" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E77" s="1" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C78" s="2" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="D78" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C78" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E78" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>สัญญา</t>
         </is>
       </c>
     </row>
@@ -3806,51 +3904,51 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C80" s="1" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E80" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C81" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="E81" s="2" t="inlineStr">
-        <is>
-          <t>Service(ราเชน)</t>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E81" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
         </is>
       </c>
     </row>
@@ -3860,51 +3958,51 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C83" s="1" t="inlineStr">
         <is>
-          <t>Programmer(วินัย)</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
+          <t>นฤชิต</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C84" s="2" t="inlineStr">
-        <is>
-          <t>Service(นฤชิต)</t>
-        </is>
-      </c>
-      <c r="D84" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C84" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="E84" s="1" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
     </row>
@@ -3914,51 +4012,51 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C86" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="E86" s="1" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C87" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="E87" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
     </row>
@@ -3968,51 +4066,51 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C89" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="E89" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>ชานนท์</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C90" s="1" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="E90" s="1" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>ชานนท์</t>
         </is>
       </c>
     </row>
@@ -4022,51 +4120,1845 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C92" s="1" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="D92" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
-        </is>
-      </c>
-      <c r="E92" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C93" s="1" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D93" s="1" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="E93" s="1" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D98" s="4" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E98" s="5" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D99" s="4" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E99" s="5" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>2</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C101" s="6" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D101" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E101" s="8" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C102" s="6" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D102" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E102" s="8" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>3</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C104" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D104" s="9" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E104" s="10" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D105" s="9" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E105" s="10" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>4</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C106" s="11" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D106" s="12" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E106" s="4" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C107" s="13" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D107" s="14" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E107" s="15" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C108" s="13" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D108" s="14" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E108" s="15" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>5</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C109" s="8" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D109" s="9" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E109" s="5" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C110" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D110" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E110" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C111" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D111" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E111" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>6</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C113" s="11" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D113" s="14" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E113" s="6" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C114" s="11" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D114" s="14" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E114" s="6" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>7</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C116" s="13" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D116" s="12" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E116" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C117" s="13" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D117" s="12" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E117" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>8</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C119" s="15" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D119" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E119" s="8" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C120" s="15" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D120" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E120" s="8" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>9</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C122" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D122" s="5" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E122" s="12" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D123" s="5" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E123" s="12" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>10</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C125" s="10" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D125" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E125" s="14" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C126" s="10" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D126" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E126" s="14" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>11</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C127" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D127" s="5" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E127" s="11" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C128" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D128" s="4" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E128" s="8" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C129" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D129" s="4" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E129" s="8" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>12</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C130" s="6" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D130" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E130" s="9" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C131" s="15" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D131" s="12" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E131" s="10" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C132" s="15" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D132" s="12" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E132" s="10" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>13</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C134" s="13" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D134" s="5" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E134" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C135" s="13" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D135" s="5" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E135" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>14</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C137" s="11" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D137" s="4" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E137" s="15" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C138" s="11" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D138" s="4" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E138" s="15" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>15</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C140" s="10" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D140" s="14" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E140" s="6" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C141" s="10" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D141" s="14" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E141" s="6" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>16</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C143" s="8" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D143" s="12" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E143" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C144" s="8" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D144" s="12" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E144" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>17</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C146" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D146" s="14" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E146" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C147" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D147" s="14" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E147" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>18</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C148" s="13" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D148" s="12" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E148" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C149" s="11" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D149" s="5" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E149" s="4" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C150" s="11" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D150" s="5" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E150" s="4" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>19</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C151" s="15" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D151" s="14" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E151" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C152" s="10" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D152" s="9" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E152" s="6" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C153" s="10" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D153" s="9" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E153" s="6" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>20</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C155" s="11" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D155" s="12" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E155" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C156" s="11" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D156" s="12" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E156" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>21</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C158" s="8" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D158" s="5" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E158" s="10" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C159" s="8" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D159" s="5" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E159" s="10" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>22</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C161" s="6" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D161" s="9" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E161" s="13" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C162" s="6" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D162" s="9" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E162" s="13" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>23</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C164" s="15" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D164" s="4" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E164" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C165" s="15" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D165" s="4" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E165" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>24</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C167" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D167" s="12" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E167" s="11" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C168" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D168" s="12" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E168" s="11" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>25</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C169" s="10" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D169" s="5" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E169" s="14" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C170" s="8" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D170" s="9" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E170" s="13" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C171" s="8" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D171" s="9" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E171" s="13" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>26</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C172" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D172" s="4" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E172" s="12" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C173" s="6" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D173" s="14" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E173" s="11" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C174" s="6" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D174" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E174" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>27</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C176" s="10" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D176" s="14" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E176" s="13" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C177" s="10" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D177" s="9" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E177" s="11" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>28</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C179" s="13" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D179" s="4" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E179" s="9" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C180" s="8" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D180" s="5" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E180" s="13" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>29</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C182" s="15" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D182" s="9" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E182" s="11" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C183" s="6" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D183" s="14" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E183" s="9" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>30</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C185" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D185" s="5" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E185" s="15" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C186" s="13" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D186" s="9" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E186" s="15" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>31</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C188" s="6" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D188" s="8" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="E188" s="4" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C189" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D189" s="15" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="E189" s="4" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
     </row>

--- a/sample3.xlsx
+++ b/sample3.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill/>
     </fill>
@@ -41,8 +41,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="000E9691"/>
-        <bgColor rgb="000E9691"/>
+        <fgColor rgb="00A2BE18"/>
+        <bgColor rgb="00A2BE18"/>
       </patternFill>
     </fill>
     <fill>
@@ -53,80 +53,86 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00AA19FE"/>
-        <bgColor rgb="00AA19FE"/>
+        <fgColor rgb="00FE90A0"/>
+        <bgColor rgb="00FE90A0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E45AE8"/>
-        <bgColor rgb="00E45AE8"/>
+        <fgColor rgb="001021E1"/>
+        <bgColor rgb="001021E1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="002391E7"/>
-        <bgColor rgb="002391E7"/>
+        <fgColor rgb="00F1E4B3"/>
+        <bgColor rgb="00F1E4B3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F392F5"/>
-        <bgColor rgb="00F392F5"/>
+        <fgColor rgb="006F45EF"/>
+        <bgColor rgb="006F45EF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="008C8B20"/>
-        <bgColor rgb="008C8B20"/>
+        <fgColor rgb="0033AFC0"/>
+        <bgColor rgb="0033AFC0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004C2E7A"/>
-        <bgColor rgb="004C2E7A"/>
+        <fgColor rgb="00285961"/>
+        <bgColor rgb="00285961"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="003FBF6E"/>
-        <bgColor rgb="003FBF6E"/>
+        <fgColor rgb="00A6F103"/>
+        <bgColor rgb="00A6F103"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="006A361C"/>
-        <bgColor rgb="006A361C"/>
+        <fgColor rgb="007193A3"/>
+        <bgColor rgb="007193A3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CE5501"/>
-        <bgColor rgb="00CE5501"/>
+        <fgColor rgb="00FF6B6B"/>
+        <bgColor rgb="00FF6B6B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="003B55EB"/>
-        <bgColor rgb="003B55EB"/>
+        <fgColor rgb="003550B8"/>
+        <bgColor rgb="003550B8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A0F588"/>
-        <bgColor rgb="00A0F588"/>
+        <fgColor rgb="001235E5"/>
+        <bgColor rgb="001235E5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0049E1D4"/>
-        <bgColor rgb="0049E1D4"/>
+        <fgColor rgb="00313DF0"/>
+        <bgColor rgb="00313DF0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="002EA76D"/>
-        <bgColor rgb="002EA76D"/>
+        <fgColor rgb="009F1AEE"/>
+        <bgColor rgb="009F1AEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00000905"/>
+        <bgColor rgb="00000905"/>
       </patternFill>
     </fill>
   </fills>
@@ -142,10 +148,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -155,11 +162,11 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -534,8 +541,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>1</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
@@ -566,17 +575,17 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -648,17 +657,17 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
@@ -714,8 +723,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -782,17 +793,17 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
@@ -855,17 +866,17 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
@@ -921,8 +932,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -989,17 +1002,17 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
@@ -1062,17 +1075,17 @@
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
@@ -1128,8 +1141,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>4*</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1138,17 +1153,17 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
           <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
@@ -1211,17 +1226,17 @@
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1233,13 +1248,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
@@ -1247,13 +1262,13 @@
         </is>
       </c>
       <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
         <v>2</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>4</v>
@@ -1264,16 +1279,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -1284,17 +1299,17 @@
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1320,13 +1335,13 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>4</v>
@@ -1337,21 +1352,23 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U12" t="n">
         <v>4</v>
       </c>
       <c r="V12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W12" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>5*</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1360,17 +1377,17 @@
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1382,13 +1399,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
@@ -1399,13 +1416,13 @@
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
@@ -1419,10 +1436,10 @@
         <v>5</v>
       </c>
       <c r="V13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -1433,17 +1450,17 @@
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
           <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1458,10 +1475,10 @@
         <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
@@ -1472,13 +1489,13 @@
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
@@ -1489,13 +1506,13 @@
         <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W14" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -1506,17 +1523,17 @@
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="inlineStr">
+        <is>
           <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E15" s="1" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1572,8 +1589,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>6</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1592,10 +1611,10 @@
         <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
@@ -1626,10 +1645,10 @@
         <v>5</v>
       </c>
       <c r="V16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -1645,12 +1664,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
     </row>
@@ -1667,22 +1686,99 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>วันทำการ โรงพยาบาลเด็ก</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>วันหยุด โรงพยาบาลเด็ก</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>รวมโรงพยาบาลเด็ก</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>7</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>รวม</t>
         </is>
       </c>
     </row>
@@ -1694,33 +1790,69 @@
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E20" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>วันทำการ โรงพยาบาลเด็ก</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>วันหยุด โรงพยาบาลเด็ก</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>รวมโรงพยาบาลเด็ก</t>
-        </is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="G20" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4</v>
+      </c>
+      <c r="M20" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3</v>
+      </c>
+      <c r="W20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1731,92 +1863,85 @@
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E21" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="G21" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4</v>
+      </c>
+      <c r="M21" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2</v>
+      </c>
+      <c r="W21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>24:00-8:00</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>รวม</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>24:00-8:00</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>รวม</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>24:00-8:00</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>รวม</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>8</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1826,14 +1951,14 @@
         <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22" s="1" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -1843,14 +1968,14 @@
         <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S22" s="1" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="T22" t="n">
@@ -1874,22 +1999,22 @@
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="G23" s="1" t="inlineStr">
+        <is>
           <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E23" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="G23" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1899,18 +2024,18 @@
         <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M23" s="1" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>1</v>
@@ -1919,21 +2044,21 @@
         <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S23" s="1" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
         <v>3</v>
       </c>
       <c r="V23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W23" t="n">
         <v>6</v>
@@ -1947,7 +2072,7 @@
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -1957,12 +2082,12 @@
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1979,14 +2104,14 @@
       </c>
       <c r="M24" s="1" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
         <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -1996,14 +2121,14 @@
       </c>
       <c r="S24" s="1" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
         <v>3</v>
@@ -2013,8 +2138,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>9</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2023,7 +2150,7 @@
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -2040,7 +2167,7 @@
       </c>
       <c r="M25" s="1" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -2057,7 +2184,7 @@
       </c>
       <c r="S25" s="1" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="T25" t="n">
@@ -2086,17 +2213,17 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -2113,7 +2240,7 @@
       </c>
       <c r="M26" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -2130,7 +2257,7 @@
       </c>
       <c r="S26" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="T26" t="n">
@@ -2159,17 +2286,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -2186,14 +2313,14 @@
       </c>
       <c r="M27" s="1" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -2203,14 +2330,14 @@
       </c>
       <c r="S27" s="1" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
         <v>3</v>
@@ -2220,64 +2347,66 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>10</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
         <v>2</v>
       </c>
       <c r="K28" t="n">
+        <v>3</v>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2</v>
+      </c>
+      <c r="W28" t="n">
         <v>4</v>
-      </c>
-      <c r="M28" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
-      <c r="S28" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>3</v>
-      </c>
-      <c r="V28" t="n">
-        <v>3</v>
-      </c>
-      <c r="W28" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -2288,22 +2417,22 @@
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>วินัย</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
           <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="G29" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -2318,39 +2447,39 @@
       <c r="K29" t="n">
         <v>4</v>
       </c>
-      <c r="M29" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="N29" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" t="n">
         <v>0</v>
       </c>
-      <c r="O29" t="n">
-        <v>1</v>
-      </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="T29" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" t="n">
         <v>2</v>
       </c>
-      <c r="S29" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>3</v>
-      </c>
       <c r="V29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -2361,12 +2490,12 @@
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>วินัย</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
@@ -2376,7 +2505,7 @@
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -2393,42 +2522,44 @@
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
         <v>0</v>
       </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1</v>
-      </c>
-      <c r="S30" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="T30" t="n">
-        <v>1</v>
-      </c>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>11</v>
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>11*</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2442,38 +2573,38 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
         <v>2</v>
       </c>
-      <c r="J31" t="n">
-        <v>2</v>
-      </c>
-      <c r="K31" t="n">
-        <v>4</v>
-      </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2482,24 +2613,24 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W31" t="n">
         <v>2</v>
-      </c>
-      <c r="V31" t="n">
-        <v>2</v>
-      </c>
-      <c r="W31" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -2510,7 +2641,7 @@
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
@@ -2520,12 +2651,12 @@
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -2542,7 +2673,7 @@
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="N32" t="n">
@@ -2559,7 +2690,7 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="T32" t="n">
@@ -2583,7 +2714,7 @@
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
@@ -2593,12 +2724,12 @@
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -2608,49 +2739,51 @@
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="N33" t="n">
         <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="T33" t="n">
         <v>1</v>
       </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V33" t="n">
         <v>2</v>
       </c>
       <c r="W33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>12</v>
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>12*</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2664,64 +2797,13 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
           <t>สุเมธร์</t>
         </is>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2</v>
-      </c>
-      <c r="M34" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1</v>
-      </c>
-      <c r="S34" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="T34" t="n">
-        <v>1</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1</v>
-      </c>
-      <c r="W34" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -2732,69 +2814,18 @@
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>นที</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>2</v>
-      </c>
-      <c r="M35" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1</v>
-      </c>
-      <c r="S35" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="T35" t="n">
-        <v>1</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1</v>
-      </c>
-      <c r="W35" t="n">
-        <v>3</v>
+          <t>พลกฤต</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -2805,32 +2836,54 @@
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>นที</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr">
         <is>
-          <t>วินัย</t>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>สรุป</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>13</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>08:00-16:00</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>วันหยุดชดเชย</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>สรุป</t>
+          <t>วันหยุด</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>วันทำการ</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>รวม</t>
         </is>
       </c>
     </row>
@@ -2842,38 +2895,35 @@
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>วันหยุดชดเชย</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>วันหยุด</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>วันทำการ</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>รวม</t>
-        </is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="G38" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>5</v>
+      </c>
+      <c r="J38" t="n">
+        <v>10</v>
+      </c>
+      <c r="K38" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -2884,22 +2934,22 @@
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -2916,8 +2966,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>14</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2926,17 +2978,17 @@
       </c>
       <c r="G40" s="1" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J40" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K40" t="n">
         <v>15</v>
@@ -2950,32 +3002,32 @@
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="E41" s="1" t="inlineStr">
         <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="G41" s="1" t="inlineStr">
+        <is>
           <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="G41" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
         </is>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J41" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K41" t="n">
         <v>15</v>
@@ -2989,22 +3041,22 @@
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="G42" s="1" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -3021,8 +3073,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>15</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3031,7 +3085,7 @@
       </c>
       <c r="G43" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -3060,17 +3114,17 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E44" s="1" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="G44" s="1" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -3099,17 +3153,17 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E45" s="1" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="G45" s="1" t="inlineStr">
         <is>
-          <t>วินัย</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -3126,17 +3180,19 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>16</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -3160,22 +3216,22 @@
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E47" s="2" t="inlineStr">
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E47" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
         <is>
           <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="G47" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -3199,22 +3255,22 @@
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E48" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -3231,8 +3287,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>17</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3241,17 +3299,17 @@
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K49" t="n">
         <v>15</v>
@@ -3265,32 +3323,32 @@
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
           <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E50" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J50" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K50" t="n">
         <v>15</v>
@@ -3304,22 +3362,22 @@
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E51" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -3336,8 +3394,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>18</v>
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>18*</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3346,35 +3406,18 @@
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>นที</t>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
-      </c>
-      <c r="G52" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>5</v>
-      </c>
-      <c r="J52" t="n">
-        <v>10</v>
-      </c>
-      <c r="K52" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="53">
@@ -3385,17 +3428,17 @@
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E53" s="1" t="inlineStr">
+        <is>
           <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E53" s="2" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
         </is>
       </c>
     </row>
@@ -3407,42 +3450,44 @@
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E54" s="1" t="inlineStr">
+        <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="D54" s="2" t="inlineStr">
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>19*</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>19</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E55" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
         </is>
       </c>
     </row>
@@ -3454,17 +3499,17 @@
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E56" s="1" t="inlineStr">
+        <is>
           <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E56" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
         </is>
       </c>
     </row>
@@ -3476,23 +3521,25 @@
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E57" s="1" t="inlineStr">
+        <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="D57" s="2" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E57" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>20</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -3508,17 +3555,17 @@
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>นที</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E59" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
     </row>
@@ -3530,23 +3577,25 @@
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>นที</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E60" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>21</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3562,7 +3611,7 @@
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
@@ -3570,9 +3619,9 @@
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
     </row>
@@ -3584,7 +3633,7 @@
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
@@ -3592,15 +3641,17 @@
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="E63" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>22</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -3616,17 +3667,17 @@
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E65" s="1" t="inlineStr">
+        <is>
           <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E65" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
         </is>
       </c>
     </row>
@@ -3638,23 +3689,25 @@
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E66" s="1" t="inlineStr">
+        <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="D66" s="2" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E66" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>23</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3670,12 +3723,12 @@
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
@@ -3692,12 +3745,12 @@
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
@@ -3707,8 +3760,10 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>24</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3724,17 +3779,17 @@
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>นที</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E71" s="1" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>พลกฤต</t>
         </is>
       </c>
     </row>
@@ -3746,42 +3801,44 @@
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E72" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>25*</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E73" s="1" t="inlineStr">
+        <is>
           <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E72" s="1" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>25</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="C73" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D73" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E73" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3850,7 @@
       </c>
       <c r="C74" s="1" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
@@ -3803,7 +3860,7 @@
       </c>
       <c r="E74" s="1" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>ชานนท์</t>
         </is>
       </c>
     </row>
@@ -3815,7 +3872,7 @@
       </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
@@ -3825,13 +3882,15 @@
       </c>
       <c r="E75" s="1" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>ชานนท์</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>26</v>
+      <c r="A76" s="3" t="inlineStr">
+        <is>
+          <t>26*</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -3840,12 +3899,12 @@
       </c>
       <c r="C76" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
@@ -3862,17 +3921,17 @@
       </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E77" s="1" t="inlineStr">
+        <is>
           <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D77" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E77" s="1" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
         </is>
       </c>
     </row>
@@ -3884,23 +3943,25 @@
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="E78" s="1" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>ปรมะ</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>27</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -3916,17 +3977,17 @@
       </c>
       <c r="C80" s="1" t="inlineStr">
         <is>
-          <t>วินัย</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="E80" s="1" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>ชานนท์</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3999,7 @@
       </c>
       <c r="C81" s="1" t="inlineStr">
         <is>
-          <t>วินัย</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
@@ -3953,8 +4014,10 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>28</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3970,17 +4033,17 @@
       </c>
       <c r="C83" s="1" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E83" s="2" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E83" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
     </row>
@@ -3992,7 +4055,7 @@
       </c>
       <c r="C84" s="1" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
@@ -4000,15 +4063,17 @@
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="E84" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>29</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -4056,13 +4121,15 @@
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>30</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -4078,17 +4145,17 @@
       </c>
       <c r="C89" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E89" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
     </row>
@@ -4100,23 +4167,25 @@
       </c>
       <c r="C90" s="1" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="E90" s="1" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>สัญญา</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>31</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -4137,12 +4206,12 @@
       </c>
       <c r="D92" s="1" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="E92" s="2" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="E92" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
     </row>
@@ -4154,12 +4223,12 @@
       </c>
       <c r="C93" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="D93" s="1" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
@@ -4169,8 +4238,10 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>1</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -4184,19 +4255,34 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C98" s="3" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="D98" s="4" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E98" s="5" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+      <c r="C98" s="4" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D98" s="5" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E98" s="6" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>วันทำการ</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>วันหยุด</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>รวมโรงพยาบาลหลัก</t>
         </is>
       </c>
     </row>
@@ -4206,30 +4292,152 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C99" s="3" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="D99" s="4" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E99" s="5" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+      <c r="C99" s="4" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D99" s="5" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E99" s="6" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>รวม</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>2</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>08:00-16:00</t>
         </is>
+      </c>
+      <c r="G100" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100">
+        <f>COUNTIF($C$98:$D$98,"ภูวเนตร")+COUNTIF($C$101:$D$101,"ภูวเนตร")+COUNTIF($C$104:$D$104,"ภูวเนตร")+COUNTIF($C$113:$D$113,"ภูวเนตร")+COUNTIF($C$116:$D$116,"ภูวเนตร")+COUNTIF($C$119:$D$119,"ภูวเนตร")+COUNTIF($C$122:$D$122,"ภูวเนตร")+COUNTIF($C$125:$D$125,"ภูวเนตร")+COUNTIF($C$134:$D$134,"ภูวเนตร")+COUNTIF($C$137:$D$137,"ภูวเนตร")+COUNTIF($C$140:$D$140,"ภูวเนตร")+COUNTIF($C$143:$D$143,"ภูวเนตร")+COUNTIF($C$146:$D$146,"ภูวเนตร")+COUNTIF($C$155:$D$155,"ภูวเนตร")+COUNTIF($C$158:$D$158,"ภูวเนตร")+COUNTIF($C$161:$D$161,"ภูวเนตร")+COUNTIF($C$164:$D$164,"ภูวเนตร")+COUNTIF($C$167:$D$167,"ภูวเนตร")+COUNTIF($C$176:$D$176,"ภูวเนตร")+COUNTIF($C$179:$D$179,"ภูวเนตร")+COUNTIF($C$182:$D$182,"ภูวเนตร")+COUNTIF($C$185:$D$185,"ภูวเนตร")+COUNTIF($C$188:$D$188,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="J100">
+        <f>COUNTIF($C$99:$D$99,"ภูวเนตร")+COUNTIF($C$102:$D$102,"ภูวเนตร")+COUNTIF($C$105:$D$105,"ภูวเนตร")+COUNTIF($C$114:$D$114,"ภูวเนตร")+COUNTIF($C$117:$D$117,"ภูวเนตร")+COUNTIF($C$120:$D$120,"ภูวเนตร")+COUNTIF($C$123:$D$123,"ภูวเนตร")+COUNTIF($C$126:$D$126,"ภูวเนตร")+COUNTIF($C$135:$D$135,"ภูวเนตร")+COUNTIF($C$138:$D$138,"ภูวเนตร")+COUNTIF($C$141:$D$141,"ภูวเนตร")+COUNTIF($C$144:$D$144,"ภูวเนตร")+COUNTIF($C$147:$D$147,"ภูวเนตร")+COUNTIF($C$156:$D$156,"ภูวเนตร")+COUNTIF($C$159:$D$159,"ภูวเนตร")+COUNTIF($C$162:$D$162,"ภูวเนตร")+COUNTIF($C$165:$D$165,"ภูวเนตร")+COUNTIF($C$168:$D$168,"ภูวเนตร")+COUNTIF($C$177:$D$177,"ภูวเนตร")+COUNTIF($C$180:$D$180,"ภูวเนตร")+COUNTIF($C$183:$D$183,"ภูวเนตร")+COUNTIF($C$186:$D$186,"ภูวเนตร")+COUNTIF($C$189:$D$189,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="K100">
+        <f>SUM(H100:J100)</f>
+        <v/>
+      </c>
+      <c r="M100" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="N100">
+        <f>COUNTIF($C$106:$D$106,"ภูวเนตร")+COUNTIF($C$109:$D$109,"ภูวเนตร")+COUNTIF($C$127:$D$127,"ภูวเนตร")+COUNTIF($C$130:$D$130,"ภูวเนตร")+COUNTIF($C$148:$D$148,"ภูวเนตร")+COUNTIF($C$151:$D$151,"ภูวเนตร")+COUNTIF($C$169:$D$169,"ภูวเนตร")+COUNTIF($C$172:$D$172,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="O100">
+        <f>COUNTIF($C$107:$D$107,"ภูวเนตร")+COUNTIF($C$110:$D$110,"ภูวเนตร")+COUNTIF($C$128:$D$128,"ภูวเนตร")+COUNTIF($C$131:$D$131,"ภูวเนตร")+COUNTIF($C$149:$D$149,"ภูวเนตร")+COUNTIF($C$152:$D$152,"ภูวเนตร")+COUNTIF($C$170:$D$170,"ภูวเนตร")+COUNTIF($C$173:$D$173,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="P100">
+        <f>COUNTIF($C$108:$D$108,"ภูวเนตร")+COUNTIF($C$111:$D$111,"ภูวเนตร")+COUNTIF($C$129:$D$129,"ภูวเนตร")+COUNTIF($C$132:$D$132,"ภูวเนตร")+COUNTIF($C$150:$D$150,"ภูวเนตร")+COUNTIF($C$153:$D$153,"ภูวเนตร")+COUNTIF($C$171:$D$171,"ภูวเนตร")+COUNTIF($C$174:$D$174,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="Q100">
+        <f>SUM(N100:P100)</f>
+        <v/>
+      </c>
+      <c r="S100" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="T100">
+        <f>SUM(H100,N100)</f>
+        <v/>
+      </c>
+      <c r="U100">
+        <f>SUM(I100,O100)</f>
+        <v/>
+      </c>
+      <c r="V100">
+        <f>SUM(J100,P100)</f>
+        <v/>
+      </c>
+      <c r="W100">
+        <f>SUM(K100,Q100)</f>
+        <v/>
       </c>
     </row>
     <row r="101">
@@ -4238,20 +4446,80 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C101" s="6" t="inlineStr">
+      <c r="C101" s="7" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D101" s="8" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E101" s="9" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="G101" s="1" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="D101" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E101" s="8" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101">
+        <f>COUNTIF($C$98:$D$98,"ราเชนทร์")+COUNTIF($C$101:$D$101,"ราเชนทร์")+COUNTIF($C$104:$D$104,"ราเชนทร์")+COUNTIF($C$113:$D$113,"ราเชนทร์")+COUNTIF($C$116:$D$116,"ราเชนทร์")+COUNTIF($C$119:$D$119,"ราเชนทร์")+COUNTIF($C$122:$D$122,"ราเชนทร์")+COUNTIF($C$125:$D$125,"ราเชนทร์")+COUNTIF($C$134:$D$134,"ราเชนทร์")+COUNTIF($C$137:$D$137,"ราเชนทร์")+COUNTIF($C$140:$D$140,"ราเชนทร์")+COUNTIF($C$143:$D$143,"ราเชนทร์")+COUNTIF($C$146:$D$146,"ราเชนทร์")+COUNTIF($C$155:$D$155,"ราเชนทร์")+COUNTIF($C$158:$D$158,"ราเชนทร์")+COUNTIF($C$161:$D$161,"ราเชนทร์")+COUNTIF($C$164:$D$164,"ราเชนทร์")+COUNTIF($C$167:$D$167,"ราเชนทร์")+COUNTIF($C$176:$D$176,"ราเชนทร์")+COUNTIF($C$179:$D$179,"ราเชนทร์")+COUNTIF($C$182:$D$182,"ราเชนทร์")+COUNTIF($C$185:$D$185,"ราเชนทร์")+COUNTIF($C$188:$D$188,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="J101">
+        <f>COUNTIF($C$99:$D$99,"ราเชนทร์")+COUNTIF($C$102:$D$102,"ราเชนทร์")+COUNTIF($C$105:$D$105,"ราเชนทร์")+COUNTIF($C$114:$D$114,"ราเชนทร์")+COUNTIF($C$117:$D$117,"ราเชนทร์")+COUNTIF($C$120:$D$120,"ราเชนทร์")+COUNTIF($C$123:$D$123,"ราเชนทร์")+COUNTIF($C$126:$D$126,"ราเชนทร์")+COUNTIF($C$135:$D$135,"ราเชนทร์")+COUNTIF($C$138:$D$138,"ราเชนทร์")+COUNTIF($C$141:$D$141,"ราเชนทร์")+COUNTIF($C$144:$D$144,"ราเชนทร์")+COUNTIF($C$147:$D$147,"ราเชนทร์")+COUNTIF($C$156:$D$156,"ราเชนทร์")+COUNTIF($C$159:$D$159,"ราเชนทร์")+COUNTIF($C$162:$D$162,"ราเชนทร์")+COUNTIF($C$165:$D$165,"ราเชนทร์")+COUNTIF($C$168:$D$168,"ราเชนทร์")+COUNTIF($C$177:$D$177,"ราเชนทร์")+COUNTIF($C$180:$D$180,"ราเชนทร์")+COUNTIF($C$183:$D$183,"ราเชนทร์")+COUNTIF($C$186:$D$186,"ราเชนทร์")+COUNTIF($C$189:$D$189,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="K101">
+        <f>SUM(H101:J101)</f>
+        <v/>
+      </c>
+      <c r="M101" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="N101">
+        <f>COUNTIF($C$106:$D$106,"ราเชนทร์")+COUNTIF($C$109:$D$109,"ราเชนทร์")+COUNTIF($C$127:$D$127,"ราเชนทร์")+COUNTIF($C$130:$D$130,"ราเชนทร์")+COUNTIF($C$148:$D$148,"ราเชนทร์")+COUNTIF($C$151:$D$151,"ราเชนทร์")+COUNTIF($C$169:$D$169,"ราเชนทร์")+COUNTIF($C$172:$D$172,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="O101">
+        <f>COUNTIF($C$107:$D$107,"ราเชนทร์")+COUNTIF($C$110:$D$110,"ราเชนทร์")+COUNTIF($C$128:$D$128,"ราเชนทร์")+COUNTIF($C$131:$D$131,"ราเชนทร์")+COUNTIF($C$149:$D$149,"ราเชนทร์")+COUNTIF($C$152:$D$152,"ราเชนทร์")+COUNTIF($C$170:$D$170,"ราเชนทร์")+COUNTIF($C$173:$D$173,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="P101">
+        <f>COUNTIF($C$108:$D$108,"ราเชนทร์")+COUNTIF($C$111:$D$111,"ราเชนทร์")+COUNTIF($C$129:$D$129,"ราเชนทร์")+COUNTIF($C$132:$D$132,"ราเชนทร์")+COUNTIF($C$150:$D$150,"ราเชนทร์")+COUNTIF($C$153:$D$153,"ราเชนทร์")+COUNTIF($C$171:$D$171,"ราเชนทร์")+COUNTIF($C$174:$D$174,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="Q101">
+        <f>SUM(N101:P101)</f>
+        <v/>
+      </c>
+      <c r="S101" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="T101">
+        <f>SUM(H101,N101)</f>
+        <v/>
+      </c>
+      <c r="U101">
+        <f>SUM(I101,O101)</f>
+        <v/>
+      </c>
+      <c r="V101">
+        <f>SUM(J101,P101)</f>
+        <v/>
+      </c>
+      <c r="W101">
+        <f>SUM(K101,Q101)</f>
+        <v/>
       </c>
     </row>
     <row r="102">
@@ -4260,30 +4528,152 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C102" s="6" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D102" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E102" s="8" t="inlineStr">
+      <c r="C102" s="7" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D102" s="8" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E102" s="9" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="G102" s="1" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102">
+        <f>COUNTIF($C$98:$D$98,"พลกฤต")+COUNTIF($C$101:$D$101,"พลกฤต")+COUNTIF($C$104:$D$104,"พลกฤต")+COUNTIF($C$113:$D$113,"พลกฤต")+COUNTIF($C$116:$D$116,"พลกฤต")+COUNTIF($C$119:$D$119,"พลกฤต")+COUNTIF($C$122:$D$122,"พลกฤต")+COUNTIF($C$125:$D$125,"พลกฤต")+COUNTIF($C$134:$D$134,"พลกฤต")+COUNTIF($C$137:$D$137,"พลกฤต")+COUNTIF($C$140:$D$140,"พลกฤต")+COUNTIF($C$143:$D$143,"พลกฤต")+COUNTIF($C$146:$D$146,"พลกฤต")+COUNTIF($C$155:$D$155,"พลกฤต")+COUNTIF($C$158:$D$158,"พลกฤต")+COUNTIF($C$161:$D$161,"พลกฤต")+COUNTIF($C$164:$D$164,"พลกฤต")+COUNTIF($C$167:$D$167,"พลกฤต")+COUNTIF($C$176:$D$176,"พลกฤต")+COUNTIF($C$179:$D$179,"พลกฤต")+COUNTIF($C$182:$D$182,"พลกฤต")+COUNTIF($C$185:$D$185,"พลกฤต")+COUNTIF($C$188:$D$188,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="J102">
+        <f>COUNTIF($C$99:$D$99,"พลกฤต")+COUNTIF($C$102:$D$102,"พลกฤต")+COUNTIF($C$105:$D$105,"พลกฤต")+COUNTIF($C$114:$D$114,"พลกฤต")+COUNTIF($C$117:$D$117,"พลกฤต")+COUNTIF($C$120:$D$120,"พลกฤต")+COUNTIF($C$123:$D$123,"พลกฤต")+COUNTIF($C$126:$D$126,"พลกฤต")+COUNTIF($C$135:$D$135,"พลกฤต")+COUNTIF($C$138:$D$138,"พลกฤต")+COUNTIF($C$141:$D$141,"พลกฤต")+COUNTIF($C$144:$D$144,"พลกฤต")+COUNTIF($C$147:$D$147,"พลกฤต")+COUNTIF($C$156:$D$156,"พลกฤต")+COUNTIF($C$159:$D$159,"พลกฤต")+COUNTIF($C$162:$D$162,"พลกฤต")+COUNTIF($C$165:$D$165,"พลกฤต")+COUNTIF($C$168:$D$168,"พลกฤต")+COUNTIF($C$177:$D$177,"พลกฤต")+COUNTIF($C$180:$D$180,"พลกฤต")+COUNTIF($C$183:$D$183,"พลกฤต")+COUNTIF($C$186:$D$186,"พลกฤต")+COUNTIF($C$189:$D$189,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="K102">
+        <f>SUM(H102:J102)</f>
+        <v/>
+      </c>
+      <c r="M102" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="N102">
+        <f>COUNTIF($C$106:$D$106,"พลกฤต")+COUNTIF($C$109:$D$109,"พลกฤต")+COUNTIF($C$127:$D$127,"พลกฤต")+COUNTIF($C$130:$D$130,"พลกฤต")+COUNTIF($C$148:$D$148,"พลกฤต")+COUNTIF($C$151:$D$151,"พลกฤต")+COUNTIF($C$169:$D$169,"พลกฤต")+COUNTIF($C$172:$D$172,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="O102">
+        <f>COUNTIF($C$107:$D$107,"พลกฤต")+COUNTIF($C$110:$D$110,"พลกฤต")+COUNTIF($C$128:$D$128,"พลกฤต")+COUNTIF($C$131:$D$131,"พลกฤต")+COUNTIF($C$149:$D$149,"พลกฤต")+COUNTIF($C$152:$D$152,"พลกฤต")+COUNTIF($C$170:$D$170,"พลกฤต")+COUNTIF($C$173:$D$173,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="P102">
+        <f>COUNTIF($C$108:$D$108,"พลกฤต")+COUNTIF($C$111:$D$111,"พลกฤต")+COUNTIF($C$129:$D$129,"พลกฤต")+COUNTIF($C$132:$D$132,"พลกฤต")+COUNTIF($C$150:$D$150,"พลกฤต")+COUNTIF($C$153:$D$153,"พลกฤต")+COUNTIF($C$171:$D$171,"พลกฤต")+COUNTIF($C$174:$D$174,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="Q102">
+        <f>SUM(N102:P102)</f>
+        <v/>
+      </c>
+      <c r="S102" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="T102">
+        <f>SUM(H102,N102)</f>
+        <v/>
+      </c>
+      <c r="U102">
+        <f>SUM(I102,O102)</f>
+        <v/>
+      </c>
+      <c r="V102">
+        <f>SUM(J102,P102)</f>
+        <v/>
+      </c>
+      <c r="W102">
+        <f>SUM(K102,Q102)</f>
+        <v/>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
-        <v>3</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>08:00-16:00</t>
         </is>
+      </c>
+      <c r="G103" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103">
+        <f>COUNTIF($C$98:$D$98,"ชานนท์")+COUNTIF($C$101:$D$101,"ชานนท์")+COUNTIF($C$104:$D$104,"ชานนท์")+COUNTIF($C$113:$D$113,"ชานนท์")+COUNTIF($C$116:$D$116,"ชานนท์")+COUNTIF($C$119:$D$119,"ชานนท์")+COUNTIF($C$122:$D$122,"ชานนท์")+COUNTIF($C$125:$D$125,"ชานนท์")+COUNTIF($C$134:$D$134,"ชานนท์")+COUNTIF($C$137:$D$137,"ชานนท์")+COUNTIF($C$140:$D$140,"ชานนท์")+COUNTIF($C$143:$D$143,"ชานนท์")+COUNTIF($C$146:$D$146,"ชานนท์")+COUNTIF($C$155:$D$155,"ชานนท์")+COUNTIF($C$158:$D$158,"ชานนท์")+COUNTIF($C$161:$D$161,"ชานนท์")+COUNTIF($C$164:$D$164,"ชานนท์")+COUNTIF($C$167:$D$167,"ชานนท์")+COUNTIF($C$176:$D$176,"ชานนท์")+COUNTIF($C$179:$D$179,"ชานนท์")+COUNTIF($C$182:$D$182,"ชานนท์")+COUNTIF($C$185:$D$185,"ชานนท์")+COUNTIF($C$188:$D$188,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="J103">
+        <f>COUNTIF($C$99:$D$99,"ชานนท์")+COUNTIF($C$102:$D$102,"ชานนท์")+COUNTIF($C$105:$D$105,"ชานนท์")+COUNTIF($C$114:$D$114,"ชานนท์")+COUNTIF($C$117:$D$117,"ชานนท์")+COUNTIF($C$120:$D$120,"ชานนท์")+COUNTIF($C$123:$D$123,"ชานนท์")+COUNTIF($C$126:$D$126,"ชานนท์")+COUNTIF($C$135:$D$135,"ชานนท์")+COUNTIF($C$138:$D$138,"ชานนท์")+COUNTIF($C$141:$D$141,"ชานนท์")+COUNTIF($C$144:$D$144,"ชานนท์")+COUNTIF($C$147:$D$147,"ชานนท์")+COUNTIF($C$156:$D$156,"ชานนท์")+COUNTIF($C$159:$D$159,"ชานนท์")+COUNTIF($C$162:$D$162,"ชานนท์")+COUNTIF($C$165:$D$165,"ชานนท์")+COUNTIF($C$168:$D$168,"ชานนท์")+COUNTIF($C$177:$D$177,"ชานนท์")+COUNTIF($C$180:$D$180,"ชานนท์")+COUNTIF($C$183:$D$183,"ชานนท์")+COUNTIF($C$186:$D$186,"ชานนท์")+COUNTIF($C$189:$D$189,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="K103">
+        <f>SUM(H103:J103)</f>
+        <v/>
+      </c>
+      <c r="M103" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="N103">
+        <f>COUNTIF($C$106:$D$106,"ชานนท์")+COUNTIF($C$109:$D$109,"ชานนท์")+COUNTIF($C$127:$D$127,"ชานนท์")+COUNTIF($C$130:$D$130,"ชานนท์")+COUNTIF($C$148:$D$148,"ชานนท์")+COUNTIF($C$151:$D$151,"ชานนท์")+COUNTIF($C$169:$D$169,"ชานนท์")+COUNTIF($C$172:$D$172,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="O103">
+        <f>COUNTIF($C$107:$D$107,"ชานนท์")+COUNTIF($C$110:$D$110,"ชานนท์")+COUNTIF($C$128:$D$128,"ชานนท์")+COUNTIF($C$131:$D$131,"ชานนท์")+COUNTIF($C$149:$D$149,"ชานนท์")+COUNTIF($C$152:$D$152,"ชานนท์")+COUNTIF($C$170:$D$170,"ชานนท์")+COUNTIF($C$173:$D$173,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="P103">
+        <f>COUNTIF($C$108:$D$108,"ชานนท์")+COUNTIF($C$111:$D$111,"ชานนท์")+COUNTIF($C$129:$D$129,"ชานนท์")+COUNTIF($C$132:$D$132,"ชานนท์")+COUNTIF($C$150:$D$150,"ชานนท์")+COUNTIF($C$153:$D$153,"ชานนท์")+COUNTIF($C$171:$D$171,"ชานนท์")+COUNTIF($C$174:$D$174,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="Q103">
+        <f>SUM(N103:P103)</f>
+        <v/>
+      </c>
+      <c r="S103" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="T103">
+        <f>SUM(H103,N103)</f>
+        <v/>
+      </c>
+      <c r="U103">
+        <f>SUM(I103,O103)</f>
+        <v/>
+      </c>
+      <c r="V103">
+        <f>SUM(J103,P103)</f>
+        <v/>
+      </c>
+      <c r="W103">
+        <f>SUM(K103,Q103)</f>
+        <v/>
       </c>
     </row>
     <row r="104">
@@ -4292,20 +4682,80 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C104" s="3" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="D104" s="9" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E104" s="10" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
+      <c r="C104" s="10" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D104" s="11" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E104" s="12" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="G104" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104">
+        <f>COUNTIF($C$98:$D$98,"ปรมะ")+COUNTIF($C$101:$D$101,"ปรมะ")+COUNTIF($C$104:$D$104,"ปรมะ")+COUNTIF($C$113:$D$113,"ปรมะ")+COUNTIF($C$116:$D$116,"ปรมะ")+COUNTIF($C$119:$D$119,"ปรมะ")+COUNTIF($C$122:$D$122,"ปรมะ")+COUNTIF($C$125:$D$125,"ปรมะ")+COUNTIF($C$134:$D$134,"ปรมะ")+COUNTIF($C$137:$D$137,"ปรมะ")+COUNTIF($C$140:$D$140,"ปรมะ")+COUNTIF($C$143:$D$143,"ปรมะ")+COUNTIF($C$146:$D$146,"ปรมะ")+COUNTIF($C$155:$D$155,"ปรมะ")+COUNTIF($C$158:$D$158,"ปรมะ")+COUNTIF($C$161:$D$161,"ปรมะ")+COUNTIF($C$164:$D$164,"ปรมะ")+COUNTIF($C$167:$D$167,"ปรมะ")+COUNTIF($C$176:$D$176,"ปรมะ")+COUNTIF($C$179:$D$179,"ปรมะ")+COUNTIF($C$182:$D$182,"ปรมะ")+COUNTIF($C$185:$D$185,"ปรมะ")+COUNTIF($C$188:$D$188,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="J104">
+        <f>COUNTIF($C$99:$D$99,"ปรมะ")+COUNTIF($C$102:$D$102,"ปรมะ")+COUNTIF($C$105:$D$105,"ปรมะ")+COUNTIF($C$114:$D$114,"ปรมะ")+COUNTIF($C$117:$D$117,"ปรมะ")+COUNTIF($C$120:$D$120,"ปรมะ")+COUNTIF($C$123:$D$123,"ปรมะ")+COUNTIF($C$126:$D$126,"ปรมะ")+COUNTIF($C$135:$D$135,"ปรมะ")+COUNTIF($C$138:$D$138,"ปรมะ")+COUNTIF($C$141:$D$141,"ปรมะ")+COUNTIF($C$144:$D$144,"ปรมะ")+COUNTIF($C$147:$D$147,"ปรมะ")+COUNTIF($C$156:$D$156,"ปรมะ")+COUNTIF($C$159:$D$159,"ปรมะ")+COUNTIF($C$162:$D$162,"ปรมะ")+COUNTIF($C$165:$D$165,"ปรมะ")+COUNTIF($C$168:$D$168,"ปรมะ")+COUNTIF($C$177:$D$177,"ปรมะ")+COUNTIF($C$180:$D$180,"ปรมะ")+COUNTIF($C$183:$D$183,"ปรมะ")+COUNTIF($C$186:$D$186,"ปรมะ")+COUNTIF($C$189:$D$189,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="K104">
+        <f>SUM(H104:J104)</f>
+        <v/>
+      </c>
+      <c r="M104" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="N104">
+        <f>COUNTIF($C$106:$D$106,"ปรมะ")+COUNTIF($C$109:$D$109,"ปรมะ")+COUNTIF($C$127:$D$127,"ปรมะ")+COUNTIF($C$130:$D$130,"ปรมะ")+COUNTIF($C$148:$D$148,"ปรมะ")+COUNTIF($C$151:$D$151,"ปรมะ")+COUNTIF($C$169:$D$169,"ปรมะ")+COUNTIF($C$172:$D$172,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="O104">
+        <f>COUNTIF($C$107:$D$107,"ปรมะ")+COUNTIF($C$110:$D$110,"ปรมะ")+COUNTIF($C$128:$D$128,"ปรมะ")+COUNTIF($C$131:$D$131,"ปรมะ")+COUNTIF($C$149:$D$149,"ปรมะ")+COUNTIF($C$152:$D$152,"ปรมะ")+COUNTIF($C$170:$D$170,"ปรมะ")+COUNTIF($C$173:$D$173,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="P104">
+        <f>COUNTIF($C$108:$D$108,"ปรมะ")+COUNTIF($C$111:$D$111,"ปรมะ")+COUNTIF($C$129:$D$129,"ปรมะ")+COUNTIF($C$132:$D$132,"ปรมะ")+COUNTIF($C$150:$D$150,"ปรมะ")+COUNTIF($C$153:$D$153,"ปรมะ")+COUNTIF($C$171:$D$171,"ปรมะ")+COUNTIF($C$174:$D$174,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="Q104">
+        <f>SUM(N104:P104)</f>
+        <v/>
+      </c>
+      <c r="S104" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="T104">
+        <f>SUM(H104,N104)</f>
+        <v/>
+      </c>
+      <c r="U104">
+        <f>SUM(I104,O104)</f>
+        <v/>
+      </c>
+      <c r="V104">
+        <f>SUM(J104,P104)</f>
+        <v/>
+      </c>
+      <c r="W104">
+        <f>SUM(K104,Q104)</f>
+        <v/>
       </c>
     </row>
     <row r="105">
@@ -4314,45 +4764,167 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C105" s="3" t="inlineStr">
+      <c r="C105" s="10" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D105" s="11" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E105" s="12" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="G105" s="1" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="D105" s="9" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E105" s="10" t="inlineStr">
+      <c r="H105" t="inlineStr"/>
+      <c r="I105">
+        <f>COUNTIF($C$98:$D$98,"สัญญา")+COUNTIF($C$101:$D$101,"สัญญา")+COUNTIF($C$104:$D$104,"สัญญา")+COUNTIF($C$113:$D$113,"สัญญา")+COUNTIF($C$116:$D$116,"สัญญา")+COUNTIF($C$119:$D$119,"สัญญา")+COUNTIF($C$122:$D$122,"สัญญา")+COUNTIF($C$125:$D$125,"สัญญา")+COUNTIF($C$134:$D$134,"สัญญา")+COUNTIF($C$137:$D$137,"สัญญา")+COUNTIF($C$140:$D$140,"สัญญา")+COUNTIF($C$143:$D$143,"สัญญา")+COUNTIF($C$146:$D$146,"สัญญา")+COUNTIF($C$155:$D$155,"สัญญา")+COUNTIF($C$158:$D$158,"สัญญา")+COUNTIF($C$161:$D$161,"สัญญา")+COUNTIF($C$164:$D$164,"สัญญา")+COUNTIF($C$167:$D$167,"สัญญา")+COUNTIF($C$176:$D$176,"สัญญา")+COUNTIF($C$179:$D$179,"สัญญา")+COUNTIF($C$182:$D$182,"สัญญา")+COUNTIF($C$185:$D$185,"สัญญา")+COUNTIF($C$188:$D$188,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="J105">
+        <f>COUNTIF($C$99:$D$99,"สัญญา")+COUNTIF($C$102:$D$102,"สัญญา")+COUNTIF($C$105:$D$105,"สัญญา")+COUNTIF($C$114:$D$114,"สัญญา")+COUNTIF($C$117:$D$117,"สัญญา")+COUNTIF($C$120:$D$120,"สัญญา")+COUNTIF($C$123:$D$123,"สัญญา")+COUNTIF($C$126:$D$126,"สัญญา")+COUNTIF($C$135:$D$135,"สัญญา")+COUNTIF($C$138:$D$138,"สัญญา")+COUNTIF($C$141:$D$141,"สัญญา")+COUNTIF($C$144:$D$144,"สัญญา")+COUNTIF($C$147:$D$147,"สัญญา")+COUNTIF($C$156:$D$156,"สัญญา")+COUNTIF($C$159:$D$159,"สัญญา")+COUNTIF($C$162:$D$162,"สัญญา")+COUNTIF($C$165:$D$165,"สัญญา")+COUNTIF($C$168:$D$168,"สัญญา")+COUNTIF($C$177:$D$177,"สัญญา")+COUNTIF($C$180:$D$180,"สัญญา")+COUNTIF($C$183:$D$183,"สัญญา")+COUNTIF($C$186:$D$186,"สัญญา")+COUNTIF($C$189:$D$189,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="K105">
+        <f>SUM(H105:J105)</f>
+        <v/>
+      </c>
+      <c r="M105" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="N105">
+        <f>COUNTIF($C$106:$D$106,"สัญญา")+COUNTIF($C$109:$D$109,"สัญญา")+COUNTIF($C$127:$D$127,"สัญญา")+COUNTIF($C$130:$D$130,"สัญญา")+COUNTIF($C$148:$D$148,"สัญญา")+COUNTIF($C$151:$D$151,"สัญญา")+COUNTIF($C$169:$D$169,"สัญญา")+COUNTIF($C$172:$D$172,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="O105">
+        <f>COUNTIF($C$107:$D$107,"สัญญา")+COUNTIF($C$110:$D$110,"สัญญา")+COUNTIF($C$128:$D$128,"สัญญา")+COUNTIF($C$131:$D$131,"สัญญา")+COUNTIF($C$149:$D$149,"สัญญา")+COUNTIF($C$152:$D$152,"สัญญา")+COUNTIF($C$170:$D$170,"สัญญา")+COUNTIF($C$173:$D$173,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="P105">
+        <f>COUNTIF($C$108:$D$108,"สัญญา")+COUNTIF($C$111:$D$111,"สัญญา")+COUNTIF($C$129:$D$129,"สัญญา")+COUNTIF($C$132:$D$132,"สัญญา")+COUNTIF($C$150:$D$150,"สัญญา")+COUNTIF($C$153:$D$153,"สัญญา")+COUNTIF($C$171:$D$171,"สัญญา")+COUNTIF($C$174:$D$174,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="Q105">
+        <f>SUM(N105:P105)</f>
+        <v/>
+      </c>
+      <c r="S105" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="T105">
+        <f>SUM(H105,N105)</f>
+        <v/>
+      </c>
+      <c r="U105">
+        <f>SUM(I105,O105)</f>
+        <v/>
+      </c>
+      <c r="V105">
+        <f>SUM(J105,P105)</f>
+        <v/>
+      </c>
+      <c r="W105">
+        <f>SUM(K105,Q105)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="inlineStr">
+        <is>
+          <t>4*</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C106" s="4" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D106" s="8" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E106" s="13" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="G106" s="1" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>4</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="C106" s="11" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="D106" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E106" s="4" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106">
+        <f>COUNTIF($C$98:$D$98,"วินัย")+COUNTIF($C$101:$D$101,"วินัย")+COUNTIF($C$104:$D$104,"วินัย")+COUNTIF($C$113:$D$113,"วินัย")+COUNTIF($C$116:$D$116,"วินัย")+COUNTIF($C$119:$D$119,"วินัย")+COUNTIF($C$122:$D$122,"วินัย")+COUNTIF($C$125:$D$125,"วินัย")+COUNTIF($C$134:$D$134,"วินัย")+COUNTIF($C$137:$D$137,"วินัย")+COUNTIF($C$140:$D$140,"วินัย")+COUNTIF($C$143:$D$143,"วินัย")+COUNTIF($C$146:$D$146,"วินัย")+COUNTIF($C$155:$D$155,"วินัย")+COUNTIF($C$158:$D$158,"วินัย")+COUNTIF($C$161:$D$161,"วินัย")+COUNTIF($C$164:$D$164,"วินัย")+COUNTIF($C$167:$D$167,"วินัย")+COUNTIF($C$176:$D$176,"วินัย")+COUNTIF($C$179:$D$179,"วินัย")+COUNTIF($C$182:$D$182,"วินัย")+COUNTIF($C$185:$D$185,"วินัย")+COUNTIF($C$188:$D$188,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="J106">
+        <f>COUNTIF($C$99:$D$99,"วินัย")+COUNTIF($C$102:$D$102,"วินัย")+COUNTIF($C$105:$D$105,"วินัย")+COUNTIF($C$114:$D$114,"วินัย")+COUNTIF($C$117:$D$117,"วินัย")+COUNTIF($C$120:$D$120,"วินัย")+COUNTIF($C$123:$D$123,"วินัย")+COUNTIF($C$126:$D$126,"วินัย")+COUNTIF($C$135:$D$135,"วินัย")+COUNTIF($C$138:$D$138,"วินัย")+COUNTIF($C$141:$D$141,"วินัย")+COUNTIF($C$144:$D$144,"วินัย")+COUNTIF($C$147:$D$147,"วินัย")+COUNTIF($C$156:$D$156,"วินัย")+COUNTIF($C$159:$D$159,"วินัย")+COUNTIF($C$162:$D$162,"วินัย")+COUNTIF($C$165:$D$165,"วินัย")+COUNTIF($C$168:$D$168,"วินัย")+COUNTIF($C$177:$D$177,"วินัย")+COUNTIF($C$180:$D$180,"วินัย")+COUNTIF($C$183:$D$183,"วินัย")+COUNTIF($C$186:$D$186,"วินัย")+COUNTIF($C$189:$D$189,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="K106">
+        <f>SUM(H106:J106)</f>
+        <v/>
+      </c>
+      <c r="M106" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="N106">
+        <f>COUNTIF($C$106:$D$106,"วินัย")+COUNTIF($C$109:$D$109,"วินัย")+COUNTIF($C$127:$D$127,"วินัย")+COUNTIF($C$130:$D$130,"วินัย")+COUNTIF($C$148:$D$148,"วินัย")+COUNTIF($C$151:$D$151,"วินัย")+COUNTIF($C$169:$D$169,"วินัย")+COUNTIF($C$172:$D$172,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="O106">
+        <f>COUNTIF($C$107:$D$107,"วินัย")+COUNTIF($C$110:$D$110,"วินัย")+COUNTIF($C$128:$D$128,"วินัย")+COUNTIF($C$131:$D$131,"วินัย")+COUNTIF($C$149:$D$149,"วินัย")+COUNTIF($C$152:$D$152,"วินัย")+COUNTIF($C$170:$D$170,"วินัย")+COUNTIF($C$173:$D$173,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="P106">
+        <f>COUNTIF($C$108:$D$108,"วินัย")+COUNTIF($C$111:$D$111,"วินัย")+COUNTIF($C$129:$D$129,"วินัย")+COUNTIF($C$132:$D$132,"วินัย")+COUNTIF($C$150:$D$150,"วินัย")+COUNTIF($C$153:$D$153,"วินัย")+COUNTIF($C$171:$D$171,"วินัย")+COUNTIF($C$174:$D$174,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="Q106">
+        <f>SUM(N106:P106)</f>
+        <v/>
+      </c>
+      <c r="S106" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="T106">
+        <f>SUM(H106,N106)</f>
+        <v/>
+      </c>
+      <c r="U106">
+        <f>SUM(I106,O106)</f>
+        <v/>
+      </c>
+      <c r="V106">
+        <f>SUM(J106,P106)</f>
+        <v/>
+      </c>
+      <c r="W106">
+        <f>SUM(K106,Q106)</f>
+        <v/>
       </c>
     </row>
     <row r="107">
@@ -4361,20 +4933,80 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C107" s="13" t="inlineStr">
+      <c r="C107" s="6" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D107" s="14" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E107" s="5" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="G107" s="1" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="D107" s="14" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E107" s="15" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107">
+        <f>COUNTIF($C$98:$D$98,"รณยุทธ")+COUNTIF($C$101:$D$101,"รณยุทธ")+COUNTIF($C$104:$D$104,"รณยุทธ")+COUNTIF($C$113:$D$113,"รณยุทธ")+COUNTIF($C$116:$D$116,"รณยุทธ")+COUNTIF($C$119:$D$119,"รณยุทธ")+COUNTIF($C$122:$D$122,"รณยุทธ")+COUNTIF($C$125:$D$125,"รณยุทธ")+COUNTIF($C$134:$D$134,"รณยุทธ")+COUNTIF($C$137:$D$137,"รณยุทธ")+COUNTIF($C$140:$D$140,"รณยุทธ")+COUNTIF($C$143:$D$143,"รณยุทธ")+COUNTIF($C$146:$D$146,"รณยุทธ")+COUNTIF($C$155:$D$155,"รณยุทธ")+COUNTIF($C$158:$D$158,"รณยุทธ")+COUNTIF($C$161:$D$161,"รณยุทธ")+COUNTIF($C$164:$D$164,"รณยุทธ")+COUNTIF($C$167:$D$167,"รณยุทธ")+COUNTIF($C$176:$D$176,"รณยุทธ")+COUNTIF($C$179:$D$179,"รณยุทธ")+COUNTIF($C$182:$D$182,"รณยุทธ")+COUNTIF($C$185:$D$185,"รณยุทธ")+COUNTIF($C$188:$D$188,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="J107">
+        <f>COUNTIF($C$99:$D$99,"รณยุทธ")+COUNTIF($C$102:$D$102,"รณยุทธ")+COUNTIF($C$105:$D$105,"รณยุทธ")+COUNTIF($C$114:$D$114,"รณยุทธ")+COUNTIF($C$117:$D$117,"รณยุทธ")+COUNTIF($C$120:$D$120,"รณยุทธ")+COUNTIF($C$123:$D$123,"รณยุทธ")+COUNTIF($C$126:$D$126,"รณยุทธ")+COUNTIF($C$135:$D$135,"รณยุทธ")+COUNTIF($C$138:$D$138,"รณยุทธ")+COUNTIF($C$141:$D$141,"รณยุทธ")+COUNTIF($C$144:$D$144,"รณยุทธ")+COUNTIF($C$147:$D$147,"รณยุทธ")+COUNTIF($C$156:$D$156,"รณยุทธ")+COUNTIF($C$159:$D$159,"รณยุทธ")+COUNTIF($C$162:$D$162,"รณยุทธ")+COUNTIF($C$165:$D$165,"รณยุทธ")+COUNTIF($C$168:$D$168,"รณยุทธ")+COUNTIF($C$177:$D$177,"รณยุทธ")+COUNTIF($C$180:$D$180,"รณยุทธ")+COUNTIF($C$183:$D$183,"รณยุทธ")+COUNTIF($C$186:$D$186,"รณยุทธ")+COUNTIF($C$189:$D$189,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="K107">
+        <f>SUM(H107:J107)</f>
+        <v/>
+      </c>
+      <c r="M107" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="N107">
+        <f>COUNTIF($C$106:$D$106,"รณยุทธ")+COUNTIF($C$109:$D$109,"รณยุทธ")+COUNTIF($C$127:$D$127,"รณยุทธ")+COUNTIF($C$130:$D$130,"รณยุทธ")+COUNTIF($C$148:$D$148,"รณยุทธ")+COUNTIF($C$151:$D$151,"รณยุทธ")+COUNTIF($C$169:$D$169,"รณยุทธ")+COUNTIF($C$172:$D$172,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="O107">
+        <f>COUNTIF($C$107:$D$107,"รณยุทธ")+COUNTIF($C$110:$D$110,"รณยุทธ")+COUNTIF($C$128:$D$128,"รณยุทธ")+COUNTIF($C$131:$D$131,"รณยุทธ")+COUNTIF($C$149:$D$149,"รณยุทธ")+COUNTIF($C$152:$D$152,"รณยุทธ")+COUNTIF($C$170:$D$170,"รณยุทธ")+COUNTIF($C$173:$D$173,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="P107">
+        <f>COUNTIF($C$108:$D$108,"รณยุทธ")+COUNTIF($C$111:$D$111,"รณยุทธ")+COUNTIF($C$129:$D$129,"รณยุทธ")+COUNTIF($C$132:$D$132,"รณยุทธ")+COUNTIF($C$150:$D$150,"รณยุทธ")+COUNTIF($C$153:$D$153,"รณยุทธ")+COUNTIF($C$171:$D$171,"รณยุทธ")+COUNTIF($C$174:$D$174,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="Q107">
+        <f>SUM(N107:P107)</f>
+        <v/>
+      </c>
+      <c r="S107" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="T107">
+        <f>SUM(H107,N107)</f>
+        <v/>
+      </c>
+      <c r="U107">
+        <f>SUM(I107,O107)</f>
+        <v/>
+      </c>
+      <c r="V107">
+        <f>SUM(J107,P107)</f>
+        <v/>
+      </c>
+      <c r="W107">
+        <f>SUM(K107,Q107)</f>
+        <v/>
       </c>
     </row>
     <row r="108">
@@ -4383,45 +5015,167 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C108" s="13" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
+      <c r="C108" s="6" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D108" s="14" t="inlineStr">
         <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E108" s="5" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="G108" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108">
+        <f>COUNTIF($C$98:$D$98,"วัฒพงษ์")+COUNTIF($C$101:$D$101,"วัฒพงษ์")+COUNTIF($C$104:$D$104,"วัฒพงษ์")+COUNTIF($C$113:$D$113,"วัฒพงษ์")+COUNTIF($C$116:$D$116,"วัฒพงษ์")+COUNTIF($C$119:$D$119,"วัฒพงษ์")+COUNTIF($C$122:$D$122,"วัฒพงษ์")+COUNTIF($C$125:$D$125,"วัฒพงษ์")+COUNTIF($C$134:$D$134,"วัฒพงษ์")+COUNTIF($C$137:$D$137,"วัฒพงษ์")+COUNTIF($C$140:$D$140,"วัฒพงษ์")+COUNTIF($C$143:$D$143,"วัฒพงษ์")+COUNTIF($C$146:$D$146,"วัฒพงษ์")+COUNTIF($C$155:$D$155,"วัฒพงษ์")+COUNTIF($C$158:$D$158,"วัฒพงษ์")+COUNTIF($C$161:$D$161,"วัฒพงษ์")+COUNTIF($C$164:$D$164,"วัฒพงษ์")+COUNTIF($C$167:$D$167,"วัฒพงษ์")+COUNTIF($C$176:$D$176,"วัฒพงษ์")+COUNTIF($C$179:$D$179,"วัฒพงษ์")+COUNTIF($C$182:$D$182,"วัฒพงษ์")+COUNTIF($C$185:$D$185,"วัฒพงษ์")+COUNTIF($C$188:$D$188,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="J108">
+        <f>COUNTIF($C$99:$D$99,"วัฒพงษ์")+COUNTIF($C$102:$D$102,"วัฒพงษ์")+COUNTIF($C$105:$D$105,"วัฒพงษ์")+COUNTIF($C$114:$D$114,"วัฒพงษ์")+COUNTIF($C$117:$D$117,"วัฒพงษ์")+COUNTIF($C$120:$D$120,"วัฒพงษ์")+COUNTIF($C$123:$D$123,"วัฒพงษ์")+COUNTIF($C$126:$D$126,"วัฒพงษ์")+COUNTIF($C$135:$D$135,"วัฒพงษ์")+COUNTIF($C$138:$D$138,"วัฒพงษ์")+COUNTIF($C$141:$D$141,"วัฒพงษ์")+COUNTIF($C$144:$D$144,"วัฒพงษ์")+COUNTIF($C$147:$D$147,"วัฒพงษ์")+COUNTIF($C$156:$D$156,"วัฒพงษ์")+COUNTIF($C$159:$D$159,"วัฒพงษ์")+COUNTIF($C$162:$D$162,"วัฒพงษ์")+COUNTIF($C$165:$D$165,"วัฒพงษ์")+COUNTIF($C$168:$D$168,"วัฒพงษ์")+COUNTIF($C$177:$D$177,"วัฒพงษ์")+COUNTIF($C$180:$D$180,"วัฒพงษ์")+COUNTIF($C$183:$D$183,"วัฒพงษ์")+COUNTIF($C$186:$D$186,"วัฒพงษ์")+COUNTIF($C$189:$D$189,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="K108">
+        <f>SUM(H108:J108)</f>
+        <v/>
+      </c>
+      <c r="M108" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="N108">
+        <f>COUNTIF($C$106:$D$106,"วัฒพงษ์")+COUNTIF($C$109:$D$109,"วัฒพงษ์")+COUNTIF($C$127:$D$127,"วัฒพงษ์")+COUNTIF($C$130:$D$130,"วัฒพงษ์")+COUNTIF($C$148:$D$148,"วัฒพงษ์")+COUNTIF($C$151:$D$151,"วัฒพงษ์")+COUNTIF($C$169:$D$169,"วัฒพงษ์")+COUNTIF($C$172:$D$172,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="O108">
+        <f>COUNTIF($C$107:$D$107,"วัฒพงษ์")+COUNTIF($C$110:$D$110,"วัฒพงษ์")+COUNTIF($C$128:$D$128,"วัฒพงษ์")+COUNTIF($C$131:$D$131,"วัฒพงษ์")+COUNTIF($C$149:$D$149,"วัฒพงษ์")+COUNTIF($C$152:$D$152,"วัฒพงษ์")+COUNTIF($C$170:$D$170,"วัฒพงษ์")+COUNTIF($C$173:$D$173,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="P108">
+        <f>COUNTIF($C$108:$D$108,"วัฒพงษ์")+COUNTIF($C$111:$D$111,"วัฒพงษ์")+COUNTIF($C$129:$D$129,"วัฒพงษ์")+COUNTIF($C$132:$D$132,"วัฒพงษ์")+COUNTIF($C$150:$D$150,"วัฒพงษ์")+COUNTIF($C$153:$D$153,"วัฒพงษ์")+COUNTIF($C$171:$D$171,"วัฒพงษ์")+COUNTIF($C$174:$D$174,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="Q108">
+        <f>SUM(N108:P108)</f>
+        <v/>
+      </c>
+      <c r="S108" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="T108">
+        <f>SUM(H108,N108)</f>
+        <v/>
+      </c>
+      <c r="U108">
+        <f>SUM(I108,O108)</f>
+        <v/>
+      </c>
+      <c r="V108">
+        <f>SUM(J108,P108)</f>
+        <v/>
+      </c>
+      <c r="W108">
+        <f>SUM(K108,Q108)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="inlineStr">
+        <is>
+          <t>5*</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C109" s="9" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D109" s="11" t="inlineStr">
+        <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="E108" s="15" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>5</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="C109" s="8" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D109" s="9" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E109" s="5" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
+      <c r="E109" s="15" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="G109" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109">
+        <f>COUNTIF($C$98:$D$98,"ราเชน")+COUNTIF($C$101:$D$101,"ราเชน")+COUNTIF($C$104:$D$104,"ราเชน")+COUNTIF($C$113:$D$113,"ราเชน")+COUNTIF($C$116:$D$116,"ราเชน")+COUNTIF($C$119:$D$119,"ราเชน")+COUNTIF($C$122:$D$122,"ราเชน")+COUNTIF($C$125:$D$125,"ราเชน")+COUNTIF($C$134:$D$134,"ราเชน")+COUNTIF($C$137:$D$137,"ราเชน")+COUNTIF($C$140:$D$140,"ราเชน")+COUNTIF($C$143:$D$143,"ราเชน")+COUNTIF($C$146:$D$146,"ราเชน")+COUNTIF($C$155:$D$155,"ราเชน")+COUNTIF($C$158:$D$158,"ราเชน")+COUNTIF($C$161:$D$161,"ราเชน")+COUNTIF($C$164:$D$164,"ราเชน")+COUNTIF($C$167:$D$167,"ราเชน")+COUNTIF($C$176:$D$176,"ราเชน")+COUNTIF($C$179:$D$179,"ราเชน")+COUNTIF($C$182:$D$182,"ราเชน")+COUNTIF($C$185:$D$185,"ราเชน")+COUNTIF($C$188:$D$188,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="J109">
+        <f>COUNTIF($C$99:$D$99,"ราเชน")+COUNTIF($C$102:$D$102,"ราเชน")+COUNTIF($C$105:$D$105,"ราเชน")+COUNTIF($C$114:$D$114,"ราเชน")+COUNTIF($C$117:$D$117,"ราเชน")+COUNTIF($C$120:$D$120,"ราเชน")+COUNTIF($C$123:$D$123,"ราเชน")+COUNTIF($C$126:$D$126,"ราเชน")+COUNTIF($C$135:$D$135,"ราเชน")+COUNTIF($C$138:$D$138,"ราเชน")+COUNTIF($C$141:$D$141,"ราเชน")+COUNTIF($C$144:$D$144,"ราเชน")+COUNTIF($C$147:$D$147,"ราเชน")+COUNTIF($C$156:$D$156,"ราเชน")+COUNTIF($C$159:$D$159,"ราเชน")+COUNTIF($C$162:$D$162,"ราเชน")+COUNTIF($C$165:$D$165,"ราเชน")+COUNTIF($C$168:$D$168,"ราเชน")+COUNTIF($C$177:$D$177,"ราเชน")+COUNTIF($C$180:$D$180,"ราเชน")+COUNTIF($C$183:$D$183,"ราเชน")+COUNTIF($C$186:$D$186,"ราเชน")+COUNTIF($C$189:$D$189,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="K109">
+        <f>SUM(H109:J109)</f>
+        <v/>
+      </c>
+      <c r="M109" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="N109">
+        <f>COUNTIF($C$106:$D$106,"ราเชน")+COUNTIF($C$109:$D$109,"ราเชน")+COUNTIF($C$127:$D$127,"ราเชน")+COUNTIF($C$130:$D$130,"ราเชน")+COUNTIF($C$148:$D$148,"ราเชน")+COUNTIF($C$151:$D$151,"ราเชน")+COUNTIF($C$169:$D$169,"ราเชน")+COUNTIF($C$172:$D$172,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="O109">
+        <f>COUNTIF($C$107:$D$107,"ราเชน")+COUNTIF($C$110:$D$110,"ราเชน")+COUNTIF($C$128:$D$128,"ราเชน")+COUNTIF($C$131:$D$131,"ราเชน")+COUNTIF($C$149:$D$149,"ราเชน")+COUNTIF($C$152:$D$152,"ราเชน")+COUNTIF($C$170:$D$170,"ราเชน")+COUNTIF($C$173:$D$173,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="P109">
+        <f>COUNTIF($C$108:$D$108,"ราเชน")+COUNTIF($C$111:$D$111,"ราเชน")+COUNTIF($C$129:$D$129,"ราเชน")+COUNTIF($C$132:$D$132,"ราเชน")+COUNTIF($C$150:$D$150,"ราเชน")+COUNTIF($C$153:$D$153,"ราเชน")+COUNTIF($C$171:$D$171,"ราเชน")+COUNTIF($C$174:$D$174,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="Q109">
+        <f>SUM(N109:P109)</f>
+        <v/>
+      </c>
+      <c r="S109" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="T109">
+        <f>SUM(H109,N109)</f>
+        <v/>
+      </c>
+      <c r="U109">
+        <f>SUM(I109,O109)</f>
+        <v/>
+      </c>
+      <c r="V109">
+        <f>SUM(J109,P109)</f>
+        <v/>
+      </c>
+      <c r="W109">
+        <f>SUM(K109,Q109)</f>
+        <v/>
       </c>
     </row>
     <row r="110">
@@ -4430,20 +5184,80 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C110" s="3" t="inlineStr">
+      <c r="C110" s="10" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D110" s="12" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E110" s="16" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="D110" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E110" s="16" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
+      <c r="G110" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110">
+        <f>COUNTIF($C$98:$D$98,"นฤชิต")+COUNTIF($C$101:$D$101,"นฤชิต")+COUNTIF($C$104:$D$104,"นฤชิต")+COUNTIF($C$113:$D$113,"นฤชิต")+COUNTIF($C$116:$D$116,"นฤชิต")+COUNTIF($C$119:$D$119,"นฤชิต")+COUNTIF($C$122:$D$122,"นฤชิต")+COUNTIF($C$125:$D$125,"นฤชิต")+COUNTIF($C$134:$D$134,"นฤชิต")+COUNTIF($C$137:$D$137,"นฤชิต")+COUNTIF($C$140:$D$140,"นฤชิต")+COUNTIF($C$143:$D$143,"นฤชิต")+COUNTIF($C$146:$D$146,"นฤชิต")+COUNTIF($C$155:$D$155,"นฤชิต")+COUNTIF($C$158:$D$158,"นฤชิต")+COUNTIF($C$161:$D$161,"นฤชิต")+COUNTIF($C$164:$D$164,"นฤชิต")+COUNTIF($C$167:$D$167,"นฤชิต")+COUNTIF($C$176:$D$176,"นฤชิต")+COUNTIF($C$179:$D$179,"นฤชิต")+COUNTIF($C$182:$D$182,"นฤชิต")+COUNTIF($C$185:$D$185,"นฤชิต")+COUNTIF($C$188:$D$188,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="J110">
+        <f>COUNTIF($C$99:$D$99,"นฤชิต")+COUNTIF($C$102:$D$102,"นฤชิต")+COUNTIF($C$105:$D$105,"นฤชิต")+COUNTIF($C$114:$D$114,"นฤชิต")+COUNTIF($C$117:$D$117,"นฤชิต")+COUNTIF($C$120:$D$120,"นฤชิต")+COUNTIF($C$123:$D$123,"นฤชิต")+COUNTIF($C$126:$D$126,"นฤชิต")+COUNTIF($C$135:$D$135,"นฤชิต")+COUNTIF($C$138:$D$138,"นฤชิต")+COUNTIF($C$141:$D$141,"นฤชิต")+COUNTIF($C$144:$D$144,"นฤชิต")+COUNTIF($C$147:$D$147,"นฤชิต")+COUNTIF($C$156:$D$156,"นฤชิต")+COUNTIF($C$159:$D$159,"นฤชิต")+COUNTIF($C$162:$D$162,"นฤชิต")+COUNTIF($C$165:$D$165,"นฤชิต")+COUNTIF($C$168:$D$168,"นฤชิต")+COUNTIF($C$177:$D$177,"นฤชิต")+COUNTIF($C$180:$D$180,"นฤชิต")+COUNTIF($C$183:$D$183,"นฤชิต")+COUNTIF($C$186:$D$186,"นฤชิต")+COUNTIF($C$189:$D$189,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="K110">
+        <f>SUM(H110:J110)</f>
+        <v/>
+      </c>
+      <c r="M110" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="N110">
+        <f>COUNTIF($C$106:$D$106,"นฤชิต")+COUNTIF($C$109:$D$109,"นฤชิต")+COUNTIF($C$127:$D$127,"นฤชิต")+COUNTIF($C$130:$D$130,"นฤชิต")+COUNTIF($C$148:$D$148,"นฤชิต")+COUNTIF($C$151:$D$151,"นฤชิต")+COUNTIF($C$169:$D$169,"นฤชิต")+COUNTIF($C$172:$D$172,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="O110">
+        <f>COUNTIF($C$107:$D$107,"นฤชิต")+COUNTIF($C$110:$D$110,"นฤชิต")+COUNTIF($C$128:$D$128,"นฤชิต")+COUNTIF($C$131:$D$131,"นฤชิต")+COUNTIF($C$149:$D$149,"นฤชิต")+COUNTIF($C$152:$D$152,"นฤชิต")+COUNTIF($C$170:$D$170,"นฤชิต")+COUNTIF($C$173:$D$173,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="P110">
+        <f>COUNTIF($C$108:$D$108,"นฤชิต")+COUNTIF($C$111:$D$111,"นฤชิต")+COUNTIF($C$129:$D$129,"นฤชิต")+COUNTIF($C$132:$D$132,"นฤชิต")+COUNTIF($C$150:$D$150,"นฤชิต")+COUNTIF($C$153:$D$153,"นฤชิต")+COUNTIF($C$171:$D$171,"นฤชิต")+COUNTIF($C$174:$D$174,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="Q110">
+        <f>SUM(N110:P110)</f>
+        <v/>
+      </c>
+      <c r="S110" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="T110">
+        <f>SUM(H110,N110)</f>
+        <v/>
+      </c>
+      <c r="U110">
+        <f>SUM(I110,O110)</f>
+        <v/>
+      </c>
+      <c r="V110">
+        <f>SUM(J110,P110)</f>
+        <v/>
+      </c>
+      <c r="W110">
+        <f>SUM(K110,Q110)</f>
+        <v/>
       </c>
     </row>
     <row r="111">
@@ -4452,30 +5266,152 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C111" s="3" t="inlineStr">
+      <c r="C111" s="10" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D111" s="12" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E111" s="16" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="D111" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E111" s="16" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
+      <c r="G111" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111">
+        <f>COUNTIF($C$98:$D$98,"จีรวัฒน์")+COUNTIF($C$101:$D$101,"จีรวัฒน์")+COUNTIF($C$104:$D$104,"จีรวัฒน์")+COUNTIF($C$113:$D$113,"จีรวัฒน์")+COUNTIF($C$116:$D$116,"จีรวัฒน์")+COUNTIF($C$119:$D$119,"จีรวัฒน์")+COUNTIF($C$122:$D$122,"จีรวัฒน์")+COUNTIF($C$125:$D$125,"จีรวัฒน์")+COUNTIF($C$134:$D$134,"จีรวัฒน์")+COUNTIF($C$137:$D$137,"จีรวัฒน์")+COUNTIF($C$140:$D$140,"จีรวัฒน์")+COUNTIF($C$143:$D$143,"จีรวัฒน์")+COUNTIF($C$146:$D$146,"จีรวัฒน์")+COUNTIF($C$155:$D$155,"จีรวัฒน์")+COUNTIF($C$158:$D$158,"จีรวัฒน์")+COUNTIF($C$161:$D$161,"จีรวัฒน์")+COUNTIF($C$164:$D$164,"จีรวัฒน์")+COUNTIF($C$167:$D$167,"จีรวัฒน์")+COUNTIF($C$176:$D$176,"จีรวัฒน์")+COUNTIF($C$179:$D$179,"จีรวัฒน์")+COUNTIF($C$182:$D$182,"จีรวัฒน์")+COUNTIF($C$185:$D$185,"จีรวัฒน์")+COUNTIF($C$188:$D$188,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="J111">
+        <f>COUNTIF($C$99:$D$99,"จีรวัฒน์")+COUNTIF($C$102:$D$102,"จีรวัฒน์")+COUNTIF($C$105:$D$105,"จีรวัฒน์")+COUNTIF($C$114:$D$114,"จีรวัฒน์")+COUNTIF($C$117:$D$117,"จีรวัฒน์")+COUNTIF($C$120:$D$120,"จีรวัฒน์")+COUNTIF($C$123:$D$123,"จีรวัฒน์")+COUNTIF($C$126:$D$126,"จีรวัฒน์")+COUNTIF($C$135:$D$135,"จีรวัฒน์")+COUNTIF($C$138:$D$138,"จีรวัฒน์")+COUNTIF($C$141:$D$141,"จีรวัฒน์")+COUNTIF($C$144:$D$144,"จีรวัฒน์")+COUNTIF($C$147:$D$147,"จีรวัฒน์")+COUNTIF($C$156:$D$156,"จีรวัฒน์")+COUNTIF($C$159:$D$159,"จีรวัฒน์")+COUNTIF($C$162:$D$162,"จีรวัฒน์")+COUNTIF($C$165:$D$165,"จีรวัฒน์")+COUNTIF($C$168:$D$168,"จีรวัฒน์")+COUNTIF($C$177:$D$177,"จีรวัฒน์")+COUNTIF($C$180:$D$180,"จีรวัฒน์")+COUNTIF($C$183:$D$183,"จีรวัฒน์")+COUNTIF($C$186:$D$186,"จีรวัฒน์")+COUNTIF($C$189:$D$189,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="K111">
+        <f>SUM(H111:J111)</f>
+        <v/>
+      </c>
+      <c r="M111" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="N111">
+        <f>COUNTIF($C$106:$D$106,"จีรวัฒน์")+COUNTIF($C$109:$D$109,"จีรวัฒน์")+COUNTIF($C$127:$D$127,"จีรวัฒน์")+COUNTIF($C$130:$D$130,"จีรวัฒน์")+COUNTIF($C$148:$D$148,"จีรวัฒน์")+COUNTIF($C$151:$D$151,"จีรวัฒน์")+COUNTIF($C$169:$D$169,"จีรวัฒน์")+COUNTIF($C$172:$D$172,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="O111">
+        <f>COUNTIF($C$107:$D$107,"จีรวัฒน์")+COUNTIF($C$110:$D$110,"จีรวัฒน์")+COUNTIF($C$128:$D$128,"จีรวัฒน์")+COUNTIF($C$131:$D$131,"จีรวัฒน์")+COUNTIF($C$149:$D$149,"จีรวัฒน์")+COUNTIF($C$152:$D$152,"จีรวัฒน์")+COUNTIF($C$170:$D$170,"จีรวัฒน์")+COUNTIF($C$173:$D$173,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="P111">
+        <f>COUNTIF($C$108:$D$108,"จีรวัฒน์")+COUNTIF($C$111:$D$111,"จีรวัฒน์")+COUNTIF($C$129:$D$129,"จีรวัฒน์")+COUNTIF($C$132:$D$132,"จีรวัฒน์")+COUNTIF($C$150:$D$150,"จีรวัฒน์")+COUNTIF($C$153:$D$153,"จีรวัฒน์")+COUNTIF($C$171:$D$171,"จีรวัฒน์")+COUNTIF($C$174:$D$174,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="Q111">
+        <f>SUM(N111:P111)</f>
+        <v/>
+      </c>
+      <c r="S111" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="T111">
+        <f>SUM(H111,N111)</f>
+        <v/>
+      </c>
+      <c r="U111">
+        <f>SUM(I111,O111)</f>
+        <v/>
+      </c>
+      <c r="V111">
+        <f>SUM(J111,P111)</f>
+        <v/>
+      </c>
+      <c r="W111">
+        <f>SUM(K111,Q111)</f>
+        <v/>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
-        <v>6</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>08:00-16:00</t>
         </is>
+      </c>
+      <c r="G112" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112">
+        <f>COUNTIF($C$98:$D$98,"สุเมธร์")+COUNTIF($C$101:$D$101,"สุเมธร์")+COUNTIF($C$104:$D$104,"สุเมธร์")+COUNTIF($C$113:$D$113,"สุเมธร์")+COUNTIF($C$116:$D$116,"สุเมธร์")+COUNTIF($C$119:$D$119,"สุเมธร์")+COUNTIF($C$122:$D$122,"สุเมธร์")+COUNTIF($C$125:$D$125,"สุเมธร์")+COUNTIF($C$134:$D$134,"สุเมธร์")+COUNTIF($C$137:$D$137,"สุเมธร์")+COUNTIF($C$140:$D$140,"สุเมธร์")+COUNTIF($C$143:$D$143,"สุเมธร์")+COUNTIF($C$146:$D$146,"สุเมธร์")+COUNTIF($C$155:$D$155,"สุเมธร์")+COUNTIF($C$158:$D$158,"สุเมธร์")+COUNTIF($C$161:$D$161,"สุเมธร์")+COUNTIF($C$164:$D$164,"สุเมธร์")+COUNTIF($C$167:$D$167,"สุเมธร์")+COUNTIF($C$176:$D$176,"สุเมธร์")+COUNTIF($C$179:$D$179,"สุเมธร์")+COUNTIF($C$182:$D$182,"สุเมธร์")+COUNTIF($C$185:$D$185,"สุเมธร์")+COUNTIF($C$188:$D$188,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="J112">
+        <f>COUNTIF($C$99:$D$99,"สุเมธร์")+COUNTIF($C$102:$D$102,"สุเมธร์")+COUNTIF($C$105:$D$105,"สุเมธร์")+COUNTIF($C$114:$D$114,"สุเมธร์")+COUNTIF($C$117:$D$117,"สุเมธร์")+COUNTIF($C$120:$D$120,"สุเมธร์")+COUNTIF($C$123:$D$123,"สุเมธร์")+COUNTIF($C$126:$D$126,"สุเมธร์")+COUNTIF($C$135:$D$135,"สุเมธร์")+COUNTIF($C$138:$D$138,"สุเมธร์")+COUNTIF($C$141:$D$141,"สุเมธร์")+COUNTIF($C$144:$D$144,"สุเมธร์")+COUNTIF($C$147:$D$147,"สุเมธร์")+COUNTIF($C$156:$D$156,"สุเมธร์")+COUNTIF($C$159:$D$159,"สุเมธร์")+COUNTIF($C$162:$D$162,"สุเมธร์")+COUNTIF($C$165:$D$165,"สุเมธร์")+COUNTIF($C$168:$D$168,"สุเมธร์")+COUNTIF($C$177:$D$177,"สุเมธร์")+COUNTIF($C$180:$D$180,"สุเมธร์")+COUNTIF($C$183:$D$183,"สุเมธร์")+COUNTIF($C$186:$D$186,"สุเมธร์")+COUNTIF($C$189:$D$189,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="K112">
+        <f>SUM(H112:J112)</f>
+        <v/>
+      </c>
+      <c r="M112" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="N112">
+        <f>COUNTIF($C$106:$D$106,"สุเมธร์")+COUNTIF($C$109:$D$109,"สุเมธร์")+COUNTIF($C$127:$D$127,"สุเมธร์")+COUNTIF($C$130:$D$130,"สุเมธร์")+COUNTIF($C$148:$D$148,"สุเมธร์")+COUNTIF($C$151:$D$151,"สุเมธร์")+COUNTIF($C$169:$D$169,"สุเมธร์")+COUNTIF($C$172:$D$172,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="O112">
+        <f>COUNTIF($C$107:$D$107,"สุเมธร์")+COUNTIF($C$110:$D$110,"สุเมธร์")+COUNTIF($C$128:$D$128,"สุเมธร์")+COUNTIF($C$131:$D$131,"สุเมธร์")+COUNTIF($C$149:$D$149,"สุเมธร์")+COUNTIF($C$152:$D$152,"สุเมธร์")+COUNTIF($C$170:$D$170,"สุเมธร์")+COUNTIF($C$173:$D$173,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="P112">
+        <f>COUNTIF($C$108:$D$108,"สุเมธร์")+COUNTIF($C$111:$D$111,"สุเมธร์")+COUNTIF($C$129:$D$129,"สุเมธร์")+COUNTIF($C$132:$D$132,"สุเมธร์")+COUNTIF($C$150:$D$150,"สุเมธร์")+COUNTIF($C$153:$D$153,"สุเมธร์")+COUNTIF($C$171:$D$171,"สุเมธร์")+COUNTIF($C$174:$D$174,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="Q112">
+        <f>SUM(N112:P112)</f>
+        <v/>
+      </c>
+      <c r="S112" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="T112">
+        <f>SUM(H112,N112)</f>
+        <v/>
+      </c>
+      <c r="U112">
+        <f>SUM(I112,O112)</f>
+        <v/>
+      </c>
+      <c r="V112">
+        <f>SUM(J112,P112)</f>
+        <v/>
+      </c>
+      <c r="W112">
+        <f>SUM(K112,Q112)</f>
+        <v/>
       </c>
     </row>
     <row r="113">
@@ -4484,20 +5420,80 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C113" s="11" t="inlineStr">
+      <c r="C113" s="6" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D113" s="14" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E113" s="6" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E113" s="4" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="G113" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113">
+        <f>COUNTIF($C$98:$D$98,"นที")+COUNTIF($C$101:$D$101,"นที")+COUNTIF($C$104:$D$104,"นที")+COUNTIF($C$113:$D$113,"นที")+COUNTIF($C$116:$D$116,"นที")+COUNTIF($C$119:$D$119,"นที")+COUNTIF($C$122:$D$122,"นที")+COUNTIF($C$125:$D$125,"นที")+COUNTIF($C$134:$D$134,"นที")+COUNTIF($C$137:$D$137,"นที")+COUNTIF($C$140:$D$140,"นที")+COUNTIF($C$143:$D$143,"นที")+COUNTIF($C$146:$D$146,"นที")+COUNTIF($C$155:$D$155,"นที")+COUNTIF($C$158:$D$158,"นที")+COUNTIF($C$161:$D$161,"นที")+COUNTIF($C$164:$D$164,"นที")+COUNTIF($C$167:$D$167,"นที")+COUNTIF($C$176:$D$176,"นที")+COUNTIF($C$179:$D$179,"นที")+COUNTIF($C$182:$D$182,"นที")+COUNTIF($C$185:$D$185,"นที")+COUNTIF($C$188:$D$188,"นที")</f>
+        <v/>
+      </c>
+      <c r="J113">
+        <f>COUNTIF($C$99:$D$99,"นที")+COUNTIF($C$102:$D$102,"นที")+COUNTIF($C$105:$D$105,"นที")+COUNTIF($C$114:$D$114,"นที")+COUNTIF($C$117:$D$117,"นที")+COUNTIF($C$120:$D$120,"นที")+COUNTIF($C$123:$D$123,"นที")+COUNTIF($C$126:$D$126,"นที")+COUNTIF($C$135:$D$135,"นที")+COUNTIF($C$138:$D$138,"นที")+COUNTIF($C$141:$D$141,"นที")+COUNTIF($C$144:$D$144,"นที")+COUNTIF($C$147:$D$147,"นที")+COUNTIF($C$156:$D$156,"นที")+COUNTIF($C$159:$D$159,"นที")+COUNTIF($C$162:$D$162,"นที")+COUNTIF($C$165:$D$165,"นที")+COUNTIF($C$168:$D$168,"นที")+COUNTIF($C$177:$D$177,"นที")+COUNTIF($C$180:$D$180,"นที")+COUNTIF($C$183:$D$183,"นที")+COUNTIF($C$186:$D$186,"นที")+COUNTIF($C$189:$D$189,"นที")</f>
+        <v/>
+      </c>
+      <c r="K113">
+        <f>SUM(H113:J113)</f>
+        <v/>
+      </c>
+      <c r="M113" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="N113">
+        <f>COUNTIF($C$106:$D$106,"นที")+COUNTIF($C$109:$D$109,"นที")+COUNTIF($C$127:$D$127,"นที")+COUNTIF($C$130:$D$130,"นที")+COUNTIF($C$148:$D$148,"นที")+COUNTIF($C$151:$D$151,"นที")+COUNTIF($C$169:$D$169,"นที")+COUNTIF($C$172:$D$172,"นที")</f>
+        <v/>
+      </c>
+      <c r="O113">
+        <f>COUNTIF($C$107:$D$107,"นที")+COUNTIF($C$110:$D$110,"นที")+COUNTIF($C$128:$D$128,"นที")+COUNTIF($C$131:$D$131,"นที")+COUNTIF($C$149:$D$149,"นที")+COUNTIF($C$152:$D$152,"นที")+COUNTIF($C$170:$D$170,"นที")+COUNTIF($C$173:$D$173,"นที")</f>
+        <v/>
+      </c>
+      <c r="P113">
+        <f>COUNTIF($C$108:$D$108,"นที")+COUNTIF($C$111:$D$111,"นที")+COUNTIF($C$129:$D$129,"นที")+COUNTIF($C$132:$D$132,"นที")+COUNTIF($C$150:$D$150,"นที")+COUNTIF($C$153:$D$153,"นที")+COUNTIF($C$171:$D$171,"นที")+COUNTIF($C$174:$D$174,"นที")</f>
+        <v/>
+      </c>
+      <c r="Q113">
+        <f>SUM(N113:P113)</f>
+        <v/>
+      </c>
+      <c r="S113" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="T113">
+        <f>SUM(H113,N113)</f>
+        <v/>
+      </c>
+      <c r="U113">
+        <f>SUM(I113,O113)</f>
+        <v/>
+      </c>
+      <c r="V113">
+        <f>SUM(J113,P113)</f>
+        <v/>
+      </c>
+      <c r="W113">
+        <f>SUM(K113,Q113)</f>
+        <v/>
       </c>
     </row>
     <row r="114">
@@ -4506,29 +5502,46 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C114" s="11" t="inlineStr">
+      <c r="C114" s="6" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D114" s="14" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E114" s="6" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E114" s="4" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
-        <v>7</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>วันทำการ โรงพยาบาลเด็ก</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>วันหยุด โรงพยาบาลเด็ก</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>รวมโรงพยาบาลเด็ก</t>
         </is>
       </c>
     </row>
@@ -4538,19 +5551,79 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C116" s="13" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="D116" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E116" s="3" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
+      <c r="C116" s="10" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D116" s="8" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E116" s="5" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="W116" t="inlineStr">
+        <is>
+          <t>รวม</t>
         </is>
       </c>
     </row>
@@ -4560,30 +5633,152 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C117" s="13" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="D117" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E117" s="3" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
+      <c r="C117" s="10" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D117" s="8" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E117" s="5" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="G117" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117">
+        <f>COUNTIF($E$98,"ภูวเนตร")+COUNTIF($E$101,"ภูวเนตร")+COUNTIF($E$104,"ภูวเนตร")+COUNTIF($E$113,"ภูวเนตร")+COUNTIF($E$116,"ภูวเนตร")+COUNTIF($E$119,"ภูวเนตร")+COUNTIF($E$122,"ภูวเนตร")+COUNTIF($E$125,"ภูวเนตร")+COUNTIF($E$134,"ภูวเนตร")+COUNTIF($E$137,"ภูวเนตร")+COUNTIF($E$140,"ภูวเนตร")+COUNTIF($E$143,"ภูวเนตร")+COUNTIF($E$146,"ภูวเนตร")+COUNTIF($E$155,"ภูวเนตร")+COUNTIF($E$158,"ภูวเนตร")+COUNTIF($E$161,"ภูวเนตร")+COUNTIF($E$164,"ภูวเนตร")+COUNTIF($E$167,"ภูวเนตร")+COUNTIF($E$176,"ภูวเนตร")+COUNTIF($E$179,"ภูวเนตร")+COUNTIF($E$182,"ภูวเนตร")+COUNTIF($E$185,"ภูวเนตร")+COUNTIF($E$188,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="J117">
+        <f>COUNTIF($E$99,"ภูวเนตร")+COUNTIF($E$102,"ภูวเนตร")+COUNTIF($E$105,"ภูวเนตร")+COUNTIF($E$114,"ภูวเนตร")+COUNTIF($E$117,"ภูวเนตร")+COUNTIF($E$120,"ภูวเนตร")+COUNTIF($E$123,"ภูวเนตร")+COUNTIF($E$126,"ภูวเนตร")+COUNTIF($E$135,"ภูวเนตร")+COUNTIF($E$138,"ภูวเนตร")+COUNTIF($E$141,"ภูวเนตร")+COUNTIF($E$144,"ภูวเนตร")+COUNTIF($E$147,"ภูวเนตร")+COUNTIF($E$156,"ภูวเนตร")+COUNTIF($E$159,"ภูวเนตร")+COUNTIF($E$162,"ภูวเนตร")+COUNTIF($E$165,"ภูวเนตร")+COUNTIF($E$168,"ภูวเนตร")+COUNTIF($E$177,"ภูวเนตร")+COUNTIF($E$180,"ภูวเนตร")+COUNTIF($E$183,"ภูวเนตร")+COUNTIF($E$186,"ภูวเนตร")+COUNTIF($E$189,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="K117">
+        <f>SUM(H117:J117)</f>
+        <v/>
+      </c>
+      <c r="M117" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="N117">
+        <f>COUNTIF($E$106,"ภูวเนตร")+COUNTIF($E$109,"ภูวเนตร")+COUNTIF($E$127,"ภูวเนตร")+COUNTIF($E$130,"ภูวเนตร")+COUNTIF($E$148,"ภูวเนตร")+COUNTIF($E$151,"ภูวเนตร")+COUNTIF($E$169,"ภูวเนตร")+COUNTIF($E$172,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="O117">
+        <f>COUNTIF($E$107,"ภูวเนตร")+COUNTIF($E$110,"ภูวเนตร")+COUNTIF($E$128,"ภูวเนตร")+COUNTIF($E$131,"ภูวเนตร")+COUNTIF($E$149,"ภูวเนตร")+COUNTIF($E$152,"ภูวเนตร")+COUNTIF($E$170,"ภูวเนตร")+COUNTIF($E$173,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="P117">
+        <f>COUNTIF($E$108,"ภูวเนตร")+COUNTIF($E$111,"ภูวเนตร")+COUNTIF($E$129,"ภูวเนตร")+COUNTIF($E$132,"ภูวเนตร")+COUNTIF($E$150,"ภูวเนตร")+COUNTIF($E$153,"ภูวเนตร")+COUNTIF($E$171,"ภูวเนตร")+COUNTIF($E$174,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="Q117">
+        <f>SUM(N117:P117)</f>
+        <v/>
+      </c>
+      <c r="S117" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="T117">
+        <f>SUM(H117,N117)</f>
+        <v/>
+      </c>
+      <c r="U117">
+        <f>SUM(I117,O117)</f>
+        <v/>
+      </c>
+      <c r="V117">
+        <f>SUM(J117,P117)</f>
+        <v/>
+      </c>
+      <c r="W117">
+        <f>SUM(K117,Q117)</f>
+        <v/>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
-        <v>8</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>08:00-16:00</t>
         </is>
+      </c>
+      <c r="G118" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118">
+        <f>COUNTIF($E$98,"ราเชนทร์")+COUNTIF($E$101,"ราเชนทร์")+COUNTIF($E$104,"ราเชนทร์")+COUNTIF($E$113,"ราเชนทร์")+COUNTIF($E$116,"ราเชนทร์")+COUNTIF($E$119,"ราเชนทร์")+COUNTIF($E$122,"ราเชนทร์")+COUNTIF($E$125,"ราเชนทร์")+COUNTIF($E$134,"ราเชนทร์")+COUNTIF($E$137,"ราเชนทร์")+COUNTIF($E$140,"ราเชนทร์")+COUNTIF($E$143,"ราเชนทร์")+COUNTIF($E$146,"ราเชนทร์")+COUNTIF($E$155,"ราเชนทร์")+COUNTIF($E$158,"ราเชนทร์")+COUNTIF($E$161,"ราเชนทร์")+COUNTIF($E$164,"ราเชนทร์")+COUNTIF($E$167,"ราเชนทร์")+COUNTIF($E$176,"ราเชนทร์")+COUNTIF($E$179,"ราเชนทร์")+COUNTIF($E$182,"ราเชนทร์")+COUNTIF($E$185,"ราเชนทร์")+COUNTIF($E$188,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="J118">
+        <f>COUNTIF($E$99,"ราเชนทร์")+COUNTIF($E$102,"ราเชนทร์")+COUNTIF($E$105,"ราเชนทร์")+COUNTIF($E$114,"ราเชนทร์")+COUNTIF($E$117,"ราเชนทร์")+COUNTIF($E$120,"ราเชนทร์")+COUNTIF($E$123,"ราเชนทร์")+COUNTIF($E$126,"ราเชนทร์")+COUNTIF($E$135,"ราเชนทร์")+COUNTIF($E$138,"ราเชนทร์")+COUNTIF($E$141,"ราเชนทร์")+COUNTIF($E$144,"ราเชนทร์")+COUNTIF($E$147,"ราเชนทร์")+COUNTIF($E$156,"ราเชนทร์")+COUNTIF($E$159,"ราเชนทร์")+COUNTIF($E$162,"ราเชนทร์")+COUNTIF($E$165,"ราเชนทร์")+COUNTIF($E$168,"ราเชนทร์")+COUNTIF($E$177,"ราเชนทร์")+COUNTIF($E$180,"ราเชนทร์")+COUNTIF($E$183,"ราเชนทร์")+COUNTIF($E$186,"ราเชนทร์")+COUNTIF($E$189,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="K118">
+        <f>SUM(H118:J118)</f>
+        <v/>
+      </c>
+      <c r="M118" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="N118">
+        <f>COUNTIF($E$106,"ราเชนทร์")+COUNTIF($E$109,"ราเชนทร์")+COUNTIF($E$127,"ราเชนทร์")+COUNTIF($E$130,"ราเชนทร์")+COUNTIF($E$148,"ราเชนทร์")+COUNTIF($E$151,"ราเชนทร์")+COUNTIF($E$169,"ราเชนทร์")+COUNTIF($E$172,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="O118">
+        <f>COUNTIF($E$107,"ราเชนทร์")+COUNTIF($E$110,"ราเชนทร์")+COUNTIF($E$128,"ราเชนทร์")+COUNTIF($E$131,"ราเชนทร์")+COUNTIF($E$149,"ราเชนทร์")+COUNTIF($E$152,"ราเชนทร์")+COUNTIF($E$170,"ราเชนทร์")+COUNTIF($E$173,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="P118">
+        <f>COUNTIF($E$108,"ราเชนทร์")+COUNTIF($E$111,"ราเชนทร์")+COUNTIF($E$129,"ราเชนทร์")+COUNTIF($E$132,"ราเชนทร์")+COUNTIF($E$150,"ราเชนทร์")+COUNTIF($E$153,"ราเชนทร์")+COUNTIF($E$171,"ราเชนทร์")+COUNTIF($E$174,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="Q118">
+        <f>SUM(N118:P118)</f>
+        <v/>
+      </c>
+      <c r="S118" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="T118">
+        <f>SUM(H118,N118)</f>
+        <v/>
+      </c>
+      <c r="U118">
+        <f>SUM(I118,O118)</f>
+        <v/>
+      </c>
+      <c r="V118">
+        <f>SUM(J118,P118)</f>
+        <v/>
+      </c>
+      <c r="W118">
+        <f>SUM(K118,Q118)</f>
+        <v/>
       </c>
     </row>
     <row r="119">
@@ -4594,18 +5789,78 @@
       </c>
       <c r="C119" s="15" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D119" s="7" t="inlineStr">
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D119" s="12" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="E119" s="8" t="inlineStr">
+      <c r="E119" s="7" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="G119" s="1" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119">
+        <f>COUNTIF($E$98,"พลกฤต")+COUNTIF($E$101,"พลกฤต")+COUNTIF($E$104,"พลกฤต")+COUNTIF($E$113,"พลกฤต")+COUNTIF($E$116,"พลกฤต")+COUNTIF($E$119,"พลกฤต")+COUNTIF($E$122,"พลกฤต")+COUNTIF($E$125,"พลกฤต")+COUNTIF($E$134,"พลกฤต")+COUNTIF($E$137,"พลกฤต")+COUNTIF($E$140,"พลกฤต")+COUNTIF($E$143,"พลกฤต")+COUNTIF($E$146,"พลกฤต")+COUNTIF($E$155,"พลกฤต")+COUNTIF($E$158,"พลกฤต")+COUNTIF($E$161,"พลกฤต")+COUNTIF($E$164,"พลกฤต")+COUNTIF($E$167,"พลกฤต")+COUNTIF($E$176,"พลกฤต")+COUNTIF($E$179,"พลกฤต")+COUNTIF($E$182,"พลกฤต")+COUNTIF($E$185,"พลกฤต")+COUNTIF($E$188,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="J119">
+        <f>COUNTIF($E$99,"พลกฤต")+COUNTIF($E$102,"พลกฤต")+COUNTIF($E$105,"พลกฤต")+COUNTIF($E$114,"พลกฤต")+COUNTIF($E$117,"พลกฤต")+COUNTIF($E$120,"พลกฤต")+COUNTIF($E$123,"พลกฤต")+COUNTIF($E$126,"พลกฤต")+COUNTIF($E$135,"พลกฤต")+COUNTIF($E$138,"พลกฤต")+COUNTIF($E$141,"พลกฤต")+COUNTIF($E$144,"พลกฤต")+COUNTIF($E$147,"พลกฤต")+COUNTIF($E$156,"พลกฤต")+COUNTIF($E$159,"พลกฤต")+COUNTIF($E$162,"พลกฤต")+COUNTIF($E$165,"พลกฤต")+COUNTIF($E$168,"พลกฤต")+COUNTIF($E$177,"พลกฤต")+COUNTIF($E$180,"พลกฤต")+COUNTIF($E$183,"พลกฤต")+COUNTIF($E$186,"พลกฤต")+COUNTIF($E$189,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="K119">
+        <f>SUM(H119:J119)</f>
+        <v/>
+      </c>
+      <c r="M119" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="N119">
+        <f>COUNTIF($E$106,"พลกฤต")+COUNTIF($E$109,"พลกฤต")+COUNTIF($E$127,"พลกฤต")+COUNTIF($E$130,"พลกฤต")+COUNTIF($E$148,"พลกฤต")+COUNTIF($E$151,"พลกฤต")+COUNTIF($E$169,"พลกฤต")+COUNTIF($E$172,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="O119">
+        <f>COUNTIF($E$107,"พลกฤต")+COUNTIF($E$110,"พลกฤต")+COUNTIF($E$128,"พลกฤต")+COUNTIF($E$131,"พลกฤต")+COUNTIF($E$149,"พลกฤต")+COUNTIF($E$152,"พลกฤต")+COUNTIF($E$170,"พลกฤต")+COUNTIF($E$173,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="P119">
+        <f>COUNTIF($E$108,"พลกฤต")+COUNTIF($E$111,"พลกฤต")+COUNTIF($E$129,"พลกฤต")+COUNTIF($E$132,"พลกฤต")+COUNTIF($E$150,"พลกฤต")+COUNTIF($E$153,"พลกฤต")+COUNTIF($E$171,"พลกฤต")+COUNTIF($E$174,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="Q119">
+        <f>SUM(N119:P119)</f>
+        <v/>
+      </c>
+      <c r="S119" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="T119">
+        <f>SUM(H119,N119)</f>
+        <v/>
+      </c>
+      <c r="U119">
+        <f>SUM(I119,O119)</f>
+        <v/>
+      </c>
+      <c r="V119">
+        <f>SUM(J119,P119)</f>
+        <v/>
+      </c>
+      <c r="W119">
+        <f>SUM(K119,Q119)</f>
+        <v/>
       </c>
     </row>
     <row r="120">
@@ -4616,28 +5871,150 @@
       </c>
       <c r="C120" s="15" t="inlineStr">
         <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D120" s="12" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E120" s="7" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="G120" s="1" t="inlineStr">
+        <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="D120" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E120" s="8" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120">
+        <f>COUNTIF($E$98,"ชานนท์")+COUNTIF($E$101,"ชานนท์")+COUNTIF($E$104,"ชานนท์")+COUNTIF($E$113,"ชานนท์")+COUNTIF($E$116,"ชานนท์")+COUNTIF($E$119,"ชานนท์")+COUNTIF($E$122,"ชานนท์")+COUNTIF($E$125,"ชานนท์")+COUNTIF($E$134,"ชานนท์")+COUNTIF($E$137,"ชานนท์")+COUNTIF($E$140,"ชานนท์")+COUNTIF($E$143,"ชานนท์")+COUNTIF($E$146,"ชานนท์")+COUNTIF($E$155,"ชานนท์")+COUNTIF($E$158,"ชานนท์")+COUNTIF($E$161,"ชานนท์")+COUNTIF($E$164,"ชานนท์")+COUNTIF($E$167,"ชานนท์")+COUNTIF($E$176,"ชานนท์")+COUNTIF($E$179,"ชานนท์")+COUNTIF($E$182,"ชานนท์")+COUNTIF($E$185,"ชานนท์")+COUNTIF($E$188,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="J120">
+        <f>COUNTIF($E$99,"ชานนท์")+COUNTIF($E$102,"ชานนท์")+COUNTIF($E$105,"ชานนท์")+COUNTIF($E$114,"ชานนท์")+COUNTIF($E$117,"ชานนท์")+COUNTIF($E$120,"ชานนท์")+COUNTIF($E$123,"ชานนท์")+COUNTIF($E$126,"ชานนท์")+COUNTIF($E$135,"ชานนท์")+COUNTIF($E$138,"ชานนท์")+COUNTIF($E$141,"ชานนท์")+COUNTIF($E$144,"ชานนท์")+COUNTIF($E$147,"ชานนท์")+COUNTIF($E$156,"ชานนท์")+COUNTIF($E$159,"ชานนท์")+COUNTIF($E$162,"ชานนท์")+COUNTIF($E$165,"ชานนท์")+COUNTIF($E$168,"ชานนท์")+COUNTIF($E$177,"ชานนท์")+COUNTIF($E$180,"ชานนท์")+COUNTIF($E$183,"ชานนท์")+COUNTIF($E$186,"ชานนท์")+COUNTIF($E$189,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="K120">
+        <f>SUM(H120:J120)</f>
+        <v/>
+      </c>
+      <c r="M120" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="N120">
+        <f>COUNTIF($E$106,"ชานนท์")+COUNTIF($E$109,"ชานนท์")+COUNTIF($E$127,"ชานนท์")+COUNTIF($E$130,"ชานนท์")+COUNTIF($E$148,"ชานนท์")+COUNTIF($E$151,"ชานนท์")+COUNTIF($E$169,"ชานนท์")+COUNTIF($E$172,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="O120">
+        <f>COUNTIF($E$107,"ชานนท์")+COUNTIF($E$110,"ชานนท์")+COUNTIF($E$128,"ชานนท์")+COUNTIF($E$131,"ชานนท์")+COUNTIF($E$149,"ชานนท์")+COUNTIF($E$152,"ชานนท์")+COUNTIF($E$170,"ชานนท์")+COUNTIF($E$173,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="P120">
+        <f>COUNTIF($E$108,"ชานนท์")+COUNTIF($E$111,"ชานนท์")+COUNTIF($E$129,"ชานนท์")+COUNTIF($E$132,"ชานนท์")+COUNTIF($E$150,"ชานนท์")+COUNTIF($E$153,"ชานนท์")+COUNTIF($E$171,"ชานนท์")+COUNTIF($E$174,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="Q120">
+        <f>SUM(N120:P120)</f>
+        <v/>
+      </c>
+      <c r="S120" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="T120">
+        <f>SUM(H120,N120)</f>
+        <v/>
+      </c>
+      <c r="U120">
+        <f>SUM(I120,O120)</f>
+        <v/>
+      </c>
+      <c r="V120">
+        <f>SUM(J120,P120)</f>
+        <v/>
+      </c>
+      <c r="W120">
+        <f>SUM(K120,Q120)</f>
+        <v/>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
-        <v>9</v>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>08:00-16:00</t>
         </is>
+      </c>
+      <c r="G121" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121">
+        <f>COUNTIF($E$98,"ปรมะ")+COUNTIF($E$101,"ปรมะ")+COUNTIF($E$104,"ปรมะ")+COUNTIF($E$113,"ปรมะ")+COUNTIF($E$116,"ปรมะ")+COUNTIF($E$119,"ปรมะ")+COUNTIF($E$122,"ปรมะ")+COUNTIF($E$125,"ปรมะ")+COUNTIF($E$134,"ปรมะ")+COUNTIF($E$137,"ปรมะ")+COUNTIF($E$140,"ปรมะ")+COUNTIF($E$143,"ปรมะ")+COUNTIF($E$146,"ปรมะ")+COUNTIF($E$155,"ปรมะ")+COUNTIF($E$158,"ปรมะ")+COUNTIF($E$161,"ปรมะ")+COUNTIF($E$164,"ปรมะ")+COUNTIF($E$167,"ปรมะ")+COUNTIF($E$176,"ปรมะ")+COUNTIF($E$179,"ปรมะ")+COUNTIF($E$182,"ปรมะ")+COUNTIF($E$185,"ปรมะ")+COUNTIF($E$188,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="J121">
+        <f>COUNTIF($E$99,"ปรมะ")+COUNTIF($E$102,"ปรมะ")+COUNTIF($E$105,"ปรมะ")+COUNTIF($E$114,"ปรมะ")+COUNTIF($E$117,"ปรมะ")+COUNTIF($E$120,"ปรมะ")+COUNTIF($E$123,"ปรมะ")+COUNTIF($E$126,"ปรมะ")+COUNTIF($E$135,"ปรมะ")+COUNTIF($E$138,"ปรมะ")+COUNTIF($E$141,"ปรมะ")+COUNTIF($E$144,"ปรมะ")+COUNTIF($E$147,"ปรมะ")+COUNTIF($E$156,"ปรมะ")+COUNTIF($E$159,"ปรมะ")+COUNTIF($E$162,"ปรมะ")+COUNTIF($E$165,"ปรมะ")+COUNTIF($E$168,"ปรมะ")+COUNTIF($E$177,"ปรมะ")+COUNTIF($E$180,"ปรมะ")+COUNTIF($E$183,"ปรมะ")+COUNTIF($E$186,"ปรมะ")+COUNTIF($E$189,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="K121">
+        <f>SUM(H121:J121)</f>
+        <v/>
+      </c>
+      <c r="M121" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="N121">
+        <f>COUNTIF($E$106,"ปรมะ")+COUNTIF($E$109,"ปรมะ")+COUNTIF($E$127,"ปรมะ")+COUNTIF($E$130,"ปรมะ")+COUNTIF($E$148,"ปรมะ")+COUNTIF($E$151,"ปรมะ")+COUNTIF($E$169,"ปรมะ")+COUNTIF($E$172,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="O121">
+        <f>COUNTIF($E$107,"ปรมะ")+COUNTIF($E$110,"ปรมะ")+COUNTIF($E$128,"ปรมะ")+COUNTIF($E$131,"ปรมะ")+COUNTIF($E$149,"ปรมะ")+COUNTIF($E$152,"ปรมะ")+COUNTIF($E$170,"ปรมะ")+COUNTIF($E$173,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="P121">
+        <f>COUNTIF($E$108,"ปรมะ")+COUNTIF($E$111,"ปรมะ")+COUNTIF($E$129,"ปรมะ")+COUNTIF($E$132,"ปรมะ")+COUNTIF($E$150,"ปรมะ")+COUNTIF($E$153,"ปรมะ")+COUNTIF($E$171,"ปรมะ")+COUNTIF($E$174,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="Q121">
+        <f>SUM(N121:P121)</f>
+        <v/>
+      </c>
+      <c r="S121" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="T121">
+        <f>SUM(H121,N121)</f>
+        <v/>
+      </c>
+      <c r="U121">
+        <f>SUM(I121,O121)</f>
+        <v/>
+      </c>
+      <c r="V121">
+        <f>SUM(J121,P121)</f>
+        <v/>
+      </c>
+      <c r="W121">
+        <f>SUM(K121,Q121)</f>
+        <v/>
       </c>
     </row>
     <row r="122">
@@ -4646,20 +6023,80 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C122" s="3" t="inlineStr">
+      <c r="C122" s="16" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="D122" s="5" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E122" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
+      <c r="D122" s="8" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E122" s="4" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="G122" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122">
+        <f>COUNTIF($E$98,"สัญญา")+COUNTIF($E$101,"สัญญา")+COUNTIF($E$104,"สัญญา")+COUNTIF($E$113,"สัญญา")+COUNTIF($E$116,"สัญญา")+COUNTIF($E$119,"สัญญา")+COUNTIF($E$122,"สัญญา")+COUNTIF($E$125,"สัญญา")+COUNTIF($E$134,"สัญญา")+COUNTIF($E$137,"สัญญา")+COUNTIF($E$140,"สัญญา")+COUNTIF($E$143,"สัญญา")+COUNTIF($E$146,"สัญญา")+COUNTIF($E$155,"สัญญา")+COUNTIF($E$158,"สัญญา")+COUNTIF($E$161,"สัญญา")+COUNTIF($E$164,"สัญญา")+COUNTIF($E$167,"สัญญา")+COUNTIF($E$176,"สัญญา")+COUNTIF($E$179,"สัญญา")+COUNTIF($E$182,"สัญญา")+COUNTIF($E$185,"สัญญา")+COUNTIF($E$188,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="J122">
+        <f>COUNTIF($E$99,"สัญญา")+COUNTIF($E$102,"สัญญา")+COUNTIF($E$105,"สัญญา")+COUNTIF($E$114,"สัญญา")+COUNTIF($E$117,"สัญญา")+COUNTIF($E$120,"สัญญา")+COUNTIF($E$123,"สัญญา")+COUNTIF($E$126,"สัญญา")+COUNTIF($E$135,"สัญญา")+COUNTIF($E$138,"สัญญา")+COUNTIF($E$141,"สัญญา")+COUNTIF($E$144,"สัญญา")+COUNTIF($E$147,"สัญญา")+COUNTIF($E$156,"สัญญา")+COUNTIF($E$159,"สัญญา")+COUNTIF($E$162,"สัญญา")+COUNTIF($E$165,"สัญญา")+COUNTIF($E$168,"สัญญา")+COUNTIF($E$177,"สัญญา")+COUNTIF($E$180,"สัญญา")+COUNTIF($E$183,"สัญญา")+COUNTIF($E$186,"สัญญา")+COUNTIF($E$189,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="K122">
+        <f>SUM(H122:J122)</f>
+        <v/>
+      </c>
+      <c r="M122" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="N122">
+        <f>COUNTIF($E$106,"สัญญา")+COUNTIF($E$109,"สัญญา")+COUNTIF($E$127,"สัญญา")+COUNTIF($E$130,"สัญญา")+COUNTIF($E$148,"สัญญา")+COUNTIF($E$151,"สัญญา")+COUNTIF($E$169,"สัญญา")+COUNTIF($E$172,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="O122">
+        <f>COUNTIF($E$107,"สัญญา")+COUNTIF($E$110,"สัญญา")+COUNTIF($E$128,"สัญญา")+COUNTIF($E$131,"สัญญา")+COUNTIF($E$149,"สัญญา")+COUNTIF($E$152,"สัญญา")+COUNTIF($E$170,"สัญญา")+COUNTIF($E$173,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="P122">
+        <f>COUNTIF($E$108,"สัญญา")+COUNTIF($E$111,"สัญญา")+COUNTIF($E$129,"สัญญา")+COUNTIF($E$132,"สัญญา")+COUNTIF($E$150,"สัญญา")+COUNTIF($E$153,"สัญญา")+COUNTIF($E$171,"สัญญา")+COUNTIF($E$174,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="Q122">
+        <f>SUM(N122:P122)</f>
+        <v/>
+      </c>
+      <c r="S122" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="T122">
+        <f>SUM(H122,N122)</f>
+        <v/>
+      </c>
+      <c r="U122">
+        <f>SUM(I122,O122)</f>
+        <v/>
+      </c>
+      <c r="V122">
+        <f>SUM(J122,P122)</f>
+        <v/>
+      </c>
+      <c r="W122">
+        <f>SUM(K122,Q122)</f>
+        <v/>
       </c>
     </row>
     <row r="123">
@@ -4668,30 +6105,152 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C123" s="3" t="inlineStr">
+      <c r="C123" s="16" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="D123" s="5" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E123" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
+      <c r="D123" s="8" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E123" s="4" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="G123" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123">
+        <f>COUNTIF($E$98,"วินัย")+COUNTIF($E$101,"วินัย")+COUNTIF($E$104,"วินัย")+COUNTIF($E$113,"วินัย")+COUNTIF($E$116,"วินัย")+COUNTIF($E$119,"วินัย")+COUNTIF($E$122,"วินัย")+COUNTIF($E$125,"วินัย")+COUNTIF($E$134,"วินัย")+COUNTIF($E$137,"วินัย")+COUNTIF($E$140,"วินัย")+COUNTIF($E$143,"วินัย")+COUNTIF($E$146,"วินัย")+COUNTIF($E$155,"วินัย")+COUNTIF($E$158,"วินัย")+COUNTIF($E$161,"วินัย")+COUNTIF($E$164,"วินัย")+COUNTIF($E$167,"วินัย")+COUNTIF($E$176,"วินัย")+COUNTIF($E$179,"วินัย")+COUNTIF($E$182,"วินัย")+COUNTIF($E$185,"วินัย")+COUNTIF($E$188,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="J123">
+        <f>COUNTIF($E$99,"วินัย")+COUNTIF($E$102,"วินัย")+COUNTIF($E$105,"วินัย")+COUNTIF($E$114,"วินัย")+COUNTIF($E$117,"วินัย")+COUNTIF($E$120,"วินัย")+COUNTIF($E$123,"วินัย")+COUNTIF($E$126,"วินัย")+COUNTIF($E$135,"วินัย")+COUNTIF($E$138,"วินัย")+COUNTIF($E$141,"วินัย")+COUNTIF($E$144,"วินัย")+COUNTIF($E$147,"วินัย")+COUNTIF($E$156,"วินัย")+COUNTIF($E$159,"วินัย")+COUNTIF($E$162,"วินัย")+COUNTIF($E$165,"วินัย")+COUNTIF($E$168,"วินัย")+COUNTIF($E$177,"วินัย")+COUNTIF($E$180,"วินัย")+COUNTIF($E$183,"วินัย")+COUNTIF($E$186,"วินัย")+COUNTIF($E$189,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="K123">
+        <f>SUM(H123:J123)</f>
+        <v/>
+      </c>
+      <c r="M123" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="N123">
+        <f>COUNTIF($E$106,"วินัย")+COUNTIF($E$109,"วินัย")+COUNTIF($E$127,"วินัย")+COUNTIF($E$130,"วินัย")+COUNTIF($E$148,"วินัย")+COUNTIF($E$151,"วินัย")+COUNTIF($E$169,"วินัย")+COUNTIF($E$172,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="O123">
+        <f>COUNTIF($E$107,"วินัย")+COUNTIF($E$110,"วินัย")+COUNTIF($E$128,"วินัย")+COUNTIF($E$131,"วินัย")+COUNTIF($E$149,"วินัย")+COUNTIF($E$152,"วินัย")+COUNTIF($E$170,"วินัย")+COUNTIF($E$173,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="P123">
+        <f>COUNTIF($E$108,"วินัย")+COUNTIF($E$111,"วินัย")+COUNTIF($E$129,"วินัย")+COUNTIF($E$132,"วินัย")+COUNTIF($E$150,"วินัย")+COUNTIF($E$153,"วินัย")+COUNTIF($E$171,"วินัย")+COUNTIF($E$174,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="Q123">
+        <f>SUM(N123:P123)</f>
+        <v/>
+      </c>
+      <c r="S123" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="T123">
+        <f>SUM(H123,N123)</f>
+        <v/>
+      </c>
+      <c r="U123">
+        <f>SUM(I123,O123)</f>
+        <v/>
+      </c>
+      <c r="V123">
+        <f>SUM(J123,P123)</f>
+        <v/>
+      </c>
+      <c r="W123">
+        <f>SUM(K123,Q123)</f>
+        <v/>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
-        <v>10</v>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>08:00-16:00</t>
         </is>
+      </c>
+      <c r="G124" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124">
+        <f>COUNTIF($E$98,"รณยุทธ")+COUNTIF($E$101,"รณยุทธ")+COUNTIF($E$104,"รณยุทธ")+COUNTIF($E$113,"รณยุทธ")+COUNTIF($E$116,"รณยุทธ")+COUNTIF($E$119,"รณยุทธ")+COUNTIF($E$122,"รณยุทธ")+COUNTIF($E$125,"รณยุทธ")+COUNTIF($E$134,"รณยุทธ")+COUNTIF($E$137,"รณยุทธ")+COUNTIF($E$140,"รณยุทธ")+COUNTIF($E$143,"รณยุทธ")+COUNTIF($E$146,"รณยุทธ")+COUNTIF($E$155,"รณยุทธ")+COUNTIF($E$158,"รณยุทธ")+COUNTIF($E$161,"รณยุทธ")+COUNTIF($E$164,"รณยุทธ")+COUNTIF($E$167,"รณยุทธ")+COUNTIF($E$176,"รณยุทธ")+COUNTIF($E$179,"รณยุทธ")+COUNTIF($E$182,"รณยุทธ")+COUNTIF($E$185,"รณยุทธ")+COUNTIF($E$188,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="J124">
+        <f>COUNTIF($E$99,"รณยุทธ")+COUNTIF($E$102,"รณยุทธ")+COUNTIF($E$105,"รณยุทธ")+COUNTIF($E$114,"รณยุทธ")+COUNTIF($E$117,"รณยุทธ")+COUNTIF($E$120,"รณยุทธ")+COUNTIF($E$123,"รณยุทธ")+COUNTIF($E$126,"รณยุทธ")+COUNTIF($E$135,"รณยุทธ")+COUNTIF($E$138,"รณยุทธ")+COUNTIF($E$141,"รณยุทธ")+COUNTIF($E$144,"รณยุทธ")+COUNTIF($E$147,"รณยุทธ")+COUNTIF($E$156,"รณยุทธ")+COUNTIF($E$159,"รณยุทธ")+COUNTIF($E$162,"รณยุทธ")+COUNTIF($E$165,"รณยุทธ")+COUNTIF($E$168,"รณยุทธ")+COUNTIF($E$177,"รณยุทธ")+COUNTIF($E$180,"รณยุทธ")+COUNTIF($E$183,"รณยุทธ")+COUNTIF($E$186,"รณยุทธ")+COUNTIF($E$189,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="K124">
+        <f>SUM(H124:J124)</f>
+        <v/>
+      </c>
+      <c r="M124" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="N124">
+        <f>COUNTIF($E$106,"รณยุทธ")+COUNTIF($E$109,"รณยุทธ")+COUNTIF($E$127,"รณยุทธ")+COUNTIF($E$130,"รณยุทธ")+COUNTIF($E$148,"รณยุทธ")+COUNTIF($E$151,"รณยุทธ")+COUNTIF($E$169,"รณยุทธ")+COUNTIF($E$172,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="O124">
+        <f>COUNTIF($E$107,"รณยุทธ")+COUNTIF($E$110,"รณยุทธ")+COUNTIF($E$128,"รณยุทธ")+COUNTIF($E$131,"รณยุทธ")+COUNTIF($E$149,"รณยุทธ")+COUNTIF($E$152,"รณยุทธ")+COUNTIF($E$170,"รณยุทธ")+COUNTIF($E$173,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="P124">
+        <f>COUNTIF($E$108,"รณยุทธ")+COUNTIF($E$111,"รณยุทธ")+COUNTIF($E$129,"รณยุทธ")+COUNTIF($E$132,"รณยุทธ")+COUNTIF($E$150,"รณยุทธ")+COUNTIF($E$153,"รณยุทธ")+COUNTIF($E$171,"รณยุทธ")+COUNTIF($E$174,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="Q124">
+        <f>SUM(N124:P124)</f>
+        <v/>
+      </c>
+      <c r="S124" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="T124">
+        <f>SUM(H124,N124)</f>
+        <v/>
+      </c>
+      <c r="U124">
+        <f>SUM(I124,O124)</f>
+        <v/>
+      </c>
+      <c r="V124">
+        <f>SUM(J124,P124)</f>
+        <v/>
+      </c>
+      <c r="W124">
+        <f>SUM(K124,Q124)</f>
+        <v/>
       </c>
     </row>
     <row r="125">
@@ -4700,20 +6259,80 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C125" s="10" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D125" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E125" s="14" t="inlineStr">
+      <c r="C125" s="6" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D125" s="17" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E125" s="11" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
+      </c>
+      <c r="G125" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125">
+        <f>COUNTIF($E$98,"วัฒพงษ์")+COUNTIF($E$101,"วัฒพงษ์")+COUNTIF($E$104,"วัฒพงษ์")+COUNTIF($E$113,"วัฒพงษ์")+COUNTIF($E$116,"วัฒพงษ์")+COUNTIF($E$119,"วัฒพงษ์")+COUNTIF($E$122,"วัฒพงษ์")+COUNTIF($E$125,"วัฒพงษ์")+COUNTIF($E$134,"วัฒพงษ์")+COUNTIF($E$137,"วัฒพงษ์")+COUNTIF($E$140,"วัฒพงษ์")+COUNTIF($E$143,"วัฒพงษ์")+COUNTIF($E$146,"วัฒพงษ์")+COUNTIF($E$155,"วัฒพงษ์")+COUNTIF($E$158,"วัฒพงษ์")+COUNTIF($E$161,"วัฒพงษ์")+COUNTIF($E$164,"วัฒพงษ์")+COUNTIF($E$167,"วัฒพงษ์")+COUNTIF($E$176,"วัฒพงษ์")+COUNTIF($E$179,"วัฒพงษ์")+COUNTIF($E$182,"วัฒพงษ์")+COUNTIF($E$185,"วัฒพงษ์")+COUNTIF($E$188,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="J125">
+        <f>COUNTIF($E$99,"วัฒพงษ์")+COUNTIF($E$102,"วัฒพงษ์")+COUNTIF($E$105,"วัฒพงษ์")+COUNTIF($E$114,"วัฒพงษ์")+COUNTIF($E$117,"วัฒพงษ์")+COUNTIF($E$120,"วัฒพงษ์")+COUNTIF($E$123,"วัฒพงษ์")+COUNTIF($E$126,"วัฒพงษ์")+COUNTIF($E$135,"วัฒพงษ์")+COUNTIF($E$138,"วัฒพงษ์")+COUNTIF($E$141,"วัฒพงษ์")+COUNTIF($E$144,"วัฒพงษ์")+COUNTIF($E$147,"วัฒพงษ์")+COUNTIF($E$156,"วัฒพงษ์")+COUNTIF($E$159,"วัฒพงษ์")+COUNTIF($E$162,"วัฒพงษ์")+COUNTIF($E$165,"วัฒพงษ์")+COUNTIF($E$168,"วัฒพงษ์")+COUNTIF($E$177,"วัฒพงษ์")+COUNTIF($E$180,"วัฒพงษ์")+COUNTIF($E$183,"วัฒพงษ์")+COUNTIF($E$186,"วัฒพงษ์")+COUNTIF($E$189,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="K125">
+        <f>SUM(H125:J125)</f>
+        <v/>
+      </c>
+      <c r="M125" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="N125">
+        <f>COUNTIF($E$106,"วัฒพงษ์")+COUNTIF($E$109,"วัฒพงษ์")+COUNTIF($E$127,"วัฒพงษ์")+COUNTIF($E$130,"วัฒพงษ์")+COUNTIF($E$148,"วัฒพงษ์")+COUNTIF($E$151,"วัฒพงษ์")+COUNTIF($E$169,"วัฒพงษ์")+COUNTIF($E$172,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="O125">
+        <f>COUNTIF($E$107,"วัฒพงษ์")+COUNTIF($E$110,"วัฒพงษ์")+COUNTIF($E$128,"วัฒพงษ์")+COUNTIF($E$131,"วัฒพงษ์")+COUNTIF($E$149,"วัฒพงษ์")+COUNTIF($E$152,"วัฒพงษ์")+COUNTIF($E$170,"วัฒพงษ์")+COUNTIF($E$173,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="P125">
+        <f>COUNTIF($E$108,"วัฒพงษ์")+COUNTIF($E$111,"วัฒพงษ์")+COUNTIF($E$129,"วัฒพงษ์")+COUNTIF($E$132,"วัฒพงษ์")+COUNTIF($E$150,"วัฒพงษ์")+COUNTIF($E$153,"วัฒพงษ์")+COUNTIF($E$171,"วัฒพงษ์")+COUNTIF($E$174,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="Q125">
+        <f>SUM(N125:P125)</f>
+        <v/>
+      </c>
+      <c r="S125" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="T125">
+        <f>SUM(H125,N125)</f>
+        <v/>
+      </c>
+      <c r="U125">
+        <f>SUM(I125,O125)</f>
+        <v/>
+      </c>
+      <c r="V125">
+        <f>SUM(J125,P125)</f>
+        <v/>
+      </c>
+      <c r="W125">
+        <f>SUM(K125,Q125)</f>
+        <v/>
       </c>
     </row>
     <row r="126">
@@ -4722,45 +6341,167 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C126" s="10" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D126" s="7" t="inlineStr">
+      <c r="C126" s="6" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D126" s="17" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E126" s="11" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="E126" s="14" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126">
+        <f>COUNTIF($E$98,"ราเชน")+COUNTIF($E$101,"ราเชน")+COUNTIF($E$104,"ราเชน")+COUNTIF($E$113,"ราเชน")+COUNTIF($E$116,"ราเชน")+COUNTIF($E$119,"ราเชน")+COUNTIF($E$122,"ราเชน")+COUNTIF($E$125,"ราเชน")+COUNTIF($E$134,"ราเชน")+COUNTIF($E$137,"ราเชน")+COUNTIF($E$140,"ราเชน")+COUNTIF($E$143,"ราเชน")+COUNTIF($E$146,"ราเชน")+COUNTIF($E$155,"ราเชน")+COUNTIF($E$158,"ราเชน")+COUNTIF($E$161,"ราเชน")+COUNTIF($E$164,"ราเชน")+COUNTIF($E$167,"ราเชน")+COUNTIF($E$176,"ราเชน")+COUNTIF($E$179,"ราเชน")+COUNTIF($E$182,"ราเชน")+COUNTIF($E$185,"ราเชน")+COUNTIF($E$188,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="J126">
+        <f>COUNTIF($E$99,"ราเชน")+COUNTIF($E$102,"ราเชน")+COUNTIF($E$105,"ราเชน")+COUNTIF($E$114,"ราเชน")+COUNTIF($E$117,"ราเชน")+COUNTIF($E$120,"ราเชน")+COUNTIF($E$123,"ราเชน")+COUNTIF($E$126,"ราเชน")+COUNTIF($E$135,"ราเชน")+COUNTIF($E$138,"ราเชน")+COUNTIF($E$141,"ราเชน")+COUNTIF($E$144,"ราเชน")+COUNTIF($E$147,"ราเชน")+COUNTIF($E$156,"ราเชน")+COUNTIF($E$159,"ราเชน")+COUNTIF($E$162,"ราเชน")+COUNTIF($E$165,"ราเชน")+COUNTIF($E$168,"ราเชน")+COUNTIF($E$177,"ราเชน")+COUNTIF($E$180,"ราเชน")+COUNTIF($E$183,"ราเชน")+COUNTIF($E$186,"ราเชน")+COUNTIF($E$189,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="K126">
+        <f>SUM(H126:J126)</f>
+        <v/>
+      </c>
+      <c r="M126" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="N126">
+        <f>COUNTIF($E$106,"ราเชน")+COUNTIF($E$109,"ราเชน")+COUNTIF($E$127,"ราเชน")+COUNTIF($E$130,"ราเชน")+COUNTIF($E$148,"ราเชน")+COUNTIF($E$151,"ราเชน")+COUNTIF($E$169,"ราเชน")+COUNTIF($E$172,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="O126">
+        <f>COUNTIF($E$107,"ราเชน")+COUNTIF($E$110,"ราเชน")+COUNTIF($E$128,"ราเชน")+COUNTIF($E$131,"ราเชน")+COUNTIF($E$149,"ราเชน")+COUNTIF($E$152,"ราเชน")+COUNTIF($E$170,"ราเชน")+COUNTIF($E$173,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="P126">
+        <f>COUNTIF($E$108,"ราเชน")+COUNTIF($E$111,"ราเชน")+COUNTIF($E$129,"ราเชน")+COUNTIF($E$132,"ราเชน")+COUNTIF($E$150,"ราเชน")+COUNTIF($E$153,"ราเชน")+COUNTIF($E$171,"ราเชน")+COUNTIF($E$174,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="Q126">
+        <f>SUM(N126:P126)</f>
+        <v/>
+      </c>
+      <c r="S126" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="T126">
+        <f>SUM(H126,N126)</f>
+        <v/>
+      </c>
+      <c r="U126">
+        <f>SUM(I126,O126)</f>
+        <v/>
+      </c>
+      <c r="V126">
+        <f>SUM(J126,P126)</f>
+        <v/>
+      </c>
+      <c r="W126">
+        <f>SUM(K126,Q126)</f>
+        <v/>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
-        <v>11</v>
+      <c r="A127" s="3" t="inlineStr">
+        <is>
+          <t>11*</t>
+        </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C127" s="3" t="inlineStr">
+      <c r="C127" s="16" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="D127" s="5" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E127" s="11" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
+      <c r="D127" s="12" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E127" s="10" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127">
+        <f>COUNTIF($E$98,"นฤชิต")+COUNTIF($E$101,"นฤชิต")+COUNTIF($E$104,"นฤชิต")+COUNTIF($E$113,"นฤชิต")+COUNTIF($E$116,"นฤชิต")+COUNTIF($E$119,"นฤชิต")+COUNTIF($E$122,"นฤชิต")+COUNTIF($E$125,"นฤชิต")+COUNTIF($E$134,"นฤชิต")+COUNTIF($E$137,"นฤชิต")+COUNTIF($E$140,"นฤชิต")+COUNTIF($E$143,"นฤชิต")+COUNTIF($E$146,"นฤชิต")+COUNTIF($E$155,"นฤชิต")+COUNTIF($E$158,"นฤชิต")+COUNTIF($E$161,"นฤชิต")+COUNTIF($E$164,"นฤชิต")+COUNTIF($E$167,"นฤชิต")+COUNTIF($E$176,"นฤชิต")+COUNTIF($E$179,"นฤชิต")+COUNTIF($E$182,"นฤชิต")+COUNTIF($E$185,"นฤชิต")+COUNTIF($E$188,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="J127">
+        <f>COUNTIF($E$99,"นฤชิต")+COUNTIF($E$102,"นฤชิต")+COUNTIF($E$105,"นฤชิต")+COUNTIF($E$114,"นฤชิต")+COUNTIF($E$117,"นฤชิต")+COUNTIF($E$120,"นฤชิต")+COUNTIF($E$123,"นฤชิต")+COUNTIF($E$126,"นฤชิต")+COUNTIF($E$135,"นฤชิต")+COUNTIF($E$138,"นฤชิต")+COUNTIF($E$141,"นฤชิต")+COUNTIF($E$144,"นฤชิต")+COUNTIF($E$147,"นฤชิต")+COUNTIF($E$156,"นฤชิต")+COUNTIF($E$159,"นฤชิต")+COUNTIF($E$162,"นฤชิต")+COUNTIF($E$165,"นฤชิต")+COUNTIF($E$168,"นฤชิต")+COUNTIF($E$177,"นฤชิต")+COUNTIF($E$180,"นฤชิต")+COUNTIF($E$183,"นฤชิต")+COUNTIF($E$186,"นฤชิต")+COUNTIF($E$189,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="K127">
+        <f>SUM(H127:J127)</f>
+        <v/>
+      </c>
+      <c r="M127" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="N127">
+        <f>COUNTIF($E$106,"นฤชิต")+COUNTIF($E$109,"นฤชิต")+COUNTIF($E$127,"นฤชิต")+COUNTIF($E$130,"นฤชิต")+COUNTIF($E$148,"นฤชิต")+COUNTIF($E$151,"นฤชิต")+COUNTIF($E$169,"นฤชิต")+COUNTIF($E$172,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="O127">
+        <f>COUNTIF($E$107,"นฤชิต")+COUNTIF($E$110,"นฤชิต")+COUNTIF($E$128,"นฤชิต")+COUNTIF($E$131,"นฤชิต")+COUNTIF($E$149,"นฤชิต")+COUNTIF($E$152,"นฤชิต")+COUNTIF($E$170,"นฤชิต")+COUNTIF($E$173,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="P127">
+        <f>COUNTIF($E$108,"นฤชิต")+COUNTIF($E$111,"นฤชิต")+COUNTIF($E$129,"นฤชิต")+COUNTIF($E$132,"นฤชิต")+COUNTIF($E$150,"นฤชิต")+COUNTIF($E$153,"นฤชิต")+COUNTIF($E$171,"นฤชิต")+COUNTIF($E$174,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="Q127">
+        <f>SUM(N127:P127)</f>
+        <v/>
+      </c>
+      <c r="S127" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="T127">
+        <f>SUM(H127,N127)</f>
+        <v/>
+      </c>
+      <c r="U127">
+        <f>SUM(I127,O127)</f>
+        <v/>
+      </c>
+      <c r="V127">
+        <f>SUM(J127,P127)</f>
+        <v/>
+      </c>
+      <c r="W127">
+        <f>SUM(K127,Q127)</f>
+        <v/>
       </c>
     </row>
     <row r="128">
@@ -4769,20 +6510,80 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C128" s="16" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D128" s="4" t="inlineStr">
+      <c r="C128" s="7" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D128" s="8" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="E128" s="8" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
+      <c r="E128" s="4" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128">
+        <f>COUNTIF($E$98,"จีรวัฒน์")+COUNTIF($E$101,"จีรวัฒน์")+COUNTIF($E$104,"จีรวัฒน์")+COUNTIF($E$113,"จีรวัฒน์")+COUNTIF($E$116,"จีรวัฒน์")+COUNTIF($E$119,"จีรวัฒน์")+COUNTIF($E$122,"จีรวัฒน์")+COUNTIF($E$125,"จีรวัฒน์")+COUNTIF($E$134,"จีรวัฒน์")+COUNTIF($E$137,"จีรวัฒน์")+COUNTIF($E$140,"จีรวัฒน์")+COUNTIF($E$143,"จีรวัฒน์")+COUNTIF($E$146,"จีรวัฒน์")+COUNTIF($E$155,"จีรวัฒน์")+COUNTIF($E$158,"จีรวัฒน์")+COUNTIF($E$161,"จีรวัฒน์")+COUNTIF($E$164,"จีรวัฒน์")+COUNTIF($E$167,"จีรวัฒน์")+COUNTIF($E$176,"จีรวัฒน์")+COUNTIF($E$179,"จีรวัฒน์")+COUNTIF($E$182,"จีรวัฒน์")+COUNTIF($E$185,"จีรวัฒน์")+COUNTIF($E$188,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="J128">
+        <f>COUNTIF($E$99,"จีรวัฒน์")+COUNTIF($E$102,"จีรวัฒน์")+COUNTIF($E$105,"จีรวัฒน์")+COUNTIF($E$114,"จีรวัฒน์")+COUNTIF($E$117,"จีรวัฒน์")+COUNTIF($E$120,"จีรวัฒน์")+COUNTIF($E$123,"จีรวัฒน์")+COUNTIF($E$126,"จีรวัฒน์")+COUNTIF($E$135,"จีรวัฒน์")+COUNTIF($E$138,"จีรวัฒน์")+COUNTIF($E$141,"จีรวัฒน์")+COUNTIF($E$144,"จีรวัฒน์")+COUNTIF($E$147,"จีรวัฒน์")+COUNTIF($E$156,"จีรวัฒน์")+COUNTIF($E$159,"จีรวัฒน์")+COUNTIF($E$162,"จีรวัฒน์")+COUNTIF($E$165,"จีรวัฒน์")+COUNTIF($E$168,"จีรวัฒน์")+COUNTIF($E$177,"จีรวัฒน์")+COUNTIF($E$180,"จีรวัฒน์")+COUNTIF($E$183,"จีรวัฒน์")+COUNTIF($E$186,"จีรวัฒน์")+COUNTIF($E$189,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="K128">
+        <f>SUM(H128:J128)</f>
+        <v/>
+      </c>
+      <c r="M128" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="N128">
+        <f>COUNTIF($E$106,"จีรวัฒน์")+COUNTIF($E$109,"จีรวัฒน์")+COUNTIF($E$127,"จีรวัฒน์")+COUNTIF($E$130,"จีรวัฒน์")+COUNTIF($E$148,"จีรวัฒน์")+COUNTIF($E$151,"จีรวัฒน์")+COUNTIF($E$169,"จีรวัฒน์")+COUNTIF($E$172,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="O128">
+        <f>COUNTIF($E$107,"จีรวัฒน์")+COUNTIF($E$110,"จีรวัฒน์")+COUNTIF($E$128,"จีรวัฒน์")+COUNTIF($E$131,"จีรวัฒน์")+COUNTIF($E$149,"จีรวัฒน์")+COUNTIF($E$152,"จีรวัฒน์")+COUNTIF($E$170,"จีรวัฒน์")+COUNTIF($E$173,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="P128">
+        <f>COUNTIF($E$108,"จีรวัฒน์")+COUNTIF($E$111,"จีรวัฒน์")+COUNTIF($E$129,"จีรวัฒน์")+COUNTIF($E$132,"จีรวัฒน์")+COUNTIF($E$150,"จีรวัฒน์")+COUNTIF($E$153,"จีรวัฒน์")+COUNTIF($E$171,"จีรวัฒน์")+COUNTIF($E$174,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="Q128">
+        <f>SUM(N128:P128)</f>
+        <v/>
+      </c>
+      <c r="S128" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="T128">
+        <f>SUM(H128,N128)</f>
+        <v/>
+      </c>
+      <c r="U128">
+        <f>SUM(I128,O128)</f>
+        <v/>
+      </c>
+      <c r="V128">
+        <f>SUM(J128,P128)</f>
+        <v/>
+      </c>
+      <c r="W128">
+        <f>SUM(K128,Q128)</f>
+        <v/>
       </c>
     </row>
     <row r="129">
@@ -4791,45 +6592,167 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C129" s="16" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D129" s="4" t="inlineStr">
+      <c r="C129" s="7" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D129" s="8" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="E129" s="8" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
+      <c r="E129" s="4" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="G129" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129">
+        <f>COUNTIF($E$98,"สุเมธร์")+COUNTIF($E$101,"สุเมธร์")+COUNTIF($E$104,"สุเมธร์")+COUNTIF($E$113,"สุเมธร์")+COUNTIF($E$116,"สุเมธร์")+COUNTIF($E$119,"สุเมธร์")+COUNTIF($E$122,"สุเมธร์")+COUNTIF($E$125,"สุเมธร์")+COUNTIF($E$134,"สุเมธร์")+COUNTIF($E$137,"สุเมธร์")+COUNTIF($E$140,"สุเมธร์")+COUNTIF($E$143,"สุเมธร์")+COUNTIF($E$146,"สุเมธร์")+COUNTIF($E$155,"สุเมธร์")+COUNTIF($E$158,"สุเมธร์")+COUNTIF($E$161,"สุเมธร์")+COUNTIF($E$164,"สุเมธร์")+COUNTIF($E$167,"สุเมธร์")+COUNTIF($E$176,"สุเมธร์")+COUNTIF($E$179,"สุเมธร์")+COUNTIF($E$182,"สุเมธร์")+COUNTIF($E$185,"สุเมธร์")+COUNTIF($E$188,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="J129">
+        <f>COUNTIF($E$99,"สุเมธร์")+COUNTIF($E$102,"สุเมธร์")+COUNTIF($E$105,"สุเมธร์")+COUNTIF($E$114,"สุเมธร์")+COUNTIF($E$117,"สุเมธร์")+COUNTIF($E$120,"สุเมธร์")+COUNTIF($E$123,"สุเมธร์")+COUNTIF($E$126,"สุเมธร์")+COUNTIF($E$135,"สุเมธร์")+COUNTIF($E$138,"สุเมธร์")+COUNTIF($E$141,"สุเมธร์")+COUNTIF($E$144,"สุเมธร์")+COUNTIF($E$147,"สุเมธร์")+COUNTIF($E$156,"สุเมธร์")+COUNTIF($E$159,"สุเมธร์")+COUNTIF($E$162,"สุเมธร์")+COUNTIF($E$165,"สุเมธร์")+COUNTIF($E$168,"สุเมธร์")+COUNTIF($E$177,"สุเมธร์")+COUNTIF($E$180,"สุเมธร์")+COUNTIF($E$183,"สุเมธร์")+COUNTIF($E$186,"สุเมธร์")+COUNTIF($E$189,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="K129">
+        <f>SUM(H129:J129)</f>
+        <v/>
+      </c>
+      <c r="M129" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="N129">
+        <f>COUNTIF($E$106,"สุเมธร์")+COUNTIF($E$109,"สุเมธร์")+COUNTIF($E$127,"สุเมธร์")+COUNTIF($E$130,"สุเมธร์")+COUNTIF($E$148,"สุเมธร์")+COUNTIF($E$151,"สุเมธร์")+COUNTIF($E$169,"สุเมธร์")+COUNTIF($E$172,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="O129">
+        <f>COUNTIF($E$107,"สุเมธร์")+COUNTIF($E$110,"สุเมธร์")+COUNTIF($E$128,"สุเมธร์")+COUNTIF($E$131,"สุเมธร์")+COUNTIF($E$149,"สุเมธร์")+COUNTIF($E$152,"สุเมธร์")+COUNTIF($E$170,"สุเมธร์")+COUNTIF($E$173,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="P129">
+        <f>COUNTIF($E$108,"สุเมธร์")+COUNTIF($E$111,"สุเมธร์")+COUNTIF($E$129,"สุเมธร์")+COUNTIF($E$132,"สุเมธร์")+COUNTIF($E$150,"สุเมธร์")+COUNTIF($E$153,"สุเมธร์")+COUNTIF($E$171,"สุเมธร์")+COUNTIF($E$174,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="Q129">
+        <f>SUM(N129:P129)</f>
+        <v/>
+      </c>
+      <c r="S129" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="T129">
+        <f>SUM(H129,N129)</f>
+        <v/>
+      </c>
+      <c r="U129">
+        <f>SUM(I129,O129)</f>
+        <v/>
+      </c>
+      <c r="V129">
+        <f>SUM(J129,P129)</f>
+        <v/>
+      </c>
+      <c r="W129">
+        <f>SUM(K129,Q129)</f>
+        <v/>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
-        <v>12</v>
+      <c r="A130" s="3" t="inlineStr">
+        <is>
+          <t>12*</t>
+        </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C130" s="6" t="inlineStr">
+      <c r="C130" s="15" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="D130" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E130" s="9" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
+      <c r="D130" s="14" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E130" s="11" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130">
+        <f>COUNTIF($E$98,"นที")+COUNTIF($E$101,"นที")+COUNTIF($E$104,"นที")+COUNTIF($E$113,"นที")+COUNTIF($E$116,"นที")+COUNTIF($E$119,"นที")+COUNTIF($E$122,"นที")+COUNTIF($E$125,"นที")+COUNTIF($E$134,"นที")+COUNTIF($E$137,"นที")+COUNTIF($E$140,"นที")+COUNTIF($E$143,"นที")+COUNTIF($E$146,"นที")+COUNTIF($E$155,"นที")+COUNTIF($E$158,"นที")+COUNTIF($E$161,"นที")+COUNTIF($E$164,"นที")+COUNTIF($E$167,"นที")+COUNTIF($E$176,"นที")+COUNTIF($E$179,"นที")+COUNTIF($E$182,"นที")+COUNTIF($E$185,"นที")+COUNTIF($E$188,"นที")</f>
+        <v/>
+      </c>
+      <c r="J130">
+        <f>COUNTIF($E$99,"นที")+COUNTIF($E$102,"นที")+COUNTIF($E$105,"นที")+COUNTIF($E$114,"นที")+COUNTIF($E$117,"นที")+COUNTIF($E$120,"นที")+COUNTIF($E$123,"นที")+COUNTIF($E$126,"นที")+COUNTIF($E$135,"นที")+COUNTIF($E$138,"นที")+COUNTIF($E$141,"นที")+COUNTIF($E$144,"นที")+COUNTIF($E$147,"นที")+COUNTIF($E$156,"นที")+COUNTIF($E$159,"นที")+COUNTIF($E$162,"นที")+COUNTIF($E$165,"นที")+COUNTIF($E$168,"นที")+COUNTIF($E$177,"นที")+COUNTIF($E$180,"นที")+COUNTIF($E$183,"นที")+COUNTIF($E$186,"นที")+COUNTIF($E$189,"นที")</f>
+        <v/>
+      </c>
+      <c r="K130">
+        <f>SUM(H130:J130)</f>
+        <v/>
+      </c>
+      <c r="M130" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="N130">
+        <f>COUNTIF($E$106,"นที")+COUNTIF($E$109,"นที")+COUNTIF($E$127,"นที")+COUNTIF($E$130,"นที")+COUNTIF($E$148,"นที")+COUNTIF($E$151,"นที")+COUNTIF($E$169,"นที")+COUNTIF($E$172,"นที")</f>
+        <v/>
+      </c>
+      <c r="O130">
+        <f>COUNTIF($E$107,"นที")+COUNTIF($E$110,"นที")+COUNTIF($E$128,"นที")+COUNTIF($E$131,"นที")+COUNTIF($E$149,"นที")+COUNTIF($E$152,"นที")+COUNTIF($E$170,"นที")+COUNTIF($E$173,"นที")</f>
+        <v/>
+      </c>
+      <c r="P130">
+        <f>COUNTIF($E$108,"นที")+COUNTIF($E$111,"นที")+COUNTIF($E$129,"นที")+COUNTIF($E$132,"นที")+COUNTIF($E$150,"นที")+COUNTIF($E$153,"นที")+COUNTIF($E$171,"นที")+COUNTIF($E$174,"นที")</f>
+        <v/>
+      </c>
+      <c r="Q130">
+        <f>SUM(N130:P130)</f>
+        <v/>
+      </c>
+      <c r="S130" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="T130">
+        <f>SUM(H130,N130)</f>
+        <v/>
+      </c>
+      <c r="U130">
+        <f>SUM(I130,O130)</f>
+        <v/>
+      </c>
+      <c r="V130">
+        <f>SUM(J130,P130)</f>
+        <v/>
+      </c>
+      <c r="W130">
+        <f>SUM(K130,Q130)</f>
+        <v/>
       </c>
     </row>
     <row r="131">
@@ -4838,19 +6761,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C131" s="15" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D131" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E131" s="10" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+      <c r="C131" s="9" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D131" s="17" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E131" s="13" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
     </row>
@@ -4860,29 +6783,36 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C132" s="15" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D132" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E132" s="10" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+      <c r="C132" s="9" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D132" s="17" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E132" s="13" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
-        <v>13</v>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>สรุป</t>
         </is>
       </c>
     </row>
@@ -4892,19 +6822,39 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C134" s="13" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="D134" s="5" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E134" s="16" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
+      <c r="C134" s="6" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D134" s="12" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E134" s="7" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>วันหยุดชดเชย</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>วันหยุด</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>วันทำการ</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>รวม</t>
         </is>
       </c>
     </row>
@@ -4914,30 +6864,66 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C135" s="13" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="D135" s="5" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E135" s="16" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
+      <c r="C135" s="6" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D135" s="12" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E135" s="7" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="G135" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="I135">
+        <f>SUM(Q100,Q117)</f>
+        <v/>
+      </c>
+      <c r="J135">
+        <f>SUM(K100,K117)</f>
+        <v/>
+      </c>
+      <c r="K135">
+        <f>SUM(J135,I135)</f>
+        <v/>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
-        <v>14</v>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>08:00-16:00</t>
         </is>
+      </c>
+      <c r="G136" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="I136">
+        <f>SUM(Q101,Q118)</f>
+        <v/>
+      </c>
+      <c r="J136">
+        <f>SUM(K101,K118)</f>
+        <v/>
+      </c>
+      <c r="K136">
+        <f>SUM(J136,I136)</f>
+        <v/>
       </c>
     </row>
     <row r="137">
@@ -4946,20 +6932,37 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C137" s="11" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="D137" s="4" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E137" s="15" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
+      <c r="C137" s="13" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D137" s="5" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E137" s="9" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="G137" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="I137">
+        <f>SUM(Q102,Q119)</f>
+        <v/>
+      </c>
+      <c r="J137">
+        <f>SUM(K102,K119)</f>
+        <v/>
+      </c>
+      <c r="K137">
+        <f>SUM(J137,I137)</f>
+        <v/>
       </c>
     </row>
     <row r="138">
@@ -4968,30 +6971,66 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C138" s="11" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="D138" s="4" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E138" s="15" t="inlineStr">
+      <c r="C138" s="13" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D138" s="5" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E138" s="9" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="G138" s="1" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
+      <c r="I138">
+        <f>SUM(Q103,Q120)</f>
+        <v/>
+      </c>
+      <c r="J138">
+        <f>SUM(K103,K120)</f>
+        <v/>
+      </c>
+      <c r="K138">
+        <f>SUM(J138,I138)</f>
+        <v/>
+      </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
-        <v>15</v>
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>08:00-16:00</t>
         </is>
+      </c>
+      <c r="G139" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="I139">
+        <f>SUM(Q104,Q121)</f>
+        <v/>
+      </c>
+      <c r="J139">
+        <f>SUM(K104,K121)</f>
+        <v/>
+      </c>
+      <c r="K139">
+        <f>SUM(J139,I139)</f>
+        <v/>
       </c>
     </row>
     <row r="140">
@@ -5000,20 +7039,37 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C140" s="10" t="inlineStr">
+      <c r="C140" s="7" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="D140" s="14" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E140" s="6" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
+      <c r="D140" s="12" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E140" s="10" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="G140" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="I140">
+        <f>SUM(Q105,Q122)</f>
+        <v/>
+      </c>
+      <c r="J140">
+        <f>SUM(K105,K122)</f>
+        <v/>
+      </c>
+      <c r="K140">
+        <f>SUM(J140,I140)</f>
+        <v/>
       </c>
     </row>
     <row r="141">
@@ -5022,30 +7078,66 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C141" s="10" t="inlineStr">
+      <c r="C141" s="7" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="D141" s="14" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E141" s="6" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
+      <c r="D141" s="12" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E141" s="10" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="G141" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="I141">
+        <f>SUM(Q106,Q123)</f>
+        <v/>
+      </c>
+      <c r="J141">
+        <f>SUM(K106,K123)</f>
+        <v/>
+      </c>
+      <c r="K141">
+        <f>SUM(J141,I141)</f>
+        <v/>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
-        <v>16</v>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>08:00-16:00</t>
         </is>
+      </c>
+      <c r="G142" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="I142">
+        <f>SUM(Q107,Q124)</f>
+        <v/>
+      </c>
+      <c r="J142">
+        <f>SUM(K107,K124)</f>
+        <v/>
+      </c>
+      <c r="K142">
+        <f>SUM(J142,I142)</f>
+        <v/>
       </c>
     </row>
     <row r="143">
@@ -5054,20 +7146,37 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C143" s="8" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D143" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E143" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
+      <c r="C143" s="4" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D143" s="8" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E143" s="16" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="G143" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="I143">
+        <f>SUM(Q108,Q125)</f>
+        <v/>
+      </c>
+      <c r="J143">
+        <f>SUM(K108,K125)</f>
+        <v/>
+      </c>
+      <c r="K143">
+        <f>SUM(J143,I143)</f>
+        <v/>
       </c>
     </row>
     <row r="144">
@@ -5076,30 +7185,66 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C144" s="8" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D144" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E144" s="7" t="inlineStr">
+      <c r="C144" s="4" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D144" s="8" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E144" s="16" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
+      <c r="I144">
+        <f>SUM(Q109,Q126)</f>
+        <v/>
+      </c>
+      <c r="J144">
+        <f>SUM(K109,K126)</f>
+        <v/>
+      </c>
+      <c r="K144">
+        <f>SUM(J144,I144)</f>
+        <v/>
+      </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
-        <v>17</v>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>08:00-16:00</t>
         </is>
+      </c>
+      <c r="G145" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="I145">
+        <f>SUM(Q110,Q127)</f>
+        <v/>
+      </c>
+      <c r="J145">
+        <f>SUM(K110,K127)</f>
+        <v/>
+      </c>
+      <c r="K145">
+        <f>SUM(J145,I145)</f>
+        <v/>
       </c>
     </row>
     <row r="146">
@@ -5108,20 +7253,37 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C146" s="16" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
+      <c r="C146" s="13" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="D146" s="14" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E146" s="3" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E146" s="17" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="I146">
+        <f>SUM(Q111,Q128)</f>
+        <v/>
+      </c>
+      <c r="J146">
+        <f>SUM(K111,K128)</f>
+        <v/>
+      </c>
+      <c r="K146">
+        <f>SUM(J146,I146)</f>
+        <v/>
       </c>
     </row>
     <row r="147">
@@ -5130,45 +7292,81 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C147" s="16" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
+      <c r="C147" s="13" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="D147" s="14" t="inlineStr">
         <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E147" s="17" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="G147" s="2" t="inlineStr">
+        <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="E147" s="3" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
+      <c r="I147">
+        <f>SUM(Q112,Q129)</f>
+        <v/>
+      </c>
+      <c r="J147">
+        <f>SUM(K112,K129)</f>
+        <v/>
+      </c>
+      <c r="K147">
+        <f>SUM(J147,I147)</f>
+        <v/>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
-        <v>18</v>
+      <c r="A148" s="3" t="inlineStr">
+        <is>
+          <t>18*</t>
+        </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C148" s="13" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="D148" s="12" t="inlineStr">
+      <c r="C148" s="10" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D148" s="5" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E148" s="12" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="G148" s="2" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="E148" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
+      <c r="I148">
+        <f>SUM(Q113,Q130)</f>
+        <v/>
+      </c>
+      <c r="J148">
+        <f>SUM(K113,K130)</f>
+        <v/>
+      </c>
+      <c r="K148">
+        <f>SUM(J148,I148)</f>
+        <v/>
       </c>
     </row>
     <row r="149">
@@ -5177,19 +7375,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C149" s="11" t="inlineStr">
+      <c r="C149" s="15" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D149" s="11" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E149" s="6" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="D149" s="5" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E149" s="4" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
         </is>
       </c>
     </row>
@@ -5199,44 +7397,46 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C150" s="11" t="inlineStr">
+      <c r="C150" s="15" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D150" s="11" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E150" s="6" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="D150" s="5" t="inlineStr">
+    </row>
+    <row r="151">
+      <c r="A151" s="3" t="inlineStr">
+        <is>
+          <t>19*</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C151" s="13" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D151" s="14" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E151" s="17" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E150" s="4" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>19</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="C151" s="15" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D151" s="14" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E151" s="3" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
         </is>
       </c>
     </row>
@@ -5246,19 +7446,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C152" s="10" t="inlineStr">
+      <c r="C152" s="4" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D152" s="8" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E152" s="7" t="inlineStr">
         <is>
           <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D152" s="9" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E152" s="6" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
         </is>
       </c>
     </row>
@@ -5268,25 +7468,27 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C153" s="10" t="inlineStr">
+      <c r="C153" s="4" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D153" s="8" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E153" s="7" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="D153" s="9" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E153" s="6" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
-        <v>20</v>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -5300,19 +7502,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C155" s="11" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="D155" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E155" s="16" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
+      <c r="C155" s="16" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D155" s="11" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E155" s="15" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
     </row>
@@ -5322,25 +7524,27 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C156" s="11" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="D156" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E156" s="16" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
+      <c r="C156" s="16" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D156" s="11" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E156" s="15" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
-        <v>21</v>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -5354,19 +7558,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C158" s="8" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D158" s="5" t="inlineStr">
+      <c r="C158" s="9" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D158" s="17" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="E158" s="10" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+      <c r="E158" s="14" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
     </row>
@@ -5376,25 +7580,27 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C159" s="8" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D159" s="5" t="inlineStr">
+      <c r="C159" s="9" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D159" s="17" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="E159" s="10" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+      <c r="E159" s="14" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
-        <v>22</v>
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -5408,19 +7614,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C161" s="6" t="inlineStr">
+      <c r="C161" s="7" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D161" s="5" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E161" s="15" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D161" s="9" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E161" s="13" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
         </is>
       </c>
     </row>
@@ -5430,25 +7636,27 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C162" s="6" t="inlineStr">
+      <c r="C162" s="7" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D162" s="5" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E162" s="15" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="D162" s="9" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E162" s="13" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
-        <v>23</v>
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -5462,17 +7670,17 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C164" s="15" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D164" s="4" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E164" s="7" t="inlineStr">
+      <c r="C164" s="9" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D164" s="17" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E164" s="12" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
@@ -5484,25 +7692,27 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C165" s="15" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D165" s="4" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E165" s="7" t="inlineStr">
+      <c r="C165" s="9" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D165" s="17" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E165" s="12" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="n">
-        <v>24</v>
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -5516,19 +7726,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C167" s="16" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D167" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E167" s="11" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
+      <c r="C167" s="15" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D167" s="11" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E167" s="13" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
     </row>
@@ -5538,44 +7748,46 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C168" s="16" t="inlineStr">
+      <c r="C168" s="15" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D168" s="11" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E168" s="13" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="3" t="inlineStr">
+        <is>
+          <t>25*</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C169" s="7" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D169" s="17" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E169" s="9" t="inlineStr">
         <is>
           <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D168" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E168" s="11" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>25</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="C169" s="10" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D169" s="5" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E169" s="14" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
         </is>
       </c>
     </row>
@@ -5585,19 +7797,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C170" s="8" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D170" s="9" t="inlineStr">
+      <c r="C170" s="16" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D170" s="5" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="E170" s="13" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
+      <c r="E170" s="10" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
     </row>
@@ -5607,42 +7819,44 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C171" s="8" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D171" s="9" t="inlineStr">
+      <c r="C171" s="16" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D171" s="5" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="E171" s="13" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
+      <c r="E171" s="10" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
-        <v>26</v>
+      <c r="A172" s="3" t="inlineStr">
+        <is>
+          <t>26*</t>
+        </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C172" s="16" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D172" s="4" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E172" s="12" t="inlineStr">
+      <c r="C172" s="6" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D172" s="12" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E172" s="14" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
@@ -5654,19 +7868,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C173" s="6" t="inlineStr">
+      <c r="C173" s="13" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D173" s="11" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E173" s="15" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D173" s="14" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E173" s="11" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
         </is>
       </c>
     </row>
@@ -5676,25 +7890,27 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C174" s="6" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D174" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E174" s="3" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
+      <c r="C174" s="13" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D174" s="17" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E174" s="9" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
-        <v>27</v>
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -5708,19 +7924,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C176" s="10" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+      <c r="C176" s="16" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="D176" s="14" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E176" s="13" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E176" s="10" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
     </row>
@@ -5730,25 +7946,27 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C177" s="10" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D177" s="9" t="inlineStr">
+      <c r="C177" s="4" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D177" s="5" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="E177" s="11" t="inlineStr">
+      <c r="E177" s="6" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
-        <v>28</v>
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -5762,19 +7980,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C179" s="13" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="D179" s="4" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E179" s="9" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
+      <c r="C179" s="9" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D179" s="11" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E179" s="13" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
     </row>
@@ -5784,25 +8002,27 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C180" s="8" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D180" s="5" t="inlineStr">
+      <c r="C180" s="9" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D180" s="17" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="E180" s="13" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
+      <c r="E180" s="14" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
-        <v>29</v>
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -5816,17 +8036,17 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C182" s="15" t="inlineStr">
+      <c r="C182" s="10" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="D182" s="9" t="inlineStr">
+      <c r="D182" s="5" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="E182" s="11" t="inlineStr">
+      <c r="E182" s="6" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
@@ -5838,25 +8058,27 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C183" s="6" t="inlineStr">
+      <c r="C183" s="15" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="D183" s="14" t="inlineStr">
+      <c r="D183" s="11" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="E183" s="9" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
+      <c r="E183" s="17" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
-        <v>30</v>
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -5870,19 +8092,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C185" s="16" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D185" s="5" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E185" s="15" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+      <c r="C185" s="13" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D185" s="14" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E185" s="8" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
     </row>
@@ -5894,23 +8116,25 @@
       </c>
       <c r="C186" s="13" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="D186" s="9" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E186" s="15" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D186" s="14" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E186" s="16" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
-        <v>31</v>
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -5924,19 +8148,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C188" s="6" t="inlineStr">
+      <c r="C188" s="15" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="D188" s="8" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="E188" s="4" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
+      <c r="D188" s="4" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="E188" s="16" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
     </row>
@@ -5946,17 +8170,17 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C189" s="16" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D189" s="15" t="inlineStr">
+      <c r="C189" s="10" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="E189" s="4" t="inlineStr">
+      <c r="D189" s="16" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="E189" s="8" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>

--- a/sample3.xlsx
+++ b/sample3.xlsx
@@ -41,8 +41,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC000"/>
-        <bgColor rgb="00FFC000"/>
+        <fgColor rgb="0000B0F0"/>
+        <bgColor rgb="0000B0F0"/>
       </patternFill>
     </fill>
     <fill>
@@ -53,32 +53,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00938953"/>
-        <bgColor rgb="00938953"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00548DD4"/>
-        <bgColor rgb="00548DD4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000FFCC"/>
-        <bgColor rgb="0000FFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007030A0"/>
-        <bgColor rgb="007030A0"/>
+        <fgColor rgb="00FF7C80"/>
+        <bgColor rgb="00FF7C80"/>
       </patternFill>
     </fill>
     <fill>
@@ -95,14 +71,50 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00D99594"/>
+        <bgColor rgb="00D99594"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FF6B6B"/>
         <bgColor rgb="00FF6B6B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF7C80"/>
-        <bgColor rgb="00FF7C80"/>
+        <fgColor rgb="00FFC000"/>
+        <bgColor rgb="00FFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CC26A7"/>
+        <bgColor rgb="00CC26A7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007030A0"/>
+        <bgColor rgb="007030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000B050"/>
+        <bgColor rgb="0000B050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00548DD4"/>
+        <bgColor rgb="00548DD4"/>
       </patternFill>
     </fill>
     <fill>
@@ -113,26 +125,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CC26A7"/>
-        <bgColor rgb="00CC26A7"/>
+        <fgColor rgb="00938953"/>
+        <bgColor rgb="00938953"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000B050"/>
-        <bgColor rgb="0000B050"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000B0F0"/>
-        <bgColor rgb="0000B0F0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D99594"/>
-        <bgColor rgb="00D99594"/>
+        <fgColor rgb="0000FFCC"/>
+        <bgColor rgb="0000FFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -159,22 +159,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -583,17 +583,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -603,17 +603,17 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
           <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -685,37 +685,37 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="L3" s="2" t="inlineStr">
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O3" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
@@ -744,13 +744,13 @@
         <v>1</v>
       </c>
       <c r="T3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
@@ -771,9 +771,29 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>2*</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
@@ -790,13 +810,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
@@ -804,16 +824,16 @@
         </is>
       </c>
       <c r="S4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
@@ -821,39 +841,40 @@
         </is>
       </c>
       <c r="Y4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="AA4" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="AB4" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="1" t="inlineStr">
+      <c r="A5" s="5" t="n"/>
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
           <t>นฤชิต</t>
         </is>
       </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>16:00-24:00</t>
@@ -861,17 +882,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>นที</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -886,10 +907,10 @@
         <v>3</v>
       </c>
       <c r="O5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P5" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
@@ -920,33 +941,34 @@
         <v>4</v>
       </c>
       <c r="AA5" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB5" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="1" t="inlineStr">
+      <c r="A6" s="5" t="n"/>
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>24:00-08:00</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
           <t>24:00-08:00</t>
@@ -954,17 +976,17 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="J6" s="3" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -979,27 +1001,27 @@
         <v>3</v>
       </c>
       <c r="O6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" s="1" t="n">
         <v>4</v>
-      </c>
-      <c r="P6" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="S6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="1" t="n">
-        <v>3</v>
       </c>
       <c r="X6" s="2" t="inlineStr">
         <is>
@@ -1020,9 +1042,29 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>3*</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -1037,17 +1079,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -1059,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O7" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
@@ -1093,34 +1135,35 @@
         <v>1</v>
       </c>
       <c r="Z7" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA7" s="1" t="n">
         <v>4</v>
       </c>
       <c r="AB7" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="1" t="inlineStr">
+      <c r="A8" s="5" t="n"/>
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>วินัย</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="F8" s="5" t="n"/>
@@ -1136,12 +1179,12 @@
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1156,10 +1199,10 @@
         <v>3</v>
       </c>
       <c r="O8" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -1190,21 +1233,22 @@
         <v>4</v>
       </c>
       <c r="AA8" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB8" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="1" t="inlineStr">
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>24:00-08:00</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -1212,9 +1256,9 @@
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="F9" s="5" t="n"/>
@@ -1225,17 +1269,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>วินัย</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1250,41 +1294,41 @@
         <v>3</v>
       </c>
       <c r="O9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="P9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="X9" s="2" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="S9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V9" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="X9" s="2" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
       <c r="Y9" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z9" s="1" t="n">
         <v>4</v>
       </c>
       <c r="AA9" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB9" s="1" t="n">
         <v>10</v>
@@ -1303,19 +1347,19 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
           <t>19*</t>
@@ -1328,17 +1372,17 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="J10" s="3" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1350,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O10" s="1" t="n">
         <v>3</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
@@ -1367,13 +1411,13 @@
         <v>1</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X10" s="2" t="inlineStr">
         <is>
@@ -1402,17 +1446,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="F11" s="5" t="n"/>
@@ -1423,17 +1467,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>นที</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="L11" s="3" t="inlineStr">
@@ -1459,33 +1503,33 @@
         </is>
       </c>
       <c r="S11" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="X11" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="Y11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="V11" s="1" t="n">
+      <c r="Z11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA11" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="X11" s="3" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="Y11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA11" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="AB11" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -1497,17 +1541,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="F12" s="5" t="n"/>
@@ -1518,17 +1562,17 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>นที</t>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="L12" s="3" t="inlineStr">
@@ -1554,33 +1598,33 @@
         </is>
       </c>
       <c r="S12" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="U12" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="V12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="X12" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="Y12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="X12" s="3" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="Y12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="1" t="n">
+      <c r="AA12" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="AA12" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="AB12" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -1601,7 +1645,7 @@
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -1637,33 +1681,33 @@
         </is>
       </c>
       <c r="S13" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T13" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="X13" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="Y13" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="V13" s="1" t="n">
+      <c r="Z13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="X13" s="3" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="Y13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA13" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="AB13" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -1675,17 +1719,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
@@ -1695,17 +1739,17 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr">
@@ -1737,10 +1781,10 @@
         <v>2</v>
       </c>
       <c r="U14" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V14" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X14" s="3" t="inlineStr">
         <is>
@@ -1754,10 +1798,10 @@
         <v>5</v>
       </c>
       <c r="AA14" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB14" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -1769,17 +1813,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
@@ -1789,17 +1833,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="L15" s="3" t="inlineStr">
@@ -1825,16 +1869,16 @@
         </is>
       </c>
       <c r="S15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="T15" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U15" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X15" s="3" t="inlineStr">
         <is>
@@ -1842,16 +1886,16 @@
         </is>
       </c>
       <c r="Y15" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA15" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB15" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -1894,10 +1938,10 @@
         <v>1</v>
       </c>
       <c r="U16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V16" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X16" s="3" t="inlineStr">
         <is>
@@ -1911,10 +1955,10 @@
         <v>4</v>
       </c>
       <c r="AA16" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB16" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -1925,37 +1969,37 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="G17" s="1" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="G17" s="1" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="J17" s="3" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
         </is>
       </c>
     </row>
@@ -1967,37 +2011,37 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="G18" s="1" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="G18" s="1" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="O18" s="1" t="inlineStr">
@@ -2096,19 +2140,19 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
           <t>16:00-24:00</t>
@@ -2116,17 +2160,17 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
@@ -2155,10 +2199,10 @@
         <v>1</v>
       </c>
       <c r="T20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="U20" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="V20" s="1" t="n">
         <v>2</v>
@@ -2172,10 +2216,10 @@
         <v>1</v>
       </c>
       <c r="Z20" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA20" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB20" s="1" t="n">
         <v>5</v>
@@ -2189,19 +2233,19 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
       <c r="G21" s="1" t="inlineStr">
         <is>
           <t>24:00-08:00</t>
@@ -2209,17 +2253,17 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
@@ -2231,10 +2275,10 @@
         <v>0</v>
       </c>
       <c r="N21" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O21" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P21" s="1" t="n">
         <v>3</v>
@@ -2265,10 +2309,10 @@
         <v>0</v>
       </c>
       <c r="Z21" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA21" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="AA21" s="1" t="n">
-        <v>3</v>
       </c>
       <c r="AB21" s="1" t="n">
         <v>5</v>
@@ -2308,7 +2352,7 @@
         </is>
       </c>
       <c r="S22" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="1" t="n">
         <v>1</v>
@@ -2317,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="V22" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X22" s="2" t="inlineStr">
         <is>
@@ -2325,7 +2369,7 @@
         </is>
       </c>
       <c r="Y22" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22" s="1" t="n">
         <v>3</v>
@@ -2334,7 +2378,7 @@
         <v>2</v>
       </c>
       <c r="AB22" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -2345,7 +2389,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -2355,7 +2399,7 @@
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
@@ -2365,7 +2409,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="I23" s="3" t="inlineStr">
@@ -2375,7 +2419,7 @@
       </c>
       <c r="J23" s="3" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
@@ -2387,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="N23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="O23" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="P23" s="1" t="n">
         <v>3</v>
@@ -2401,7 +2445,7 @@
         </is>
       </c>
       <c r="S23" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" s="1" t="n">
         <v>1</v>
@@ -2410,24 +2454,24 @@
         <v>1</v>
       </c>
       <c r="V23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X23" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="Y23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="X23" s="2" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="Y23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="1" t="n">
+      <c r="AA23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AA23" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="AB23" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2438,7 +2482,7 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -2448,7 +2492,7 @@
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
@@ -2458,17 +2502,17 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
@@ -2480,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="N24" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O24" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P24" s="1" t="n">
         <v>3</v>
@@ -2500,10 +2544,10 @@
         <v>1</v>
       </c>
       <c r="U24" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X24" s="2" t="inlineStr">
         <is>
@@ -2514,13 +2558,13 @@
         <v>1</v>
       </c>
       <c r="Z24" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA24" s="1" t="n">
         <v>2</v>
       </c>
       <c r="AB24" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -2546,10 +2590,10 @@
         <v>1</v>
       </c>
       <c r="O25" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P25" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
@@ -2580,10 +2624,10 @@
         <v>2</v>
       </c>
       <c r="AA25" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB25" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -2594,12 +2638,12 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
@@ -2614,7 +2658,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="I26" s="3" t="inlineStr">
@@ -2624,7 +2668,7 @@
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
-          <t>นที</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
@@ -2636,44 +2680,44 @@
         <v>0</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="S26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="R26" s="2" t="inlineStr">
+      <c r="X26" s="2" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="S26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V26" s="1" t="n">
+      <c r="Y26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="X26" s="2" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="Y26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="AA26" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB26" s="1" t="n">
         <v>5</v>
@@ -2687,32 +2731,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="G27" s="1" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="I27" s="3" t="inlineStr">
+        <is>
           <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="G27" s="1" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="I27" s="3" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -2729,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="N27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="O27" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="P27" s="1" t="n">
         <v>3</v>
@@ -2743,7 +2787,7 @@
         </is>
       </c>
       <c r="S27" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" s="1" t="n">
         <v>1</v>
@@ -2752,24 +2796,24 @@
         <v>1</v>
       </c>
       <c r="V27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X27" s="2" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="Y27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="X27" s="2" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="Y27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="1" t="n">
+      <c r="AA27" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AA27" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="AB27" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -2790,17 +2834,17 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>วินัย</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="L28" s="3" t="inlineStr">
@@ -2812,13 +2856,13 @@
         <v>0</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O28" s="1" t="n">
         <v>2</v>
       </c>
       <c r="P28" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R28" s="3" t="inlineStr">
         <is>
@@ -2826,33 +2870,33 @@
         </is>
       </c>
       <c r="S28" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="U28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X28" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="Y28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X28" s="3" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="Y28" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Z28" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA28" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB28" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -2863,17 +2907,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
           <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
         </is>
       </c>
       <c r="F29" s="5" t="n"/>
@@ -2884,7 +2928,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="I29" s="3" t="inlineStr">
@@ -2894,7 +2938,7 @@
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="L29" s="3" t="inlineStr">
@@ -2906,13 +2950,13 @@
         <v>0</v>
       </c>
       <c r="N29" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O29" s="1" t="n">
         <v>2</v>
       </c>
       <c r="P29" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R29" s="3" t="inlineStr">
         <is>
@@ -2920,33 +2964,33 @@
         </is>
       </c>
       <c r="S29" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="U29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X29" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="Y29" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X29" s="3" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="Y29" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Z29" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA29" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB29" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -2957,17 +3001,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>วินัย</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>นที</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="F30" s="5" t="n"/>
@@ -2978,17 +3022,17 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="L30" s="3" t="inlineStr">
@@ -3003,10 +3047,10 @@
         <v>2</v>
       </c>
       <c r="O30" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P30" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R30" s="3" t="inlineStr">
         <is>
@@ -3017,13 +3061,13 @@
         <v>1</v>
       </c>
       <c r="T30" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="V30" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X30" s="3" t="inlineStr">
         <is>
@@ -3034,10 +3078,10 @@
         <v>1</v>
       </c>
       <c r="Z30" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA30" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB30" s="1" t="n">
         <v>5</v>
@@ -3056,42 +3100,42 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr">
+        <is>
+          <t>26*</t>
+        </is>
+      </c>
+      <c r="G31" s="4" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="I31" s="3" t="inlineStr">
+        <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="F31" s="4" t="inlineStr">
-        <is>
-          <t>26*</t>
-        </is>
-      </c>
-      <c r="G31" s="4" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
+      <c r="J31" s="2" t="inlineStr">
         <is>
           <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="I31" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="J31" s="3" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
         </is>
       </c>
       <c r="L31" s="3" t="inlineStr">
@@ -3106,10 +3150,10 @@
         <v>2</v>
       </c>
       <c r="O31" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P31" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R31" s="3" t="inlineStr">
         <is>
@@ -3123,10 +3167,10 @@
         <v>0</v>
       </c>
       <c r="U31" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X31" s="3" t="inlineStr">
         <is>
@@ -3155,17 +3199,17 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="F32" s="5" t="n"/>
@@ -3176,17 +3220,17 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
-          <t>นที</t>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="L32" s="3" t="inlineStr">
@@ -3201,10 +3245,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P32" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R32" s="3" t="inlineStr">
         <is>
@@ -3212,13 +3256,13 @@
         </is>
       </c>
       <c r="S32" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="U32" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32" s="1" t="n">
         <v>1</v>
@@ -3229,16 +3273,16 @@
         </is>
       </c>
       <c r="Y32" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32" s="1" t="n">
         <v>2</v>
       </c>
       <c r="AA32" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB32" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -3250,17 +3294,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="F33" s="5" t="n"/>
@@ -3271,17 +3315,17 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="L33" s="3" t="inlineStr">
@@ -3293,13 +3337,13 @@
         <v>0</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O33" s="1" t="n">
         <v>2</v>
       </c>
       <c r="P33" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R33" s="3" t="inlineStr">
         <is>
@@ -3313,10 +3357,10 @@
         <v>1</v>
       </c>
       <c r="U33" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X33" s="3" t="inlineStr">
         <is>
@@ -3327,10 +3371,10 @@
         <v>0</v>
       </c>
       <c r="Z33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA33" s="1" t="n">
         <v>3</v>
-      </c>
-      <c r="AA33" s="1" t="n">
-        <v>2</v>
       </c>
       <c r="AB33" s="1" t="n">
         <v>5</v>
@@ -3349,17 +3393,17 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="F34" s="1" t="inlineStr">
@@ -3377,37 +3421,37 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="G35" s="1" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="I35" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
           <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D35" s="3" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="G35" s="1" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="J35" s="3" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
         </is>
       </c>
     </row>
@@ -3420,7 +3464,7 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>วินัย</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -3428,9 +3472,9 @@
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
@@ -3440,17 +3484,17 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="J36" s="3" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="I36" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="O36" s="1" t="inlineStr">
@@ -3499,37 +3543,37 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="G38" s="1" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="I38" s="3" t="inlineStr">
+        <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="J38" s="3" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
@@ -3541,10 +3585,10 @@
         <v>2</v>
       </c>
       <c r="N38" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O38" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P38" s="1" t="n">
         <v>15</v>
@@ -3558,55 +3602,55 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="D39" s="3" t="inlineStr">
+      <c r="G39" s="1" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="I39" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="J39" s="3" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="E39" s="3" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="G39" s="1" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="M39" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N39" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O39" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P39" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
@@ -3626,13 +3670,13 @@
         </is>
       </c>
       <c r="M40" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N40" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O40" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P40" s="1" t="n">
         <v>15</v>
@@ -3646,37 +3690,37 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E41" s="2" t="inlineStr">
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="G41" s="1" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
@@ -3685,16 +3729,16 @@
         </is>
       </c>
       <c r="M41" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N41" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O41" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P41" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -3705,37 +3749,37 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="G42" s="1" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
           <t>นที</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="G42" s="1" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
@@ -3747,10 +3791,10 @@
         <v>2</v>
       </c>
       <c r="N42" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O42" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P42" s="1" t="n">
         <v>15</v>
@@ -3793,7 +3837,7 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -3813,17 +3857,17 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="J44" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
@@ -3832,7 +3876,7 @@
         </is>
       </c>
       <c r="M44" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N44" s="1" t="n">
         <v>6</v>
@@ -3852,55 +3896,55 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="D45" s="3" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E45" s="2" t="inlineStr">
+      <c r="G45" s="1" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="J45" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="I45" s="2" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="L45" s="2" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
       <c r="M45" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N45" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O45" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P45" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
@@ -3918,10 +3962,10 @@
         <v>2</v>
       </c>
       <c r="N46" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O46" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P46" s="1" t="n">
         <v>15</v>
@@ -3935,17 +3979,17 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="L47" s="3" t="inlineStr">
@@ -3957,10 +4001,10 @@
         <v>2</v>
       </c>
       <c r="N47" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O47" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P47" s="1" t="n">
         <v>15</v>
@@ -3979,30 +4023,30 @@
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="J48" s="3" t="inlineStr">
+      <c r="L48" s="3" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="L48" s="3" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
       <c r="M48" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N48" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O48" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P48" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
@@ -4015,13 +4059,13 @@
         <v>2</v>
       </c>
       <c r="N49" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O49" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P49" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
@@ -4034,10 +4078,10 @@
         <v>2</v>
       </c>
       <c r="N50" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O50" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P50" s="1" t="n">
         <v>15</v>
@@ -4053,13 +4097,13 @@
         <v>2</v>
       </c>
       <c r="N51" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O51" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P51" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52"/>
@@ -4127,17 +4171,17 @@
       </c>
       <c r="C98" s="6" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D98" s="7" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="E98" s="8" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="G98" s="1" t="inlineStr">
@@ -4147,17 +4191,17 @@
       </c>
       <c r="H98" s="9" t="inlineStr">
         <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="I98" s="10" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="J98" s="11" t="inlineStr">
+        <is>
           <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="I98" s="10" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="J98" s="11" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="O98" s="1" t="inlineStr">
@@ -4182,489 +4226,532 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C99" s="6" t="inlineStr">
+      <c r="C99" s="12" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D99" s="13" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E99" s="7" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="G99" s="1" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H99" s="6" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="I99" s="14" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="J99" s="15" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="M99" s="1" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="N99" s="1" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="O99" s="1" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="P99" s="1" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+      <c r="S99" s="1" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="T99" s="1" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="U99" s="1" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="V99" s="1" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+      <c r="Y99" s="1" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="Z99" s="1" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="AA99" s="1" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="AB99" s="1" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="inlineStr">
+        <is>
+          <t>2*</t>
+        </is>
+      </c>
+      <c r="B100" s="4" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C100" s="16" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="D99" s="7" t="inlineStr">
+      <c r="D100" s="13" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E100" s="9" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="F100" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L100" s="16" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="M100" s="16" t="inlineStr"/>
+      <c r="N100" s="16">
+        <f>COUNTIF($C$98:$D$98,"ภูวเนตร")+COUNTIF($C$113:$D$113,"ภูวเนตร")+COUNTIF($C$116:$D$116,"ภูวเนตร")+COUNTIF($C$119:$D$119,"ภูวเนตร")+COUNTIF($C$122:$D$122,"ภูวเนตร")+COUNTIF($C$125:$D$125,"ภูวเนตร")+COUNTIF($C$134:$D$134,"ภูวเนตร")+COUNTIF($C$137:$D$137,"ภูวเนตร")+COUNTIF($C$140:$D$140,"ภูวเนตร")+COUNTIF($H$98:$I$98,"ภูวเนตร")+COUNTIF($H$101:$I$101,"ภูวเนตร")+COUNTIF($H$110:$I$110,"ภูวเนตร")+COUNTIF($H$113:$I$113,"ภูวเนตร")+COUNTIF($H$116:$I$116,"ภูวเนตร")+COUNTIF($H$119:$I$119,"ภูวเนตร")+COUNTIF($H$122:$I$122,"ภูวเนตร")+COUNTIF($H$131:$I$131,"ภูวเนตร")+COUNTIF($H$134:$I$134,"ภูวเนตร")+COUNTIF($H$137:$I$137,"ภูวเนตร")+COUNTIF($H$140:$I$140,"ภูวเนตร")+COUNTIF($H$143:$I$143,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="O100" s="16">
+        <f>COUNTIF($C$99:$D$99,"ภูวเนตร")+COUNTIF($C$114:$D$114,"ภูวเนตร")+COUNTIF($C$117:$D$117,"ภูวเนตร")+COUNTIF($C$120:$D$120,"ภูวเนตร")+COUNTIF($C$123:$D$123,"ภูวเนตร")+COUNTIF($C$126:$D$126,"ภูวเนตร")+COUNTIF($C$135:$D$135,"ภูวเนตร")+COUNTIF($C$138:$D$138,"ภูวเนตร")+COUNTIF($C$141:$D$141,"ภูวเนตร")+COUNTIF($H$99:$I$99,"ภูวเนตร")+COUNTIF($H$102:$I$102,"ภูวเนตร")+COUNTIF($H$111:$I$111,"ภูวเนตร")+COUNTIF($H$114:$I$114,"ภูวเนตร")+COUNTIF($H$117:$I$117,"ภูวเนตร")+COUNTIF($H$120:$I$120,"ภูวเนตร")+COUNTIF($H$123:$I$123,"ภูวเนตร")+COUNTIF($H$132:$I$132,"ภูวเนตร")+COUNTIF($H$135:$I$135,"ภูวเนตร")+COUNTIF($H$138:$I$138,"ภูวเนตร")+COUNTIF($H$141:$I$141,"ภูวเนตร")+COUNTIF($H$144:$I$144,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="P100" s="16">
+        <f>SUM(M100:O100)</f>
+        <v/>
+      </c>
+      <c r="R100" s="16" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="S100" s="16">
+        <f>COUNTIF($C$100:$D$100,"ภูวเนตร")+COUNTIF($C$103:$D$103,"ภูวเนตร")+COUNTIF($C$106:$D$106,"ภูวเนตร")+COUNTIF($C$109:$D$109,"ภูวเนตร")+COUNTIF($C$127:$D$127,"ภูวเนตร")+COUNTIF($C$130:$D$130,"ภูวเนตร")+COUNTIF($H$103:$I$103,"ภูวเนตร")+COUNTIF($H$106:$I$106,"ภูวเนตร")+COUNTIF($H$124:$I$124,"ภูวเนตร")+COUNTIF($H$127:$I$127,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="T100" s="16">
+        <f>COUNTIF($C$101:$D$101,"ภูวเนตร")+COUNTIF($C$104:$D$104,"ภูวเนตร")+COUNTIF($C$107:$D$107,"ภูวเนตร")+COUNTIF($C$110:$D$110,"ภูวเนตร")+COUNTIF($C$128:$D$128,"ภูวเนตร")+COUNTIF($C$131:$D$131,"ภูวเนตร")+COUNTIF($H$104:$I$104,"ภูวเนตร")+COUNTIF($H$107:$I$107,"ภูวเนตร")+COUNTIF($H$125:$I$125,"ภูวเนตร")+COUNTIF($H$128:$I$128,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="U100" s="16">
+        <f>COUNTIF($C$102:$D$102,"ภูวเนตร")+COUNTIF($C$105:$D$105,"ภูวเนตร")+COUNTIF($C$108:$D$108,"ภูวเนตร")+COUNTIF($C$111:$D$111,"ภูวเนตร")+COUNTIF($C$129:$D$129,"ภูวเนตร")+COUNTIF($C$132:$D$132,"ภูวเนตร")+COUNTIF($H$105:$I$105,"ภูวเนตร")+COUNTIF($H$108:$I$108,"ภูวเนตร")+COUNTIF($H$126:$I$126,"ภูวเนตร")+COUNTIF($H$129:$I$129,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="V100" s="16">
+        <f>SUM(S100:U100)</f>
+        <v/>
+      </c>
+      <c r="X100" s="16" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="Y100" s="16">
+        <f>SUM(M100,S100)</f>
+        <v/>
+      </c>
+      <c r="Z100" s="16">
+        <f>SUM(N100,T100)</f>
+        <v/>
+      </c>
+      <c r="AA100" s="16">
+        <f>SUM(O100,U100)</f>
+        <v/>
+      </c>
+      <c r="AB100" s="16">
+        <f>SUM(P100,V100)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="n"/>
+      <c r="B101" s="4" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C101" s="9" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D101" s="17" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E101" s="18" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="G101" s="1" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H101" s="15" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="I101" s="14" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="E99" s="8" t="inlineStr">
+      <c r="J101" s="17" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="L101" s="8" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="M101" s="8" t="inlineStr"/>
+      <c r="N101" s="8">
+        <f>COUNTIF($C$98:$D$98,"ราเชนทร์")+COUNTIF($C$113:$D$113,"ราเชนทร์")+COUNTIF($C$116:$D$116,"ราเชนทร์")+COUNTIF($C$119:$D$119,"ราเชนทร์")+COUNTIF($C$122:$D$122,"ราเชนทร์")+COUNTIF($C$125:$D$125,"ราเชนทร์")+COUNTIF($C$134:$D$134,"ราเชนทร์")+COUNTIF($C$137:$D$137,"ราเชนทร์")+COUNTIF($C$140:$D$140,"ราเชนทร์")+COUNTIF($H$98:$I$98,"ราเชนทร์")+COUNTIF($H$101:$I$101,"ราเชนทร์")+COUNTIF($H$110:$I$110,"ราเชนทร์")+COUNTIF($H$113:$I$113,"ราเชนทร์")+COUNTIF($H$116:$I$116,"ราเชนทร์")+COUNTIF($H$119:$I$119,"ราเชนทร์")+COUNTIF($H$122:$I$122,"ราเชนทร์")+COUNTIF($H$131:$I$131,"ราเชนทร์")+COUNTIF($H$134:$I$134,"ราเชนทร์")+COUNTIF($H$137:$I$137,"ราเชนทร์")+COUNTIF($H$140:$I$140,"ราเชนทร์")+COUNTIF($H$143:$I$143,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="O101" s="8">
+        <f>COUNTIF($C$99:$D$99,"ราเชนทร์")+COUNTIF($C$114:$D$114,"ราเชนทร์")+COUNTIF($C$117:$D$117,"ราเชนทร์")+COUNTIF($C$120:$D$120,"ราเชนทร์")+COUNTIF($C$123:$D$123,"ราเชนทร์")+COUNTIF($C$126:$D$126,"ราเชนทร์")+COUNTIF($C$135:$D$135,"ราเชนทร์")+COUNTIF($C$138:$D$138,"ราเชนทร์")+COUNTIF($C$141:$D$141,"ราเชนทร์")+COUNTIF($H$99:$I$99,"ราเชนทร์")+COUNTIF($H$102:$I$102,"ราเชนทร์")+COUNTIF($H$111:$I$111,"ราเชนทร์")+COUNTIF($H$114:$I$114,"ราเชนทร์")+COUNTIF($H$117:$I$117,"ราเชนทร์")+COUNTIF($H$120:$I$120,"ราเชนทร์")+COUNTIF($H$123:$I$123,"ราเชนทร์")+COUNTIF($H$132:$I$132,"ราเชนทร์")+COUNTIF($H$135:$I$135,"ราเชนทร์")+COUNTIF($H$138:$I$138,"ราเชนทร์")+COUNTIF($H$141:$I$141,"ราเชนทร์")+COUNTIF($H$144:$I$144,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="P101" s="8">
+        <f>SUM(M101:O101)</f>
+        <v/>
+      </c>
+      <c r="R101" s="8" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="S101" s="8">
+        <f>COUNTIF($C$100:$D$100,"ราเชนทร์")+COUNTIF($C$103:$D$103,"ราเชนทร์")+COUNTIF($C$106:$D$106,"ราเชนทร์")+COUNTIF($C$109:$D$109,"ราเชนทร์")+COUNTIF($C$127:$D$127,"ราเชนทร์")+COUNTIF($C$130:$D$130,"ราเชนทร์")+COUNTIF($H$103:$I$103,"ราเชนทร์")+COUNTIF($H$106:$I$106,"ราเชนทร์")+COUNTIF($H$124:$I$124,"ราเชนทร์")+COUNTIF($H$127:$I$127,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="T101" s="8">
+        <f>COUNTIF($C$101:$D$101,"ราเชนทร์")+COUNTIF($C$104:$D$104,"ราเชนทร์")+COUNTIF($C$107:$D$107,"ราเชนทร์")+COUNTIF($C$110:$D$110,"ราเชนทร์")+COUNTIF($C$128:$D$128,"ราเชนทร์")+COUNTIF($C$131:$D$131,"ราเชนทร์")+COUNTIF($H$104:$I$104,"ราเชนทร์")+COUNTIF($H$107:$I$107,"ราเชนทร์")+COUNTIF($H$125:$I$125,"ราเชนทร์")+COUNTIF($H$128:$I$128,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="U101" s="8">
+        <f>COUNTIF($C$102:$D$102,"ราเชนทร์")+COUNTIF($C$105:$D$105,"ราเชนทร์")+COUNTIF($C$108:$D$108,"ราเชนทร์")+COUNTIF($C$111:$D$111,"ราเชนทร์")+COUNTIF($C$129:$D$129,"ราเชนทร์")+COUNTIF($C$132:$D$132,"ราเชนทร์")+COUNTIF($H$105:$I$105,"ราเชนทร์")+COUNTIF($H$108:$I$108,"ราเชนทร์")+COUNTIF($H$126:$I$126,"ราเชนทร์")+COUNTIF($H$129:$I$129,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="V101" s="8">
+        <f>SUM(S101:U101)</f>
+        <v/>
+      </c>
+      <c r="X101" s="8" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="Y101" s="8">
+        <f>SUM(M101,S101)</f>
+        <v/>
+      </c>
+      <c r="Z101" s="8">
+        <f>SUM(N101,T101)</f>
+        <v/>
+      </c>
+      <c r="AA101" s="8">
+        <f>SUM(O101,U101)</f>
+        <v/>
+      </c>
+      <c r="AB101" s="8">
+        <f>SUM(P101,V101)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="5" t="n"/>
+      <c r="B102" s="4" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="C102" s="12" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D102" s="10" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E102" s="11" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="G102" s="1" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H102" s="8" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="I102" s="13" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="J102" s="16" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="L102" s="11" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="M102" s="11" t="inlineStr"/>
+      <c r="N102" s="11">
+        <f>COUNTIF($C$98:$D$98,"พลกฤต")+COUNTIF($C$113:$D$113,"พลกฤต")+COUNTIF($C$116:$D$116,"พลกฤต")+COUNTIF($C$119:$D$119,"พลกฤต")+COUNTIF($C$122:$D$122,"พลกฤต")+COUNTIF($C$125:$D$125,"พลกฤต")+COUNTIF($C$134:$D$134,"พลกฤต")+COUNTIF($C$137:$D$137,"พลกฤต")+COUNTIF($C$140:$D$140,"พลกฤต")+COUNTIF($H$98:$I$98,"พลกฤต")+COUNTIF($H$101:$I$101,"พลกฤต")+COUNTIF($H$110:$I$110,"พลกฤต")+COUNTIF($H$113:$I$113,"พลกฤต")+COUNTIF($H$116:$I$116,"พลกฤต")+COUNTIF($H$119:$I$119,"พลกฤต")+COUNTIF($H$122:$I$122,"พลกฤต")+COUNTIF($H$131:$I$131,"พลกฤต")+COUNTIF($H$134:$I$134,"พลกฤต")+COUNTIF($H$137:$I$137,"พลกฤต")+COUNTIF($H$140:$I$140,"พลกฤต")+COUNTIF($H$143:$I$143,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="O102" s="11">
+        <f>COUNTIF($C$99:$D$99,"พลกฤต")+COUNTIF($C$114:$D$114,"พลกฤต")+COUNTIF($C$117:$D$117,"พลกฤต")+COUNTIF($C$120:$D$120,"พลกฤต")+COUNTIF($C$123:$D$123,"พลกฤต")+COUNTIF($C$126:$D$126,"พลกฤต")+COUNTIF($C$135:$D$135,"พลกฤต")+COUNTIF($C$138:$D$138,"พลกฤต")+COUNTIF($C$141:$D$141,"พลกฤต")+COUNTIF($H$99:$I$99,"พลกฤต")+COUNTIF($H$102:$I$102,"พลกฤต")+COUNTIF($H$111:$I$111,"พลกฤต")+COUNTIF($H$114:$I$114,"พลกฤต")+COUNTIF($H$117:$I$117,"พลกฤต")+COUNTIF($H$120:$I$120,"พลกฤต")+COUNTIF($H$123:$I$123,"พลกฤต")+COUNTIF($H$132:$I$132,"พลกฤต")+COUNTIF($H$135:$I$135,"พลกฤต")+COUNTIF($H$138:$I$138,"พลกฤต")+COUNTIF($H$141:$I$141,"พลกฤต")+COUNTIF($H$144:$I$144,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="P102" s="11">
+        <f>SUM(M102:O102)</f>
+        <v/>
+      </c>
+      <c r="R102" s="11" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="S102" s="11">
+        <f>COUNTIF($C$100:$D$100,"พลกฤต")+COUNTIF($C$103:$D$103,"พลกฤต")+COUNTIF($C$106:$D$106,"พลกฤต")+COUNTIF($C$109:$D$109,"พลกฤต")+COUNTIF($C$127:$D$127,"พลกฤต")+COUNTIF($C$130:$D$130,"พลกฤต")+COUNTIF($H$103:$I$103,"พลกฤต")+COUNTIF($H$106:$I$106,"พลกฤต")+COUNTIF($H$124:$I$124,"พลกฤต")+COUNTIF($H$127:$I$127,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="T102" s="11">
+        <f>COUNTIF($C$101:$D$101,"พลกฤต")+COUNTIF($C$104:$D$104,"พลกฤต")+COUNTIF($C$107:$D$107,"พลกฤต")+COUNTIF($C$110:$D$110,"พลกฤต")+COUNTIF($C$128:$D$128,"พลกฤต")+COUNTIF($C$131:$D$131,"พลกฤต")+COUNTIF($H$104:$I$104,"พลกฤต")+COUNTIF($H$107:$I$107,"พลกฤต")+COUNTIF($H$125:$I$125,"พลกฤต")+COUNTIF($H$128:$I$128,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="U102" s="11">
+        <f>COUNTIF($C$102:$D$102,"พลกฤต")+COUNTIF($C$105:$D$105,"พลกฤต")+COUNTIF($C$108:$D$108,"พลกฤต")+COUNTIF($C$111:$D$111,"พลกฤต")+COUNTIF($C$129:$D$129,"พลกฤต")+COUNTIF($C$132:$D$132,"พลกฤต")+COUNTIF($H$105:$I$105,"พลกฤต")+COUNTIF($H$108:$I$108,"พลกฤต")+COUNTIF($H$126:$I$126,"พลกฤต")+COUNTIF($H$129:$I$129,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="V102" s="11">
+        <f>SUM(S102:U102)</f>
+        <v/>
+      </c>
+      <c r="X102" s="11" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="Y102" s="11">
+        <f>SUM(M102,S102)</f>
+        <v/>
+      </c>
+      <c r="Z102" s="11">
+        <f>SUM(N102,T102)</f>
+        <v/>
+      </c>
+      <c r="AA102" s="11">
+        <f>SUM(O102,U102)</f>
+        <v/>
+      </c>
+      <c r="AB102" s="11">
+        <f>SUM(P102,V102)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="4" t="inlineStr">
+        <is>
+          <t>3*</t>
+        </is>
+      </c>
+      <c r="B103" s="4" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C103" s="8" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D103" s="7" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E103" s="15" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="F103" s="4" t="inlineStr">
+        <is>
+          <t>18*</t>
+        </is>
+      </c>
+      <c r="G103" s="4" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="H103" s="11" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="I103" s="19" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="J103" s="18" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="G99" s="1" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H99" s="9" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="I99" s="10" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="J99" s="11" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="M99" s="1" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="N99" s="1" t="inlineStr">
+      <c r="L103" s="9" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="M103" s="9" t="inlineStr"/>
+      <c r="N103" s="9">
+        <f>COUNTIF($C$98:$D$98,"ชานนท์")+COUNTIF($C$113:$D$113,"ชานนท์")+COUNTIF($C$116:$D$116,"ชานนท์")+COUNTIF($C$119:$D$119,"ชานนท์")+COUNTIF($C$122:$D$122,"ชานนท์")+COUNTIF($C$125:$D$125,"ชานนท์")+COUNTIF($C$134:$D$134,"ชานนท์")+COUNTIF($C$137:$D$137,"ชานนท์")+COUNTIF($C$140:$D$140,"ชานนท์")+COUNTIF($H$98:$I$98,"ชานนท์")+COUNTIF($H$101:$I$101,"ชานนท์")+COUNTIF($H$110:$I$110,"ชานนท์")+COUNTIF($H$113:$I$113,"ชานนท์")+COUNTIF($H$116:$I$116,"ชานนท์")+COUNTIF($H$119:$I$119,"ชานนท์")+COUNTIF($H$122:$I$122,"ชานนท์")+COUNTIF($H$131:$I$131,"ชานนท์")+COUNTIF($H$134:$I$134,"ชานนท์")+COUNTIF($H$137:$I$137,"ชานนท์")+COUNTIF($H$140:$I$140,"ชานนท์")+COUNTIF($H$143:$I$143,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="O103" s="9">
+        <f>COUNTIF($C$99:$D$99,"ชานนท์")+COUNTIF($C$114:$D$114,"ชานนท์")+COUNTIF($C$117:$D$117,"ชานนท์")+COUNTIF($C$120:$D$120,"ชานนท์")+COUNTIF($C$123:$D$123,"ชานนท์")+COUNTIF($C$126:$D$126,"ชานนท์")+COUNTIF($C$135:$D$135,"ชานนท์")+COUNTIF($C$138:$D$138,"ชานนท์")+COUNTIF($C$141:$D$141,"ชานนท์")+COUNTIF($H$99:$I$99,"ชานนท์")+COUNTIF($H$102:$I$102,"ชานนท์")+COUNTIF($H$111:$I$111,"ชานนท์")+COUNTIF($H$114:$I$114,"ชานนท์")+COUNTIF($H$117:$I$117,"ชานนท์")+COUNTIF($H$120:$I$120,"ชานนท์")+COUNTIF($H$123:$I$123,"ชานนท์")+COUNTIF($H$132:$I$132,"ชานนท์")+COUNTIF($H$135:$I$135,"ชานนท์")+COUNTIF($H$138:$I$138,"ชานนท์")+COUNTIF($H$141:$I$141,"ชานนท์")+COUNTIF($H$144:$I$144,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="P103" s="9">
+        <f>SUM(M103:O103)</f>
+        <v/>
+      </c>
+      <c r="R103" s="9" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="S103" s="9">
+        <f>COUNTIF($C$100:$D$100,"ชานนท์")+COUNTIF($C$103:$D$103,"ชานนท์")+COUNTIF($C$106:$D$106,"ชานนท์")+COUNTIF($C$109:$D$109,"ชานนท์")+COUNTIF($C$127:$D$127,"ชานนท์")+COUNTIF($C$130:$D$130,"ชานนท์")+COUNTIF($H$103:$I$103,"ชานนท์")+COUNTIF($H$106:$I$106,"ชานนท์")+COUNTIF($H$124:$I$124,"ชานนท์")+COUNTIF($H$127:$I$127,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="T103" s="9">
+        <f>COUNTIF($C$101:$D$101,"ชานนท์")+COUNTIF($C$104:$D$104,"ชานนท์")+COUNTIF($C$107:$D$107,"ชานนท์")+COUNTIF($C$110:$D$110,"ชานนท์")+COUNTIF($C$128:$D$128,"ชานนท์")+COUNTIF($C$131:$D$131,"ชานนท์")+COUNTIF($H$104:$I$104,"ชานนท์")+COUNTIF($H$107:$I$107,"ชานนท์")+COUNTIF($H$125:$I$125,"ชานนท์")+COUNTIF($H$128:$I$128,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="U103" s="9">
+        <f>COUNTIF($C$102:$D$102,"ชานนท์")+COUNTIF($C$105:$D$105,"ชานนท์")+COUNTIF($C$108:$D$108,"ชานนท์")+COUNTIF($C$111:$D$111,"ชานนท์")+COUNTIF($C$129:$D$129,"ชานนท์")+COUNTIF($C$132:$D$132,"ชานนท์")+COUNTIF($H$105:$I$105,"ชานนท์")+COUNTIF($H$108:$I$108,"ชานนท์")+COUNTIF($H$126:$I$126,"ชานนท์")+COUNTIF($H$129:$I$129,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="V103" s="9">
+        <f>SUM(S103:U103)</f>
+        <v/>
+      </c>
+      <c r="X103" s="9" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="Y103" s="9">
+        <f>SUM(M103,S103)</f>
+        <v/>
+      </c>
+      <c r="Z103" s="9">
+        <f>SUM(N103,T103)</f>
+        <v/>
+      </c>
+      <c r="AA103" s="9">
+        <f>SUM(O103,U103)</f>
+        <v/>
+      </c>
+      <c r="AB103" s="9">
+        <f>SUM(P103,V103)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="5" t="n"/>
+      <c r="B104" s="4" t="inlineStr">
         <is>
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="O99" s="1" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="P99" s="1" t="inlineStr">
-        <is>
-          <t>รวม</t>
-        </is>
-      </c>
-      <c r="S99" s="1" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="T99" s="1" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="U99" s="1" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="V99" s="1" t="inlineStr">
-        <is>
-          <t>รวม</t>
-        </is>
-      </c>
-      <c r="Y99" s="1" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="Z99" s="1" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="AA99" s="1" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="AB99" s="1" t="inlineStr">
-        <is>
-          <t>รวม</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F100" s="1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="L100" s="6" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="M100" s="6" t="inlineStr"/>
-      <c r="N100" s="6">
-        <f>COUNTIF($C$98:$D$98,"ภูวเนตร")+COUNTIF($C$101:$D$101,"ภูวเนตร")+COUNTIF($C$104:$D$104,"ภูวเนตร")+COUNTIF($C$113:$D$113,"ภูวเนตร")+COUNTIF($C$116:$D$116,"ภูวเนตร")+COUNTIF($C$119:$D$119,"ภูวเนตร")+COUNTIF($C$122:$D$122,"ภูวเนตร")+COUNTIF($C$125:$D$125,"ภูวเนตร")+COUNTIF($C$134:$D$134,"ภูวเนตร")+COUNTIF($C$137:$D$137,"ภูวเนตร")+COUNTIF($C$140:$D$140,"ภูวเนตร")+COUNTIF($H$98:$I$98,"ภูวเนตร")+COUNTIF($H$101:$I$101,"ภูวเนตร")+COUNTIF($H$110:$I$110,"ภูวเนตร")+COUNTIF($H$113:$I$113,"ภูวเนตร")+COUNTIF($H$116:$I$116,"ภูวเนตร")+COUNTIF($H$119:$I$119,"ภูวเนตร")+COUNTIF($H$122:$I$122,"ภูวเนตร")+COUNTIF($H$131:$I$131,"ภูวเนตร")+COUNTIF($H$134:$I$134,"ภูวเนตร")+COUNTIF($H$137:$I$137,"ภูวเนตร")+COUNTIF($H$140:$I$140,"ภูวเนตร")+COUNTIF($H$143:$I$143,"ภูวเนตร")</f>
-        <v/>
-      </c>
-      <c r="O100" s="6">
-        <f>COUNTIF($C$99:$D$99,"ภูวเนตร")+COUNTIF($C$102:$D$102,"ภูวเนตร")+COUNTIF($C$105:$D$105,"ภูวเนตร")+COUNTIF($C$114:$D$114,"ภูวเนตร")+COUNTIF($C$117:$D$117,"ภูวเนตร")+COUNTIF($C$120:$D$120,"ภูวเนตร")+COUNTIF($C$123:$D$123,"ภูวเนตร")+COUNTIF($C$126:$D$126,"ภูวเนตร")+COUNTIF($C$135:$D$135,"ภูวเนตร")+COUNTIF($C$138:$D$138,"ภูวเนตร")+COUNTIF($C$141:$D$141,"ภูวเนตร")+COUNTIF($H$99:$I$99,"ภูวเนตร")+COUNTIF($H$102:$I$102,"ภูวเนตร")+COUNTIF($H$111:$I$111,"ภูวเนตร")+COUNTIF($H$114:$I$114,"ภูวเนตร")+COUNTIF($H$117:$I$117,"ภูวเนตร")+COUNTIF($H$120:$I$120,"ภูวเนตร")+COUNTIF($H$123:$I$123,"ภูวเนตร")+COUNTIF($H$132:$I$132,"ภูวเนตร")+COUNTIF($H$135:$I$135,"ภูวเนตร")+COUNTIF($H$138:$I$138,"ภูวเนตร")+COUNTIF($H$141:$I$141,"ภูวเนตร")+COUNTIF($H$144:$I$144,"ภูวเนตร")</f>
-        <v/>
-      </c>
-      <c r="P100" s="6">
-        <f>SUM(M100:O100)</f>
-        <v/>
-      </c>
-      <c r="R100" s="6" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="S100" s="6">
-        <f>COUNTIF($C$106:$D$106,"ภูวเนตร")+COUNTIF($C$109:$D$109,"ภูวเนตร")+COUNTIF($C$127:$D$127,"ภูวเนตร")+COUNTIF($C$130:$D$130,"ภูวเนตร")+COUNTIF($H$103:$I$103,"ภูวเนตร")+COUNTIF($H$106:$I$106,"ภูวเนตร")+COUNTIF($H$124:$I$124,"ภูวเนตร")+COUNTIF($H$127:$I$127,"ภูวเนตร")</f>
-        <v/>
-      </c>
-      <c r="T100" s="6">
-        <f>COUNTIF($C$107:$D$107,"ภูวเนตร")+COUNTIF($C$110:$D$110,"ภูวเนตร")+COUNTIF($C$128:$D$128,"ภูวเนตร")+COUNTIF($C$131:$D$131,"ภูวเนตร")+COUNTIF($H$104:$I$104,"ภูวเนตร")+COUNTIF($H$107:$I$107,"ภูวเนตร")+COUNTIF($H$125:$I$125,"ภูวเนตร")+COUNTIF($H$128:$I$128,"ภูวเนตร")</f>
-        <v/>
-      </c>
-      <c r="U100" s="6">
-        <f>COUNTIF($C$108:$D$108,"ภูวเนตร")+COUNTIF($C$111:$D$111,"ภูวเนตร")+COUNTIF($C$129:$D$129,"ภูวเนตร")+COUNTIF($C$132:$D$132,"ภูวเนตร")+COUNTIF($H$105:$I$105,"ภูวเนตร")+COUNTIF($H$108:$I$108,"ภูวเนตร")+COUNTIF($H$126:$I$126,"ภูวเนตร")+COUNTIF($H$129:$I$129,"ภูวเนตร")</f>
-        <v/>
-      </c>
-      <c r="V100" s="6">
-        <f>SUM(S100:U100)</f>
-        <v/>
-      </c>
-      <c r="X100" s="6" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="Y100" s="6">
-        <f>SUM(M100,S100)</f>
-        <v/>
-      </c>
-      <c r="Z100" s="6">
-        <f>SUM(N100,T100)</f>
-        <v/>
-      </c>
-      <c r="AA100" s="6">
-        <f>SUM(O100,U100)</f>
-        <v/>
-      </c>
-      <c r="AB100" s="6">
-        <f>SUM(P100,V100)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="101">
-      <c r="B101" s="1" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="C101" s="9" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D101" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E101" s="13" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="G101" s="1" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H101" s="6" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="I101" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="J101" s="14" t="inlineStr">
+      <c r="C104" s="18" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D104" s="10" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="L101" s="11" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="M101" s="11" t="inlineStr"/>
-      <c r="N101" s="11">
-        <f>COUNTIF($C$98:$D$98,"ราเชนทร์")+COUNTIF($C$101:$D$101,"ราเชนทร์")+COUNTIF($C$104:$D$104,"ราเชนทร์")+COUNTIF($C$113:$D$113,"ราเชนทร์")+COUNTIF($C$116:$D$116,"ราเชนทร์")+COUNTIF($C$119:$D$119,"ราเชนทร์")+COUNTIF($C$122:$D$122,"ราเชนทร์")+COUNTIF($C$125:$D$125,"ราเชนทร์")+COUNTIF($C$134:$D$134,"ราเชนทร์")+COUNTIF($C$137:$D$137,"ราเชนทร์")+COUNTIF($C$140:$D$140,"ราเชนทร์")+COUNTIF($H$98:$I$98,"ราเชนทร์")+COUNTIF($H$101:$I$101,"ราเชนทร์")+COUNTIF($H$110:$I$110,"ราเชนทร์")+COUNTIF($H$113:$I$113,"ราเชนทร์")+COUNTIF($H$116:$I$116,"ราเชนทร์")+COUNTIF($H$119:$I$119,"ราเชนทร์")+COUNTIF($H$122:$I$122,"ราเชนทร์")+COUNTIF($H$131:$I$131,"ราเชนทร์")+COUNTIF($H$134:$I$134,"ราเชนทร์")+COUNTIF($H$137:$I$137,"ราเชนทร์")+COUNTIF($H$140:$I$140,"ราเชนทร์")+COUNTIF($H$143:$I$143,"ราเชนทร์")</f>
-        <v/>
-      </c>
-      <c r="O101" s="11">
-        <f>COUNTIF($C$99:$D$99,"ราเชนทร์")+COUNTIF($C$102:$D$102,"ราเชนทร์")+COUNTIF($C$105:$D$105,"ราเชนทร์")+COUNTIF($C$114:$D$114,"ราเชนทร์")+COUNTIF($C$117:$D$117,"ราเชนทร์")+COUNTIF($C$120:$D$120,"ราเชนทร์")+COUNTIF($C$123:$D$123,"ราเชนทร์")+COUNTIF($C$126:$D$126,"ราเชนทร์")+COUNTIF($C$135:$D$135,"ราเชนทร์")+COUNTIF($C$138:$D$138,"ราเชนทร์")+COUNTIF($C$141:$D$141,"ราเชนทร์")+COUNTIF($H$99:$I$99,"ราเชนทร์")+COUNTIF($H$102:$I$102,"ราเชนทร์")+COUNTIF($H$111:$I$111,"ราเชนทร์")+COUNTIF($H$114:$I$114,"ราเชนทร์")+COUNTIF($H$117:$I$117,"ราเชนทร์")+COUNTIF($H$120:$I$120,"ราเชนทร์")+COUNTIF($H$123:$I$123,"ราเชนทร์")+COUNTIF($H$132:$I$132,"ราเชนทร์")+COUNTIF($H$135:$I$135,"ราเชนทร์")+COUNTIF($H$138:$I$138,"ราเชนทร์")+COUNTIF($H$141:$I$141,"ราเชนทร์")+COUNTIF($H$144:$I$144,"ราเชนทร์")</f>
-        <v/>
-      </c>
-      <c r="P101" s="11">
-        <f>SUM(M101:O101)</f>
-        <v/>
-      </c>
-      <c r="R101" s="11" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="S101" s="11">
-        <f>COUNTIF($C$106:$D$106,"ราเชนทร์")+COUNTIF($C$109:$D$109,"ราเชนทร์")+COUNTIF($C$127:$D$127,"ราเชนทร์")+COUNTIF($C$130:$D$130,"ราเชนทร์")+COUNTIF($H$103:$I$103,"ราเชนทร์")+COUNTIF($H$106:$I$106,"ราเชนทร์")+COUNTIF($H$124:$I$124,"ราเชนทร์")+COUNTIF($H$127:$I$127,"ราเชนทร์")</f>
-        <v/>
-      </c>
-      <c r="T101" s="11">
-        <f>COUNTIF($C$107:$D$107,"ราเชนทร์")+COUNTIF($C$110:$D$110,"ราเชนทร์")+COUNTIF($C$128:$D$128,"ราเชนทร์")+COUNTIF($C$131:$D$131,"ราเชนทร์")+COUNTIF($H$104:$I$104,"ราเชนทร์")+COUNTIF($H$107:$I$107,"ราเชนทร์")+COUNTIF($H$125:$I$125,"ราเชนทร์")+COUNTIF($H$128:$I$128,"ราเชนทร์")</f>
-        <v/>
-      </c>
-      <c r="U101" s="11">
-        <f>COUNTIF($C$108:$D$108,"ราเชนทร์")+COUNTIF($C$111:$D$111,"ราเชนทร์")+COUNTIF($C$129:$D$129,"ราเชนทร์")+COUNTIF($C$132:$D$132,"ราเชนทร์")+COUNTIF($H$105:$I$105,"ราเชนทร์")+COUNTIF($H$108:$I$108,"ราเชนทร์")+COUNTIF($H$126:$I$126,"ราเชนทร์")+COUNTIF($H$129:$I$129,"ราเชนทร์")</f>
-        <v/>
-      </c>
-      <c r="V101" s="11">
-        <f>SUM(S101:U101)</f>
-        <v/>
-      </c>
-      <c r="X101" s="11" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="Y101" s="11">
-        <f>SUM(M101,S101)</f>
-        <v/>
-      </c>
-      <c r="Z101" s="11">
-        <f>SUM(N101,T101)</f>
-        <v/>
-      </c>
-      <c r="AA101" s="11">
-        <f>SUM(O101,U101)</f>
-        <v/>
-      </c>
-      <c r="AB101" s="11">
-        <f>SUM(P101,V101)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="102">
-      <c r="B102" s="1" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="C102" s="9" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D102" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E102" s="13" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="G102" s="1" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H102" s="6" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="I102" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="J102" s="14" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="L102" s="9" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="M102" s="9" t="inlineStr"/>
-      <c r="N102" s="9">
-        <f>COUNTIF($C$98:$D$98,"พลกฤต")+COUNTIF($C$101:$D$101,"พลกฤต")+COUNTIF($C$104:$D$104,"พลกฤต")+COUNTIF($C$113:$D$113,"พลกฤต")+COUNTIF($C$116:$D$116,"พลกฤต")+COUNTIF($C$119:$D$119,"พลกฤต")+COUNTIF($C$122:$D$122,"พลกฤต")+COUNTIF($C$125:$D$125,"พลกฤต")+COUNTIF($C$134:$D$134,"พลกฤต")+COUNTIF($C$137:$D$137,"พลกฤต")+COUNTIF($C$140:$D$140,"พลกฤต")+COUNTIF($H$98:$I$98,"พลกฤต")+COUNTIF($H$101:$I$101,"พลกฤต")+COUNTIF($H$110:$I$110,"พลกฤต")+COUNTIF($H$113:$I$113,"พลกฤต")+COUNTIF($H$116:$I$116,"พลกฤต")+COUNTIF($H$119:$I$119,"พลกฤต")+COUNTIF($H$122:$I$122,"พลกฤต")+COUNTIF($H$131:$I$131,"พลกฤต")+COUNTIF($H$134:$I$134,"พลกฤต")+COUNTIF($H$137:$I$137,"พลกฤต")+COUNTIF($H$140:$I$140,"พลกฤต")+COUNTIF($H$143:$I$143,"พลกฤต")</f>
-        <v/>
-      </c>
-      <c r="O102" s="9">
-        <f>COUNTIF($C$99:$D$99,"พลกฤต")+COUNTIF($C$102:$D$102,"พลกฤต")+COUNTIF($C$105:$D$105,"พลกฤต")+COUNTIF($C$114:$D$114,"พลกฤต")+COUNTIF($C$117:$D$117,"พลกฤต")+COUNTIF($C$120:$D$120,"พลกฤต")+COUNTIF($C$123:$D$123,"พลกฤต")+COUNTIF($C$126:$D$126,"พลกฤต")+COUNTIF($C$135:$D$135,"พลกฤต")+COUNTIF($C$138:$D$138,"พลกฤต")+COUNTIF($C$141:$D$141,"พลกฤต")+COUNTIF($H$99:$I$99,"พลกฤต")+COUNTIF($H$102:$I$102,"พลกฤต")+COUNTIF($H$111:$I$111,"พลกฤต")+COUNTIF($H$114:$I$114,"พลกฤต")+COUNTIF($H$117:$I$117,"พลกฤต")+COUNTIF($H$120:$I$120,"พลกฤต")+COUNTIF($H$123:$I$123,"พลกฤต")+COUNTIF($H$132:$I$132,"พลกฤต")+COUNTIF($H$135:$I$135,"พลกฤต")+COUNTIF($H$138:$I$138,"พลกฤต")+COUNTIF($H$141:$I$141,"พลกฤต")+COUNTIF($H$144:$I$144,"พลกฤต")</f>
-        <v/>
-      </c>
-      <c r="P102" s="9">
-        <f>SUM(M102:O102)</f>
-        <v/>
-      </c>
-      <c r="R102" s="9" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="S102" s="9">
-        <f>COUNTIF($C$106:$D$106,"พลกฤต")+COUNTIF($C$109:$D$109,"พลกฤต")+COUNTIF($C$127:$D$127,"พลกฤต")+COUNTIF($C$130:$D$130,"พลกฤต")+COUNTIF($H$103:$I$103,"พลกฤต")+COUNTIF($H$106:$I$106,"พลกฤต")+COUNTIF($H$124:$I$124,"พลกฤต")+COUNTIF($H$127:$I$127,"พลกฤต")</f>
-        <v/>
-      </c>
-      <c r="T102" s="9">
-        <f>COUNTIF($C$107:$D$107,"พลกฤต")+COUNTIF($C$110:$D$110,"พลกฤต")+COUNTIF($C$128:$D$128,"พลกฤต")+COUNTIF($C$131:$D$131,"พลกฤต")+COUNTIF($H$104:$I$104,"พลกฤต")+COUNTIF($H$107:$I$107,"พลกฤต")+COUNTIF($H$125:$I$125,"พลกฤต")+COUNTIF($H$128:$I$128,"พลกฤต")</f>
-        <v/>
-      </c>
-      <c r="U102" s="9">
-        <f>COUNTIF($C$108:$D$108,"พลกฤต")+COUNTIF($C$111:$D$111,"พลกฤต")+COUNTIF($C$129:$D$129,"พลกฤต")+COUNTIF($C$132:$D$132,"พลกฤต")+COUNTIF($H$105:$I$105,"พลกฤต")+COUNTIF($H$108:$I$108,"พลกฤต")+COUNTIF($H$126:$I$126,"พลกฤต")+COUNTIF($H$129:$I$129,"พลกฤต")</f>
-        <v/>
-      </c>
-      <c r="V102" s="9">
-        <f>SUM(S102:U102)</f>
-        <v/>
-      </c>
-      <c r="X102" s="9" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="Y102" s="9">
-        <f>SUM(M102,S102)</f>
-        <v/>
-      </c>
-      <c r="Z102" s="9">
-        <f>SUM(N102,T102)</f>
-        <v/>
-      </c>
-      <c r="AA102" s="9">
-        <f>SUM(O102,U102)</f>
-        <v/>
-      </c>
-      <c r="AB102" s="9">
-        <f>SUM(P102,V102)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F103" s="4" t="inlineStr">
-        <is>
-          <t>18*</t>
-        </is>
-      </c>
-      <c r="G103" s="4" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="H103" s="8" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="I103" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="J103" s="15" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="L103" s="16" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="M103" s="16" t="inlineStr"/>
-      <c r="N103" s="16">
-        <f>COUNTIF($C$98:$D$98,"ชานนท์")+COUNTIF($C$101:$D$101,"ชานนท์")+COUNTIF($C$104:$D$104,"ชานนท์")+COUNTIF($C$113:$D$113,"ชานนท์")+COUNTIF($C$116:$D$116,"ชานนท์")+COUNTIF($C$119:$D$119,"ชานนท์")+COUNTIF($C$122:$D$122,"ชานนท์")+COUNTIF($C$125:$D$125,"ชานนท์")+COUNTIF($C$134:$D$134,"ชานนท์")+COUNTIF($C$137:$D$137,"ชานนท์")+COUNTIF($C$140:$D$140,"ชานนท์")+COUNTIF($H$98:$I$98,"ชานนท์")+COUNTIF($H$101:$I$101,"ชานนท์")+COUNTIF($H$110:$I$110,"ชานนท์")+COUNTIF($H$113:$I$113,"ชานนท์")+COUNTIF($H$116:$I$116,"ชานนท์")+COUNTIF($H$119:$I$119,"ชานนท์")+COUNTIF($H$122:$I$122,"ชานนท์")+COUNTIF($H$131:$I$131,"ชานนท์")+COUNTIF($H$134:$I$134,"ชานนท์")+COUNTIF($H$137:$I$137,"ชานนท์")+COUNTIF($H$140:$I$140,"ชานนท์")+COUNTIF($H$143:$I$143,"ชานนท์")</f>
-        <v/>
-      </c>
-      <c r="O103" s="16">
-        <f>COUNTIF($C$99:$D$99,"ชานนท์")+COUNTIF($C$102:$D$102,"ชานนท์")+COUNTIF($C$105:$D$105,"ชานนท์")+COUNTIF($C$114:$D$114,"ชานนท์")+COUNTIF($C$117:$D$117,"ชานนท์")+COUNTIF($C$120:$D$120,"ชานนท์")+COUNTIF($C$123:$D$123,"ชานนท์")+COUNTIF($C$126:$D$126,"ชานนท์")+COUNTIF($C$135:$D$135,"ชานนท์")+COUNTIF($C$138:$D$138,"ชานนท์")+COUNTIF($C$141:$D$141,"ชานนท์")+COUNTIF($H$99:$I$99,"ชานนท์")+COUNTIF($H$102:$I$102,"ชานนท์")+COUNTIF($H$111:$I$111,"ชานนท์")+COUNTIF($H$114:$I$114,"ชานนท์")+COUNTIF($H$117:$I$117,"ชานนท์")+COUNTIF($H$120:$I$120,"ชานนท์")+COUNTIF($H$123:$I$123,"ชานนท์")+COUNTIF($H$132:$I$132,"ชานนท์")+COUNTIF($H$135:$I$135,"ชานนท์")+COUNTIF($H$138:$I$138,"ชานนท์")+COUNTIF($H$141:$I$141,"ชานนท์")+COUNTIF($H$144:$I$144,"ชานนท์")</f>
-        <v/>
-      </c>
-      <c r="P103" s="16">
-        <f>SUM(M103:O103)</f>
-        <v/>
-      </c>
-      <c r="R103" s="16" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="S103" s="16">
-        <f>COUNTIF($C$106:$D$106,"ชานนท์")+COUNTIF($C$109:$D$109,"ชานนท์")+COUNTIF($C$127:$D$127,"ชานนท์")+COUNTIF($C$130:$D$130,"ชานนท์")+COUNTIF($H$103:$I$103,"ชานนท์")+COUNTIF($H$106:$I$106,"ชานนท์")+COUNTIF($H$124:$I$124,"ชานนท์")+COUNTIF($H$127:$I$127,"ชานนท์")</f>
-        <v/>
-      </c>
-      <c r="T103" s="16">
-        <f>COUNTIF($C$107:$D$107,"ชานนท์")+COUNTIF($C$110:$D$110,"ชานนท์")+COUNTIF($C$128:$D$128,"ชานนท์")+COUNTIF($C$131:$D$131,"ชานนท์")+COUNTIF($H$104:$I$104,"ชานนท์")+COUNTIF($H$107:$I$107,"ชานนท์")+COUNTIF($H$125:$I$125,"ชานนท์")+COUNTIF($H$128:$I$128,"ชานนท์")</f>
-        <v/>
-      </c>
-      <c r="U103" s="16">
-        <f>COUNTIF($C$108:$D$108,"ชานนท์")+COUNTIF($C$111:$D$111,"ชานนท์")+COUNTIF($C$129:$D$129,"ชานนท์")+COUNTIF($C$132:$D$132,"ชานนท์")+COUNTIF($H$105:$I$105,"ชานนท์")+COUNTIF($H$108:$I$108,"ชานนท์")+COUNTIF($H$126:$I$126,"ชานนท์")+COUNTIF($H$129:$I$129,"ชานนท์")</f>
-        <v/>
-      </c>
-      <c r="V103" s="16">
-        <f>SUM(S103:U103)</f>
-        <v/>
-      </c>
-      <c r="X103" s="16" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="Y103" s="16">
-        <f>SUM(M103,S103)</f>
-        <v/>
-      </c>
-      <c r="Z103" s="16">
-        <f>SUM(N103,T103)</f>
-        <v/>
-      </c>
-      <c r="AA103" s="16">
-        <f>SUM(O103,U103)</f>
-        <v/>
-      </c>
-      <c r="AB103" s="16">
-        <f>SUM(P103,V103)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="104">
-      <c r="B104" s="1" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="C104" s="11" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D104" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E104" s="17" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+      <c r="E104" s="6" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="F104" s="5" t="n"/>
@@ -4673,101 +4760,102 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="H104" s="18" t="inlineStr">
+      <c r="H104" s="6" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="I104" s="13" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="J104" s="17" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="L104" s="8" t="inlineStr">
+      <c r="I104" s="7" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="J104" s="19" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="L104" s="18" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="M104" s="8" t="inlineStr"/>
-      <c r="N104" s="8">
-        <f>COUNTIF($C$98:$D$98,"ปรมะ")+COUNTIF($C$101:$D$101,"ปรมะ")+COUNTIF($C$104:$D$104,"ปรมะ")+COUNTIF($C$113:$D$113,"ปรมะ")+COUNTIF($C$116:$D$116,"ปรมะ")+COUNTIF($C$119:$D$119,"ปรมะ")+COUNTIF($C$122:$D$122,"ปรมะ")+COUNTIF($C$125:$D$125,"ปรมะ")+COUNTIF($C$134:$D$134,"ปรมะ")+COUNTIF($C$137:$D$137,"ปรมะ")+COUNTIF($C$140:$D$140,"ปรมะ")+COUNTIF($H$98:$I$98,"ปรมะ")+COUNTIF($H$101:$I$101,"ปรมะ")+COUNTIF($H$110:$I$110,"ปรมะ")+COUNTIF($H$113:$I$113,"ปรมะ")+COUNTIF($H$116:$I$116,"ปรมะ")+COUNTIF($H$119:$I$119,"ปรมะ")+COUNTIF($H$122:$I$122,"ปรมะ")+COUNTIF($H$131:$I$131,"ปรมะ")+COUNTIF($H$134:$I$134,"ปรมะ")+COUNTIF($H$137:$I$137,"ปรมะ")+COUNTIF($H$140:$I$140,"ปรมะ")+COUNTIF($H$143:$I$143,"ปรมะ")</f>
-        <v/>
-      </c>
-      <c r="O104" s="8">
-        <f>COUNTIF($C$99:$D$99,"ปรมะ")+COUNTIF($C$102:$D$102,"ปรมะ")+COUNTIF($C$105:$D$105,"ปรมะ")+COUNTIF($C$114:$D$114,"ปรมะ")+COUNTIF($C$117:$D$117,"ปรมะ")+COUNTIF($C$120:$D$120,"ปรมะ")+COUNTIF($C$123:$D$123,"ปรมะ")+COUNTIF($C$126:$D$126,"ปรมะ")+COUNTIF($C$135:$D$135,"ปรมะ")+COUNTIF($C$138:$D$138,"ปรมะ")+COUNTIF($C$141:$D$141,"ปรมะ")+COUNTIF($H$99:$I$99,"ปรมะ")+COUNTIF($H$102:$I$102,"ปรมะ")+COUNTIF($H$111:$I$111,"ปรมะ")+COUNTIF($H$114:$I$114,"ปรมะ")+COUNTIF($H$117:$I$117,"ปรมะ")+COUNTIF($H$120:$I$120,"ปรมะ")+COUNTIF($H$123:$I$123,"ปรมะ")+COUNTIF($H$132:$I$132,"ปรมะ")+COUNTIF($H$135:$I$135,"ปรมะ")+COUNTIF($H$138:$I$138,"ปรมะ")+COUNTIF($H$141:$I$141,"ปรมะ")+COUNTIF($H$144:$I$144,"ปรมะ")</f>
-        <v/>
-      </c>
-      <c r="P104" s="8">
+      <c r="M104" s="18" t="inlineStr"/>
+      <c r="N104" s="18">
+        <f>COUNTIF($C$98:$D$98,"ปรมะ")+COUNTIF($C$113:$D$113,"ปรมะ")+COUNTIF($C$116:$D$116,"ปรมะ")+COUNTIF($C$119:$D$119,"ปรมะ")+COUNTIF($C$122:$D$122,"ปรมะ")+COUNTIF($C$125:$D$125,"ปรมะ")+COUNTIF($C$134:$D$134,"ปรมะ")+COUNTIF($C$137:$D$137,"ปรมะ")+COUNTIF($C$140:$D$140,"ปรมะ")+COUNTIF($H$98:$I$98,"ปรมะ")+COUNTIF($H$101:$I$101,"ปรมะ")+COUNTIF($H$110:$I$110,"ปรมะ")+COUNTIF($H$113:$I$113,"ปรมะ")+COUNTIF($H$116:$I$116,"ปรมะ")+COUNTIF($H$119:$I$119,"ปรมะ")+COUNTIF($H$122:$I$122,"ปรมะ")+COUNTIF($H$131:$I$131,"ปรมะ")+COUNTIF($H$134:$I$134,"ปรมะ")+COUNTIF($H$137:$I$137,"ปรมะ")+COUNTIF($H$140:$I$140,"ปรมะ")+COUNTIF($H$143:$I$143,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="O104" s="18">
+        <f>COUNTIF($C$99:$D$99,"ปรมะ")+COUNTIF($C$114:$D$114,"ปรมะ")+COUNTIF($C$117:$D$117,"ปรมะ")+COUNTIF($C$120:$D$120,"ปรมะ")+COUNTIF($C$123:$D$123,"ปรมะ")+COUNTIF($C$126:$D$126,"ปรมะ")+COUNTIF($C$135:$D$135,"ปรมะ")+COUNTIF($C$138:$D$138,"ปรมะ")+COUNTIF($C$141:$D$141,"ปรมะ")+COUNTIF($H$99:$I$99,"ปรมะ")+COUNTIF($H$102:$I$102,"ปรมะ")+COUNTIF($H$111:$I$111,"ปรมะ")+COUNTIF($H$114:$I$114,"ปรมะ")+COUNTIF($H$117:$I$117,"ปรมะ")+COUNTIF($H$120:$I$120,"ปรมะ")+COUNTIF($H$123:$I$123,"ปรมะ")+COUNTIF($H$132:$I$132,"ปรมะ")+COUNTIF($H$135:$I$135,"ปรมะ")+COUNTIF($H$138:$I$138,"ปรมะ")+COUNTIF($H$141:$I$141,"ปรมะ")+COUNTIF($H$144:$I$144,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="P104" s="18">
         <f>SUM(M104:O104)</f>
         <v/>
       </c>
-      <c r="R104" s="8" t="inlineStr">
+      <c r="R104" s="18" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="S104" s="8">
-        <f>COUNTIF($C$106:$D$106,"ปรมะ")+COUNTIF($C$109:$D$109,"ปรมะ")+COUNTIF($C$127:$D$127,"ปรมะ")+COUNTIF($C$130:$D$130,"ปรมะ")+COUNTIF($H$103:$I$103,"ปรมะ")+COUNTIF($H$106:$I$106,"ปรมะ")+COUNTIF($H$124:$I$124,"ปรมะ")+COUNTIF($H$127:$I$127,"ปรมะ")</f>
-        <v/>
-      </c>
-      <c r="T104" s="8">
-        <f>COUNTIF($C$107:$D$107,"ปรมะ")+COUNTIF($C$110:$D$110,"ปรมะ")+COUNTIF($C$128:$D$128,"ปรมะ")+COUNTIF($C$131:$D$131,"ปรมะ")+COUNTIF($H$104:$I$104,"ปรมะ")+COUNTIF($H$107:$I$107,"ปรมะ")+COUNTIF($H$125:$I$125,"ปรมะ")+COUNTIF($H$128:$I$128,"ปรมะ")</f>
-        <v/>
-      </c>
-      <c r="U104" s="8">
-        <f>COUNTIF($C$108:$D$108,"ปรมะ")+COUNTIF($C$111:$D$111,"ปรมะ")+COUNTIF($C$129:$D$129,"ปรมะ")+COUNTIF($C$132:$D$132,"ปรมะ")+COUNTIF($H$105:$I$105,"ปรมะ")+COUNTIF($H$108:$I$108,"ปรมะ")+COUNTIF($H$126:$I$126,"ปรมะ")+COUNTIF($H$129:$I$129,"ปรมะ")</f>
-        <v/>
-      </c>
-      <c r="V104" s="8">
+      <c r="S104" s="18">
+        <f>COUNTIF($C$100:$D$100,"ปรมะ")+COUNTIF($C$103:$D$103,"ปรมะ")+COUNTIF($C$106:$D$106,"ปรมะ")+COUNTIF($C$109:$D$109,"ปรมะ")+COUNTIF($C$127:$D$127,"ปรมะ")+COUNTIF($C$130:$D$130,"ปรมะ")+COUNTIF($H$103:$I$103,"ปรมะ")+COUNTIF($H$106:$I$106,"ปรมะ")+COUNTIF($H$124:$I$124,"ปรมะ")+COUNTIF($H$127:$I$127,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="T104" s="18">
+        <f>COUNTIF($C$101:$D$101,"ปรมะ")+COUNTIF($C$104:$D$104,"ปรมะ")+COUNTIF($C$107:$D$107,"ปรมะ")+COUNTIF($C$110:$D$110,"ปรมะ")+COUNTIF($C$128:$D$128,"ปรมะ")+COUNTIF($C$131:$D$131,"ปรมะ")+COUNTIF($H$104:$I$104,"ปรมะ")+COUNTIF($H$107:$I$107,"ปรมะ")+COUNTIF($H$125:$I$125,"ปรมะ")+COUNTIF($H$128:$I$128,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="U104" s="18">
+        <f>COUNTIF($C$102:$D$102,"ปรมะ")+COUNTIF($C$105:$D$105,"ปรมะ")+COUNTIF($C$108:$D$108,"ปรมะ")+COUNTIF($C$111:$D$111,"ปรมะ")+COUNTIF($C$129:$D$129,"ปรมะ")+COUNTIF($C$132:$D$132,"ปรมะ")+COUNTIF($H$105:$I$105,"ปรมะ")+COUNTIF($H$108:$I$108,"ปรมะ")+COUNTIF($H$126:$I$126,"ปรมะ")+COUNTIF($H$129:$I$129,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="V104" s="18">
         <f>SUM(S104:U104)</f>
         <v/>
       </c>
-      <c r="X104" s="8" t="inlineStr">
+      <c r="X104" s="18" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="Y104" s="8">
+      <c r="Y104" s="18">
         <f>SUM(M104,S104)</f>
         <v/>
       </c>
-      <c r="Z104" s="8">
+      <c r="Z104" s="18">
         <f>SUM(N104,T104)</f>
         <v/>
       </c>
-      <c r="AA104" s="8">
+      <c r="AA104" s="18">
         <f>SUM(O104,U104)</f>
         <v/>
       </c>
-      <c r="AB104" s="8">
+      <c r="AB104" s="18">
         <f>SUM(P104,V104)</f>
         <v/>
       </c>
     </row>
     <row r="105">
-      <c r="B105" s="1" t="inlineStr">
+      <c r="A105" s="5" t="n"/>
+      <c r="B105" s="4" t="inlineStr">
         <is>
           <t>24:00-08:00</t>
         </is>
       </c>
       <c r="C105" s="11" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D105" s="7" t="inlineStr">
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D105" s="14" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="E105" s="17" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+      <c r="E105" s="13" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="F105" s="5" t="n"/>
@@ -4776,78 +4864,78 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="H105" s="18" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="I105" s="13" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="J105" s="17" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="L105" s="19" t="inlineStr">
+      <c r="H105" s="8" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="I105" s="7" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="J105" s="15" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="M105" s="19" t="inlineStr"/>
-      <c r="N105" s="19">
-        <f>COUNTIF($C$98:$D$98,"สัญญา")+COUNTIF($C$101:$D$101,"สัญญา")+COUNTIF($C$104:$D$104,"สัญญา")+COUNTIF($C$113:$D$113,"สัญญา")+COUNTIF($C$116:$D$116,"สัญญา")+COUNTIF($C$119:$D$119,"สัญญา")+COUNTIF($C$122:$D$122,"สัญญา")+COUNTIF($C$125:$D$125,"สัญญา")+COUNTIF($C$134:$D$134,"สัญญา")+COUNTIF($C$137:$D$137,"สัญญา")+COUNTIF($C$140:$D$140,"สัญญา")+COUNTIF($H$98:$I$98,"สัญญา")+COUNTIF($H$101:$I$101,"สัญญา")+COUNTIF($H$110:$I$110,"สัญญา")+COUNTIF($H$113:$I$113,"สัญญา")+COUNTIF($H$116:$I$116,"สัญญา")+COUNTIF($H$119:$I$119,"สัญญา")+COUNTIF($H$122:$I$122,"สัญญา")+COUNTIF($H$131:$I$131,"สัญญา")+COUNTIF($H$134:$I$134,"สัญญา")+COUNTIF($H$137:$I$137,"สัญญา")+COUNTIF($H$140:$I$140,"สัญญา")+COUNTIF($H$143:$I$143,"สัญญา")</f>
-        <v/>
-      </c>
-      <c r="O105" s="19">
-        <f>COUNTIF($C$99:$D$99,"สัญญา")+COUNTIF($C$102:$D$102,"สัญญา")+COUNTIF($C$105:$D$105,"สัญญา")+COUNTIF($C$114:$D$114,"สัญญา")+COUNTIF($C$117:$D$117,"สัญญา")+COUNTIF($C$120:$D$120,"สัญญา")+COUNTIF($C$123:$D$123,"สัญญา")+COUNTIF($C$126:$D$126,"สัญญา")+COUNTIF($C$135:$D$135,"สัญญา")+COUNTIF($C$138:$D$138,"สัญญา")+COUNTIF($C$141:$D$141,"สัญญา")+COUNTIF($H$99:$I$99,"สัญญา")+COUNTIF($H$102:$I$102,"สัญญา")+COUNTIF($H$111:$I$111,"สัญญา")+COUNTIF($H$114:$I$114,"สัญญา")+COUNTIF($H$117:$I$117,"สัญญา")+COUNTIF($H$120:$I$120,"สัญญา")+COUNTIF($H$123:$I$123,"สัญญา")+COUNTIF($H$132:$I$132,"สัญญา")+COUNTIF($H$135:$I$135,"สัญญา")+COUNTIF($H$138:$I$138,"สัญญา")+COUNTIF($H$141:$I$141,"สัญญา")+COUNTIF($H$144:$I$144,"สัญญา")</f>
-        <v/>
-      </c>
-      <c r="P105" s="19">
+      <c r="L105" s="15" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="M105" s="15" t="inlineStr"/>
+      <c r="N105" s="15">
+        <f>COUNTIF($C$98:$D$98,"สัญญา")+COUNTIF($C$113:$D$113,"สัญญา")+COUNTIF($C$116:$D$116,"สัญญา")+COUNTIF($C$119:$D$119,"สัญญา")+COUNTIF($C$122:$D$122,"สัญญา")+COUNTIF($C$125:$D$125,"สัญญา")+COUNTIF($C$134:$D$134,"สัญญา")+COUNTIF($C$137:$D$137,"สัญญา")+COUNTIF($C$140:$D$140,"สัญญา")+COUNTIF($H$98:$I$98,"สัญญา")+COUNTIF($H$101:$I$101,"สัญญา")+COUNTIF($H$110:$I$110,"สัญญา")+COUNTIF($H$113:$I$113,"สัญญา")+COUNTIF($H$116:$I$116,"สัญญา")+COUNTIF($H$119:$I$119,"สัญญา")+COUNTIF($H$122:$I$122,"สัญญา")+COUNTIF($H$131:$I$131,"สัญญา")+COUNTIF($H$134:$I$134,"สัญญา")+COUNTIF($H$137:$I$137,"สัญญา")+COUNTIF($H$140:$I$140,"สัญญา")+COUNTIF($H$143:$I$143,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="O105" s="15">
+        <f>COUNTIF($C$99:$D$99,"สัญญา")+COUNTIF($C$114:$D$114,"สัญญา")+COUNTIF($C$117:$D$117,"สัญญา")+COUNTIF($C$120:$D$120,"สัญญา")+COUNTIF($C$123:$D$123,"สัญญา")+COUNTIF($C$126:$D$126,"สัญญา")+COUNTIF($C$135:$D$135,"สัญญา")+COUNTIF($C$138:$D$138,"สัญญา")+COUNTIF($C$141:$D$141,"สัญญา")+COUNTIF($H$99:$I$99,"สัญญา")+COUNTIF($H$102:$I$102,"สัญญา")+COUNTIF($H$111:$I$111,"สัญญา")+COUNTIF($H$114:$I$114,"สัญญา")+COUNTIF($H$117:$I$117,"สัญญา")+COUNTIF($H$120:$I$120,"สัญญา")+COUNTIF($H$123:$I$123,"สัญญา")+COUNTIF($H$132:$I$132,"สัญญา")+COUNTIF($H$135:$I$135,"สัญญา")+COUNTIF($H$138:$I$138,"สัญญา")+COUNTIF($H$141:$I$141,"สัญญา")+COUNTIF($H$144:$I$144,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="P105" s="15">
         <f>SUM(M105:O105)</f>
         <v/>
       </c>
-      <c r="R105" s="19" t="inlineStr">
+      <c r="R105" s="15" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="S105" s="19">
-        <f>COUNTIF($C$106:$D$106,"สัญญา")+COUNTIF($C$109:$D$109,"สัญญา")+COUNTIF($C$127:$D$127,"สัญญา")+COUNTIF($C$130:$D$130,"สัญญา")+COUNTIF($H$103:$I$103,"สัญญา")+COUNTIF($H$106:$I$106,"สัญญา")+COUNTIF($H$124:$I$124,"สัญญา")+COUNTIF($H$127:$I$127,"สัญญา")</f>
-        <v/>
-      </c>
-      <c r="T105" s="19">
-        <f>COUNTIF($C$107:$D$107,"สัญญา")+COUNTIF($C$110:$D$110,"สัญญา")+COUNTIF($C$128:$D$128,"สัญญา")+COUNTIF($C$131:$D$131,"สัญญา")+COUNTIF($H$104:$I$104,"สัญญา")+COUNTIF($H$107:$I$107,"สัญญา")+COUNTIF($H$125:$I$125,"สัญญา")+COUNTIF($H$128:$I$128,"สัญญา")</f>
-        <v/>
-      </c>
-      <c r="U105" s="19">
-        <f>COUNTIF($C$108:$D$108,"สัญญา")+COUNTIF($C$111:$D$111,"สัญญา")+COUNTIF($C$129:$D$129,"สัญญา")+COUNTIF($C$132:$D$132,"สัญญา")+COUNTIF($H$105:$I$105,"สัญญา")+COUNTIF($H$108:$I$108,"สัญญา")+COUNTIF($H$126:$I$126,"สัญญา")+COUNTIF($H$129:$I$129,"สัญญา")</f>
-        <v/>
-      </c>
-      <c r="V105" s="19">
+      <c r="S105" s="15">
+        <f>COUNTIF($C$100:$D$100,"สัญญา")+COUNTIF($C$103:$D$103,"สัญญา")+COUNTIF($C$106:$D$106,"สัญญา")+COUNTIF($C$109:$D$109,"สัญญา")+COUNTIF($C$127:$D$127,"สัญญา")+COUNTIF($C$130:$D$130,"สัญญา")+COUNTIF($H$103:$I$103,"สัญญา")+COUNTIF($H$106:$I$106,"สัญญา")+COUNTIF($H$124:$I$124,"สัญญา")+COUNTIF($H$127:$I$127,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="T105" s="15">
+        <f>COUNTIF($C$101:$D$101,"สัญญา")+COUNTIF($C$104:$D$104,"สัญญา")+COUNTIF($C$107:$D$107,"สัญญา")+COUNTIF($C$110:$D$110,"สัญญา")+COUNTIF($C$128:$D$128,"สัญญา")+COUNTIF($C$131:$D$131,"สัญญา")+COUNTIF($H$104:$I$104,"สัญญา")+COUNTIF($H$107:$I$107,"สัญญา")+COUNTIF($H$125:$I$125,"สัญญา")+COUNTIF($H$128:$I$128,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="U105" s="15">
+        <f>COUNTIF($C$102:$D$102,"สัญญา")+COUNTIF($C$105:$D$105,"สัญญา")+COUNTIF($C$108:$D$108,"สัญญา")+COUNTIF($C$111:$D$111,"สัญญา")+COUNTIF($C$129:$D$129,"สัญญา")+COUNTIF($C$132:$D$132,"สัญญา")+COUNTIF($H$105:$I$105,"สัญญา")+COUNTIF($H$108:$I$108,"สัญญา")+COUNTIF($H$126:$I$126,"สัญญา")+COUNTIF($H$129:$I$129,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="V105" s="15">
         <f>SUM(S105:U105)</f>
         <v/>
       </c>
-      <c r="X105" s="19" t="inlineStr">
+      <c r="X105" s="15" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="Y105" s="19">
+      <c r="Y105" s="15">
         <f>SUM(M105,S105)</f>
         <v/>
       </c>
-      <c r="Z105" s="19">
+      <c r="Z105" s="15">
         <f>SUM(N105,T105)</f>
         <v/>
       </c>
-      <c r="AA105" s="19">
+      <c r="AA105" s="15">
         <f>SUM(O105,U105)</f>
         <v/>
       </c>
-      <c r="AB105" s="19">
+      <c r="AB105" s="15">
         <f>SUM(P105,V105)</f>
         <v/>
       </c>
@@ -4863,21 +4951,21 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C106" s="6" t="inlineStr">
+      <c r="C106" s="18" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D106" s="10" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E106" s="16" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="D106" s="15" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E106" s="19" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
       <c r="F106" s="4" t="inlineStr">
         <is>
           <t>19*</t>
@@ -4888,78 +4976,78 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="H106" s="19" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
+      <c r="H106" s="9" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="I106" s="14" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="J106" s="10" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="L106" s="17" t="inlineStr">
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="J106" s="12" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="M106" s="17" t="inlineStr"/>
-      <c r="N106" s="17">
-        <f>COUNTIF($C$98:$D$98,"วินัย")+COUNTIF($C$101:$D$101,"วินัย")+COUNTIF($C$104:$D$104,"วินัย")+COUNTIF($C$113:$D$113,"วินัย")+COUNTIF($C$116:$D$116,"วินัย")+COUNTIF($C$119:$D$119,"วินัย")+COUNTIF($C$122:$D$122,"วินัย")+COUNTIF($C$125:$D$125,"วินัย")+COUNTIF($C$134:$D$134,"วินัย")+COUNTIF($C$137:$D$137,"วินัย")+COUNTIF($C$140:$D$140,"วินัย")+COUNTIF($H$98:$I$98,"วินัย")+COUNTIF($H$101:$I$101,"วินัย")+COUNTIF($H$110:$I$110,"วินัย")+COUNTIF($H$113:$I$113,"วินัย")+COUNTIF($H$116:$I$116,"วินัย")+COUNTIF($H$119:$I$119,"วินัย")+COUNTIF($H$122:$I$122,"วินัย")+COUNTIF($H$131:$I$131,"วินัย")+COUNTIF($H$134:$I$134,"วินัย")+COUNTIF($H$137:$I$137,"วินัย")+COUNTIF($H$140:$I$140,"วินัย")+COUNTIF($H$143:$I$143,"วินัย")</f>
-        <v/>
-      </c>
-      <c r="O106" s="17">
-        <f>COUNTIF($C$99:$D$99,"วินัย")+COUNTIF($C$102:$D$102,"วินัย")+COUNTIF($C$105:$D$105,"วินัย")+COUNTIF($C$114:$D$114,"วินัย")+COUNTIF($C$117:$D$117,"วินัย")+COUNTIF($C$120:$D$120,"วินัย")+COUNTIF($C$123:$D$123,"วินัย")+COUNTIF($C$126:$D$126,"วินัย")+COUNTIF($C$135:$D$135,"วินัย")+COUNTIF($C$138:$D$138,"วินัย")+COUNTIF($C$141:$D$141,"วินัย")+COUNTIF($H$99:$I$99,"วินัย")+COUNTIF($H$102:$I$102,"วินัย")+COUNTIF($H$111:$I$111,"วินัย")+COUNTIF($H$114:$I$114,"วินัย")+COUNTIF($H$117:$I$117,"วินัย")+COUNTIF($H$120:$I$120,"วินัย")+COUNTIF($H$123:$I$123,"วินัย")+COUNTIF($H$132:$I$132,"วินัย")+COUNTIF($H$135:$I$135,"วินัย")+COUNTIF($H$138:$I$138,"วินัย")+COUNTIF($H$141:$I$141,"วินัย")+COUNTIF($H$144:$I$144,"วินัย")</f>
-        <v/>
-      </c>
-      <c r="P106" s="17">
+      <c r="L106" s="12" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="M106" s="12" t="inlineStr"/>
+      <c r="N106" s="12">
+        <f>COUNTIF($C$98:$D$98,"วินัย")+COUNTIF($C$113:$D$113,"วินัย")+COUNTIF($C$116:$D$116,"วินัย")+COUNTIF($C$119:$D$119,"วินัย")+COUNTIF($C$122:$D$122,"วินัย")+COUNTIF($C$125:$D$125,"วินัย")+COUNTIF($C$134:$D$134,"วินัย")+COUNTIF($C$137:$D$137,"วินัย")+COUNTIF($C$140:$D$140,"วินัย")+COUNTIF($H$98:$I$98,"วินัย")+COUNTIF($H$101:$I$101,"วินัย")+COUNTIF($H$110:$I$110,"วินัย")+COUNTIF($H$113:$I$113,"วินัย")+COUNTIF($H$116:$I$116,"วินัย")+COUNTIF($H$119:$I$119,"วินัย")+COUNTIF($H$122:$I$122,"วินัย")+COUNTIF($H$131:$I$131,"วินัย")+COUNTIF($H$134:$I$134,"วินัย")+COUNTIF($H$137:$I$137,"วินัย")+COUNTIF($H$140:$I$140,"วินัย")+COUNTIF($H$143:$I$143,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="O106" s="12">
+        <f>COUNTIF($C$99:$D$99,"วินัย")+COUNTIF($C$114:$D$114,"วินัย")+COUNTIF($C$117:$D$117,"วินัย")+COUNTIF($C$120:$D$120,"วินัย")+COUNTIF($C$123:$D$123,"วินัย")+COUNTIF($C$126:$D$126,"วินัย")+COUNTIF($C$135:$D$135,"วินัย")+COUNTIF($C$138:$D$138,"วินัย")+COUNTIF($C$141:$D$141,"วินัย")+COUNTIF($H$99:$I$99,"วินัย")+COUNTIF($H$102:$I$102,"วินัย")+COUNTIF($H$111:$I$111,"วินัย")+COUNTIF($H$114:$I$114,"วินัย")+COUNTIF($H$117:$I$117,"วินัย")+COUNTIF($H$120:$I$120,"วินัย")+COUNTIF($H$123:$I$123,"วินัย")+COUNTIF($H$132:$I$132,"วินัย")+COUNTIF($H$135:$I$135,"วินัย")+COUNTIF($H$138:$I$138,"วินัย")+COUNTIF($H$141:$I$141,"วินัย")+COUNTIF($H$144:$I$144,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="P106" s="12">
         <f>SUM(M106:O106)</f>
         <v/>
       </c>
-      <c r="R106" s="17" t="inlineStr">
+      <c r="R106" s="12" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="S106" s="17">
-        <f>COUNTIF($C$106:$D$106,"วินัย")+COUNTIF($C$109:$D$109,"วินัย")+COUNTIF($C$127:$D$127,"วินัย")+COUNTIF($C$130:$D$130,"วินัย")+COUNTIF($H$103:$I$103,"วินัย")+COUNTIF($H$106:$I$106,"วินัย")+COUNTIF($H$124:$I$124,"วินัย")+COUNTIF($H$127:$I$127,"วินัย")</f>
-        <v/>
-      </c>
-      <c r="T106" s="17">
-        <f>COUNTIF($C$107:$D$107,"วินัย")+COUNTIF($C$110:$D$110,"วินัย")+COUNTIF($C$128:$D$128,"วินัย")+COUNTIF($C$131:$D$131,"วินัย")+COUNTIF($H$104:$I$104,"วินัย")+COUNTIF($H$107:$I$107,"วินัย")+COUNTIF($H$125:$I$125,"วินัย")+COUNTIF($H$128:$I$128,"วินัย")</f>
-        <v/>
-      </c>
-      <c r="U106" s="17">
-        <f>COUNTIF($C$108:$D$108,"วินัย")+COUNTIF($C$111:$D$111,"วินัย")+COUNTIF($C$129:$D$129,"วินัย")+COUNTIF($C$132:$D$132,"วินัย")+COUNTIF($H$105:$I$105,"วินัย")+COUNTIF($H$108:$I$108,"วินัย")+COUNTIF($H$126:$I$126,"วินัย")+COUNTIF($H$129:$I$129,"วินัย")</f>
-        <v/>
-      </c>
-      <c r="V106" s="17">
+      <c r="S106" s="12">
+        <f>COUNTIF($C$100:$D$100,"วินัย")+COUNTIF($C$103:$D$103,"วินัย")+COUNTIF($C$106:$D$106,"วินัย")+COUNTIF($C$109:$D$109,"วินัย")+COUNTIF($C$127:$D$127,"วินัย")+COUNTIF($C$130:$D$130,"วินัย")+COUNTIF($H$103:$I$103,"วินัย")+COUNTIF($H$106:$I$106,"วินัย")+COUNTIF($H$124:$I$124,"วินัย")+COUNTIF($H$127:$I$127,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="T106" s="12">
+        <f>COUNTIF($C$101:$D$101,"วินัย")+COUNTIF($C$104:$D$104,"วินัย")+COUNTIF($C$107:$D$107,"วินัย")+COUNTIF($C$110:$D$110,"วินัย")+COUNTIF($C$128:$D$128,"วินัย")+COUNTIF($C$131:$D$131,"วินัย")+COUNTIF($H$104:$I$104,"วินัย")+COUNTIF($H$107:$I$107,"วินัย")+COUNTIF($H$125:$I$125,"วินัย")+COUNTIF($H$128:$I$128,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="U106" s="12">
+        <f>COUNTIF($C$102:$D$102,"วินัย")+COUNTIF($C$105:$D$105,"วินัย")+COUNTIF($C$108:$D$108,"วินัย")+COUNTIF($C$111:$D$111,"วินัย")+COUNTIF($C$129:$D$129,"วินัย")+COUNTIF($C$132:$D$132,"วินัย")+COUNTIF($H$105:$I$105,"วินัย")+COUNTIF($H$108:$I$108,"วินัย")+COUNTIF($H$126:$I$126,"วินัย")+COUNTIF($H$129:$I$129,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="V106" s="12">
         <f>SUM(S106:U106)</f>
         <v/>
       </c>
-      <c r="X106" s="17" t="inlineStr">
+      <c r="X106" s="12" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="Y106" s="17">
+      <c r="Y106" s="12">
         <f>SUM(M106,S106)</f>
         <v/>
       </c>
-      <c r="Z106" s="17">
+      <c r="Z106" s="12">
         <f>SUM(N106,T106)</f>
         <v/>
       </c>
-      <c r="AA106" s="17">
+      <c r="AA106" s="12">
         <f>SUM(O106,U106)</f>
         <v/>
       </c>
-      <c r="AB106" s="17">
+      <c r="AB106" s="12">
         <f>SUM(P106,V106)</f>
         <v/>
       </c>
@@ -4971,19 +5059,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C107" s="16" t="inlineStr">
+      <c r="C107" s="8" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D107" s="17" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E107" s="9" t="inlineStr">
         <is>
           <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D107" s="14" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E107" s="18" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="F107" s="5" t="n"/>
@@ -4992,78 +5080,78 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="H107" s="6" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="I107" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="J107" s="9" t="inlineStr">
+      <c r="H107" s="11" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="L107" s="18" t="inlineStr">
+      <c r="I107" s="13" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="J107" s="15" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="L107" s="6" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="M107" s="18" t="inlineStr"/>
-      <c r="N107" s="18">
-        <f>COUNTIF($C$98:$D$98,"รณยุทธ")+COUNTIF($C$101:$D$101,"รณยุทธ")+COUNTIF($C$104:$D$104,"รณยุทธ")+COUNTIF($C$113:$D$113,"รณยุทธ")+COUNTIF($C$116:$D$116,"รณยุทธ")+COUNTIF($C$119:$D$119,"รณยุทธ")+COUNTIF($C$122:$D$122,"รณยุทธ")+COUNTIF($C$125:$D$125,"รณยุทธ")+COUNTIF($C$134:$D$134,"รณยุทธ")+COUNTIF($C$137:$D$137,"รณยุทธ")+COUNTIF($C$140:$D$140,"รณยุทธ")+COUNTIF($H$98:$I$98,"รณยุทธ")+COUNTIF($H$101:$I$101,"รณยุทธ")+COUNTIF($H$110:$I$110,"รณยุทธ")+COUNTIF($H$113:$I$113,"รณยุทธ")+COUNTIF($H$116:$I$116,"รณยุทธ")+COUNTIF($H$119:$I$119,"รณยุทธ")+COUNTIF($H$122:$I$122,"รณยุทธ")+COUNTIF($H$131:$I$131,"รณยุทธ")+COUNTIF($H$134:$I$134,"รณยุทธ")+COUNTIF($H$137:$I$137,"รณยุทธ")+COUNTIF($H$140:$I$140,"รณยุทธ")+COUNTIF($H$143:$I$143,"รณยุทธ")</f>
-        <v/>
-      </c>
-      <c r="O107" s="18">
-        <f>COUNTIF($C$99:$D$99,"รณยุทธ")+COUNTIF($C$102:$D$102,"รณยุทธ")+COUNTIF($C$105:$D$105,"รณยุทธ")+COUNTIF($C$114:$D$114,"รณยุทธ")+COUNTIF($C$117:$D$117,"รณยุทธ")+COUNTIF($C$120:$D$120,"รณยุทธ")+COUNTIF($C$123:$D$123,"รณยุทธ")+COUNTIF($C$126:$D$126,"รณยุทธ")+COUNTIF($C$135:$D$135,"รณยุทธ")+COUNTIF($C$138:$D$138,"รณยุทธ")+COUNTIF($C$141:$D$141,"รณยุทธ")+COUNTIF($H$99:$I$99,"รณยุทธ")+COUNTIF($H$102:$I$102,"รณยุทธ")+COUNTIF($H$111:$I$111,"รณยุทธ")+COUNTIF($H$114:$I$114,"รณยุทธ")+COUNTIF($H$117:$I$117,"รณยุทธ")+COUNTIF($H$120:$I$120,"รณยุทธ")+COUNTIF($H$123:$I$123,"รณยุทธ")+COUNTIF($H$132:$I$132,"รณยุทธ")+COUNTIF($H$135:$I$135,"รณยุทธ")+COUNTIF($H$138:$I$138,"รณยุทธ")+COUNTIF($H$141:$I$141,"รณยุทธ")+COUNTIF($H$144:$I$144,"รณยุทธ")</f>
-        <v/>
-      </c>
-      <c r="P107" s="18">
+      <c r="M107" s="6" t="inlineStr"/>
+      <c r="N107" s="6">
+        <f>COUNTIF($C$98:$D$98,"รณยุทธ")+COUNTIF($C$113:$D$113,"รณยุทธ")+COUNTIF($C$116:$D$116,"รณยุทธ")+COUNTIF($C$119:$D$119,"รณยุทธ")+COUNTIF($C$122:$D$122,"รณยุทธ")+COUNTIF($C$125:$D$125,"รณยุทธ")+COUNTIF($C$134:$D$134,"รณยุทธ")+COUNTIF($C$137:$D$137,"รณยุทธ")+COUNTIF($C$140:$D$140,"รณยุทธ")+COUNTIF($H$98:$I$98,"รณยุทธ")+COUNTIF($H$101:$I$101,"รณยุทธ")+COUNTIF($H$110:$I$110,"รณยุทธ")+COUNTIF($H$113:$I$113,"รณยุทธ")+COUNTIF($H$116:$I$116,"รณยุทธ")+COUNTIF($H$119:$I$119,"รณยุทธ")+COUNTIF($H$122:$I$122,"รณยุทธ")+COUNTIF($H$131:$I$131,"รณยุทธ")+COUNTIF($H$134:$I$134,"รณยุทธ")+COUNTIF($H$137:$I$137,"รณยุทธ")+COUNTIF($H$140:$I$140,"รณยุทธ")+COUNTIF($H$143:$I$143,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="O107" s="6">
+        <f>COUNTIF($C$99:$D$99,"รณยุทธ")+COUNTIF($C$114:$D$114,"รณยุทธ")+COUNTIF($C$117:$D$117,"รณยุทธ")+COUNTIF($C$120:$D$120,"รณยุทธ")+COUNTIF($C$123:$D$123,"รณยุทธ")+COUNTIF($C$126:$D$126,"รณยุทธ")+COUNTIF($C$135:$D$135,"รณยุทธ")+COUNTIF($C$138:$D$138,"รณยุทธ")+COUNTIF($C$141:$D$141,"รณยุทธ")+COUNTIF($H$99:$I$99,"รณยุทธ")+COUNTIF($H$102:$I$102,"รณยุทธ")+COUNTIF($H$111:$I$111,"รณยุทธ")+COUNTIF($H$114:$I$114,"รณยุทธ")+COUNTIF($H$117:$I$117,"รณยุทธ")+COUNTIF($H$120:$I$120,"รณยุทธ")+COUNTIF($H$123:$I$123,"รณยุทธ")+COUNTIF($H$132:$I$132,"รณยุทธ")+COUNTIF($H$135:$I$135,"รณยุทธ")+COUNTIF($H$138:$I$138,"รณยุทธ")+COUNTIF($H$141:$I$141,"รณยุทธ")+COUNTIF($H$144:$I$144,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="P107" s="6">
         <f>SUM(M107:O107)</f>
         <v/>
       </c>
-      <c r="R107" s="18" t="inlineStr">
+      <c r="R107" s="6" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="S107" s="18">
-        <f>COUNTIF($C$106:$D$106,"รณยุทธ")+COUNTIF($C$109:$D$109,"รณยุทธ")+COUNTIF($C$127:$D$127,"รณยุทธ")+COUNTIF($C$130:$D$130,"รณยุทธ")+COUNTIF($H$103:$I$103,"รณยุทธ")+COUNTIF($H$106:$I$106,"รณยุทธ")+COUNTIF($H$124:$I$124,"รณยุทธ")+COUNTIF($H$127:$I$127,"รณยุทธ")</f>
-        <v/>
-      </c>
-      <c r="T107" s="18">
-        <f>COUNTIF($C$107:$D$107,"รณยุทธ")+COUNTIF($C$110:$D$110,"รณยุทธ")+COUNTIF($C$128:$D$128,"รณยุทธ")+COUNTIF($C$131:$D$131,"รณยุทธ")+COUNTIF($H$104:$I$104,"รณยุทธ")+COUNTIF($H$107:$I$107,"รณยุทธ")+COUNTIF($H$125:$I$125,"รณยุทธ")+COUNTIF($H$128:$I$128,"รณยุทธ")</f>
-        <v/>
-      </c>
-      <c r="U107" s="18">
-        <f>COUNTIF($C$108:$D$108,"รณยุทธ")+COUNTIF($C$111:$D$111,"รณยุทธ")+COUNTIF($C$129:$D$129,"รณยุทธ")+COUNTIF($C$132:$D$132,"รณยุทธ")+COUNTIF($H$105:$I$105,"รณยุทธ")+COUNTIF($H$108:$I$108,"รณยุทธ")+COUNTIF($H$126:$I$126,"รณยุทธ")+COUNTIF($H$129:$I$129,"รณยุทธ")</f>
-        <v/>
-      </c>
-      <c r="V107" s="18">
+      <c r="S107" s="6">
+        <f>COUNTIF($C$100:$D$100,"รณยุทธ")+COUNTIF($C$103:$D$103,"รณยุทธ")+COUNTIF($C$106:$D$106,"รณยุทธ")+COUNTIF($C$109:$D$109,"รณยุทธ")+COUNTIF($C$127:$D$127,"รณยุทธ")+COUNTIF($C$130:$D$130,"รณยุทธ")+COUNTIF($H$103:$I$103,"รณยุทธ")+COUNTIF($H$106:$I$106,"รณยุทธ")+COUNTIF($H$124:$I$124,"รณยุทธ")+COUNTIF($H$127:$I$127,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="T107" s="6">
+        <f>COUNTIF($C$101:$D$101,"รณยุทธ")+COUNTIF($C$104:$D$104,"รณยุทธ")+COUNTIF($C$107:$D$107,"รณยุทธ")+COUNTIF($C$110:$D$110,"รณยุทธ")+COUNTIF($C$128:$D$128,"รณยุทธ")+COUNTIF($C$131:$D$131,"รณยุทธ")+COUNTIF($H$104:$I$104,"รณยุทธ")+COUNTIF($H$107:$I$107,"รณยุทธ")+COUNTIF($H$125:$I$125,"รณยุทธ")+COUNTIF($H$128:$I$128,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="U107" s="6">
+        <f>COUNTIF($C$102:$D$102,"รณยุทธ")+COUNTIF($C$105:$D$105,"รณยุทธ")+COUNTIF($C$108:$D$108,"รณยุทธ")+COUNTIF($C$111:$D$111,"รณยุทธ")+COUNTIF($C$129:$D$129,"รณยุทธ")+COUNTIF($C$132:$D$132,"รณยุทธ")+COUNTIF($H$105:$I$105,"รณยุทธ")+COUNTIF($H$108:$I$108,"รณยุทธ")+COUNTIF($H$126:$I$126,"รณยุทธ")+COUNTIF($H$129:$I$129,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="V107" s="6">
         <f>SUM(S107:U107)</f>
         <v/>
       </c>
-      <c r="X107" s="18" t="inlineStr">
+      <c r="X107" s="6" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="Y107" s="18">
+      <c r="Y107" s="6">
         <f>SUM(M107,S107)</f>
         <v/>
       </c>
-      <c r="Z107" s="18">
+      <c r="Z107" s="6">
         <f>SUM(N107,T107)</f>
         <v/>
       </c>
-      <c r="AA107" s="18">
+      <c r="AA107" s="6">
         <f>SUM(O107,U107)</f>
         <v/>
       </c>
-      <c r="AB107" s="18">
+      <c r="AB107" s="6">
         <f>SUM(P107,V107)</f>
         <v/>
       </c>
@@ -5075,19 +5163,19 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C108" s="16" t="inlineStr">
+      <c r="C108" s="6" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D108" s="19" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E108" s="9" t="inlineStr">
         <is>
           <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D108" s="14" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E108" s="18" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="F108" s="5" t="n"/>
@@ -5096,78 +5184,78 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="H108" s="6" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="I108" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="J108" s="9" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="L108" s="10" t="inlineStr">
+      <c r="H108" s="18" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="I108" s="17" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="J108" s="6" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="L108" s="13" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="M108" s="10" t="inlineStr"/>
-      <c r="N108" s="10">
-        <f>COUNTIF($C$98:$D$98,"วัฒพงษ์")+COUNTIF($C$101:$D$101,"วัฒพงษ์")+COUNTIF($C$104:$D$104,"วัฒพงษ์")+COUNTIF($C$113:$D$113,"วัฒพงษ์")+COUNTIF($C$116:$D$116,"วัฒพงษ์")+COUNTIF($C$119:$D$119,"วัฒพงษ์")+COUNTIF($C$122:$D$122,"วัฒพงษ์")+COUNTIF($C$125:$D$125,"วัฒพงษ์")+COUNTIF($C$134:$D$134,"วัฒพงษ์")+COUNTIF($C$137:$D$137,"วัฒพงษ์")+COUNTIF($C$140:$D$140,"วัฒพงษ์")+COUNTIF($H$98:$I$98,"วัฒพงษ์")+COUNTIF($H$101:$I$101,"วัฒพงษ์")+COUNTIF($H$110:$I$110,"วัฒพงษ์")+COUNTIF($H$113:$I$113,"วัฒพงษ์")+COUNTIF($H$116:$I$116,"วัฒพงษ์")+COUNTIF($H$119:$I$119,"วัฒพงษ์")+COUNTIF($H$122:$I$122,"วัฒพงษ์")+COUNTIF($H$131:$I$131,"วัฒพงษ์")+COUNTIF($H$134:$I$134,"วัฒพงษ์")+COUNTIF($H$137:$I$137,"วัฒพงษ์")+COUNTIF($H$140:$I$140,"วัฒพงษ์")+COUNTIF($H$143:$I$143,"วัฒพงษ์")</f>
-        <v/>
-      </c>
-      <c r="O108" s="10">
-        <f>COUNTIF($C$99:$D$99,"วัฒพงษ์")+COUNTIF($C$102:$D$102,"วัฒพงษ์")+COUNTIF($C$105:$D$105,"วัฒพงษ์")+COUNTIF($C$114:$D$114,"วัฒพงษ์")+COUNTIF($C$117:$D$117,"วัฒพงษ์")+COUNTIF($C$120:$D$120,"วัฒพงษ์")+COUNTIF($C$123:$D$123,"วัฒพงษ์")+COUNTIF($C$126:$D$126,"วัฒพงษ์")+COUNTIF($C$135:$D$135,"วัฒพงษ์")+COUNTIF($C$138:$D$138,"วัฒพงษ์")+COUNTIF($C$141:$D$141,"วัฒพงษ์")+COUNTIF($H$99:$I$99,"วัฒพงษ์")+COUNTIF($H$102:$I$102,"วัฒพงษ์")+COUNTIF($H$111:$I$111,"วัฒพงษ์")+COUNTIF($H$114:$I$114,"วัฒพงษ์")+COUNTIF($H$117:$I$117,"วัฒพงษ์")+COUNTIF($H$120:$I$120,"วัฒพงษ์")+COUNTIF($H$123:$I$123,"วัฒพงษ์")+COUNTIF($H$132:$I$132,"วัฒพงษ์")+COUNTIF($H$135:$I$135,"วัฒพงษ์")+COUNTIF($H$138:$I$138,"วัฒพงษ์")+COUNTIF($H$141:$I$141,"วัฒพงษ์")+COUNTIF($H$144:$I$144,"วัฒพงษ์")</f>
-        <v/>
-      </c>
-      <c r="P108" s="10">
+      <c r="M108" s="13" t="inlineStr"/>
+      <c r="N108" s="13">
+        <f>COUNTIF($C$98:$D$98,"วัฒพงษ์")+COUNTIF($C$113:$D$113,"วัฒพงษ์")+COUNTIF($C$116:$D$116,"วัฒพงษ์")+COUNTIF($C$119:$D$119,"วัฒพงษ์")+COUNTIF($C$122:$D$122,"วัฒพงษ์")+COUNTIF($C$125:$D$125,"วัฒพงษ์")+COUNTIF($C$134:$D$134,"วัฒพงษ์")+COUNTIF($C$137:$D$137,"วัฒพงษ์")+COUNTIF($C$140:$D$140,"วัฒพงษ์")+COUNTIF($H$98:$I$98,"วัฒพงษ์")+COUNTIF($H$101:$I$101,"วัฒพงษ์")+COUNTIF($H$110:$I$110,"วัฒพงษ์")+COUNTIF($H$113:$I$113,"วัฒพงษ์")+COUNTIF($H$116:$I$116,"วัฒพงษ์")+COUNTIF($H$119:$I$119,"วัฒพงษ์")+COUNTIF($H$122:$I$122,"วัฒพงษ์")+COUNTIF($H$131:$I$131,"วัฒพงษ์")+COUNTIF($H$134:$I$134,"วัฒพงษ์")+COUNTIF($H$137:$I$137,"วัฒพงษ์")+COUNTIF($H$140:$I$140,"วัฒพงษ์")+COUNTIF($H$143:$I$143,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="O108" s="13">
+        <f>COUNTIF($C$99:$D$99,"วัฒพงษ์")+COUNTIF($C$114:$D$114,"วัฒพงษ์")+COUNTIF($C$117:$D$117,"วัฒพงษ์")+COUNTIF($C$120:$D$120,"วัฒพงษ์")+COUNTIF($C$123:$D$123,"วัฒพงษ์")+COUNTIF($C$126:$D$126,"วัฒพงษ์")+COUNTIF($C$135:$D$135,"วัฒพงษ์")+COUNTIF($C$138:$D$138,"วัฒพงษ์")+COUNTIF($C$141:$D$141,"วัฒพงษ์")+COUNTIF($H$99:$I$99,"วัฒพงษ์")+COUNTIF($H$102:$I$102,"วัฒพงษ์")+COUNTIF($H$111:$I$111,"วัฒพงษ์")+COUNTIF($H$114:$I$114,"วัฒพงษ์")+COUNTIF($H$117:$I$117,"วัฒพงษ์")+COUNTIF($H$120:$I$120,"วัฒพงษ์")+COUNTIF($H$123:$I$123,"วัฒพงษ์")+COUNTIF($H$132:$I$132,"วัฒพงษ์")+COUNTIF($H$135:$I$135,"วัฒพงษ์")+COUNTIF($H$138:$I$138,"วัฒพงษ์")+COUNTIF($H$141:$I$141,"วัฒพงษ์")+COUNTIF($H$144:$I$144,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="P108" s="13">
         <f>SUM(M108:O108)</f>
         <v/>
       </c>
-      <c r="R108" s="10" t="inlineStr">
+      <c r="R108" s="13" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="S108" s="10">
-        <f>COUNTIF($C$106:$D$106,"วัฒพงษ์")+COUNTIF($C$109:$D$109,"วัฒพงษ์")+COUNTIF($C$127:$D$127,"วัฒพงษ์")+COUNTIF($C$130:$D$130,"วัฒพงษ์")+COUNTIF($H$103:$I$103,"วัฒพงษ์")+COUNTIF($H$106:$I$106,"วัฒพงษ์")+COUNTIF($H$124:$I$124,"วัฒพงษ์")+COUNTIF($H$127:$I$127,"วัฒพงษ์")</f>
-        <v/>
-      </c>
-      <c r="T108" s="10">
-        <f>COUNTIF($C$107:$D$107,"วัฒพงษ์")+COUNTIF($C$110:$D$110,"วัฒพงษ์")+COUNTIF($C$128:$D$128,"วัฒพงษ์")+COUNTIF($C$131:$D$131,"วัฒพงษ์")+COUNTIF($H$104:$I$104,"วัฒพงษ์")+COUNTIF($H$107:$I$107,"วัฒพงษ์")+COUNTIF($H$125:$I$125,"วัฒพงษ์")+COUNTIF($H$128:$I$128,"วัฒพงษ์")</f>
-        <v/>
-      </c>
-      <c r="U108" s="10">
-        <f>COUNTIF($C$108:$D$108,"วัฒพงษ์")+COUNTIF($C$111:$D$111,"วัฒพงษ์")+COUNTIF($C$129:$D$129,"วัฒพงษ์")+COUNTIF($C$132:$D$132,"วัฒพงษ์")+COUNTIF($H$105:$I$105,"วัฒพงษ์")+COUNTIF($H$108:$I$108,"วัฒพงษ์")+COUNTIF($H$126:$I$126,"วัฒพงษ์")+COUNTIF($H$129:$I$129,"วัฒพงษ์")</f>
-        <v/>
-      </c>
-      <c r="V108" s="10">
+      <c r="S108" s="13">
+        <f>COUNTIF($C$100:$D$100,"วัฒพงษ์")+COUNTIF($C$103:$D$103,"วัฒพงษ์")+COUNTIF($C$106:$D$106,"วัฒพงษ์")+COUNTIF($C$109:$D$109,"วัฒพงษ์")+COUNTIF($C$127:$D$127,"วัฒพงษ์")+COUNTIF($C$130:$D$130,"วัฒพงษ์")+COUNTIF($H$103:$I$103,"วัฒพงษ์")+COUNTIF($H$106:$I$106,"วัฒพงษ์")+COUNTIF($H$124:$I$124,"วัฒพงษ์")+COUNTIF($H$127:$I$127,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="T108" s="13">
+        <f>COUNTIF($C$101:$D$101,"วัฒพงษ์")+COUNTIF($C$104:$D$104,"วัฒพงษ์")+COUNTIF($C$107:$D$107,"วัฒพงษ์")+COUNTIF($C$110:$D$110,"วัฒพงษ์")+COUNTIF($C$128:$D$128,"วัฒพงษ์")+COUNTIF($C$131:$D$131,"วัฒพงษ์")+COUNTIF($H$104:$I$104,"วัฒพงษ์")+COUNTIF($H$107:$I$107,"วัฒพงษ์")+COUNTIF($H$125:$I$125,"วัฒพงษ์")+COUNTIF($H$128:$I$128,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="U108" s="13">
+        <f>COUNTIF($C$102:$D$102,"วัฒพงษ์")+COUNTIF($C$105:$D$105,"วัฒพงษ์")+COUNTIF($C$108:$D$108,"วัฒพงษ์")+COUNTIF($C$111:$D$111,"วัฒพงษ์")+COUNTIF($C$129:$D$129,"วัฒพงษ์")+COUNTIF($C$132:$D$132,"วัฒพงษ์")+COUNTIF($H$105:$I$105,"วัฒพงษ์")+COUNTIF($H$108:$I$108,"วัฒพงษ์")+COUNTIF($H$126:$I$126,"วัฒพงษ์")+COUNTIF($H$129:$I$129,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="V108" s="13">
         <f>SUM(S108:U108)</f>
         <v/>
       </c>
-      <c r="X108" s="10" t="inlineStr">
+      <c r="X108" s="13" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="Y108" s="10">
+      <c r="Y108" s="13">
         <f>SUM(M108,S108)</f>
         <v/>
       </c>
-      <c r="Z108" s="10">
+      <c r="Z108" s="13">
         <f>SUM(N108,T108)</f>
         <v/>
       </c>
-      <c r="AA108" s="10">
+      <c r="AA108" s="13">
         <f>SUM(O108,U108)</f>
         <v/>
       </c>
-      <c r="AB108" s="10">
+      <c r="AB108" s="13">
         <f>SUM(P108,V108)</f>
         <v/>
       </c>
@@ -5183,17 +5271,17 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C109" s="17" t="inlineStr">
+      <c r="C109" s="12" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="D109" s="10" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E109" s="13" t="inlineStr">
+      <c r="D109" s="14" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E109" s="17" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
@@ -5203,63 +5291,63 @@
           <t>20</t>
         </is>
       </c>
-      <c r="L109" s="7" t="inlineStr">
+      <c r="L109" s="14" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="M109" s="7" t="inlineStr"/>
-      <c r="N109" s="7">
-        <f>COUNTIF($C$98:$D$98,"ราเชน")+COUNTIF($C$101:$D$101,"ราเชน")+COUNTIF($C$104:$D$104,"ราเชน")+COUNTIF($C$113:$D$113,"ราเชน")+COUNTIF($C$116:$D$116,"ราเชน")+COUNTIF($C$119:$D$119,"ราเชน")+COUNTIF($C$122:$D$122,"ราเชน")+COUNTIF($C$125:$D$125,"ราเชน")+COUNTIF($C$134:$D$134,"ราเชน")+COUNTIF($C$137:$D$137,"ราเชน")+COUNTIF($C$140:$D$140,"ราเชน")+COUNTIF($H$98:$I$98,"ราเชน")+COUNTIF($H$101:$I$101,"ราเชน")+COUNTIF($H$110:$I$110,"ราเชน")+COUNTIF($H$113:$I$113,"ราเชน")+COUNTIF($H$116:$I$116,"ราเชน")+COUNTIF($H$119:$I$119,"ราเชน")+COUNTIF($H$122:$I$122,"ราเชน")+COUNTIF($H$131:$I$131,"ราเชน")+COUNTIF($H$134:$I$134,"ราเชน")+COUNTIF($H$137:$I$137,"ราเชน")+COUNTIF($H$140:$I$140,"ราเชน")+COUNTIF($H$143:$I$143,"ราเชน")</f>
-        <v/>
-      </c>
-      <c r="O109" s="7">
-        <f>COUNTIF($C$99:$D$99,"ราเชน")+COUNTIF($C$102:$D$102,"ราเชน")+COUNTIF($C$105:$D$105,"ราเชน")+COUNTIF($C$114:$D$114,"ราเชน")+COUNTIF($C$117:$D$117,"ราเชน")+COUNTIF($C$120:$D$120,"ราเชน")+COUNTIF($C$123:$D$123,"ราเชน")+COUNTIF($C$126:$D$126,"ราเชน")+COUNTIF($C$135:$D$135,"ราเชน")+COUNTIF($C$138:$D$138,"ราเชน")+COUNTIF($C$141:$D$141,"ราเชน")+COUNTIF($H$99:$I$99,"ราเชน")+COUNTIF($H$102:$I$102,"ราเชน")+COUNTIF($H$111:$I$111,"ราเชน")+COUNTIF($H$114:$I$114,"ราเชน")+COUNTIF($H$117:$I$117,"ราเชน")+COUNTIF($H$120:$I$120,"ราเชน")+COUNTIF($H$123:$I$123,"ราเชน")+COUNTIF($H$132:$I$132,"ราเชน")+COUNTIF($H$135:$I$135,"ราเชน")+COUNTIF($H$138:$I$138,"ราเชน")+COUNTIF($H$141:$I$141,"ราเชน")+COUNTIF($H$144:$I$144,"ราเชน")</f>
-        <v/>
-      </c>
-      <c r="P109" s="7">
+      <c r="M109" s="14" t="inlineStr"/>
+      <c r="N109" s="14">
+        <f>COUNTIF($C$98:$D$98,"ราเชน")+COUNTIF($C$113:$D$113,"ราเชน")+COUNTIF($C$116:$D$116,"ราเชน")+COUNTIF($C$119:$D$119,"ราเชน")+COUNTIF($C$122:$D$122,"ราเชน")+COUNTIF($C$125:$D$125,"ราเชน")+COUNTIF($C$134:$D$134,"ราเชน")+COUNTIF($C$137:$D$137,"ราเชน")+COUNTIF($C$140:$D$140,"ราเชน")+COUNTIF($H$98:$I$98,"ราเชน")+COUNTIF($H$101:$I$101,"ราเชน")+COUNTIF($H$110:$I$110,"ราเชน")+COUNTIF($H$113:$I$113,"ราเชน")+COUNTIF($H$116:$I$116,"ราเชน")+COUNTIF($H$119:$I$119,"ราเชน")+COUNTIF($H$122:$I$122,"ราเชน")+COUNTIF($H$131:$I$131,"ราเชน")+COUNTIF($H$134:$I$134,"ราเชน")+COUNTIF($H$137:$I$137,"ราเชน")+COUNTIF($H$140:$I$140,"ราเชน")+COUNTIF($H$143:$I$143,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="O109" s="14">
+        <f>COUNTIF($C$99:$D$99,"ราเชน")+COUNTIF($C$114:$D$114,"ราเชน")+COUNTIF($C$117:$D$117,"ราเชน")+COUNTIF($C$120:$D$120,"ราเชน")+COUNTIF($C$123:$D$123,"ราเชน")+COUNTIF($C$126:$D$126,"ราเชน")+COUNTIF($C$135:$D$135,"ราเชน")+COUNTIF($C$138:$D$138,"ราเชน")+COUNTIF($C$141:$D$141,"ราเชน")+COUNTIF($H$99:$I$99,"ราเชน")+COUNTIF($H$102:$I$102,"ราเชน")+COUNTIF($H$111:$I$111,"ราเชน")+COUNTIF($H$114:$I$114,"ราเชน")+COUNTIF($H$117:$I$117,"ราเชน")+COUNTIF($H$120:$I$120,"ราเชน")+COUNTIF($H$123:$I$123,"ราเชน")+COUNTIF($H$132:$I$132,"ราเชน")+COUNTIF($H$135:$I$135,"ราเชน")+COUNTIF($H$138:$I$138,"ราเชน")+COUNTIF($H$141:$I$141,"ราเชน")+COUNTIF($H$144:$I$144,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="P109" s="14">
         <f>SUM(M109:O109)</f>
         <v/>
       </c>
-      <c r="R109" s="7" t="inlineStr">
+      <c r="R109" s="14" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="S109" s="7">
-        <f>COUNTIF($C$106:$D$106,"ราเชน")+COUNTIF($C$109:$D$109,"ราเชน")+COUNTIF($C$127:$D$127,"ราเชน")+COUNTIF($C$130:$D$130,"ราเชน")+COUNTIF($H$103:$I$103,"ราเชน")+COUNTIF($H$106:$I$106,"ราเชน")+COUNTIF($H$124:$I$124,"ราเชน")+COUNTIF($H$127:$I$127,"ราเชน")</f>
-        <v/>
-      </c>
-      <c r="T109" s="7">
-        <f>COUNTIF($C$107:$D$107,"ราเชน")+COUNTIF($C$110:$D$110,"ราเชน")+COUNTIF($C$128:$D$128,"ราเชน")+COUNTIF($C$131:$D$131,"ราเชน")+COUNTIF($H$104:$I$104,"ราเชน")+COUNTIF($H$107:$I$107,"ราเชน")+COUNTIF($H$125:$I$125,"ราเชน")+COUNTIF($H$128:$I$128,"ราเชน")</f>
-        <v/>
-      </c>
-      <c r="U109" s="7">
-        <f>COUNTIF($C$108:$D$108,"ราเชน")+COUNTIF($C$111:$D$111,"ราเชน")+COUNTIF($C$129:$D$129,"ราเชน")+COUNTIF($C$132:$D$132,"ราเชน")+COUNTIF($H$105:$I$105,"ราเชน")+COUNTIF($H$108:$I$108,"ราเชน")+COUNTIF($H$126:$I$126,"ราเชน")+COUNTIF($H$129:$I$129,"ราเชน")</f>
-        <v/>
-      </c>
-      <c r="V109" s="7">
+      <c r="S109" s="14">
+        <f>COUNTIF($C$100:$D$100,"ราเชน")+COUNTIF($C$103:$D$103,"ราเชน")+COUNTIF($C$106:$D$106,"ราเชน")+COUNTIF($C$109:$D$109,"ราเชน")+COUNTIF($C$127:$D$127,"ราเชน")+COUNTIF($C$130:$D$130,"ราเชน")+COUNTIF($H$103:$I$103,"ราเชน")+COUNTIF($H$106:$I$106,"ราเชน")+COUNTIF($H$124:$I$124,"ราเชน")+COUNTIF($H$127:$I$127,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="T109" s="14">
+        <f>COUNTIF($C$101:$D$101,"ราเชน")+COUNTIF($C$104:$D$104,"ราเชน")+COUNTIF($C$107:$D$107,"ราเชน")+COUNTIF($C$110:$D$110,"ราเชน")+COUNTIF($C$128:$D$128,"ราเชน")+COUNTIF($C$131:$D$131,"ราเชน")+COUNTIF($H$104:$I$104,"ราเชน")+COUNTIF($H$107:$I$107,"ราเชน")+COUNTIF($H$125:$I$125,"ราเชน")+COUNTIF($H$128:$I$128,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="U109" s="14">
+        <f>COUNTIF($C$102:$D$102,"ราเชน")+COUNTIF($C$105:$D$105,"ราเชน")+COUNTIF($C$108:$D$108,"ราเชน")+COUNTIF($C$111:$D$111,"ราเชน")+COUNTIF($C$129:$D$129,"ราเชน")+COUNTIF($C$132:$D$132,"ราเชน")+COUNTIF($H$105:$I$105,"ราเชน")+COUNTIF($H$108:$I$108,"ราเชน")+COUNTIF($H$126:$I$126,"ราเชน")+COUNTIF($H$129:$I$129,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="V109" s="14">
         <f>SUM(S109:U109)</f>
         <v/>
       </c>
-      <c r="X109" s="7" t="inlineStr">
+      <c r="X109" s="14" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="Y109" s="7">
+      <c r="Y109" s="14">
         <f>SUM(M109,S109)</f>
         <v/>
       </c>
-      <c r="Z109" s="7">
+      <c r="Z109" s="14">
         <f>SUM(N109,T109)</f>
         <v/>
       </c>
-      <c r="AA109" s="7">
+      <c r="AA109" s="14">
         <f>SUM(O109,U109)</f>
         <v/>
       </c>
-      <c r="AB109" s="7">
+      <c r="AB109" s="14">
         <f>SUM(P109,V109)</f>
         <v/>
       </c>
@@ -5271,19 +5359,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C110" s="8" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D110" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+      <c r="C110" s="16" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D110" s="19" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="E110" s="11" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="G110" s="1" t="inlineStr">
@@ -5291,78 +5379,78 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="H110" s="18" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="J110" s="16" t="inlineStr">
+      <c r="H110" s="9" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="L110" s="13" t="inlineStr">
+      <c r="I110" s="13" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="J110" s="11" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="L110" s="17" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="M110" s="13" t="inlineStr"/>
-      <c r="N110" s="13">
-        <f>COUNTIF($C$98:$D$98,"นฤชิต")+COUNTIF($C$101:$D$101,"นฤชิต")+COUNTIF($C$104:$D$104,"นฤชิต")+COUNTIF($C$113:$D$113,"นฤชิต")+COUNTIF($C$116:$D$116,"นฤชิต")+COUNTIF($C$119:$D$119,"นฤชิต")+COUNTIF($C$122:$D$122,"นฤชิต")+COUNTIF($C$125:$D$125,"นฤชิต")+COUNTIF($C$134:$D$134,"นฤชิต")+COUNTIF($C$137:$D$137,"นฤชิต")+COUNTIF($C$140:$D$140,"นฤชิต")+COUNTIF($H$98:$I$98,"นฤชิต")+COUNTIF($H$101:$I$101,"นฤชิต")+COUNTIF($H$110:$I$110,"นฤชิต")+COUNTIF($H$113:$I$113,"นฤชิต")+COUNTIF($H$116:$I$116,"นฤชิต")+COUNTIF($H$119:$I$119,"นฤชิต")+COUNTIF($H$122:$I$122,"นฤชิต")+COUNTIF($H$131:$I$131,"นฤชิต")+COUNTIF($H$134:$I$134,"นฤชิต")+COUNTIF($H$137:$I$137,"นฤชิต")+COUNTIF($H$140:$I$140,"นฤชิต")+COUNTIF($H$143:$I$143,"นฤชิต")</f>
-        <v/>
-      </c>
-      <c r="O110" s="13">
-        <f>COUNTIF($C$99:$D$99,"นฤชิต")+COUNTIF($C$102:$D$102,"นฤชิต")+COUNTIF($C$105:$D$105,"นฤชิต")+COUNTIF($C$114:$D$114,"นฤชิต")+COUNTIF($C$117:$D$117,"นฤชิต")+COUNTIF($C$120:$D$120,"นฤชิต")+COUNTIF($C$123:$D$123,"นฤชิต")+COUNTIF($C$126:$D$126,"นฤชิต")+COUNTIF($C$135:$D$135,"นฤชิต")+COUNTIF($C$138:$D$138,"นฤชิต")+COUNTIF($C$141:$D$141,"นฤชิต")+COUNTIF($H$99:$I$99,"นฤชิต")+COUNTIF($H$102:$I$102,"นฤชิต")+COUNTIF($H$111:$I$111,"นฤชิต")+COUNTIF($H$114:$I$114,"นฤชิต")+COUNTIF($H$117:$I$117,"นฤชิต")+COUNTIF($H$120:$I$120,"นฤชิต")+COUNTIF($H$123:$I$123,"นฤชิต")+COUNTIF($H$132:$I$132,"นฤชิต")+COUNTIF($H$135:$I$135,"นฤชิต")+COUNTIF($H$138:$I$138,"นฤชิต")+COUNTIF($H$141:$I$141,"นฤชิต")+COUNTIF($H$144:$I$144,"นฤชิต")</f>
-        <v/>
-      </c>
-      <c r="P110" s="13">
+      <c r="M110" s="17" t="inlineStr"/>
+      <c r="N110" s="17">
+        <f>COUNTIF($C$98:$D$98,"นฤชิต")+COUNTIF($C$113:$D$113,"นฤชิต")+COUNTIF($C$116:$D$116,"นฤชิต")+COUNTIF($C$119:$D$119,"นฤชิต")+COUNTIF($C$122:$D$122,"นฤชิต")+COUNTIF($C$125:$D$125,"นฤชิต")+COUNTIF($C$134:$D$134,"นฤชิต")+COUNTIF($C$137:$D$137,"นฤชิต")+COUNTIF($C$140:$D$140,"นฤชิต")+COUNTIF($H$98:$I$98,"นฤชิต")+COUNTIF($H$101:$I$101,"นฤชิต")+COUNTIF($H$110:$I$110,"นฤชิต")+COUNTIF($H$113:$I$113,"นฤชิต")+COUNTIF($H$116:$I$116,"นฤชิต")+COUNTIF($H$119:$I$119,"นฤชิต")+COUNTIF($H$122:$I$122,"นฤชิต")+COUNTIF($H$131:$I$131,"นฤชิต")+COUNTIF($H$134:$I$134,"นฤชิต")+COUNTIF($H$137:$I$137,"นฤชิต")+COUNTIF($H$140:$I$140,"นฤชิต")+COUNTIF($H$143:$I$143,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="O110" s="17">
+        <f>COUNTIF($C$99:$D$99,"นฤชิต")+COUNTIF($C$114:$D$114,"นฤชิต")+COUNTIF($C$117:$D$117,"นฤชิต")+COUNTIF($C$120:$D$120,"นฤชิต")+COUNTIF($C$123:$D$123,"นฤชิต")+COUNTIF($C$126:$D$126,"นฤชิต")+COUNTIF($C$135:$D$135,"นฤชิต")+COUNTIF($C$138:$D$138,"นฤชิต")+COUNTIF($C$141:$D$141,"นฤชิต")+COUNTIF($H$99:$I$99,"นฤชิต")+COUNTIF($H$102:$I$102,"นฤชิต")+COUNTIF($H$111:$I$111,"นฤชิต")+COUNTIF($H$114:$I$114,"นฤชิต")+COUNTIF($H$117:$I$117,"นฤชิต")+COUNTIF($H$120:$I$120,"นฤชิต")+COUNTIF($H$123:$I$123,"นฤชิต")+COUNTIF($H$132:$I$132,"นฤชิต")+COUNTIF($H$135:$I$135,"นฤชิต")+COUNTIF($H$138:$I$138,"นฤชิต")+COUNTIF($H$141:$I$141,"นฤชิต")+COUNTIF($H$144:$I$144,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="P110" s="17">
         <f>SUM(M110:O110)</f>
         <v/>
       </c>
-      <c r="R110" s="13" t="inlineStr">
+      <c r="R110" s="17" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="S110" s="13">
-        <f>COUNTIF($C$106:$D$106,"นฤชิต")+COUNTIF($C$109:$D$109,"นฤชิต")+COUNTIF($C$127:$D$127,"นฤชิต")+COUNTIF($C$130:$D$130,"นฤชิต")+COUNTIF($H$103:$I$103,"นฤชิต")+COUNTIF($H$106:$I$106,"นฤชิต")+COUNTIF($H$124:$I$124,"นฤชิต")+COUNTIF($H$127:$I$127,"นฤชิต")</f>
-        <v/>
-      </c>
-      <c r="T110" s="13">
-        <f>COUNTIF($C$107:$D$107,"นฤชิต")+COUNTIF($C$110:$D$110,"นฤชิต")+COUNTIF($C$128:$D$128,"นฤชิต")+COUNTIF($C$131:$D$131,"นฤชิต")+COUNTIF($H$104:$I$104,"นฤชิต")+COUNTIF($H$107:$I$107,"นฤชิต")+COUNTIF($H$125:$I$125,"นฤชิต")+COUNTIF($H$128:$I$128,"นฤชิต")</f>
-        <v/>
-      </c>
-      <c r="U110" s="13">
-        <f>COUNTIF($C$108:$D$108,"นฤชิต")+COUNTIF($C$111:$D$111,"นฤชิต")+COUNTIF($C$129:$D$129,"นฤชิต")+COUNTIF($C$132:$D$132,"นฤชิต")+COUNTIF($H$105:$I$105,"นฤชิต")+COUNTIF($H$108:$I$108,"นฤชิต")+COUNTIF($H$126:$I$126,"นฤชิต")+COUNTIF($H$129:$I$129,"นฤชิต")</f>
-        <v/>
-      </c>
-      <c r="V110" s="13">
+      <c r="S110" s="17">
+        <f>COUNTIF($C$100:$D$100,"นฤชิต")+COUNTIF($C$103:$D$103,"นฤชิต")+COUNTIF($C$106:$D$106,"นฤชิต")+COUNTIF($C$109:$D$109,"นฤชิต")+COUNTIF($C$127:$D$127,"นฤชิต")+COUNTIF($C$130:$D$130,"นฤชิต")+COUNTIF($H$103:$I$103,"นฤชิต")+COUNTIF($H$106:$I$106,"นฤชิต")+COUNTIF($H$124:$I$124,"นฤชิต")+COUNTIF($H$127:$I$127,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="T110" s="17">
+        <f>COUNTIF($C$101:$D$101,"นฤชิต")+COUNTIF($C$104:$D$104,"นฤชิต")+COUNTIF($C$107:$D$107,"นฤชิต")+COUNTIF($C$110:$D$110,"นฤชิต")+COUNTIF($C$128:$D$128,"นฤชิต")+COUNTIF($C$131:$D$131,"นฤชิต")+COUNTIF($H$104:$I$104,"นฤชิต")+COUNTIF($H$107:$I$107,"นฤชิต")+COUNTIF($H$125:$I$125,"นฤชิต")+COUNTIF($H$128:$I$128,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="U110" s="17">
+        <f>COUNTIF($C$102:$D$102,"นฤชิต")+COUNTIF($C$105:$D$105,"นฤชิต")+COUNTIF($C$108:$D$108,"นฤชิต")+COUNTIF($C$111:$D$111,"นฤชิต")+COUNTIF($C$129:$D$129,"นฤชิต")+COUNTIF($C$132:$D$132,"นฤชิต")+COUNTIF($H$105:$I$105,"นฤชิต")+COUNTIF($H$108:$I$108,"นฤชิต")+COUNTIF($H$126:$I$126,"นฤชิต")+COUNTIF($H$129:$I$129,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="V110" s="17">
         <f>SUM(S110:U110)</f>
         <v/>
       </c>
-      <c r="X110" s="13" t="inlineStr">
+      <c r="X110" s="17" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="Y110" s="13">
+      <c r="Y110" s="17">
         <f>SUM(M110,S110)</f>
         <v/>
       </c>
-      <c r="Z110" s="13">
+      <c r="Z110" s="17">
         <f>SUM(N110,T110)</f>
         <v/>
       </c>
-      <c r="AA110" s="13">
+      <c r="AA110" s="17">
         <f>SUM(O110,U110)</f>
         <v/>
       </c>
-      <c r="AB110" s="13">
+      <c r="AB110" s="17">
         <f>SUM(P110,V110)</f>
         <v/>
       </c>
@@ -5376,96 +5464,96 @@
       </c>
       <c r="C111" s="8" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D111" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E111" s="11" t="inlineStr">
-        <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
+      <c r="D111" s="10" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E111" s="7" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
       <c r="G111" s="1" t="inlineStr">
         <is>
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="H111" s="18" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="I111" s="15" t="inlineStr">
+      <c r="H111" s="16" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="I111" s="17" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="J111" s="10" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="L111" s="7" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="J111" s="16" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="L111" s="15" t="inlineStr">
+      <c r="M111" s="7" t="inlineStr"/>
+      <c r="N111" s="7">
+        <f>COUNTIF($C$98:$D$98,"จีรวัฒน์")+COUNTIF($C$113:$D$113,"จีรวัฒน์")+COUNTIF($C$116:$D$116,"จีรวัฒน์")+COUNTIF($C$119:$D$119,"จีรวัฒน์")+COUNTIF($C$122:$D$122,"จีรวัฒน์")+COUNTIF($C$125:$D$125,"จีรวัฒน์")+COUNTIF($C$134:$D$134,"จีรวัฒน์")+COUNTIF($C$137:$D$137,"จีรวัฒน์")+COUNTIF($C$140:$D$140,"จีรวัฒน์")+COUNTIF($H$98:$I$98,"จีรวัฒน์")+COUNTIF($H$101:$I$101,"จีรวัฒน์")+COUNTIF($H$110:$I$110,"จีรวัฒน์")+COUNTIF($H$113:$I$113,"จีรวัฒน์")+COUNTIF($H$116:$I$116,"จีรวัฒน์")+COUNTIF($H$119:$I$119,"จีรวัฒน์")+COUNTIF($H$122:$I$122,"จีรวัฒน์")+COUNTIF($H$131:$I$131,"จีรวัฒน์")+COUNTIF($H$134:$I$134,"จีรวัฒน์")+COUNTIF($H$137:$I$137,"จีรวัฒน์")+COUNTIF($H$140:$I$140,"จีรวัฒน์")+COUNTIF($H$143:$I$143,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="O111" s="7">
+        <f>COUNTIF($C$99:$D$99,"จีรวัฒน์")+COUNTIF($C$114:$D$114,"จีรวัฒน์")+COUNTIF($C$117:$D$117,"จีรวัฒน์")+COUNTIF($C$120:$D$120,"จีรวัฒน์")+COUNTIF($C$123:$D$123,"จีรวัฒน์")+COUNTIF($C$126:$D$126,"จีรวัฒน์")+COUNTIF($C$135:$D$135,"จีรวัฒน์")+COUNTIF($C$138:$D$138,"จีรวัฒน์")+COUNTIF($C$141:$D$141,"จีรวัฒน์")+COUNTIF($H$99:$I$99,"จีรวัฒน์")+COUNTIF($H$102:$I$102,"จีรวัฒน์")+COUNTIF($H$111:$I$111,"จีรวัฒน์")+COUNTIF($H$114:$I$114,"จีรวัฒน์")+COUNTIF($H$117:$I$117,"จีรวัฒน์")+COUNTIF($H$120:$I$120,"จีรวัฒน์")+COUNTIF($H$123:$I$123,"จีรวัฒน์")+COUNTIF($H$132:$I$132,"จีรวัฒน์")+COUNTIF($H$135:$I$135,"จีรวัฒน์")+COUNTIF($H$138:$I$138,"จีรวัฒน์")+COUNTIF($H$141:$I$141,"จีรวัฒน์")+COUNTIF($H$144:$I$144,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="P111" s="7">
+        <f>SUM(M111:O111)</f>
+        <v/>
+      </c>
+      <c r="R111" s="7" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="M111" s="15" t="inlineStr"/>
-      <c r="N111" s="15">
-        <f>COUNTIF($C$98:$D$98,"จีรวัฒน์")+COUNTIF($C$101:$D$101,"จีรวัฒน์")+COUNTIF($C$104:$D$104,"จีรวัฒน์")+COUNTIF($C$113:$D$113,"จีรวัฒน์")+COUNTIF($C$116:$D$116,"จีรวัฒน์")+COUNTIF($C$119:$D$119,"จีรวัฒน์")+COUNTIF($C$122:$D$122,"จีรวัฒน์")+COUNTIF($C$125:$D$125,"จีรวัฒน์")+COUNTIF($C$134:$D$134,"จีรวัฒน์")+COUNTIF($C$137:$D$137,"จีรวัฒน์")+COUNTIF($C$140:$D$140,"จีรวัฒน์")+COUNTIF($H$98:$I$98,"จีรวัฒน์")+COUNTIF($H$101:$I$101,"จีรวัฒน์")+COUNTIF($H$110:$I$110,"จีรวัฒน์")+COUNTIF($H$113:$I$113,"จีรวัฒน์")+COUNTIF($H$116:$I$116,"จีรวัฒน์")+COUNTIF($H$119:$I$119,"จีรวัฒน์")+COUNTIF($H$122:$I$122,"จีรวัฒน์")+COUNTIF($H$131:$I$131,"จีรวัฒน์")+COUNTIF($H$134:$I$134,"จีรวัฒน์")+COUNTIF($H$137:$I$137,"จีรวัฒน์")+COUNTIF($H$140:$I$140,"จีรวัฒน์")+COUNTIF($H$143:$I$143,"จีรวัฒน์")</f>
-        <v/>
-      </c>
-      <c r="O111" s="15">
-        <f>COUNTIF($C$99:$D$99,"จีรวัฒน์")+COUNTIF($C$102:$D$102,"จีรวัฒน์")+COUNTIF($C$105:$D$105,"จีรวัฒน์")+COUNTIF($C$114:$D$114,"จีรวัฒน์")+COUNTIF($C$117:$D$117,"จีรวัฒน์")+COUNTIF($C$120:$D$120,"จีรวัฒน์")+COUNTIF($C$123:$D$123,"จีรวัฒน์")+COUNTIF($C$126:$D$126,"จีรวัฒน์")+COUNTIF($C$135:$D$135,"จีรวัฒน์")+COUNTIF($C$138:$D$138,"จีรวัฒน์")+COUNTIF($C$141:$D$141,"จีรวัฒน์")+COUNTIF($H$99:$I$99,"จีรวัฒน์")+COUNTIF($H$102:$I$102,"จีรวัฒน์")+COUNTIF($H$111:$I$111,"จีรวัฒน์")+COUNTIF($H$114:$I$114,"จีรวัฒน์")+COUNTIF($H$117:$I$117,"จีรวัฒน์")+COUNTIF($H$120:$I$120,"จีรวัฒน์")+COUNTIF($H$123:$I$123,"จีรวัฒน์")+COUNTIF($H$132:$I$132,"จีรวัฒน์")+COUNTIF($H$135:$I$135,"จีรวัฒน์")+COUNTIF($H$138:$I$138,"จีรวัฒน์")+COUNTIF($H$141:$I$141,"จีรวัฒน์")+COUNTIF($H$144:$I$144,"จีรวัฒน์")</f>
-        <v/>
-      </c>
-      <c r="P111" s="15">
-        <f>SUM(M111:O111)</f>
-        <v/>
-      </c>
-      <c r="R111" s="15" t="inlineStr">
+      <c r="S111" s="7">
+        <f>COUNTIF($C$100:$D$100,"จีรวัฒน์")+COUNTIF($C$103:$D$103,"จีรวัฒน์")+COUNTIF($C$106:$D$106,"จีรวัฒน์")+COUNTIF($C$109:$D$109,"จีรวัฒน์")+COUNTIF($C$127:$D$127,"จีรวัฒน์")+COUNTIF($C$130:$D$130,"จีรวัฒน์")+COUNTIF($H$103:$I$103,"จีรวัฒน์")+COUNTIF($H$106:$I$106,"จีรวัฒน์")+COUNTIF($H$124:$I$124,"จีรวัฒน์")+COUNTIF($H$127:$I$127,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="T111" s="7">
+        <f>COUNTIF($C$101:$D$101,"จีรวัฒน์")+COUNTIF($C$104:$D$104,"จีรวัฒน์")+COUNTIF($C$107:$D$107,"จีรวัฒน์")+COUNTIF($C$110:$D$110,"จีรวัฒน์")+COUNTIF($C$128:$D$128,"จีรวัฒน์")+COUNTIF($C$131:$D$131,"จีรวัฒน์")+COUNTIF($H$104:$I$104,"จีรวัฒน์")+COUNTIF($H$107:$I$107,"จีรวัฒน์")+COUNTIF($H$125:$I$125,"จีรวัฒน์")+COUNTIF($H$128:$I$128,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="U111" s="7">
+        <f>COUNTIF($C$102:$D$102,"จีรวัฒน์")+COUNTIF($C$105:$D$105,"จีรวัฒน์")+COUNTIF($C$108:$D$108,"จีรวัฒน์")+COUNTIF($C$111:$D$111,"จีรวัฒน์")+COUNTIF($C$129:$D$129,"จีรวัฒน์")+COUNTIF($C$132:$D$132,"จีรวัฒน์")+COUNTIF($H$105:$I$105,"จีรวัฒน์")+COUNTIF($H$108:$I$108,"จีรวัฒน์")+COUNTIF($H$126:$I$126,"จีรวัฒน์")+COUNTIF($H$129:$I$129,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="V111" s="7">
+        <f>SUM(S111:U111)</f>
+        <v/>
+      </c>
+      <c r="X111" s="7" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="S111" s="15">
-        <f>COUNTIF($C$106:$D$106,"จีรวัฒน์")+COUNTIF($C$109:$D$109,"จีรวัฒน์")+COUNTIF($C$127:$D$127,"จีรวัฒน์")+COUNTIF($C$130:$D$130,"จีรวัฒน์")+COUNTIF($H$103:$I$103,"จีรวัฒน์")+COUNTIF($H$106:$I$106,"จีรวัฒน์")+COUNTIF($H$124:$I$124,"จีรวัฒน์")+COUNTIF($H$127:$I$127,"จีรวัฒน์")</f>
-        <v/>
-      </c>
-      <c r="T111" s="15">
-        <f>COUNTIF($C$107:$D$107,"จีรวัฒน์")+COUNTIF($C$110:$D$110,"จีรวัฒน์")+COUNTIF($C$128:$D$128,"จีรวัฒน์")+COUNTIF($C$131:$D$131,"จีรวัฒน์")+COUNTIF($H$104:$I$104,"จีรวัฒน์")+COUNTIF($H$107:$I$107,"จีรวัฒน์")+COUNTIF($H$125:$I$125,"จีรวัฒน์")+COUNTIF($H$128:$I$128,"จีรวัฒน์")</f>
-        <v/>
-      </c>
-      <c r="U111" s="15">
-        <f>COUNTIF($C$108:$D$108,"จีรวัฒน์")+COUNTIF($C$111:$D$111,"จีรวัฒน์")+COUNTIF($C$129:$D$129,"จีรวัฒน์")+COUNTIF($C$132:$D$132,"จีรวัฒน์")+COUNTIF($H$105:$I$105,"จีรวัฒน์")+COUNTIF($H$108:$I$108,"จีรวัฒน์")+COUNTIF($H$126:$I$126,"จีรวัฒน์")+COUNTIF($H$129:$I$129,"จีรวัฒน์")</f>
-        <v/>
-      </c>
-      <c r="V111" s="15">
-        <f>SUM(S111:U111)</f>
-        <v/>
-      </c>
-      <c r="X111" s="15" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="Y111" s="15">
+      <c r="Y111" s="7">
         <f>SUM(M111,S111)</f>
         <v/>
       </c>
-      <c r="Z111" s="15">
+      <c r="Z111" s="7">
         <f>SUM(N111,T111)</f>
         <v/>
       </c>
-      <c r="AA111" s="15">
+      <c r="AA111" s="7">
         <f>SUM(O111,U111)</f>
         <v/>
       </c>
-      <c r="AB111" s="15">
+      <c r="AB111" s="7">
         <f>SUM(P111,V111)</f>
         <v/>
       </c>
@@ -5481,63 +5569,63 @@
           <t>21</t>
         </is>
       </c>
-      <c r="L112" s="14" t="inlineStr">
+      <c r="L112" s="10" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="M112" s="14" t="inlineStr"/>
-      <c r="N112" s="14">
-        <f>COUNTIF($C$98:$D$98,"สุเมธร์")+COUNTIF($C$101:$D$101,"สุเมธร์")+COUNTIF($C$104:$D$104,"สุเมธร์")+COUNTIF($C$113:$D$113,"สุเมธร์")+COUNTIF($C$116:$D$116,"สุเมธร์")+COUNTIF($C$119:$D$119,"สุเมธร์")+COUNTIF($C$122:$D$122,"สุเมธร์")+COUNTIF($C$125:$D$125,"สุเมธร์")+COUNTIF($C$134:$D$134,"สุเมธร์")+COUNTIF($C$137:$D$137,"สุเมธร์")+COUNTIF($C$140:$D$140,"สุเมธร์")+COUNTIF($H$98:$I$98,"สุเมธร์")+COUNTIF($H$101:$I$101,"สุเมธร์")+COUNTIF($H$110:$I$110,"สุเมธร์")+COUNTIF($H$113:$I$113,"สุเมธร์")+COUNTIF($H$116:$I$116,"สุเมธร์")+COUNTIF($H$119:$I$119,"สุเมธร์")+COUNTIF($H$122:$I$122,"สุเมธร์")+COUNTIF($H$131:$I$131,"สุเมธร์")+COUNTIF($H$134:$I$134,"สุเมธร์")+COUNTIF($H$137:$I$137,"สุเมธร์")+COUNTIF($H$140:$I$140,"สุเมธร์")+COUNTIF($H$143:$I$143,"สุเมธร์")</f>
-        <v/>
-      </c>
-      <c r="O112" s="14">
-        <f>COUNTIF($C$99:$D$99,"สุเมธร์")+COUNTIF($C$102:$D$102,"สุเมธร์")+COUNTIF($C$105:$D$105,"สุเมธร์")+COUNTIF($C$114:$D$114,"สุเมธร์")+COUNTIF($C$117:$D$117,"สุเมธร์")+COUNTIF($C$120:$D$120,"สุเมธร์")+COUNTIF($C$123:$D$123,"สุเมธร์")+COUNTIF($C$126:$D$126,"สุเมธร์")+COUNTIF($C$135:$D$135,"สุเมธร์")+COUNTIF($C$138:$D$138,"สุเมธร์")+COUNTIF($C$141:$D$141,"สุเมธร์")+COUNTIF($H$99:$I$99,"สุเมธร์")+COUNTIF($H$102:$I$102,"สุเมธร์")+COUNTIF($H$111:$I$111,"สุเมธร์")+COUNTIF($H$114:$I$114,"สุเมธร์")+COUNTIF($H$117:$I$117,"สุเมธร์")+COUNTIF($H$120:$I$120,"สุเมธร์")+COUNTIF($H$123:$I$123,"สุเมธร์")+COUNTIF($H$132:$I$132,"สุเมธร์")+COUNTIF($H$135:$I$135,"สุเมธร์")+COUNTIF($H$138:$I$138,"สุเมธร์")+COUNTIF($H$141:$I$141,"สุเมธร์")+COUNTIF($H$144:$I$144,"สุเมธร์")</f>
-        <v/>
-      </c>
-      <c r="P112" s="14">
+      <c r="M112" s="10" t="inlineStr"/>
+      <c r="N112" s="10">
+        <f>COUNTIF($C$98:$D$98,"สุเมธร์")+COUNTIF($C$113:$D$113,"สุเมธร์")+COUNTIF($C$116:$D$116,"สุเมธร์")+COUNTIF($C$119:$D$119,"สุเมธร์")+COUNTIF($C$122:$D$122,"สุเมธร์")+COUNTIF($C$125:$D$125,"สุเมธร์")+COUNTIF($C$134:$D$134,"สุเมธร์")+COUNTIF($C$137:$D$137,"สุเมธร์")+COUNTIF($C$140:$D$140,"สุเมธร์")+COUNTIF($H$98:$I$98,"สุเมธร์")+COUNTIF($H$101:$I$101,"สุเมธร์")+COUNTIF($H$110:$I$110,"สุเมธร์")+COUNTIF($H$113:$I$113,"สุเมธร์")+COUNTIF($H$116:$I$116,"สุเมธร์")+COUNTIF($H$119:$I$119,"สุเมธร์")+COUNTIF($H$122:$I$122,"สุเมธร์")+COUNTIF($H$131:$I$131,"สุเมธร์")+COUNTIF($H$134:$I$134,"สุเมธร์")+COUNTIF($H$137:$I$137,"สุเมธร์")+COUNTIF($H$140:$I$140,"สุเมธร์")+COUNTIF($H$143:$I$143,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="O112" s="10">
+        <f>COUNTIF($C$99:$D$99,"สุเมธร์")+COUNTIF($C$114:$D$114,"สุเมธร์")+COUNTIF($C$117:$D$117,"สุเมธร์")+COUNTIF($C$120:$D$120,"สุเมธร์")+COUNTIF($C$123:$D$123,"สุเมธร์")+COUNTIF($C$126:$D$126,"สุเมธร์")+COUNTIF($C$135:$D$135,"สุเมธร์")+COUNTIF($C$138:$D$138,"สุเมธร์")+COUNTIF($C$141:$D$141,"สุเมธร์")+COUNTIF($H$99:$I$99,"สุเมธร์")+COUNTIF($H$102:$I$102,"สุเมธร์")+COUNTIF($H$111:$I$111,"สุเมธร์")+COUNTIF($H$114:$I$114,"สุเมธร์")+COUNTIF($H$117:$I$117,"สุเมธร์")+COUNTIF($H$120:$I$120,"สุเมธร์")+COUNTIF($H$123:$I$123,"สุเมธร์")+COUNTIF($H$132:$I$132,"สุเมธร์")+COUNTIF($H$135:$I$135,"สุเมธร์")+COUNTIF($H$138:$I$138,"สุเมธร์")+COUNTIF($H$141:$I$141,"สุเมธร์")+COUNTIF($H$144:$I$144,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="P112" s="10">
         <f>SUM(M112:O112)</f>
         <v/>
       </c>
-      <c r="R112" s="14" t="inlineStr">
+      <c r="R112" s="10" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="S112" s="14">
-        <f>COUNTIF($C$106:$D$106,"สุเมธร์")+COUNTIF($C$109:$D$109,"สุเมธร์")+COUNTIF($C$127:$D$127,"สุเมธร์")+COUNTIF($C$130:$D$130,"สุเมธร์")+COUNTIF($H$103:$I$103,"สุเมธร์")+COUNTIF($H$106:$I$106,"สุเมธร์")+COUNTIF($H$124:$I$124,"สุเมธร์")+COUNTIF($H$127:$I$127,"สุเมธร์")</f>
-        <v/>
-      </c>
-      <c r="T112" s="14">
-        <f>COUNTIF($C$107:$D$107,"สุเมธร์")+COUNTIF($C$110:$D$110,"สุเมธร์")+COUNTIF($C$128:$D$128,"สุเมธร์")+COUNTIF($C$131:$D$131,"สุเมธร์")+COUNTIF($H$104:$I$104,"สุเมธร์")+COUNTIF($H$107:$I$107,"สุเมธร์")+COUNTIF($H$125:$I$125,"สุเมธร์")+COUNTIF($H$128:$I$128,"สุเมธร์")</f>
-        <v/>
-      </c>
-      <c r="U112" s="14">
-        <f>COUNTIF($C$108:$D$108,"สุเมธร์")+COUNTIF($C$111:$D$111,"สุเมธร์")+COUNTIF($C$129:$D$129,"สุเมธร์")+COUNTIF($C$132:$D$132,"สุเมธร์")+COUNTIF($H$105:$I$105,"สุเมธร์")+COUNTIF($H$108:$I$108,"สุเมธร์")+COUNTIF($H$126:$I$126,"สุเมธร์")+COUNTIF($H$129:$I$129,"สุเมธร์")</f>
-        <v/>
-      </c>
-      <c r="V112" s="14">
+      <c r="S112" s="10">
+        <f>COUNTIF($C$100:$D$100,"สุเมธร์")+COUNTIF($C$103:$D$103,"สุเมธร์")+COUNTIF($C$106:$D$106,"สุเมธร์")+COUNTIF($C$109:$D$109,"สุเมธร์")+COUNTIF($C$127:$D$127,"สุเมธร์")+COUNTIF($C$130:$D$130,"สุเมธร์")+COUNTIF($H$103:$I$103,"สุเมธร์")+COUNTIF($H$106:$I$106,"สุเมธร์")+COUNTIF($H$124:$I$124,"สุเมธร์")+COUNTIF($H$127:$I$127,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="T112" s="10">
+        <f>COUNTIF($C$101:$D$101,"สุเมธร์")+COUNTIF($C$104:$D$104,"สุเมธร์")+COUNTIF($C$107:$D$107,"สุเมธร์")+COUNTIF($C$110:$D$110,"สุเมธร์")+COUNTIF($C$128:$D$128,"สุเมธร์")+COUNTIF($C$131:$D$131,"สุเมธร์")+COUNTIF($H$104:$I$104,"สุเมธร์")+COUNTIF($H$107:$I$107,"สุเมธร์")+COUNTIF($H$125:$I$125,"สุเมธร์")+COUNTIF($H$128:$I$128,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="U112" s="10">
+        <f>COUNTIF($C$102:$D$102,"สุเมธร์")+COUNTIF($C$105:$D$105,"สุเมธร์")+COUNTIF($C$108:$D$108,"สุเมธร์")+COUNTIF($C$111:$D$111,"สุเมธร์")+COUNTIF($C$129:$D$129,"สุเมธร์")+COUNTIF($C$132:$D$132,"สุเมธร์")+COUNTIF($H$105:$I$105,"สุเมธร์")+COUNTIF($H$108:$I$108,"สุเมธร์")+COUNTIF($H$126:$I$126,"สุเมธร์")+COUNTIF($H$129:$I$129,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="V112" s="10">
         <f>SUM(S112:U112)</f>
         <v/>
       </c>
-      <c r="X112" s="14" t="inlineStr">
+      <c r="X112" s="10" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="Y112" s="14">
+      <c r="Y112" s="10">
         <f>SUM(M112,S112)</f>
         <v/>
       </c>
-      <c r="Z112" s="14">
+      <c r="Z112" s="10">
         <f>SUM(N112,T112)</f>
         <v/>
       </c>
-      <c r="AA112" s="14">
+      <c r="AA112" s="10">
         <f>SUM(O112,U112)</f>
         <v/>
       </c>
-      <c r="AB112" s="14">
+      <c r="AB112" s="10">
         <f>SUM(P112,V112)</f>
         <v/>
       </c>
@@ -5548,98 +5636,98 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C113" s="19" t="inlineStr">
+      <c r="C113" s="8" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D113" s="13" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E113" s="10" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="G113" s="1" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H113" s="15" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="D113" s="14" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E113" s="15" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="G113" s="1" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H113" s="17" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="I113" s="10" t="inlineStr">
+      <c r="I113" s="13" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="J113" s="14" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="L113" s="12" t="inlineStr">
+      <c r="J113" s="16" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="L113" s="19" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="M113" s="12" t="inlineStr"/>
-      <c r="N113" s="12">
-        <f>COUNTIF($C$98:$D$98,"นที")+COUNTIF($C$101:$D$101,"นที")+COUNTIF($C$104:$D$104,"นที")+COUNTIF($C$113:$D$113,"นที")+COUNTIF($C$116:$D$116,"นที")+COUNTIF($C$119:$D$119,"นที")+COUNTIF($C$122:$D$122,"นที")+COUNTIF($C$125:$D$125,"นที")+COUNTIF($C$134:$D$134,"นที")+COUNTIF($C$137:$D$137,"นที")+COUNTIF($C$140:$D$140,"นที")+COUNTIF($H$98:$I$98,"นที")+COUNTIF($H$101:$I$101,"นที")+COUNTIF($H$110:$I$110,"นที")+COUNTIF($H$113:$I$113,"นที")+COUNTIF($H$116:$I$116,"นที")+COUNTIF($H$119:$I$119,"นที")+COUNTIF($H$122:$I$122,"นที")+COUNTIF($H$131:$I$131,"นที")+COUNTIF($H$134:$I$134,"นที")+COUNTIF($H$137:$I$137,"นที")+COUNTIF($H$140:$I$140,"นที")+COUNTIF($H$143:$I$143,"นที")</f>
-        <v/>
-      </c>
-      <c r="O113" s="12">
-        <f>COUNTIF($C$99:$D$99,"นที")+COUNTIF($C$102:$D$102,"นที")+COUNTIF($C$105:$D$105,"นที")+COUNTIF($C$114:$D$114,"นที")+COUNTIF($C$117:$D$117,"นที")+COUNTIF($C$120:$D$120,"นที")+COUNTIF($C$123:$D$123,"นที")+COUNTIF($C$126:$D$126,"นที")+COUNTIF($C$135:$D$135,"นที")+COUNTIF($C$138:$D$138,"นที")+COUNTIF($C$141:$D$141,"นที")+COUNTIF($H$99:$I$99,"นที")+COUNTIF($H$102:$I$102,"นที")+COUNTIF($H$111:$I$111,"นที")+COUNTIF($H$114:$I$114,"นที")+COUNTIF($H$117:$I$117,"นที")+COUNTIF($H$120:$I$120,"นที")+COUNTIF($H$123:$I$123,"นที")+COUNTIF($H$132:$I$132,"นที")+COUNTIF($H$135:$I$135,"นที")+COUNTIF($H$138:$I$138,"นที")+COUNTIF($H$141:$I$141,"นที")+COUNTIF($H$144:$I$144,"นที")</f>
-        <v/>
-      </c>
-      <c r="P113" s="12">
+      <c r="M113" s="19" t="inlineStr"/>
+      <c r="N113" s="19">
+        <f>COUNTIF($C$98:$D$98,"นที")+COUNTIF($C$113:$D$113,"นที")+COUNTIF($C$116:$D$116,"นที")+COUNTIF($C$119:$D$119,"นที")+COUNTIF($C$122:$D$122,"นที")+COUNTIF($C$125:$D$125,"นที")+COUNTIF($C$134:$D$134,"นที")+COUNTIF($C$137:$D$137,"นที")+COUNTIF($C$140:$D$140,"นที")+COUNTIF($H$98:$I$98,"นที")+COUNTIF($H$101:$I$101,"นที")+COUNTIF($H$110:$I$110,"นที")+COUNTIF($H$113:$I$113,"นที")+COUNTIF($H$116:$I$116,"นที")+COUNTIF($H$119:$I$119,"นที")+COUNTIF($H$122:$I$122,"นที")+COUNTIF($H$131:$I$131,"นที")+COUNTIF($H$134:$I$134,"นที")+COUNTIF($H$137:$I$137,"นที")+COUNTIF($H$140:$I$140,"นที")+COUNTIF($H$143:$I$143,"นที")</f>
+        <v/>
+      </c>
+      <c r="O113" s="19">
+        <f>COUNTIF($C$99:$D$99,"นที")+COUNTIF($C$114:$D$114,"นที")+COUNTIF($C$117:$D$117,"นที")+COUNTIF($C$120:$D$120,"นที")+COUNTIF($C$123:$D$123,"นที")+COUNTIF($C$126:$D$126,"นที")+COUNTIF($C$135:$D$135,"นที")+COUNTIF($C$138:$D$138,"นที")+COUNTIF($C$141:$D$141,"นที")+COUNTIF($H$99:$I$99,"นที")+COUNTIF($H$102:$I$102,"นที")+COUNTIF($H$111:$I$111,"นที")+COUNTIF($H$114:$I$114,"นที")+COUNTIF($H$117:$I$117,"นที")+COUNTIF($H$120:$I$120,"นที")+COUNTIF($H$123:$I$123,"นที")+COUNTIF($H$132:$I$132,"นที")+COUNTIF($H$135:$I$135,"นที")+COUNTIF($H$138:$I$138,"นที")+COUNTIF($H$141:$I$141,"นที")+COUNTIF($H$144:$I$144,"นที")</f>
+        <v/>
+      </c>
+      <c r="P113" s="19">
         <f>SUM(M113:O113)</f>
         <v/>
       </c>
-      <c r="R113" s="12" t="inlineStr">
+      <c r="R113" s="19" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="S113" s="12">
-        <f>COUNTIF($C$106:$D$106,"นที")+COUNTIF($C$109:$D$109,"นที")+COUNTIF($C$127:$D$127,"นที")+COUNTIF($C$130:$D$130,"นที")+COUNTIF($H$103:$I$103,"นที")+COUNTIF($H$106:$I$106,"นที")+COUNTIF($H$124:$I$124,"นที")+COUNTIF($H$127:$I$127,"นที")</f>
-        <v/>
-      </c>
-      <c r="T113" s="12">
-        <f>COUNTIF($C$107:$D$107,"นที")+COUNTIF($C$110:$D$110,"นที")+COUNTIF($C$128:$D$128,"นที")+COUNTIF($C$131:$D$131,"นที")+COUNTIF($H$104:$I$104,"นที")+COUNTIF($H$107:$I$107,"นที")+COUNTIF($H$125:$I$125,"นที")+COUNTIF($H$128:$I$128,"นที")</f>
-        <v/>
-      </c>
-      <c r="U113" s="12">
-        <f>COUNTIF($C$108:$D$108,"นที")+COUNTIF($C$111:$D$111,"นที")+COUNTIF($C$129:$D$129,"นที")+COUNTIF($C$132:$D$132,"นที")+COUNTIF($H$105:$I$105,"นที")+COUNTIF($H$108:$I$108,"นที")+COUNTIF($H$126:$I$126,"นที")+COUNTIF($H$129:$I$129,"นที")</f>
-        <v/>
-      </c>
-      <c r="V113" s="12">
+      <c r="S113" s="19">
+        <f>COUNTIF($C$100:$D$100,"นที")+COUNTIF($C$103:$D$103,"นที")+COUNTIF($C$106:$D$106,"นที")+COUNTIF($C$109:$D$109,"นที")+COUNTIF($C$127:$D$127,"นที")+COUNTIF($C$130:$D$130,"นที")+COUNTIF($H$103:$I$103,"นที")+COUNTIF($H$106:$I$106,"นที")+COUNTIF($H$124:$I$124,"นที")+COUNTIF($H$127:$I$127,"นที")</f>
+        <v/>
+      </c>
+      <c r="T113" s="19">
+        <f>COUNTIF($C$101:$D$101,"นที")+COUNTIF($C$104:$D$104,"นที")+COUNTIF($C$107:$D$107,"นที")+COUNTIF($C$110:$D$110,"นที")+COUNTIF($C$128:$D$128,"นที")+COUNTIF($C$131:$D$131,"นที")+COUNTIF($H$104:$I$104,"นที")+COUNTIF($H$107:$I$107,"นที")+COUNTIF($H$125:$I$125,"นที")+COUNTIF($H$128:$I$128,"นที")</f>
+        <v/>
+      </c>
+      <c r="U113" s="19">
+        <f>COUNTIF($C$102:$D$102,"นที")+COUNTIF($C$105:$D$105,"นที")+COUNTIF($C$108:$D$108,"นที")+COUNTIF($C$111:$D$111,"นที")+COUNTIF($C$129:$D$129,"นที")+COUNTIF($C$132:$D$132,"นที")+COUNTIF($H$105:$I$105,"นที")+COUNTIF($H$108:$I$108,"นที")+COUNTIF($H$126:$I$126,"นที")+COUNTIF($H$129:$I$129,"นที")</f>
+        <v/>
+      </c>
+      <c r="V113" s="19">
         <f>SUM(S113:U113)</f>
         <v/>
       </c>
-      <c r="X113" s="12" t="inlineStr">
+      <c r="X113" s="19" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="Y113" s="12">
+      <c r="Y113" s="19">
         <f>SUM(M113,S113)</f>
         <v/>
       </c>
-      <c r="Z113" s="12">
+      <c r="Z113" s="19">
         <f>SUM(N113,T113)</f>
         <v/>
       </c>
-      <c r="AA113" s="12">
+      <c r="AA113" s="19">
         <f>SUM(O113,U113)</f>
         <v/>
       </c>
-      <c r="AB113" s="12">
+      <c r="AB113" s="19">
         <f>SUM(P113,V113)</f>
         <v/>
       </c>
@@ -5650,39 +5738,39 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C114" s="19" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="D114" s="14" t="inlineStr">
+      <c r="C114" s="6" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D114" s="19" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E114" s="9" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="G114" s="1" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H114" s="18" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="I114" s="10" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="E114" s="15" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="G114" s="1" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H114" s="17" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="I114" s="10" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="J114" s="14" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
+      <c r="J114" s="6" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
     </row>
@@ -5719,39 +5807,39 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C116" s="8" t="inlineStr">
+      <c r="C116" s="16" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D116" s="19" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E116" s="18" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="D116" s="13" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E116" s="10" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
       <c r="G116" s="1" t="inlineStr">
         <is>
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="H116" s="19" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="I116" s="13" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="J116" s="6" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
+      <c r="H116" s="9" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="I116" s="19" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="J116" s="18" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="M116" s="1" t="inlineStr">
@@ -5821,98 +5909,98 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C117" s="8" t="inlineStr">
+      <c r="C117" s="6" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D117" s="13" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E117" s="18" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="D117" s="13" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E117" s="10" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
       <c r="G117" s="1" t="inlineStr">
         <is>
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="H117" s="19" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="I117" s="13" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="J117" s="6" t="inlineStr">
+      <c r="H117" s="9" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="I117" s="7" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="J117" s="8" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="L117" s="16" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="L117" s="6" t="inlineStr">
+      <c r="M117" s="16" t="inlineStr"/>
+      <c r="N117" s="16">
+        <f>COUNTIF($E$98,"ภูวเนตร")+COUNTIF($E$113,"ภูวเนตร")+COUNTIF($E$116,"ภูวเนตร")+COUNTIF($E$119,"ภูวเนตร")+COUNTIF($E$122,"ภูวเนตร")+COUNTIF($E$125,"ภูวเนตร")+COUNTIF($E$134,"ภูวเนตร")+COUNTIF($E$137,"ภูวเนตร")+COUNTIF($E$140,"ภูวเนตร")+COUNTIF($J$98,"ภูวเนตร")+COUNTIF($J$101,"ภูวเนตร")+COUNTIF($J$110,"ภูวเนตร")+COUNTIF($J$113,"ภูวเนตร")+COUNTIF($J$116,"ภูวเนตร")+COUNTIF($J$119,"ภูวเนตร")+COUNTIF($J$122,"ภูวเนตร")+COUNTIF($J$131,"ภูวเนตร")+COUNTIF($J$134,"ภูวเนตร")+COUNTIF($J$137,"ภูวเนตร")+COUNTIF($J$140,"ภูวเนตร")+COUNTIF($J$143,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="O117" s="16">
+        <f>COUNTIF($E$99,"ภูวเนตร")+COUNTIF($E$114,"ภูวเนตร")+COUNTIF($E$117,"ภูวเนตร")+COUNTIF($E$120,"ภูวเนตร")+COUNTIF($E$123,"ภูวเนตร")+COUNTIF($E$126,"ภูวเนตร")+COUNTIF($E$135,"ภูวเนตร")+COUNTIF($E$138,"ภูวเนตร")+COUNTIF($E$141,"ภูวเนตร")+COUNTIF($J$99,"ภูวเนตร")+COUNTIF($J$102,"ภูวเนตร")+COUNTIF($J$111,"ภูวเนตร")+COUNTIF($J$114,"ภูวเนตร")+COUNTIF($J$117,"ภูวเนตร")+COUNTIF($J$120,"ภูวเนตร")+COUNTIF($J$123,"ภูวเนตร")+COUNTIF($J$132,"ภูวเนตร")+COUNTIF($J$135,"ภูวเนตร")+COUNTIF($J$138,"ภูวเนตร")+COUNTIF($J$141,"ภูวเนตร")+COUNTIF($J$144,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="P117" s="16">
+        <f>SUM(M117:O117)</f>
+        <v/>
+      </c>
+      <c r="R117" s="16" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="M117" s="6" t="inlineStr"/>
-      <c r="N117" s="6">
-        <f>COUNTIF($E$98,"ภูวเนตร")+COUNTIF($E$101,"ภูวเนตร")+COUNTIF($E$104,"ภูวเนตร")+COUNTIF($E$113,"ภูวเนตร")+COUNTIF($E$116,"ภูวเนตร")+COUNTIF($E$119,"ภูวเนตร")+COUNTIF($E$122,"ภูวเนตร")+COUNTIF($E$125,"ภูวเนตร")+COUNTIF($E$134,"ภูวเนตร")+COUNTIF($E$137,"ภูวเนตร")+COUNTIF($E$140,"ภูวเนตร")+COUNTIF($J$98,"ภูวเนตร")+COUNTIF($J$101,"ภูวเนตร")+COUNTIF($J$110,"ภูวเนตร")+COUNTIF($J$113,"ภูวเนตร")+COUNTIF($J$116,"ภูวเนตร")+COUNTIF($J$119,"ภูวเนตร")+COUNTIF($J$122,"ภูวเนตร")+COUNTIF($J$131,"ภูวเนตร")+COUNTIF($J$134,"ภูวเนตร")+COUNTIF($J$137,"ภูวเนตร")+COUNTIF($J$140,"ภูวเนตร")+COUNTIF($J$143,"ภูวเนตร")</f>
-        <v/>
-      </c>
-      <c r="O117" s="6">
-        <f>COUNTIF($E$99,"ภูวเนตร")+COUNTIF($E$102,"ภูวเนตร")+COUNTIF($E$105,"ภูวเนตร")+COUNTIF($E$114,"ภูวเนตร")+COUNTIF($E$117,"ภูวเนตร")+COUNTIF($E$120,"ภูวเนตร")+COUNTIF($E$123,"ภูวเนตร")+COUNTIF($E$126,"ภูวเนตร")+COUNTIF($E$135,"ภูวเนตร")+COUNTIF($E$138,"ภูวเนตร")+COUNTIF($E$141,"ภูวเนตร")+COUNTIF($J$99,"ภูวเนตร")+COUNTIF($J$102,"ภูวเนตร")+COUNTIF($J$111,"ภูวเนตร")+COUNTIF($J$114,"ภูวเนตร")+COUNTIF($J$117,"ภูวเนตร")+COUNTIF($J$120,"ภูวเนตร")+COUNTIF($J$123,"ภูวเนตร")+COUNTIF($J$132,"ภูวเนตร")+COUNTIF($J$135,"ภูวเนตร")+COUNTIF($J$138,"ภูวเนตร")+COUNTIF($J$141,"ภูวเนตร")+COUNTIF($J$144,"ภูวเนตร")</f>
-        <v/>
-      </c>
-      <c r="P117" s="6">
-        <f>SUM(M117:O117)</f>
-        <v/>
-      </c>
-      <c r="R117" s="6" t="inlineStr">
+      <c r="S117" s="16">
+        <f>COUNTIF($E$100,"ภูวเนตร")+COUNTIF($E$103,"ภูวเนตร")+COUNTIF($E$106,"ภูวเนตร")+COUNTIF($E$109,"ภูวเนตร")+COUNTIF($E$127,"ภูวเนตร")+COUNTIF($E$130,"ภูวเนตร")+COUNTIF($J$103,"ภูวเนตร")+COUNTIF($J$106,"ภูวเนตร")+COUNTIF($J$124,"ภูวเนตร")+COUNTIF($J$127,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="T117" s="16">
+        <f>COUNTIF($E$101,"ภูวเนตร")+COUNTIF($E$104,"ภูวเนตร")+COUNTIF($E$107,"ภูวเนตร")+COUNTIF($E$110,"ภูวเนตร")+COUNTIF($E$128,"ภูวเนตร")+COUNTIF($E$131,"ภูวเนตร")+COUNTIF($J$104,"ภูวเนตร")+COUNTIF($J$107,"ภูวเนตร")+COUNTIF($J$125,"ภูวเนตร")+COUNTIF($J$128,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="U117" s="16">
+        <f>COUNTIF($E$102,"ภูวเนตร")+COUNTIF($E$105,"ภูวเนตร")+COUNTIF($E$108,"ภูวเนตร")+COUNTIF($E$111,"ภูวเนตร")+COUNTIF($E$129,"ภูวเนตร")+COUNTIF($E$132,"ภูวเนตร")+COUNTIF($J$105,"ภูวเนตร")+COUNTIF($J$108,"ภูวเนตร")+COUNTIF($J$126,"ภูวเนตร")+COUNTIF($J$129,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="V117" s="16">
+        <f>SUM(S117:U117)</f>
+        <v/>
+      </c>
+      <c r="X117" s="16" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="S117" s="6">
-        <f>COUNTIF($E$106,"ภูวเนตร")+COUNTIF($E$109,"ภูวเนตร")+COUNTIF($E$127,"ภูวเนตร")+COUNTIF($E$130,"ภูวเนตร")+COUNTIF($J$103,"ภูวเนตร")+COUNTIF($J$106,"ภูวเนตร")+COUNTIF($J$124,"ภูวเนตร")+COUNTIF($J$127,"ภูวเนตร")</f>
-        <v/>
-      </c>
-      <c r="T117" s="6">
-        <f>COUNTIF($E$107,"ภูวเนตร")+COUNTIF($E$110,"ภูวเนตร")+COUNTIF($E$128,"ภูวเนตร")+COUNTIF($E$131,"ภูวเนตร")+COUNTIF($J$104,"ภูวเนตร")+COUNTIF($J$107,"ภูวเนตร")+COUNTIF($J$125,"ภูวเนตร")+COUNTIF($J$128,"ภูวเนตร")</f>
-        <v/>
-      </c>
-      <c r="U117" s="6">
-        <f>COUNTIF($E$108,"ภูวเนตร")+COUNTIF($E$111,"ภูวเนตร")+COUNTIF($E$129,"ภูวเนตร")+COUNTIF($E$132,"ภูวเนตร")+COUNTIF($J$105,"ภูวเนตร")+COUNTIF($J$108,"ภูวเนตร")+COUNTIF($J$126,"ภูวเนตร")+COUNTIF($J$129,"ภูวเนตร")</f>
-        <v/>
-      </c>
-      <c r="V117" s="6">
-        <f>SUM(S117:U117)</f>
-        <v/>
-      </c>
-      <c r="X117" s="6" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="Y117" s="6">
+      <c r="Y117" s="16">
         <f>SUM(M117,S117)</f>
         <v/>
       </c>
-      <c r="Z117" s="6">
+      <c r="Z117" s="16">
         <f>SUM(N117,T117)</f>
         <v/>
       </c>
-      <c r="AA117" s="6">
+      <c r="AA117" s="16">
         <f>SUM(O117,U117)</f>
         <v/>
       </c>
-      <c r="AB117" s="6">
+      <c r="AB117" s="16">
         <f>SUM(P117,V117)</f>
         <v/>
       </c>
@@ -5928,63 +6016,63 @@
           <t>23</t>
         </is>
       </c>
-      <c r="L118" s="11" t="inlineStr">
+      <c r="L118" s="8" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="M118" s="11" t="inlineStr"/>
-      <c r="N118" s="11">
-        <f>COUNTIF($E$98,"ราเชนทร์")+COUNTIF($E$101,"ราเชนทร์")+COUNTIF($E$104,"ราเชนทร์")+COUNTIF($E$113,"ราเชนทร์")+COUNTIF($E$116,"ราเชนทร์")+COUNTIF($E$119,"ราเชนทร์")+COUNTIF($E$122,"ราเชนทร์")+COUNTIF($E$125,"ราเชนทร์")+COUNTIF($E$134,"ราเชนทร์")+COUNTIF($E$137,"ราเชนทร์")+COUNTIF($E$140,"ราเชนทร์")+COUNTIF($J$98,"ราเชนทร์")+COUNTIF($J$101,"ราเชนทร์")+COUNTIF($J$110,"ราเชนทร์")+COUNTIF($J$113,"ราเชนทร์")+COUNTIF($J$116,"ราเชนทร์")+COUNTIF($J$119,"ราเชนทร์")+COUNTIF($J$122,"ราเชนทร์")+COUNTIF($J$131,"ราเชนทร์")+COUNTIF($J$134,"ราเชนทร์")+COUNTIF($J$137,"ราเชนทร์")+COUNTIF($J$140,"ราเชนทร์")+COUNTIF($J$143,"ราเชนทร์")</f>
-        <v/>
-      </c>
-      <c r="O118" s="11">
-        <f>COUNTIF($E$99,"ราเชนทร์")+COUNTIF($E$102,"ราเชนทร์")+COUNTIF($E$105,"ราเชนทร์")+COUNTIF($E$114,"ราเชนทร์")+COUNTIF($E$117,"ราเชนทร์")+COUNTIF($E$120,"ราเชนทร์")+COUNTIF($E$123,"ราเชนทร์")+COUNTIF($E$126,"ราเชนทร์")+COUNTIF($E$135,"ราเชนทร์")+COUNTIF($E$138,"ราเชนทร์")+COUNTIF($E$141,"ราเชนทร์")+COUNTIF($J$99,"ราเชนทร์")+COUNTIF($J$102,"ราเชนทร์")+COUNTIF($J$111,"ราเชนทร์")+COUNTIF($J$114,"ราเชนทร์")+COUNTIF($J$117,"ราเชนทร์")+COUNTIF($J$120,"ราเชนทร์")+COUNTIF($J$123,"ราเชนทร์")+COUNTIF($J$132,"ราเชนทร์")+COUNTIF($J$135,"ราเชนทร์")+COUNTIF($J$138,"ราเชนทร์")+COUNTIF($J$141,"ราเชนทร์")+COUNTIF($J$144,"ราเชนทร์")</f>
-        <v/>
-      </c>
-      <c r="P118" s="11">
+      <c r="M118" s="8" t="inlineStr"/>
+      <c r="N118" s="8">
+        <f>COUNTIF($E$98,"ราเชนทร์")+COUNTIF($E$113,"ราเชนทร์")+COUNTIF($E$116,"ราเชนทร์")+COUNTIF($E$119,"ราเชนทร์")+COUNTIF($E$122,"ราเชนทร์")+COUNTIF($E$125,"ราเชนทร์")+COUNTIF($E$134,"ราเชนทร์")+COUNTIF($E$137,"ราเชนทร์")+COUNTIF($E$140,"ราเชนทร์")+COUNTIF($J$98,"ราเชนทร์")+COUNTIF($J$101,"ราเชนทร์")+COUNTIF($J$110,"ราเชนทร์")+COUNTIF($J$113,"ราเชนทร์")+COUNTIF($J$116,"ราเชนทร์")+COUNTIF($J$119,"ราเชนทร์")+COUNTIF($J$122,"ราเชนทร์")+COUNTIF($J$131,"ราเชนทร์")+COUNTIF($J$134,"ราเชนทร์")+COUNTIF($J$137,"ราเชนทร์")+COUNTIF($J$140,"ราเชนทร์")+COUNTIF($J$143,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="O118" s="8">
+        <f>COUNTIF($E$99,"ราเชนทร์")+COUNTIF($E$114,"ราเชนทร์")+COUNTIF($E$117,"ราเชนทร์")+COUNTIF($E$120,"ราเชนทร์")+COUNTIF($E$123,"ราเชนทร์")+COUNTIF($E$126,"ราเชนทร์")+COUNTIF($E$135,"ราเชนทร์")+COUNTIF($E$138,"ราเชนทร์")+COUNTIF($E$141,"ราเชนทร์")+COUNTIF($J$99,"ราเชนทร์")+COUNTIF($J$102,"ราเชนทร์")+COUNTIF($J$111,"ราเชนทร์")+COUNTIF($J$114,"ราเชนทร์")+COUNTIF($J$117,"ราเชนทร์")+COUNTIF($J$120,"ราเชนทร์")+COUNTIF($J$123,"ราเชนทร์")+COUNTIF($J$132,"ราเชนทร์")+COUNTIF($J$135,"ราเชนทร์")+COUNTIF($J$138,"ราเชนทร์")+COUNTIF($J$141,"ราเชนทร์")+COUNTIF($J$144,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="P118" s="8">
         <f>SUM(M118:O118)</f>
         <v/>
       </c>
-      <c r="R118" s="11" t="inlineStr">
+      <c r="R118" s="8" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="S118" s="11">
-        <f>COUNTIF($E$106,"ราเชนทร์")+COUNTIF($E$109,"ราเชนทร์")+COUNTIF($E$127,"ราเชนทร์")+COUNTIF($E$130,"ราเชนทร์")+COUNTIF($J$103,"ราเชนทร์")+COUNTIF($J$106,"ราเชนทร์")+COUNTIF($J$124,"ราเชนทร์")+COUNTIF($J$127,"ราเชนทร์")</f>
-        <v/>
-      </c>
-      <c r="T118" s="11">
-        <f>COUNTIF($E$107,"ราเชนทร์")+COUNTIF($E$110,"ราเชนทร์")+COUNTIF($E$128,"ราเชนทร์")+COUNTIF($E$131,"ราเชนทร์")+COUNTIF($J$104,"ราเชนทร์")+COUNTIF($J$107,"ราเชนทร์")+COUNTIF($J$125,"ราเชนทร์")+COUNTIF($J$128,"ราเชนทร์")</f>
-        <v/>
-      </c>
-      <c r="U118" s="11">
-        <f>COUNTIF($E$108,"ราเชนทร์")+COUNTIF($E$111,"ราเชนทร์")+COUNTIF($E$129,"ราเชนทร์")+COUNTIF($E$132,"ราเชนทร์")+COUNTIF($J$105,"ราเชนทร์")+COUNTIF($J$108,"ราเชนทร์")+COUNTIF($J$126,"ราเชนทร์")+COUNTIF($J$129,"ราเชนทร์")</f>
-        <v/>
-      </c>
-      <c r="V118" s="11">
+      <c r="S118" s="8">
+        <f>COUNTIF($E$100,"ราเชนทร์")+COUNTIF($E$103,"ราเชนทร์")+COUNTIF($E$106,"ราเชนทร์")+COUNTIF($E$109,"ราเชนทร์")+COUNTIF($E$127,"ราเชนทร์")+COUNTIF($E$130,"ราเชนทร์")+COUNTIF($J$103,"ราเชนทร์")+COUNTIF($J$106,"ราเชนทร์")+COUNTIF($J$124,"ราเชนทร์")+COUNTIF($J$127,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="T118" s="8">
+        <f>COUNTIF($E$101,"ราเชนทร์")+COUNTIF($E$104,"ราเชนทร์")+COUNTIF($E$107,"ราเชนทร์")+COUNTIF($E$110,"ราเชนทร์")+COUNTIF($E$128,"ราเชนทร์")+COUNTIF($E$131,"ราเชนทร์")+COUNTIF($J$104,"ราเชนทร์")+COUNTIF($J$107,"ราเชนทร์")+COUNTIF($J$125,"ราเชนทร์")+COUNTIF($J$128,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="U118" s="8">
+        <f>COUNTIF($E$102,"ราเชนทร์")+COUNTIF($E$105,"ราเชนทร์")+COUNTIF($E$108,"ราเชนทร์")+COUNTIF($E$111,"ราเชนทร์")+COUNTIF($E$129,"ราเชนทร์")+COUNTIF($E$132,"ราเชนทร์")+COUNTIF($J$105,"ราเชนทร์")+COUNTIF($J$108,"ราเชนทร์")+COUNTIF($J$126,"ราเชนทร์")+COUNTIF($J$129,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="V118" s="8">
         <f>SUM(S118:U118)</f>
         <v/>
       </c>
-      <c r="X118" s="11" t="inlineStr">
+      <c r="X118" s="8" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="Y118" s="11">
+      <c r="Y118" s="8">
         <f>SUM(M118,S118)</f>
         <v/>
       </c>
-      <c r="Z118" s="11">
+      <c r="Z118" s="8">
         <f>SUM(N118,T118)</f>
         <v/>
       </c>
-      <c r="AA118" s="11">
+      <c r="AA118" s="8">
         <f>SUM(O118,U118)</f>
         <v/>
       </c>
-      <c r="AB118" s="11">
+      <c r="AB118" s="8">
         <f>SUM(P118,V118)</f>
         <v/>
       </c>
@@ -5997,17 +6085,17 @@
       </c>
       <c r="C119" s="16" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D119" s="14" t="inlineStr">
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D119" s="10" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="E119" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+      <c r="E119" s="19" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="G119" s="1" t="inlineStr">
@@ -6015,78 +6103,78 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="H119" s="11" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="I119" s="15" t="inlineStr">
+      <c r="H119" s="12" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="I119" s="7" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="J119" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="L119" s="9" t="inlineStr">
+      <c r="J119" s="13" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="L119" s="11" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="M119" s="9" t="inlineStr"/>
-      <c r="N119" s="9">
-        <f>COUNTIF($E$98,"พลกฤต")+COUNTIF($E$101,"พลกฤต")+COUNTIF($E$104,"พลกฤต")+COUNTIF($E$113,"พลกฤต")+COUNTIF($E$116,"พลกฤต")+COUNTIF($E$119,"พลกฤต")+COUNTIF($E$122,"พลกฤต")+COUNTIF($E$125,"พลกฤต")+COUNTIF($E$134,"พลกฤต")+COUNTIF($E$137,"พลกฤต")+COUNTIF($E$140,"พลกฤต")+COUNTIF($J$98,"พลกฤต")+COUNTIF($J$101,"พลกฤต")+COUNTIF($J$110,"พลกฤต")+COUNTIF($J$113,"พลกฤต")+COUNTIF($J$116,"พลกฤต")+COUNTIF($J$119,"พลกฤต")+COUNTIF($J$122,"พลกฤต")+COUNTIF($J$131,"พลกฤต")+COUNTIF($J$134,"พลกฤต")+COUNTIF($J$137,"พลกฤต")+COUNTIF($J$140,"พลกฤต")+COUNTIF($J$143,"พลกฤต")</f>
-        <v/>
-      </c>
-      <c r="O119" s="9">
-        <f>COUNTIF($E$99,"พลกฤต")+COUNTIF($E$102,"พลกฤต")+COUNTIF($E$105,"พลกฤต")+COUNTIF($E$114,"พลกฤต")+COUNTIF($E$117,"พลกฤต")+COUNTIF($E$120,"พลกฤต")+COUNTIF($E$123,"พลกฤต")+COUNTIF($E$126,"พลกฤต")+COUNTIF($E$135,"พลกฤต")+COUNTIF($E$138,"พลกฤต")+COUNTIF($E$141,"พลกฤต")+COUNTIF($J$99,"พลกฤต")+COUNTIF($J$102,"พลกฤต")+COUNTIF($J$111,"พลกฤต")+COUNTIF($J$114,"พลกฤต")+COUNTIF($J$117,"พลกฤต")+COUNTIF($J$120,"พลกฤต")+COUNTIF($J$123,"พลกฤต")+COUNTIF($J$132,"พลกฤต")+COUNTIF($J$135,"พลกฤต")+COUNTIF($J$138,"พลกฤต")+COUNTIF($J$141,"พลกฤต")+COUNTIF($J$144,"พลกฤต")</f>
-        <v/>
-      </c>
-      <c r="P119" s="9">
+      <c r="M119" s="11" t="inlineStr"/>
+      <c r="N119" s="11">
+        <f>COUNTIF($E$98,"พลกฤต")+COUNTIF($E$113,"พลกฤต")+COUNTIF($E$116,"พลกฤต")+COUNTIF($E$119,"พลกฤต")+COUNTIF($E$122,"พลกฤต")+COUNTIF($E$125,"พลกฤต")+COUNTIF($E$134,"พลกฤต")+COUNTIF($E$137,"พลกฤต")+COUNTIF($E$140,"พลกฤต")+COUNTIF($J$98,"พลกฤต")+COUNTIF($J$101,"พลกฤต")+COUNTIF($J$110,"พลกฤต")+COUNTIF($J$113,"พลกฤต")+COUNTIF($J$116,"พลกฤต")+COUNTIF($J$119,"พลกฤต")+COUNTIF($J$122,"พลกฤต")+COUNTIF($J$131,"พลกฤต")+COUNTIF($J$134,"พลกฤต")+COUNTIF($J$137,"พลกฤต")+COUNTIF($J$140,"พลกฤต")+COUNTIF($J$143,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="O119" s="11">
+        <f>COUNTIF($E$99,"พลกฤต")+COUNTIF($E$114,"พลกฤต")+COUNTIF($E$117,"พลกฤต")+COUNTIF($E$120,"พลกฤต")+COUNTIF($E$123,"พลกฤต")+COUNTIF($E$126,"พลกฤต")+COUNTIF($E$135,"พลกฤต")+COUNTIF($E$138,"พลกฤต")+COUNTIF($E$141,"พลกฤต")+COUNTIF($J$99,"พลกฤต")+COUNTIF($J$102,"พลกฤต")+COUNTIF($J$111,"พลกฤต")+COUNTIF($J$114,"พลกฤต")+COUNTIF($J$117,"พลกฤต")+COUNTIF($J$120,"พลกฤต")+COUNTIF($J$123,"พลกฤต")+COUNTIF($J$132,"พลกฤต")+COUNTIF($J$135,"พลกฤต")+COUNTIF($J$138,"พลกฤต")+COUNTIF($J$141,"พลกฤต")+COUNTIF($J$144,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="P119" s="11">
         <f>SUM(M119:O119)</f>
         <v/>
       </c>
-      <c r="R119" s="9" t="inlineStr">
+      <c r="R119" s="11" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="S119" s="9">
-        <f>COUNTIF($E$106,"พลกฤต")+COUNTIF($E$109,"พลกฤต")+COUNTIF($E$127,"พลกฤต")+COUNTIF($E$130,"พลกฤต")+COUNTIF($J$103,"พลกฤต")+COUNTIF($J$106,"พลกฤต")+COUNTIF($J$124,"พลกฤต")+COUNTIF($J$127,"พลกฤต")</f>
-        <v/>
-      </c>
-      <c r="T119" s="9">
-        <f>COUNTIF($E$107,"พลกฤต")+COUNTIF($E$110,"พลกฤต")+COUNTIF($E$128,"พลกฤต")+COUNTIF($E$131,"พลกฤต")+COUNTIF($J$104,"พลกฤต")+COUNTIF($J$107,"พลกฤต")+COUNTIF($J$125,"พลกฤต")+COUNTIF($J$128,"พลกฤต")</f>
-        <v/>
-      </c>
-      <c r="U119" s="9">
-        <f>COUNTIF($E$108,"พลกฤต")+COUNTIF($E$111,"พลกฤต")+COUNTIF($E$129,"พลกฤต")+COUNTIF($E$132,"พลกฤต")+COUNTIF($J$105,"พลกฤต")+COUNTIF($J$108,"พลกฤต")+COUNTIF($J$126,"พลกฤต")+COUNTIF($J$129,"พลกฤต")</f>
-        <v/>
-      </c>
-      <c r="V119" s="9">
+      <c r="S119" s="11">
+        <f>COUNTIF($E$100,"พลกฤต")+COUNTIF($E$103,"พลกฤต")+COUNTIF($E$106,"พลกฤต")+COUNTIF($E$109,"พลกฤต")+COUNTIF($E$127,"พลกฤต")+COUNTIF($E$130,"พลกฤต")+COUNTIF($J$103,"พลกฤต")+COUNTIF($J$106,"พลกฤต")+COUNTIF($J$124,"พลกฤต")+COUNTIF($J$127,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="T119" s="11">
+        <f>COUNTIF($E$101,"พลกฤต")+COUNTIF($E$104,"พลกฤต")+COUNTIF($E$107,"พลกฤต")+COUNTIF($E$110,"พลกฤต")+COUNTIF($E$128,"พลกฤต")+COUNTIF($E$131,"พลกฤต")+COUNTIF($J$104,"พลกฤต")+COUNTIF($J$107,"พลกฤต")+COUNTIF($J$125,"พลกฤต")+COUNTIF($J$128,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="U119" s="11">
+        <f>COUNTIF($E$102,"พลกฤต")+COUNTIF($E$105,"พลกฤต")+COUNTIF($E$108,"พลกฤต")+COUNTIF($E$111,"พลกฤต")+COUNTIF($E$129,"พลกฤต")+COUNTIF($E$132,"พลกฤต")+COUNTIF($J$105,"พลกฤต")+COUNTIF($J$108,"พลกฤต")+COUNTIF($J$126,"พลกฤต")+COUNTIF($J$129,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="V119" s="11">
         <f>SUM(S119:U119)</f>
         <v/>
       </c>
-      <c r="X119" s="9" t="inlineStr">
+      <c r="X119" s="11" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="Y119" s="9">
+      <c r="Y119" s="11">
         <f>SUM(M119,S119)</f>
         <v/>
       </c>
-      <c r="Z119" s="9">
+      <c r="Z119" s="11">
         <f>SUM(N119,T119)</f>
         <v/>
       </c>
-      <c r="AA119" s="9">
+      <c r="AA119" s="11">
         <f>SUM(O119,U119)</f>
         <v/>
       </c>
-      <c r="AB119" s="9">
+      <c r="AB119" s="11">
         <f>SUM(P119,V119)</f>
         <v/>
       </c>
@@ -6097,98 +6185,98 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C120" s="16" t="inlineStr">
+      <c r="C120" s="15" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D120" s="10" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E120" s="13" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="G120" s="1" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H120" s="18" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="I120" s="17" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="J120" s="13" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="L120" s="9" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="D120" s="14" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E120" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="G120" s="1" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H120" s="11" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="J120" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="L120" s="16" t="inlineStr">
+      <c r="M120" s="9" t="inlineStr"/>
+      <c r="N120" s="9">
+        <f>COUNTIF($E$98,"ชานนท์")+COUNTIF($E$113,"ชานนท์")+COUNTIF($E$116,"ชานนท์")+COUNTIF($E$119,"ชานนท์")+COUNTIF($E$122,"ชานนท์")+COUNTIF($E$125,"ชานนท์")+COUNTIF($E$134,"ชานนท์")+COUNTIF($E$137,"ชานนท์")+COUNTIF($E$140,"ชานนท์")+COUNTIF($J$98,"ชานนท์")+COUNTIF($J$101,"ชานนท์")+COUNTIF($J$110,"ชานนท์")+COUNTIF($J$113,"ชานนท์")+COUNTIF($J$116,"ชานนท์")+COUNTIF($J$119,"ชานนท์")+COUNTIF($J$122,"ชานนท์")+COUNTIF($J$131,"ชานนท์")+COUNTIF($J$134,"ชานนท์")+COUNTIF($J$137,"ชานนท์")+COUNTIF($J$140,"ชานนท์")+COUNTIF($J$143,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="O120" s="9">
+        <f>COUNTIF($E$99,"ชานนท์")+COUNTIF($E$114,"ชานนท์")+COUNTIF($E$117,"ชานนท์")+COUNTIF($E$120,"ชานนท์")+COUNTIF($E$123,"ชานนท์")+COUNTIF($E$126,"ชานนท์")+COUNTIF($E$135,"ชานนท์")+COUNTIF($E$138,"ชานนท์")+COUNTIF($E$141,"ชานนท์")+COUNTIF($J$99,"ชานนท์")+COUNTIF($J$102,"ชานนท์")+COUNTIF($J$111,"ชานนท์")+COUNTIF($J$114,"ชานนท์")+COUNTIF($J$117,"ชานนท์")+COUNTIF($J$120,"ชานนท์")+COUNTIF($J$123,"ชานนท์")+COUNTIF($J$132,"ชานนท์")+COUNTIF($J$135,"ชานนท์")+COUNTIF($J$138,"ชานนท์")+COUNTIF($J$141,"ชานนท์")+COUNTIF($J$144,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="P120" s="9">
+        <f>SUM(M120:O120)</f>
+        <v/>
+      </c>
+      <c r="R120" s="9" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="M120" s="16" t="inlineStr"/>
-      <c r="N120" s="16">
-        <f>COUNTIF($E$98,"ชานนท์")+COUNTIF($E$101,"ชานนท์")+COUNTIF($E$104,"ชานนท์")+COUNTIF($E$113,"ชานนท์")+COUNTIF($E$116,"ชานนท์")+COUNTIF($E$119,"ชานนท์")+COUNTIF($E$122,"ชานนท์")+COUNTIF($E$125,"ชานนท์")+COUNTIF($E$134,"ชานนท์")+COUNTIF($E$137,"ชานนท์")+COUNTIF($E$140,"ชานนท์")+COUNTIF($J$98,"ชานนท์")+COUNTIF($J$101,"ชานนท์")+COUNTIF($J$110,"ชานนท์")+COUNTIF($J$113,"ชานนท์")+COUNTIF($J$116,"ชานนท์")+COUNTIF($J$119,"ชานนท์")+COUNTIF($J$122,"ชานนท์")+COUNTIF($J$131,"ชานนท์")+COUNTIF($J$134,"ชานนท์")+COUNTIF($J$137,"ชานนท์")+COUNTIF($J$140,"ชานนท์")+COUNTIF($J$143,"ชานนท์")</f>
-        <v/>
-      </c>
-      <c r="O120" s="16">
-        <f>COUNTIF($E$99,"ชานนท์")+COUNTIF($E$102,"ชานนท์")+COUNTIF($E$105,"ชานนท์")+COUNTIF($E$114,"ชานนท์")+COUNTIF($E$117,"ชานนท์")+COUNTIF($E$120,"ชานนท์")+COUNTIF($E$123,"ชานนท์")+COUNTIF($E$126,"ชานนท์")+COUNTIF($E$135,"ชานนท์")+COUNTIF($E$138,"ชานนท์")+COUNTIF($E$141,"ชานนท์")+COUNTIF($J$99,"ชานนท์")+COUNTIF($J$102,"ชานนท์")+COUNTIF($J$111,"ชานนท์")+COUNTIF($J$114,"ชานนท์")+COUNTIF($J$117,"ชานนท์")+COUNTIF($J$120,"ชานนท์")+COUNTIF($J$123,"ชานนท์")+COUNTIF($J$132,"ชานนท์")+COUNTIF($J$135,"ชานนท์")+COUNTIF($J$138,"ชานนท์")+COUNTIF($J$141,"ชานนท์")+COUNTIF($J$144,"ชานนท์")</f>
-        <v/>
-      </c>
-      <c r="P120" s="16">
-        <f>SUM(M120:O120)</f>
-        <v/>
-      </c>
-      <c r="R120" s="16" t="inlineStr">
+      <c r="S120" s="9">
+        <f>COUNTIF($E$100,"ชานนท์")+COUNTIF($E$103,"ชานนท์")+COUNTIF($E$106,"ชานนท์")+COUNTIF($E$109,"ชานนท์")+COUNTIF($E$127,"ชานนท์")+COUNTIF($E$130,"ชานนท์")+COUNTIF($J$103,"ชานนท์")+COUNTIF($J$106,"ชานนท์")+COUNTIF($J$124,"ชานนท์")+COUNTIF($J$127,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="T120" s="9">
+        <f>COUNTIF($E$101,"ชานนท์")+COUNTIF($E$104,"ชานนท์")+COUNTIF($E$107,"ชานนท์")+COUNTIF($E$110,"ชานนท์")+COUNTIF($E$128,"ชานนท์")+COUNTIF($E$131,"ชานนท์")+COUNTIF($J$104,"ชานนท์")+COUNTIF($J$107,"ชานนท์")+COUNTIF($J$125,"ชานนท์")+COUNTIF($J$128,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="U120" s="9">
+        <f>COUNTIF($E$102,"ชานนท์")+COUNTIF($E$105,"ชานนท์")+COUNTIF($E$108,"ชานนท์")+COUNTIF($E$111,"ชานนท์")+COUNTIF($E$129,"ชานนท์")+COUNTIF($E$132,"ชานนท์")+COUNTIF($J$105,"ชานนท์")+COUNTIF($J$108,"ชานนท์")+COUNTIF($J$126,"ชานนท์")+COUNTIF($J$129,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="V120" s="9">
+        <f>SUM(S120:U120)</f>
+        <v/>
+      </c>
+      <c r="X120" s="9" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="S120" s="16">
-        <f>COUNTIF($E$106,"ชานนท์")+COUNTIF($E$109,"ชานนท์")+COUNTIF($E$127,"ชานนท์")+COUNTIF($E$130,"ชานนท์")+COUNTIF($J$103,"ชานนท์")+COUNTIF($J$106,"ชานนท์")+COUNTIF($J$124,"ชานนท์")+COUNTIF($J$127,"ชานนท์")</f>
-        <v/>
-      </c>
-      <c r="T120" s="16">
-        <f>COUNTIF($E$107,"ชานนท์")+COUNTIF($E$110,"ชานนท์")+COUNTIF($E$128,"ชานนท์")+COUNTIF($E$131,"ชานนท์")+COUNTIF($J$104,"ชานนท์")+COUNTIF($J$107,"ชานนท์")+COUNTIF($J$125,"ชานนท์")+COUNTIF($J$128,"ชานนท์")</f>
-        <v/>
-      </c>
-      <c r="U120" s="16">
-        <f>COUNTIF($E$108,"ชานนท์")+COUNTIF($E$111,"ชานนท์")+COUNTIF($E$129,"ชานนท์")+COUNTIF($E$132,"ชานนท์")+COUNTIF($J$105,"ชานนท์")+COUNTIF($J$108,"ชานนท์")+COUNTIF($J$126,"ชานนท์")+COUNTIF($J$129,"ชานนท์")</f>
-        <v/>
-      </c>
-      <c r="V120" s="16">
-        <f>SUM(S120:U120)</f>
-        <v/>
-      </c>
-      <c r="X120" s="16" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="Y120" s="16">
+      <c r="Y120" s="9">
         <f>SUM(M120,S120)</f>
         <v/>
       </c>
-      <c r="Z120" s="16">
+      <c r="Z120" s="9">
         <f>SUM(N120,T120)</f>
         <v/>
       </c>
-      <c r="AA120" s="16">
+      <c r="AA120" s="9">
         <f>SUM(O120,U120)</f>
         <v/>
       </c>
-      <c r="AB120" s="16">
+      <c r="AB120" s="9">
         <f>SUM(P120,V120)</f>
         <v/>
       </c>
@@ -6204,63 +6292,63 @@
           <t>24</t>
         </is>
       </c>
-      <c r="L121" s="8" t="inlineStr">
+      <c r="L121" s="18" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="M121" s="8" t="inlineStr"/>
-      <c r="N121" s="8">
-        <f>COUNTIF($E$98,"ปรมะ")+COUNTIF($E$101,"ปรมะ")+COUNTIF($E$104,"ปรมะ")+COUNTIF($E$113,"ปรมะ")+COUNTIF($E$116,"ปรมะ")+COUNTIF($E$119,"ปรมะ")+COUNTIF($E$122,"ปรมะ")+COUNTIF($E$125,"ปรมะ")+COUNTIF($E$134,"ปรมะ")+COUNTIF($E$137,"ปรมะ")+COUNTIF($E$140,"ปรมะ")+COUNTIF($J$98,"ปรมะ")+COUNTIF($J$101,"ปรมะ")+COUNTIF($J$110,"ปรมะ")+COUNTIF($J$113,"ปรมะ")+COUNTIF($J$116,"ปรมะ")+COUNTIF($J$119,"ปรมะ")+COUNTIF($J$122,"ปรมะ")+COUNTIF($J$131,"ปรมะ")+COUNTIF($J$134,"ปรมะ")+COUNTIF($J$137,"ปรมะ")+COUNTIF($J$140,"ปรมะ")+COUNTIF($J$143,"ปรมะ")</f>
-        <v/>
-      </c>
-      <c r="O121" s="8">
-        <f>COUNTIF($E$99,"ปรมะ")+COUNTIF($E$102,"ปรมะ")+COUNTIF($E$105,"ปรมะ")+COUNTIF($E$114,"ปรมะ")+COUNTIF($E$117,"ปรมะ")+COUNTIF($E$120,"ปรมะ")+COUNTIF($E$123,"ปรมะ")+COUNTIF($E$126,"ปรมะ")+COUNTIF($E$135,"ปรมะ")+COUNTIF($E$138,"ปรมะ")+COUNTIF($E$141,"ปรมะ")+COUNTIF($J$99,"ปรมะ")+COUNTIF($J$102,"ปรมะ")+COUNTIF($J$111,"ปรมะ")+COUNTIF($J$114,"ปรมะ")+COUNTIF($J$117,"ปรมะ")+COUNTIF($J$120,"ปรมะ")+COUNTIF($J$123,"ปรมะ")+COUNTIF($J$132,"ปรมะ")+COUNTIF($J$135,"ปรมะ")+COUNTIF($J$138,"ปรมะ")+COUNTIF($J$141,"ปรมะ")+COUNTIF($J$144,"ปรมะ")</f>
-        <v/>
-      </c>
-      <c r="P121" s="8">
+      <c r="M121" s="18" t="inlineStr"/>
+      <c r="N121" s="18">
+        <f>COUNTIF($E$98,"ปรมะ")+COUNTIF($E$113,"ปรมะ")+COUNTIF($E$116,"ปรมะ")+COUNTIF($E$119,"ปรมะ")+COUNTIF($E$122,"ปรมะ")+COUNTIF($E$125,"ปรมะ")+COUNTIF($E$134,"ปรมะ")+COUNTIF($E$137,"ปรมะ")+COUNTIF($E$140,"ปรมะ")+COUNTIF($J$98,"ปรมะ")+COUNTIF($J$101,"ปรมะ")+COUNTIF($J$110,"ปรมะ")+COUNTIF($J$113,"ปรมะ")+COUNTIF($J$116,"ปรมะ")+COUNTIF($J$119,"ปรมะ")+COUNTIF($J$122,"ปรมะ")+COUNTIF($J$131,"ปรมะ")+COUNTIF($J$134,"ปรมะ")+COUNTIF($J$137,"ปรมะ")+COUNTIF($J$140,"ปรมะ")+COUNTIF($J$143,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="O121" s="18">
+        <f>COUNTIF($E$99,"ปรมะ")+COUNTIF($E$114,"ปรมะ")+COUNTIF($E$117,"ปรมะ")+COUNTIF($E$120,"ปรมะ")+COUNTIF($E$123,"ปรมะ")+COUNTIF($E$126,"ปรมะ")+COUNTIF($E$135,"ปรมะ")+COUNTIF($E$138,"ปรมะ")+COUNTIF($E$141,"ปรมะ")+COUNTIF($J$99,"ปรมะ")+COUNTIF($J$102,"ปรมะ")+COUNTIF($J$111,"ปรมะ")+COUNTIF($J$114,"ปรมะ")+COUNTIF($J$117,"ปรมะ")+COUNTIF($J$120,"ปรมะ")+COUNTIF($J$123,"ปรมะ")+COUNTIF($J$132,"ปรมะ")+COUNTIF($J$135,"ปรมะ")+COUNTIF($J$138,"ปรมะ")+COUNTIF($J$141,"ปรมะ")+COUNTIF($J$144,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="P121" s="18">
         <f>SUM(M121:O121)</f>
         <v/>
       </c>
-      <c r="R121" s="8" t="inlineStr">
+      <c r="R121" s="18" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="S121" s="8">
-        <f>COUNTIF($E$106,"ปรมะ")+COUNTIF($E$109,"ปรมะ")+COUNTIF($E$127,"ปรมะ")+COUNTIF($E$130,"ปรมะ")+COUNTIF($J$103,"ปรมะ")+COUNTIF($J$106,"ปรมะ")+COUNTIF($J$124,"ปรมะ")+COUNTIF($J$127,"ปรมะ")</f>
-        <v/>
-      </c>
-      <c r="T121" s="8">
-        <f>COUNTIF($E$107,"ปรมะ")+COUNTIF($E$110,"ปรมะ")+COUNTIF($E$128,"ปรมะ")+COUNTIF($E$131,"ปรมะ")+COUNTIF($J$104,"ปรมะ")+COUNTIF($J$107,"ปรมะ")+COUNTIF($J$125,"ปรมะ")+COUNTIF($J$128,"ปรมะ")</f>
-        <v/>
-      </c>
-      <c r="U121" s="8">
-        <f>COUNTIF($E$108,"ปรมะ")+COUNTIF($E$111,"ปรมะ")+COUNTIF($E$129,"ปรมะ")+COUNTIF($E$132,"ปรมะ")+COUNTIF($J$105,"ปรมะ")+COUNTIF($J$108,"ปรมะ")+COUNTIF($J$126,"ปรมะ")+COUNTIF($J$129,"ปรมะ")</f>
-        <v/>
-      </c>
-      <c r="V121" s="8">
+      <c r="S121" s="18">
+        <f>COUNTIF($E$100,"ปรมะ")+COUNTIF($E$103,"ปรมะ")+COUNTIF($E$106,"ปรมะ")+COUNTIF($E$109,"ปรมะ")+COUNTIF($E$127,"ปรมะ")+COUNTIF($E$130,"ปรมะ")+COUNTIF($J$103,"ปรมะ")+COUNTIF($J$106,"ปรมะ")+COUNTIF($J$124,"ปรมะ")+COUNTIF($J$127,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="T121" s="18">
+        <f>COUNTIF($E$101,"ปรมะ")+COUNTIF($E$104,"ปรมะ")+COUNTIF($E$107,"ปรมะ")+COUNTIF($E$110,"ปรมะ")+COUNTIF($E$128,"ปรมะ")+COUNTIF($E$131,"ปรมะ")+COUNTIF($J$104,"ปรมะ")+COUNTIF($J$107,"ปรมะ")+COUNTIF($J$125,"ปรมะ")+COUNTIF($J$128,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="U121" s="18">
+        <f>COUNTIF($E$102,"ปรมะ")+COUNTIF($E$105,"ปรมะ")+COUNTIF($E$108,"ปรมะ")+COUNTIF($E$111,"ปรมะ")+COUNTIF($E$129,"ปรมะ")+COUNTIF($E$132,"ปรมะ")+COUNTIF($J$105,"ปรมะ")+COUNTIF($J$108,"ปรมะ")+COUNTIF($J$126,"ปรมะ")+COUNTIF($J$129,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="V121" s="18">
         <f>SUM(S121:U121)</f>
         <v/>
       </c>
-      <c r="X121" s="8" t="inlineStr">
+      <c r="X121" s="18" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="Y121" s="8">
+      <c r="Y121" s="18">
         <f>SUM(M121,S121)</f>
         <v/>
       </c>
-      <c r="Z121" s="8">
+      <c r="Z121" s="18">
         <f>SUM(N121,T121)</f>
         <v/>
       </c>
-      <c r="AA121" s="8">
+      <c r="AA121" s="18">
         <f>SUM(O121,U121)</f>
         <v/>
       </c>
-      <c r="AB121" s="8">
+      <c r="AB121" s="18">
         <f>SUM(P121,V121)</f>
         <v/>
       </c>
@@ -6271,17 +6359,17 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C122" s="18" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="D122" s="15" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E122" s="19" t="inlineStr">
+      <c r="C122" s="11" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D122" s="14" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E122" s="15" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
@@ -6293,76 +6381,76 @@
       </c>
       <c r="H122" s="18" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="I122" s="13" t="inlineStr">
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="I122" s="17" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="J122" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="L122" s="19" t="inlineStr">
+      <c r="J122" s="14" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="L122" s="15" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="M122" s="19" t="inlineStr"/>
-      <c r="N122" s="19">
-        <f>COUNTIF($E$98,"สัญญา")+COUNTIF($E$101,"สัญญา")+COUNTIF($E$104,"สัญญา")+COUNTIF($E$113,"สัญญา")+COUNTIF($E$116,"สัญญา")+COUNTIF($E$119,"สัญญา")+COUNTIF($E$122,"สัญญา")+COUNTIF($E$125,"สัญญา")+COUNTIF($E$134,"สัญญา")+COUNTIF($E$137,"สัญญา")+COUNTIF($E$140,"สัญญา")+COUNTIF($J$98,"สัญญา")+COUNTIF($J$101,"สัญญา")+COUNTIF($J$110,"สัญญา")+COUNTIF($J$113,"สัญญา")+COUNTIF($J$116,"สัญญา")+COUNTIF($J$119,"สัญญา")+COUNTIF($J$122,"สัญญา")+COUNTIF($J$131,"สัญญา")+COUNTIF($J$134,"สัญญา")+COUNTIF($J$137,"สัญญา")+COUNTIF($J$140,"สัญญา")+COUNTIF($J$143,"สัญญา")</f>
-        <v/>
-      </c>
-      <c r="O122" s="19">
-        <f>COUNTIF($E$99,"สัญญา")+COUNTIF($E$102,"สัญญา")+COUNTIF($E$105,"สัญญา")+COUNTIF($E$114,"สัญญา")+COUNTIF($E$117,"สัญญา")+COUNTIF($E$120,"สัญญา")+COUNTIF($E$123,"สัญญา")+COUNTIF($E$126,"สัญญา")+COUNTIF($E$135,"สัญญา")+COUNTIF($E$138,"สัญญา")+COUNTIF($E$141,"สัญญา")+COUNTIF($J$99,"สัญญา")+COUNTIF($J$102,"สัญญา")+COUNTIF($J$111,"สัญญา")+COUNTIF($J$114,"สัญญา")+COUNTIF($J$117,"สัญญา")+COUNTIF($J$120,"สัญญา")+COUNTIF($J$123,"สัญญา")+COUNTIF($J$132,"สัญญา")+COUNTIF($J$135,"สัญญา")+COUNTIF($J$138,"สัญญา")+COUNTIF($J$141,"สัญญา")+COUNTIF($J$144,"สัญญา")</f>
-        <v/>
-      </c>
-      <c r="P122" s="19">
+      <c r="M122" s="15" t="inlineStr"/>
+      <c r="N122" s="15">
+        <f>COUNTIF($E$98,"สัญญา")+COUNTIF($E$113,"สัญญา")+COUNTIF($E$116,"สัญญา")+COUNTIF($E$119,"สัญญา")+COUNTIF($E$122,"สัญญา")+COUNTIF($E$125,"สัญญา")+COUNTIF($E$134,"สัญญา")+COUNTIF($E$137,"สัญญา")+COUNTIF($E$140,"สัญญา")+COUNTIF($J$98,"สัญญา")+COUNTIF($J$101,"สัญญา")+COUNTIF($J$110,"สัญญา")+COUNTIF($J$113,"สัญญา")+COUNTIF($J$116,"สัญญา")+COUNTIF($J$119,"สัญญา")+COUNTIF($J$122,"สัญญา")+COUNTIF($J$131,"สัญญา")+COUNTIF($J$134,"สัญญา")+COUNTIF($J$137,"สัญญา")+COUNTIF($J$140,"สัญญา")+COUNTIF($J$143,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="O122" s="15">
+        <f>COUNTIF($E$99,"สัญญา")+COUNTIF($E$114,"สัญญา")+COUNTIF($E$117,"สัญญา")+COUNTIF($E$120,"สัญญา")+COUNTIF($E$123,"สัญญา")+COUNTIF($E$126,"สัญญา")+COUNTIF($E$135,"สัญญา")+COUNTIF($E$138,"สัญญา")+COUNTIF($E$141,"สัญญา")+COUNTIF($J$99,"สัญญา")+COUNTIF($J$102,"สัญญา")+COUNTIF($J$111,"สัญญา")+COUNTIF($J$114,"สัญญา")+COUNTIF($J$117,"สัญญา")+COUNTIF($J$120,"สัญญา")+COUNTIF($J$123,"สัญญา")+COUNTIF($J$132,"สัญญา")+COUNTIF($J$135,"สัญญา")+COUNTIF($J$138,"สัญญา")+COUNTIF($J$141,"สัญญา")+COUNTIF($J$144,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="P122" s="15">
         <f>SUM(M122:O122)</f>
         <v/>
       </c>
-      <c r="R122" s="19" t="inlineStr">
+      <c r="R122" s="15" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="S122" s="19">
-        <f>COUNTIF($E$106,"สัญญา")+COUNTIF($E$109,"สัญญา")+COUNTIF($E$127,"สัญญา")+COUNTIF($E$130,"สัญญา")+COUNTIF($J$103,"สัญญา")+COUNTIF($J$106,"สัญญา")+COUNTIF($J$124,"สัญญา")+COUNTIF($J$127,"สัญญา")</f>
-        <v/>
-      </c>
-      <c r="T122" s="19">
-        <f>COUNTIF($E$107,"สัญญา")+COUNTIF($E$110,"สัญญา")+COUNTIF($E$128,"สัญญา")+COUNTIF($E$131,"สัญญา")+COUNTIF($J$104,"สัญญา")+COUNTIF($J$107,"สัญญา")+COUNTIF($J$125,"สัญญา")+COUNTIF($J$128,"สัญญา")</f>
-        <v/>
-      </c>
-      <c r="U122" s="19">
-        <f>COUNTIF($E$108,"สัญญา")+COUNTIF($E$111,"สัญญา")+COUNTIF($E$129,"สัญญา")+COUNTIF($E$132,"สัญญา")+COUNTIF($J$105,"สัญญา")+COUNTIF($J$108,"สัญญา")+COUNTIF($J$126,"สัญญา")+COUNTIF($J$129,"สัญญา")</f>
-        <v/>
-      </c>
-      <c r="V122" s="19">
+      <c r="S122" s="15">
+        <f>COUNTIF($E$100,"สัญญา")+COUNTIF($E$103,"สัญญา")+COUNTIF($E$106,"สัญญา")+COUNTIF($E$109,"สัญญา")+COUNTIF($E$127,"สัญญา")+COUNTIF($E$130,"สัญญา")+COUNTIF($J$103,"สัญญา")+COUNTIF($J$106,"สัญญา")+COUNTIF($J$124,"สัญญา")+COUNTIF($J$127,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="T122" s="15">
+        <f>COUNTIF($E$101,"สัญญา")+COUNTIF($E$104,"สัญญา")+COUNTIF($E$107,"สัญญา")+COUNTIF($E$110,"สัญญา")+COUNTIF($E$128,"สัญญา")+COUNTIF($E$131,"สัญญา")+COUNTIF($J$104,"สัญญา")+COUNTIF($J$107,"สัญญา")+COUNTIF($J$125,"สัญญา")+COUNTIF($J$128,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="U122" s="15">
+        <f>COUNTIF($E$102,"สัญญา")+COUNTIF($E$105,"สัญญา")+COUNTIF($E$108,"สัญญา")+COUNTIF($E$111,"สัญญา")+COUNTIF($E$129,"สัญญา")+COUNTIF($E$132,"สัญญา")+COUNTIF($J$105,"สัญญา")+COUNTIF($J$108,"สัญญา")+COUNTIF($J$126,"สัญญา")+COUNTIF($J$129,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="V122" s="15">
         <f>SUM(S122:U122)</f>
         <v/>
       </c>
-      <c r="X122" s="19" t="inlineStr">
+      <c r="X122" s="15" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="Y122" s="19">
+      <c r="Y122" s="15">
         <f>SUM(M122,S122)</f>
         <v/>
       </c>
-      <c r="Z122" s="19">
+      <c r="Z122" s="15">
         <f>SUM(N122,T122)</f>
         <v/>
       </c>
-      <c r="AA122" s="19">
+      <c r="AA122" s="15">
         <f>SUM(O122,U122)</f>
         <v/>
       </c>
-      <c r="AB122" s="19">
+      <c r="AB122" s="15">
         <f>SUM(P122,V122)</f>
         <v/>
       </c>
@@ -6373,98 +6461,98 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C123" s="18" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="D123" s="15" t="inlineStr">
+      <c r="C123" s="11" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D123" s="17" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E123" s="16" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="G123" s="1" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H123" s="11" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="I123" s="7" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="E123" s="19" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="G123" s="1" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H123" s="18" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="I123" s="13" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="J123" s="12" t="inlineStr">
+      <c r="J123" s="19" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="L123" s="17" t="inlineStr">
+      <c r="L123" s="12" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="M123" s="17" t="inlineStr"/>
-      <c r="N123" s="17">
-        <f>COUNTIF($E$98,"วินัย")+COUNTIF($E$101,"วินัย")+COUNTIF($E$104,"วินัย")+COUNTIF($E$113,"วินัย")+COUNTIF($E$116,"วินัย")+COUNTIF($E$119,"วินัย")+COUNTIF($E$122,"วินัย")+COUNTIF($E$125,"วินัย")+COUNTIF($E$134,"วินัย")+COUNTIF($E$137,"วินัย")+COUNTIF($E$140,"วินัย")+COUNTIF($J$98,"วินัย")+COUNTIF($J$101,"วินัย")+COUNTIF($J$110,"วินัย")+COUNTIF($J$113,"วินัย")+COUNTIF($J$116,"วินัย")+COUNTIF($J$119,"วินัย")+COUNTIF($J$122,"วินัย")+COUNTIF($J$131,"วินัย")+COUNTIF($J$134,"วินัย")+COUNTIF($J$137,"วินัย")+COUNTIF($J$140,"วินัย")+COUNTIF($J$143,"วินัย")</f>
-        <v/>
-      </c>
-      <c r="O123" s="17">
-        <f>COUNTIF($E$99,"วินัย")+COUNTIF($E$102,"วินัย")+COUNTIF($E$105,"วินัย")+COUNTIF($E$114,"วินัย")+COUNTIF($E$117,"วินัย")+COUNTIF($E$120,"วินัย")+COUNTIF($E$123,"วินัย")+COUNTIF($E$126,"วินัย")+COUNTIF($E$135,"วินัย")+COUNTIF($E$138,"วินัย")+COUNTIF($E$141,"วินัย")+COUNTIF($J$99,"วินัย")+COUNTIF($J$102,"วินัย")+COUNTIF($J$111,"วินัย")+COUNTIF($J$114,"วินัย")+COUNTIF($J$117,"วินัย")+COUNTIF($J$120,"วินัย")+COUNTIF($J$123,"วินัย")+COUNTIF($J$132,"วินัย")+COUNTIF($J$135,"วินัย")+COUNTIF($J$138,"วินัย")+COUNTIF($J$141,"วินัย")+COUNTIF($J$144,"วินัย")</f>
-        <v/>
-      </c>
-      <c r="P123" s="17">
+      <c r="M123" s="12" t="inlineStr"/>
+      <c r="N123" s="12">
+        <f>COUNTIF($E$98,"วินัย")+COUNTIF($E$113,"วินัย")+COUNTIF($E$116,"วินัย")+COUNTIF($E$119,"วินัย")+COUNTIF($E$122,"วินัย")+COUNTIF($E$125,"วินัย")+COUNTIF($E$134,"วินัย")+COUNTIF($E$137,"วินัย")+COUNTIF($E$140,"วินัย")+COUNTIF($J$98,"วินัย")+COUNTIF($J$101,"วินัย")+COUNTIF($J$110,"วินัย")+COUNTIF($J$113,"วินัย")+COUNTIF($J$116,"วินัย")+COUNTIF($J$119,"วินัย")+COUNTIF($J$122,"วินัย")+COUNTIF($J$131,"วินัย")+COUNTIF($J$134,"วินัย")+COUNTIF($J$137,"วินัย")+COUNTIF($J$140,"วินัย")+COUNTIF($J$143,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="O123" s="12">
+        <f>COUNTIF($E$99,"วินัย")+COUNTIF($E$114,"วินัย")+COUNTIF($E$117,"วินัย")+COUNTIF($E$120,"วินัย")+COUNTIF($E$123,"วินัย")+COUNTIF($E$126,"วินัย")+COUNTIF($E$135,"วินัย")+COUNTIF($E$138,"วินัย")+COUNTIF($E$141,"วินัย")+COUNTIF($J$99,"วินัย")+COUNTIF($J$102,"วินัย")+COUNTIF($J$111,"วินัย")+COUNTIF($J$114,"วินัย")+COUNTIF($J$117,"วินัย")+COUNTIF($J$120,"วินัย")+COUNTIF($J$123,"วินัย")+COUNTIF($J$132,"วินัย")+COUNTIF($J$135,"วินัย")+COUNTIF($J$138,"วินัย")+COUNTIF($J$141,"วินัย")+COUNTIF($J$144,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="P123" s="12">
         <f>SUM(M123:O123)</f>
         <v/>
       </c>
-      <c r="R123" s="17" t="inlineStr">
+      <c r="R123" s="12" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="S123" s="17">
-        <f>COUNTIF($E$106,"วินัย")+COUNTIF($E$109,"วินัย")+COUNTIF($E$127,"วินัย")+COUNTIF($E$130,"วินัย")+COUNTIF($J$103,"วินัย")+COUNTIF($J$106,"วินัย")+COUNTIF($J$124,"วินัย")+COUNTIF($J$127,"วินัย")</f>
-        <v/>
-      </c>
-      <c r="T123" s="17">
-        <f>COUNTIF($E$107,"วินัย")+COUNTIF($E$110,"วินัย")+COUNTIF($E$128,"วินัย")+COUNTIF($E$131,"วินัย")+COUNTIF($J$104,"วินัย")+COUNTIF($J$107,"วินัย")+COUNTIF($J$125,"วินัย")+COUNTIF($J$128,"วินัย")</f>
-        <v/>
-      </c>
-      <c r="U123" s="17">
-        <f>COUNTIF($E$108,"วินัย")+COUNTIF($E$111,"วินัย")+COUNTIF($E$129,"วินัย")+COUNTIF($E$132,"วินัย")+COUNTIF($J$105,"วินัย")+COUNTIF($J$108,"วินัย")+COUNTIF($J$126,"วินัย")+COUNTIF($J$129,"วินัย")</f>
-        <v/>
-      </c>
-      <c r="V123" s="17">
+      <c r="S123" s="12">
+        <f>COUNTIF($E$100,"วินัย")+COUNTIF($E$103,"วินัย")+COUNTIF($E$106,"วินัย")+COUNTIF($E$109,"วินัย")+COUNTIF($E$127,"วินัย")+COUNTIF($E$130,"วินัย")+COUNTIF($J$103,"วินัย")+COUNTIF($J$106,"วินัย")+COUNTIF($J$124,"วินัย")+COUNTIF($J$127,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="T123" s="12">
+        <f>COUNTIF($E$101,"วินัย")+COUNTIF($E$104,"วินัย")+COUNTIF($E$107,"วินัย")+COUNTIF($E$110,"วินัย")+COUNTIF($E$128,"วินัย")+COUNTIF($E$131,"วินัย")+COUNTIF($J$104,"วินัย")+COUNTIF($J$107,"วินัย")+COUNTIF($J$125,"วินัย")+COUNTIF($J$128,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="U123" s="12">
+        <f>COUNTIF($E$102,"วินัย")+COUNTIF($E$105,"วินัย")+COUNTIF($E$108,"วินัย")+COUNTIF($E$111,"วินัย")+COUNTIF($E$129,"วินัย")+COUNTIF($E$132,"วินัย")+COUNTIF($J$105,"วินัย")+COUNTIF($J$108,"วินัย")+COUNTIF($J$126,"วินัย")+COUNTIF($J$129,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="V123" s="12">
         <f>SUM(S123:U123)</f>
         <v/>
       </c>
-      <c r="X123" s="17" t="inlineStr">
+      <c r="X123" s="12" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="Y123" s="17">
+      <c r="Y123" s="12">
         <f>SUM(M123,S123)</f>
         <v/>
       </c>
-      <c r="Z123" s="17">
+      <c r="Z123" s="12">
         <f>SUM(N123,T123)</f>
         <v/>
       </c>
-      <c r="AA123" s="17">
+      <c r="AA123" s="12">
         <f>SUM(O123,U123)</f>
         <v/>
       </c>
-      <c r="AB123" s="17">
+      <c r="AB123" s="12">
         <f>SUM(P123,V123)</f>
         <v/>
       </c>
@@ -6485,78 +6573,78 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="H124" s="16" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="I124" s="14" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="J124" s="17" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="L124" s="18" t="inlineStr">
+      <c r="H124" s="8" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="I124" s="13" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="J124" s="6" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="M124" s="18" t="inlineStr"/>
-      <c r="N124" s="18">
-        <f>COUNTIF($E$98,"รณยุทธ")+COUNTIF($E$101,"รณยุทธ")+COUNTIF($E$104,"รณยุทธ")+COUNTIF($E$113,"รณยุทธ")+COUNTIF($E$116,"รณยุทธ")+COUNTIF($E$119,"รณยุทธ")+COUNTIF($E$122,"รณยุทธ")+COUNTIF($E$125,"รณยุทธ")+COUNTIF($E$134,"รณยุทธ")+COUNTIF($E$137,"รณยุทธ")+COUNTIF($E$140,"รณยุทธ")+COUNTIF($J$98,"รณยุทธ")+COUNTIF($J$101,"รณยุทธ")+COUNTIF($J$110,"รณยุทธ")+COUNTIF($J$113,"รณยุทธ")+COUNTIF($J$116,"รณยุทธ")+COUNTIF($J$119,"รณยุทธ")+COUNTIF($J$122,"รณยุทธ")+COUNTIF($J$131,"รณยุทธ")+COUNTIF($J$134,"รณยุทธ")+COUNTIF($J$137,"รณยุทธ")+COUNTIF($J$140,"รณยุทธ")+COUNTIF($J$143,"รณยุทธ")</f>
-        <v/>
-      </c>
-      <c r="O124" s="18">
-        <f>COUNTIF($E$99,"รณยุทธ")+COUNTIF($E$102,"รณยุทธ")+COUNTIF($E$105,"รณยุทธ")+COUNTIF($E$114,"รณยุทธ")+COUNTIF($E$117,"รณยุทธ")+COUNTIF($E$120,"รณยุทธ")+COUNTIF($E$123,"รณยุทธ")+COUNTIF($E$126,"รณยุทธ")+COUNTIF($E$135,"รณยุทธ")+COUNTIF($E$138,"รณยุทธ")+COUNTIF($E$141,"รณยุทธ")+COUNTIF($J$99,"รณยุทธ")+COUNTIF($J$102,"รณยุทธ")+COUNTIF($J$111,"รณยุทธ")+COUNTIF($J$114,"รณยุทธ")+COUNTIF($J$117,"รณยุทธ")+COUNTIF($J$120,"รณยุทธ")+COUNTIF($J$123,"รณยุทธ")+COUNTIF($J$132,"รณยุทธ")+COUNTIF($J$135,"รณยุทธ")+COUNTIF($J$138,"รณยุทธ")+COUNTIF($J$141,"รณยุทธ")+COUNTIF($J$144,"รณยุทธ")</f>
-        <v/>
-      </c>
-      <c r="P124" s="18">
+      <c r="L124" s="6" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="M124" s="6" t="inlineStr"/>
+      <c r="N124" s="6">
+        <f>COUNTIF($E$98,"รณยุทธ")+COUNTIF($E$113,"รณยุทธ")+COUNTIF($E$116,"รณยุทธ")+COUNTIF($E$119,"รณยุทธ")+COUNTIF($E$122,"รณยุทธ")+COUNTIF($E$125,"รณยุทธ")+COUNTIF($E$134,"รณยุทธ")+COUNTIF($E$137,"รณยุทธ")+COUNTIF($E$140,"รณยุทธ")+COUNTIF($J$98,"รณยุทธ")+COUNTIF($J$101,"รณยุทธ")+COUNTIF($J$110,"รณยุทธ")+COUNTIF($J$113,"รณยุทธ")+COUNTIF($J$116,"รณยุทธ")+COUNTIF($J$119,"รณยุทธ")+COUNTIF($J$122,"รณยุทธ")+COUNTIF($J$131,"รณยุทธ")+COUNTIF($J$134,"รณยุทธ")+COUNTIF($J$137,"รณยุทธ")+COUNTIF($J$140,"รณยุทธ")+COUNTIF($J$143,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="O124" s="6">
+        <f>COUNTIF($E$99,"รณยุทธ")+COUNTIF($E$114,"รณยุทธ")+COUNTIF($E$117,"รณยุทธ")+COUNTIF($E$120,"รณยุทธ")+COUNTIF($E$123,"รณยุทธ")+COUNTIF($E$126,"รณยุทธ")+COUNTIF($E$135,"รณยุทธ")+COUNTIF($E$138,"รณยุทธ")+COUNTIF($E$141,"รณยุทธ")+COUNTIF($J$99,"รณยุทธ")+COUNTIF($J$102,"รณยุทธ")+COUNTIF($J$111,"รณยุทธ")+COUNTIF($J$114,"รณยุทธ")+COUNTIF($J$117,"รณยุทธ")+COUNTIF($J$120,"รณยุทธ")+COUNTIF($J$123,"รณยุทธ")+COUNTIF($J$132,"รณยุทธ")+COUNTIF($J$135,"รณยุทธ")+COUNTIF($J$138,"รณยุทธ")+COUNTIF($J$141,"รณยุทธ")+COUNTIF($J$144,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="P124" s="6">
         <f>SUM(M124:O124)</f>
         <v/>
       </c>
-      <c r="R124" s="18" t="inlineStr">
+      <c r="R124" s="6" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="S124" s="18">
-        <f>COUNTIF($E$106,"รณยุทธ")+COUNTIF($E$109,"รณยุทธ")+COUNTIF($E$127,"รณยุทธ")+COUNTIF($E$130,"รณยุทธ")+COUNTIF($J$103,"รณยุทธ")+COUNTIF($J$106,"รณยุทธ")+COUNTIF($J$124,"รณยุทธ")+COUNTIF($J$127,"รณยุทธ")</f>
-        <v/>
-      </c>
-      <c r="T124" s="18">
-        <f>COUNTIF($E$107,"รณยุทธ")+COUNTIF($E$110,"รณยุทธ")+COUNTIF($E$128,"รณยุทธ")+COUNTIF($E$131,"รณยุทธ")+COUNTIF($J$104,"รณยุทธ")+COUNTIF($J$107,"รณยุทธ")+COUNTIF($J$125,"รณยุทธ")+COUNTIF($J$128,"รณยุทธ")</f>
-        <v/>
-      </c>
-      <c r="U124" s="18">
-        <f>COUNTIF($E$108,"รณยุทธ")+COUNTIF($E$111,"รณยุทธ")+COUNTIF($E$129,"รณยุทธ")+COUNTIF($E$132,"รณยุทธ")+COUNTIF($J$105,"รณยุทธ")+COUNTIF($J$108,"รณยุทธ")+COUNTIF($J$126,"รณยุทธ")+COUNTIF($J$129,"รณยุทธ")</f>
-        <v/>
-      </c>
-      <c r="V124" s="18">
+      <c r="S124" s="6">
+        <f>COUNTIF($E$100,"รณยุทธ")+COUNTIF($E$103,"รณยุทธ")+COUNTIF($E$106,"รณยุทธ")+COUNTIF($E$109,"รณยุทธ")+COUNTIF($E$127,"รณยุทธ")+COUNTIF($E$130,"รณยุทธ")+COUNTIF($J$103,"รณยุทธ")+COUNTIF($J$106,"รณยุทธ")+COUNTIF($J$124,"รณยุทธ")+COUNTIF($J$127,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="T124" s="6">
+        <f>COUNTIF($E$101,"รณยุทธ")+COUNTIF($E$104,"รณยุทธ")+COUNTIF($E$107,"รณยุทธ")+COUNTIF($E$110,"รณยุทธ")+COUNTIF($E$128,"รณยุทธ")+COUNTIF($E$131,"รณยุทธ")+COUNTIF($J$104,"รณยุทธ")+COUNTIF($J$107,"รณยุทธ")+COUNTIF($J$125,"รณยุทธ")+COUNTIF($J$128,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="U124" s="6">
+        <f>COUNTIF($E$102,"รณยุทธ")+COUNTIF($E$105,"รณยุทธ")+COUNTIF($E$108,"รณยุทธ")+COUNTIF($E$111,"รณยุทธ")+COUNTIF($E$129,"รณยุทธ")+COUNTIF($E$132,"รณยุทธ")+COUNTIF($J$105,"รณยุทธ")+COUNTIF($J$108,"รณยุทธ")+COUNTIF($J$126,"รณยุทธ")+COUNTIF($J$129,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="V124" s="6">
         <f>SUM(S124:U124)</f>
         <v/>
       </c>
-      <c r="X124" s="18" t="inlineStr">
+      <c r="X124" s="6" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="Y124" s="18">
+      <c r="Y124" s="6">
         <f>SUM(M124,S124)</f>
         <v/>
       </c>
-      <c r="Z124" s="18">
+      <c r="Z124" s="6">
         <f>SUM(N124,T124)</f>
         <v/>
       </c>
-      <c r="AA124" s="18">
+      <c r="AA124" s="6">
         <f>SUM(O124,U124)</f>
         <v/>
       </c>
-      <c r="AB124" s="18">
+      <c r="AB124" s="6">
         <f>SUM(P124,V124)</f>
         <v/>
       </c>
@@ -6567,19 +6655,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C125" s="17" t="inlineStr">
+      <c r="C125" s="6" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D125" s="17" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E125" s="12" t="inlineStr">
         <is>
           <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D125" s="10" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E125" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
         </is>
       </c>
       <c r="F125" s="5" t="n"/>
@@ -6588,78 +6676,78 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="H125" s="19" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="I125" s="7" t="inlineStr">
+      <c r="H125" s="16" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="I125" s="14" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="J125" s="8" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="L125" s="10" t="inlineStr">
+      <c r="J125" s="12" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="L125" s="13" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="M125" s="10" t="inlineStr"/>
-      <c r="N125" s="10">
-        <f>COUNTIF($E$98,"วัฒพงษ์")+COUNTIF($E$101,"วัฒพงษ์")+COUNTIF($E$104,"วัฒพงษ์")+COUNTIF($E$113,"วัฒพงษ์")+COUNTIF($E$116,"วัฒพงษ์")+COUNTIF($E$119,"วัฒพงษ์")+COUNTIF($E$122,"วัฒพงษ์")+COUNTIF($E$125,"วัฒพงษ์")+COUNTIF($E$134,"วัฒพงษ์")+COUNTIF($E$137,"วัฒพงษ์")+COUNTIF($E$140,"วัฒพงษ์")+COUNTIF($J$98,"วัฒพงษ์")+COUNTIF($J$101,"วัฒพงษ์")+COUNTIF($J$110,"วัฒพงษ์")+COUNTIF($J$113,"วัฒพงษ์")+COUNTIF($J$116,"วัฒพงษ์")+COUNTIF($J$119,"วัฒพงษ์")+COUNTIF($J$122,"วัฒพงษ์")+COUNTIF($J$131,"วัฒพงษ์")+COUNTIF($J$134,"วัฒพงษ์")+COUNTIF($J$137,"วัฒพงษ์")+COUNTIF($J$140,"วัฒพงษ์")+COUNTIF($J$143,"วัฒพงษ์")</f>
-        <v/>
-      </c>
-      <c r="O125" s="10">
-        <f>COUNTIF($E$99,"วัฒพงษ์")+COUNTIF($E$102,"วัฒพงษ์")+COUNTIF($E$105,"วัฒพงษ์")+COUNTIF($E$114,"วัฒพงษ์")+COUNTIF($E$117,"วัฒพงษ์")+COUNTIF($E$120,"วัฒพงษ์")+COUNTIF($E$123,"วัฒพงษ์")+COUNTIF($E$126,"วัฒพงษ์")+COUNTIF($E$135,"วัฒพงษ์")+COUNTIF($E$138,"วัฒพงษ์")+COUNTIF($E$141,"วัฒพงษ์")+COUNTIF($J$99,"วัฒพงษ์")+COUNTIF($J$102,"วัฒพงษ์")+COUNTIF($J$111,"วัฒพงษ์")+COUNTIF($J$114,"วัฒพงษ์")+COUNTIF($J$117,"วัฒพงษ์")+COUNTIF($J$120,"วัฒพงษ์")+COUNTIF($J$123,"วัฒพงษ์")+COUNTIF($J$132,"วัฒพงษ์")+COUNTIF($J$135,"วัฒพงษ์")+COUNTIF($J$138,"วัฒพงษ์")+COUNTIF($J$141,"วัฒพงษ์")+COUNTIF($J$144,"วัฒพงษ์")</f>
-        <v/>
-      </c>
-      <c r="P125" s="10">
+      <c r="M125" s="13" t="inlineStr"/>
+      <c r="N125" s="13">
+        <f>COUNTIF($E$98,"วัฒพงษ์")+COUNTIF($E$113,"วัฒพงษ์")+COUNTIF($E$116,"วัฒพงษ์")+COUNTIF($E$119,"วัฒพงษ์")+COUNTIF($E$122,"วัฒพงษ์")+COUNTIF($E$125,"วัฒพงษ์")+COUNTIF($E$134,"วัฒพงษ์")+COUNTIF($E$137,"วัฒพงษ์")+COUNTIF($E$140,"วัฒพงษ์")+COUNTIF($J$98,"วัฒพงษ์")+COUNTIF($J$101,"วัฒพงษ์")+COUNTIF($J$110,"วัฒพงษ์")+COUNTIF($J$113,"วัฒพงษ์")+COUNTIF($J$116,"วัฒพงษ์")+COUNTIF($J$119,"วัฒพงษ์")+COUNTIF($J$122,"วัฒพงษ์")+COUNTIF($J$131,"วัฒพงษ์")+COUNTIF($J$134,"วัฒพงษ์")+COUNTIF($J$137,"วัฒพงษ์")+COUNTIF($J$140,"วัฒพงษ์")+COUNTIF($J$143,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="O125" s="13">
+        <f>COUNTIF($E$99,"วัฒพงษ์")+COUNTIF($E$114,"วัฒพงษ์")+COUNTIF($E$117,"วัฒพงษ์")+COUNTIF($E$120,"วัฒพงษ์")+COUNTIF($E$123,"วัฒพงษ์")+COUNTIF($E$126,"วัฒพงษ์")+COUNTIF($E$135,"วัฒพงษ์")+COUNTIF($E$138,"วัฒพงษ์")+COUNTIF($E$141,"วัฒพงษ์")+COUNTIF($J$99,"วัฒพงษ์")+COUNTIF($J$102,"วัฒพงษ์")+COUNTIF($J$111,"วัฒพงษ์")+COUNTIF($J$114,"วัฒพงษ์")+COUNTIF($J$117,"วัฒพงษ์")+COUNTIF($J$120,"วัฒพงษ์")+COUNTIF($J$123,"วัฒพงษ์")+COUNTIF($J$132,"วัฒพงษ์")+COUNTIF($J$135,"วัฒพงษ์")+COUNTIF($J$138,"วัฒพงษ์")+COUNTIF($J$141,"วัฒพงษ์")+COUNTIF($J$144,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="P125" s="13">
         <f>SUM(M125:O125)</f>
         <v/>
       </c>
-      <c r="R125" s="10" t="inlineStr">
+      <c r="R125" s="13" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="S125" s="10">
-        <f>COUNTIF($E$106,"วัฒพงษ์")+COUNTIF($E$109,"วัฒพงษ์")+COUNTIF($E$127,"วัฒพงษ์")+COUNTIF($E$130,"วัฒพงษ์")+COUNTIF($J$103,"วัฒพงษ์")+COUNTIF($J$106,"วัฒพงษ์")+COUNTIF($J$124,"วัฒพงษ์")+COUNTIF($J$127,"วัฒพงษ์")</f>
-        <v/>
-      </c>
-      <c r="T125" s="10">
-        <f>COUNTIF($E$107,"วัฒพงษ์")+COUNTIF($E$110,"วัฒพงษ์")+COUNTIF($E$128,"วัฒพงษ์")+COUNTIF($E$131,"วัฒพงษ์")+COUNTIF($J$104,"วัฒพงษ์")+COUNTIF($J$107,"วัฒพงษ์")+COUNTIF($J$125,"วัฒพงษ์")+COUNTIF($J$128,"วัฒพงษ์")</f>
-        <v/>
-      </c>
-      <c r="U125" s="10">
-        <f>COUNTIF($E$108,"วัฒพงษ์")+COUNTIF($E$111,"วัฒพงษ์")+COUNTIF($E$129,"วัฒพงษ์")+COUNTIF($E$132,"วัฒพงษ์")+COUNTIF($J$105,"วัฒพงษ์")+COUNTIF($J$108,"วัฒพงษ์")+COUNTIF($J$126,"วัฒพงษ์")+COUNTIF($J$129,"วัฒพงษ์")</f>
-        <v/>
-      </c>
-      <c r="V125" s="10">
+      <c r="S125" s="13">
+        <f>COUNTIF($E$100,"วัฒพงษ์")+COUNTIF($E$103,"วัฒพงษ์")+COUNTIF($E$106,"วัฒพงษ์")+COUNTIF($E$109,"วัฒพงษ์")+COUNTIF($E$127,"วัฒพงษ์")+COUNTIF($E$130,"วัฒพงษ์")+COUNTIF($J$103,"วัฒพงษ์")+COUNTIF($J$106,"วัฒพงษ์")+COUNTIF($J$124,"วัฒพงษ์")+COUNTIF($J$127,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="T125" s="13">
+        <f>COUNTIF($E$101,"วัฒพงษ์")+COUNTIF($E$104,"วัฒพงษ์")+COUNTIF($E$107,"วัฒพงษ์")+COUNTIF($E$110,"วัฒพงษ์")+COUNTIF($E$128,"วัฒพงษ์")+COUNTIF($E$131,"วัฒพงษ์")+COUNTIF($J$104,"วัฒพงษ์")+COUNTIF($J$107,"วัฒพงษ์")+COUNTIF($J$125,"วัฒพงษ์")+COUNTIF($J$128,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="U125" s="13">
+        <f>COUNTIF($E$102,"วัฒพงษ์")+COUNTIF($E$105,"วัฒพงษ์")+COUNTIF($E$108,"วัฒพงษ์")+COUNTIF($E$111,"วัฒพงษ์")+COUNTIF($E$129,"วัฒพงษ์")+COUNTIF($E$132,"วัฒพงษ์")+COUNTIF($J$105,"วัฒพงษ์")+COUNTIF($J$108,"วัฒพงษ์")+COUNTIF($J$126,"วัฒพงษ์")+COUNTIF($J$129,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="V125" s="13">
         <f>SUM(S125:U125)</f>
         <v/>
       </c>
-      <c r="X125" s="10" t="inlineStr">
+      <c r="X125" s="13" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="Y125" s="10">
+      <c r="Y125" s="13">
         <f>SUM(M125,S125)</f>
         <v/>
       </c>
-      <c r="Z125" s="10">
+      <c r="Z125" s="13">
         <f>SUM(N125,T125)</f>
         <v/>
       </c>
-      <c r="AA125" s="10">
+      <c r="AA125" s="13">
         <f>SUM(O125,U125)</f>
         <v/>
       </c>
-      <c r="AB125" s="10">
+      <c r="AB125" s="13">
         <f>SUM(P125,V125)</f>
         <v/>
       </c>
@@ -6670,19 +6758,19 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C126" s="17" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D126" s="10" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E126" s="12" t="inlineStr">
+      <c r="C126" s="15" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D126" s="19" t="inlineStr">
         <is>
           <t>นที</t>
+        </is>
+      </c>
+      <c r="E126" s="14" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="F126" s="5" t="n"/>
@@ -6691,78 +6779,78 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="H126" s="11" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="I126" s="10" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="J126" s="6" t="inlineStr">
+      <c r="H126" s="16" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="L126" s="7" t="inlineStr">
+      <c r="I126" s="19" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="J126" s="18" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="L126" s="14" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="M126" s="7" t="inlineStr"/>
-      <c r="N126" s="7">
-        <f>COUNTIF($E$98,"ราเชน")+COUNTIF($E$101,"ราเชน")+COUNTIF($E$104,"ราเชน")+COUNTIF($E$113,"ราเชน")+COUNTIF($E$116,"ราเชน")+COUNTIF($E$119,"ราเชน")+COUNTIF($E$122,"ราเชน")+COUNTIF($E$125,"ราเชน")+COUNTIF($E$134,"ราเชน")+COUNTIF($E$137,"ราเชน")+COUNTIF($E$140,"ราเชน")+COUNTIF($J$98,"ราเชน")+COUNTIF($J$101,"ราเชน")+COUNTIF($J$110,"ราเชน")+COUNTIF($J$113,"ราเชน")+COUNTIF($J$116,"ราเชน")+COUNTIF($J$119,"ราเชน")+COUNTIF($J$122,"ราเชน")+COUNTIF($J$131,"ราเชน")+COUNTIF($J$134,"ราเชน")+COUNTIF($J$137,"ราเชน")+COUNTIF($J$140,"ราเชน")+COUNTIF($J$143,"ราเชน")</f>
-        <v/>
-      </c>
-      <c r="O126" s="7">
-        <f>COUNTIF($E$99,"ราเชน")+COUNTIF($E$102,"ราเชน")+COUNTIF($E$105,"ราเชน")+COUNTIF($E$114,"ราเชน")+COUNTIF($E$117,"ราเชน")+COUNTIF($E$120,"ราเชน")+COUNTIF($E$123,"ราเชน")+COUNTIF($E$126,"ราเชน")+COUNTIF($E$135,"ราเชน")+COUNTIF($E$138,"ราเชน")+COUNTIF($E$141,"ราเชน")+COUNTIF($J$99,"ราเชน")+COUNTIF($J$102,"ราเชน")+COUNTIF($J$111,"ราเชน")+COUNTIF($J$114,"ราเชน")+COUNTIF($J$117,"ราเชน")+COUNTIF($J$120,"ราเชน")+COUNTIF($J$123,"ราเชน")+COUNTIF($J$132,"ราเชน")+COUNTIF($J$135,"ราเชน")+COUNTIF($J$138,"ราเชน")+COUNTIF($J$141,"ราเชน")+COUNTIF($J$144,"ราเชน")</f>
-        <v/>
-      </c>
-      <c r="P126" s="7">
+      <c r="M126" s="14" t="inlineStr"/>
+      <c r="N126" s="14">
+        <f>COUNTIF($E$98,"ราเชน")+COUNTIF($E$113,"ราเชน")+COUNTIF($E$116,"ราเชน")+COUNTIF($E$119,"ราเชน")+COUNTIF($E$122,"ราเชน")+COUNTIF($E$125,"ราเชน")+COUNTIF($E$134,"ราเชน")+COUNTIF($E$137,"ราเชน")+COUNTIF($E$140,"ราเชน")+COUNTIF($J$98,"ราเชน")+COUNTIF($J$101,"ราเชน")+COUNTIF($J$110,"ราเชน")+COUNTIF($J$113,"ราเชน")+COUNTIF($J$116,"ราเชน")+COUNTIF($J$119,"ราเชน")+COUNTIF($J$122,"ราเชน")+COUNTIF($J$131,"ราเชน")+COUNTIF($J$134,"ราเชน")+COUNTIF($J$137,"ราเชน")+COUNTIF($J$140,"ราเชน")+COUNTIF($J$143,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="O126" s="14">
+        <f>COUNTIF($E$99,"ราเชน")+COUNTIF($E$114,"ราเชน")+COUNTIF($E$117,"ราเชน")+COUNTIF($E$120,"ราเชน")+COUNTIF($E$123,"ราเชน")+COUNTIF($E$126,"ราเชน")+COUNTIF($E$135,"ราเชน")+COUNTIF($E$138,"ราเชน")+COUNTIF($E$141,"ราเชน")+COUNTIF($J$99,"ราเชน")+COUNTIF($J$102,"ราเชน")+COUNTIF($J$111,"ราเชน")+COUNTIF($J$114,"ราเชน")+COUNTIF($J$117,"ราเชน")+COUNTIF($J$120,"ราเชน")+COUNTIF($J$123,"ราเชน")+COUNTIF($J$132,"ราเชน")+COUNTIF($J$135,"ราเชน")+COUNTIF($J$138,"ราเชน")+COUNTIF($J$141,"ราเชน")+COUNTIF($J$144,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="P126" s="14">
         <f>SUM(M126:O126)</f>
         <v/>
       </c>
-      <c r="R126" s="7" t="inlineStr">
+      <c r="R126" s="14" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="S126" s="7">
-        <f>COUNTIF($E$106,"ราเชน")+COUNTIF($E$109,"ราเชน")+COUNTIF($E$127,"ราเชน")+COUNTIF($E$130,"ราเชน")+COUNTIF($J$103,"ราเชน")+COUNTIF($J$106,"ราเชน")+COUNTIF($J$124,"ราเชน")+COUNTIF($J$127,"ราเชน")</f>
-        <v/>
-      </c>
-      <c r="T126" s="7">
-        <f>COUNTIF($E$107,"ราเชน")+COUNTIF($E$110,"ราเชน")+COUNTIF($E$128,"ราเชน")+COUNTIF($E$131,"ราเชน")+COUNTIF($J$104,"ราเชน")+COUNTIF($J$107,"ราเชน")+COUNTIF($J$125,"ราเชน")+COUNTIF($J$128,"ราเชน")</f>
-        <v/>
-      </c>
-      <c r="U126" s="7">
-        <f>COUNTIF($E$108,"ราเชน")+COUNTIF($E$111,"ราเชน")+COUNTIF($E$129,"ราเชน")+COUNTIF($E$132,"ราเชน")+COUNTIF($J$105,"ราเชน")+COUNTIF($J$108,"ราเชน")+COUNTIF($J$126,"ราเชน")+COUNTIF($J$129,"ราเชน")</f>
-        <v/>
-      </c>
-      <c r="V126" s="7">
+      <c r="S126" s="14">
+        <f>COUNTIF($E$100,"ราเชน")+COUNTIF($E$103,"ราเชน")+COUNTIF($E$106,"ราเชน")+COUNTIF($E$109,"ราเชน")+COUNTIF($E$127,"ราเชน")+COUNTIF($E$130,"ราเชน")+COUNTIF($J$103,"ราเชน")+COUNTIF($J$106,"ราเชน")+COUNTIF($J$124,"ราเชน")+COUNTIF($J$127,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="T126" s="14">
+        <f>COUNTIF($E$101,"ราเชน")+COUNTIF($E$104,"ราเชน")+COUNTIF($E$107,"ราเชน")+COUNTIF($E$110,"ราเชน")+COUNTIF($E$128,"ราเชน")+COUNTIF($E$131,"ราเชน")+COUNTIF($J$104,"ราเชน")+COUNTIF($J$107,"ราเชน")+COUNTIF($J$125,"ราเชน")+COUNTIF($J$128,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="U126" s="14">
+        <f>COUNTIF($E$102,"ราเชน")+COUNTIF($E$105,"ราเชน")+COUNTIF($E$108,"ราเชน")+COUNTIF($E$111,"ราเชน")+COUNTIF($E$129,"ราเชน")+COUNTIF($E$132,"ราเชน")+COUNTIF($J$105,"ราเชน")+COUNTIF($J$108,"ราเชน")+COUNTIF($J$126,"ราเชน")+COUNTIF($J$129,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="V126" s="14">
         <f>SUM(S126:U126)</f>
         <v/>
       </c>
-      <c r="X126" s="7" t="inlineStr">
+      <c r="X126" s="14" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="Y126" s="7">
+      <c r="Y126" s="14">
         <f>SUM(M126,S126)</f>
         <v/>
       </c>
-      <c r="Z126" s="7">
+      <c r="Z126" s="14">
         <f>SUM(N126,T126)</f>
         <v/>
       </c>
-      <c r="AA126" s="7">
+      <c r="AA126" s="14">
         <f>SUM(O126,U126)</f>
         <v/>
       </c>
-      <c r="AB126" s="7">
+      <c r="AB126" s="14">
         <f>SUM(P126,V126)</f>
         <v/>
       </c>
@@ -6778,103 +6866,103 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C127" s="11" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D127" s="13" t="inlineStr">
+      <c r="C127" s="6" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D127" s="19" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E127" s="10" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="F127" s="4" t="inlineStr">
+        <is>
+          <t>26*</t>
+        </is>
+      </c>
+      <c r="G127" s="4" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="H127" s="15" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="I127" s="17" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="E127" s="6" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="F127" s="4" t="inlineStr">
-        <is>
-          <t>26*</t>
-        </is>
-      </c>
-      <c r="G127" s="4" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="H127" s="9" t="inlineStr">
+      <c r="J127" s="11" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="I127" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="J127" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="L127" s="13" t="inlineStr">
+      <c r="L127" s="17" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="M127" s="13" t="inlineStr"/>
-      <c r="N127" s="13">
-        <f>COUNTIF($E$98,"นฤชิต")+COUNTIF($E$101,"นฤชิต")+COUNTIF($E$104,"นฤชิต")+COUNTIF($E$113,"นฤชิต")+COUNTIF($E$116,"นฤชิต")+COUNTIF($E$119,"นฤชิต")+COUNTIF($E$122,"นฤชิต")+COUNTIF($E$125,"นฤชิต")+COUNTIF($E$134,"นฤชิต")+COUNTIF($E$137,"นฤชิต")+COUNTIF($E$140,"นฤชิต")+COUNTIF($J$98,"นฤชิต")+COUNTIF($J$101,"นฤชิต")+COUNTIF($J$110,"นฤชิต")+COUNTIF($J$113,"นฤชิต")+COUNTIF($J$116,"นฤชิต")+COUNTIF($J$119,"นฤชิต")+COUNTIF($J$122,"นฤชิต")+COUNTIF($J$131,"นฤชิต")+COUNTIF($J$134,"นฤชิต")+COUNTIF($J$137,"นฤชิต")+COUNTIF($J$140,"นฤชิต")+COUNTIF($J$143,"นฤชิต")</f>
-        <v/>
-      </c>
-      <c r="O127" s="13">
-        <f>COUNTIF($E$99,"นฤชิต")+COUNTIF($E$102,"นฤชิต")+COUNTIF($E$105,"นฤชิต")+COUNTIF($E$114,"นฤชิต")+COUNTIF($E$117,"นฤชิต")+COUNTIF($E$120,"นฤชิต")+COUNTIF($E$123,"นฤชิต")+COUNTIF($E$126,"นฤชิต")+COUNTIF($E$135,"นฤชิต")+COUNTIF($E$138,"นฤชิต")+COUNTIF($E$141,"นฤชิต")+COUNTIF($J$99,"นฤชิต")+COUNTIF($J$102,"นฤชิต")+COUNTIF($J$111,"นฤชิต")+COUNTIF($J$114,"นฤชิต")+COUNTIF($J$117,"นฤชิต")+COUNTIF($J$120,"นฤชิต")+COUNTIF($J$123,"นฤชิต")+COUNTIF($J$132,"นฤชิต")+COUNTIF($J$135,"นฤชิต")+COUNTIF($J$138,"นฤชิต")+COUNTIF($J$141,"นฤชิต")+COUNTIF($J$144,"นฤชิต")</f>
-        <v/>
-      </c>
-      <c r="P127" s="13">
+      <c r="M127" s="17" t="inlineStr"/>
+      <c r="N127" s="17">
+        <f>COUNTIF($E$98,"นฤชิต")+COUNTIF($E$113,"นฤชิต")+COUNTIF($E$116,"นฤชิต")+COUNTIF($E$119,"นฤชิต")+COUNTIF($E$122,"นฤชิต")+COUNTIF($E$125,"นฤชิต")+COUNTIF($E$134,"นฤชิต")+COUNTIF($E$137,"นฤชิต")+COUNTIF($E$140,"นฤชิต")+COUNTIF($J$98,"นฤชิต")+COUNTIF($J$101,"นฤชิต")+COUNTIF($J$110,"นฤชิต")+COUNTIF($J$113,"นฤชิต")+COUNTIF($J$116,"นฤชิต")+COUNTIF($J$119,"นฤชิต")+COUNTIF($J$122,"นฤชิต")+COUNTIF($J$131,"นฤชิต")+COUNTIF($J$134,"นฤชิต")+COUNTIF($J$137,"นฤชิต")+COUNTIF($J$140,"นฤชิต")+COUNTIF($J$143,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="O127" s="17">
+        <f>COUNTIF($E$99,"นฤชิต")+COUNTIF($E$114,"นฤชิต")+COUNTIF($E$117,"นฤชิต")+COUNTIF($E$120,"นฤชิต")+COUNTIF($E$123,"นฤชิต")+COUNTIF($E$126,"นฤชิต")+COUNTIF($E$135,"นฤชิต")+COUNTIF($E$138,"นฤชิต")+COUNTIF($E$141,"นฤชิต")+COUNTIF($J$99,"นฤชิต")+COUNTIF($J$102,"นฤชิต")+COUNTIF($J$111,"นฤชิต")+COUNTIF($J$114,"นฤชิต")+COUNTIF($J$117,"นฤชิต")+COUNTIF($J$120,"นฤชิต")+COUNTIF($J$123,"นฤชิต")+COUNTIF($J$132,"นฤชิต")+COUNTIF($J$135,"นฤชิต")+COUNTIF($J$138,"นฤชิต")+COUNTIF($J$141,"นฤชิต")+COUNTIF($J$144,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="P127" s="17">
         <f>SUM(M127:O127)</f>
         <v/>
       </c>
-      <c r="R127" s="13" t="inlineStr">
+      <c r="R127" s="17" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="S127" s="13">
-        <f>COUNTIF($E$106,"นฤชิต")+COUNTIF($E$109,"นฤชิต")+COUNTIF($E$127,"นฤชิต")+COUNTIF($E$130,"นฤชิต")+COUNTIF($J$103,"นฤชิต")+COUNTIF($J$106,"นฤชิต")+COUNTIF($J$124,"นฤชิต")+COUNTIF($J$127,"นฤชิต")</f>
-        <v/>
-      </c>
-      <c r="T127" s="13">
-        <f>COUNTIF($E$107,"นฤชิต")+COUNTIF($E$110,"นฤชิต")+COUNTIF($E$128,"นฤชิต")+COUNTIF($E$131,"นฤชิต")+COUNTIF($J$104,"นฤชิต")+COUNTIF($J$107,"นฤชิต")+COUNTIF($J$125,"นฤชิต")+COUNTIF($J$128,"นฤชิต")</f>
-        <v/>
-      </c>
-      <c r="U127" s="13">
-        <f>COUNTIF($E$108,"นฤชิต")+COUNTIF($E$111,"นฤชิต")+COUNTIF($E$129,"นฤชิต")+COUNTIF($E$132,"นฤชิต")+COUNTIF($J$105,"นฤชิต")+COUNTIF($J$108,"นฤชิต")+COUNTIF($J$126,"นฤชิต")+COUNTIF($J$129,"นฤชิต")</f>
-        <v/>
-      </c>
-      <c r="V127" s="13">
+      <c r="S127" s="17">
+        <f>COUNTIF($E$100,"นฤชิต")+COUNTIF($E$103,"นฤชิต")+COUNTIF($E$106,"นฤชิต")+COUNTIF($E$109,"นฤชิต")+COUNTIF($E$127,"นฤชิต")+COUNTIF($E$130,"นฤชิต")+COUNTIF($J$103,"นฤชิต")+COUNTIF($J$106,"นฤชิต")+COUNTIF($J$124,"นฤชิต")+COUNTIF($J$127,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="T127" s="17">
+        <f>COUNTIF($E$101,"นฤชิต")+COUNTIF($E$104,"นฤชิต")+COUNTIF($E$107,"นฤชิต")+COUNTIF($E$110,"นฤชิต")+COUNTIF($E$128,"นฤชิต")+COUNTIF($E$131,"นฤชิต")+COUNTIF($J$104,"นฤชิต")+COUNTIF($J$107,"นฤชิต")+COUNTIF($J$125,"นฤชิต")+COUNTIF($J$128,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="U127" s="17">
+        <f>COUNTIF($E$102,"นฤชิต")+COUNTIF($E$105,"นฤชิต")+COUNTIF($E$108,"นฤชิต")+COUNTIF($E$111,"นฤชิต")+COUNTIF($E$129,"นฤชิต")+COUNTIF($E$132,"นฤชิต")+COUNTIF($J$105,"นฤชิต")+COUNTIF($J$108,"นฤชิต")+COUNTIF($J$126,"นฤชิต")+COUNTIF($J$129,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="V127" s="17">
         <f>SUM(S127:U127)</f>
         <v/>
       </c>
-      <c r="X127" s="13" t="inlineStr">
+      <c r="X127" s="17" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="Y127" s="13">
+      <c r="Y127" s="17">
         <f>SUM(M127,S127)</f>
         <v/>
       </c>
-      <c r="Z127" s="13">
+      <c r="Z127" s="17">
         <f>SUM(N127,T127)</f>
         <v/>
       </c>
-      <c r="AA127" s="13">
+      <c r="AA127" s="17">
         <f>SUM(O127,U127)</f>
         <v/>
       </c>
-      <c r="AB127" s="13">
+      <c r="AB127" s="17">
         <f>SUM(P127,V127)</f>
         <v/>
       </c>
@@ -6886,19 +6974,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C128" s="9" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D128" s="15" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E128" s="16" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+      <c r="C128" s="12" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D128" s="10" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E128" s="8" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="F128" s="5" t="n"/>
@@ -6907,78 +6995,78 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="H128" s="11" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="I128" s="15" t="inlineStr">
+      <c r="H128" s="6" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="I128" s="13" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="J128" s="17" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="L128" s="7" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="J128" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="L128" s="15" t="inlineStr">
+      <c r="M128" s="7" t="inlineStr"/>
+      <c r="N128" s="7">
+        <f>COUNTIF($E$98,"จีรวัฒน์")+COUNTIF($E$113,"จีรวัฒน์")+COUNTIF($E$116,"จีรวัฒน์")+COUNTIF($E$119,"จีรวัฒน์")+COUNTIF($E$122,"จีรวัฒน์")+COUNTIF($E$125,"จีรวัฒน์")+COUNTIF($E$134,"จีรวัฒน์")+COUNTIF($E$137,"จีรวัฒน์")+COUNTIF($E$140,"จีรวัฒน์")+COUNTIF($J$98,"จีรวัฒน์")+COUNTIF($J$101,"จีรวัฒน์")+COUNTIF($J$110,"จีรวัฒน์")+COUNTIF($J$113,"จีรวัฒน์")+COUNTIF($J$116,"จีรวัฒน์")+COUNTIF($J$119,"จีรวัฒน์")+COUNTIF($J$122,"จีรวัฒน์")+COUNTIF($J$131,"จีรวัฒน์")+COUNTIF($J$134,"จีรวัฒน์")+COUNTIF($J$137,"จีรวัฒน์")+COUNTIF($J$140,"จีรวัฒน์")+COUNTIF($J$143,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="O128" s="7">
+        <f>COUNTIF($E$99,"จีรวัฒน์")+COUNTIF($E$114,"จีรวัฒน์")+COUNTIF($E$117,"จีรวัฒน์")+COUNTIF($E$120,"จีรวัฒน์")+COUNTIF($E$123,"จีรวัฒน์")+COUNTIF($E$126,"จีรวัฒน์")+COUNTIF($E$135,"จีรวัฒน์")+COUNTIF($E$138,"จีรวัฒน์")+COUNTIF($E$141,"จีรวัฒน์")+COUNTIF($J$99,"จีรวัฒน์")+COUNTIF($J$102,"จีรวัฒน์")+COUNTIF($J$111,"จีรวัฒน์")+COUNTIF($J$114,"จีรวัฒน์")+COUNTIF($J$117,"จีรวัฒน์")+COUNTIF($J$120,"จีรวัฒน์")+COUNTIF($J$123,"จีรวัฒน์")+COUNTIF($J$132,"จีรวัฒน์")+COUNTIF($J$135,"จีรวัฒน์")+COUNTIF($J$138,"จีรวัฒน์")+COUNTIF($J$141,"จีรวัฒน์")+COUNTIF($J$144,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="P128" s="7">
+        <f>SUM(M128:O128)</f>
+        <v/>
+      </c>
+      <c r="R128" s="7" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="M128" s="15" t="inlineStr"/>
-      <c r="N128" s="15">
-        <f>COUNTIF($E$98,"จีรวัฒน์")+COUNTIF($E$101,"จีรวัฒน์")+COUNTIF($E$104,"จีรวัฒน์")+COUNTIF($E$113,"จีรวัฒน์")+COUNTIF($E$116,"จีรวัฒน์")+COUNTIF($E$119,"จีรวัฒน์")+COUNTIF($E$122,"จีรวัฒน์")+COUNTIF($E$125,"จีรวัฒน์")+COUNTIF($E$134,"จีรวัฒน์")+COUNTIF($E$137,"จีรวัฒน์")+COUNTIF($E$140,"จีรวัฒน์")+COUNTIF($J$98,"จีรวัฒน์")+COUNTIF($J$101,"จีรวัฒน์")+COUNTIF($J$110,"จีรวัฒน์")+COUNTIF($J$113,"จีรวัฒน์")+COUNTIF($J$116,"จีรวัฒน์")+COUNTIF($J$119,"จีรวัฒน์")+COUNTIF($J$122,"จีรวัฒน์")+COUNTIF($J$131,"จีรวัฒน์")+COUNTIF($J$134,"จีรวัฒน์")+COUNTIF($J$137,"จีรวัฒน์")+COUNTIF($J$140,"จีรวัฒน์")+COUNTIF($J$143,"จีรวัฒน์")</f>
-        <v/>
-      </c>
-      <c r="O128" s="15">
-        <f>COUNTIF($E$99,"จีรวัฒน์")+COUNTIF($E$102,"จีรวัฒน์")+COUNTIF($E$105,"จีรวัฒน์")+COUNTIF($E$114,"จีรวัฒน์")+COUNTIF($E$117,"จีรวัฒน์")+COUNTIF($E$120,"จีรวัฒน์")+COUNTIF($E$123,"จีรวัฒน์")+COUNTIF($E$126,"จีรวัฒน์")+COUNTIF($E$135,"จีรวัฒน์")+COUNTIF($E$138,"จีรวัฒน์")+COUNTIF($E$141,"จีรวัฒน์")+COUNTIF($J$99,"จีรวัฒน์")+COUNTIF($J$102,"จีรวัฒน์")+COUNTIF($J$111,"จีรวัฒน์")+COUNTIF($J$114,"จีรวัฒน์")+COUNTIF($J$117,"จีรวัฒน์")+COUNTIF($J$120,"จีรวัฒน์")+COUNTIF($J$123,"จีรวัฒน์")+COUNTIF($J$132,"จีรวัฒน์")+COUNTIF($J$135,"จีรวัฒน์")+COUNTIF($J$138,"จีรวัฒน์")+COUNTIF($J$141,"จีรวัฒน์")+COUNTIF($J$144,"จีรวัฒน์")</f>
-        <v/>
-      </c>
-      <c r="P128" s="15">
-        <f>SUM(M128:O128)</f>
-        <v/>
-      </c>
-      <c r="R128" s="15" t="inlineStr">
+      <c r="S128" s="7">
+        <f>COUNTIF($E$100,"จีรวัฒน์")+COUNTIF($E$103,"จีรวัฒน์")+COUNTIF($E$106,"จีรวัฒน์")+COUNTIF($E$109,"จีรวัฒน์")+COUNTIF($E$127,"จีรวัฒน์")+COUNTIF($E$130,"จีรวัฒน์")+COUNTIF($J$103,"จีรวัฒน์")+COUNTIF($J$106,"จีรวัฒน์")+COUNTIF($J$124,"จีรวัฒน์")+COUNTIF($J$127,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="T128" s="7">
+        <f>COUNTIF($E$101,"จีรวัฒน์")+COUNTIF($E$104,"จีรวัฒน์")+COUNTIF($E$107,"จีรวัฒน์")+COUNTIF($E$110,"จีรวัฒน์")+COUNTIF($E$128,"จีรวัฒน์")+COUNTIF($E$131,"จีรวัฒน์")+COUNTIF($J$104,"จีรวัฒน์")+COUNTIF($J$107,"จีรวัฒน์")+COUNTIF($J$125,"จีรวัฒน์")+COUNTIF($J$128,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="U128" s="7">
+        <f>COUNTIF($E$102,"จีรวัฒน์")+COUNTIF($E$105,"จีรวัฒน์")+COUNTIF($E$108,"จีรวัฒน์")+COUNTIF($E$111,"จีรวัฒน์")+COUNTIF($E$129,"จีรวัฒน์")+COUNTIF($E$132,"จีรวัฒน์")+COUNTIF($J$105,"จีรวัฒน์")+COUNTIF($J$108,"จีรวัฒน์")+COUNTIF($J$126,"จีรวัฒน์")+COUNTIF($J$129,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="V128" s="7">
+        <f>SUM(S128:U128)</f>
+        <v/>
+      </c>
+      <c r="X128" s="7" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="S128" s="15">
-        <f>COUNTIF($E$106,"จีรวัฒน์")+COUNTIF($E$109,"จีรวัฒน์")+COUNTIF($E$127,"จีรวัฒน์")+COUNTIF($E$130,"จีรวัฒน์")+COUNTIF($J$103,"จีรวัฒน์")+COUNTIF($J$106,"จีรวัฒน์")+COUNTIF($J$124,"จีรวัฒน์")+COUNTIF($J$127,"จีรวัฒน์")</f>
-        <v/>
-      </c>
-      <c r="T128" s="15">
-        <f>COUNTIF($E$107,"จีรวัฒน์")+COUNTIF($E$110,"จีรวัฒน์")+COUNTIF($E$128,"จีรวัฒน์")+COUNTIF($E$131,"จีรวัฒน์")+COUNTIF($J$104,"จีรวัฒน์")+COUNTIF($J$107,"จีรวัฒน์")+COUNTIF($J$125,"จีรวัฒน์")+COUNTIF($J$128,"จีรวัฒน์")</f>
-        <v/>
-      </c>
-      <c r="U128" s="15">
-        <f>COUNTIF($E$108,"จีรวัฒน์")+COUNTIF($E$111,"จีรวัฒน์")+COUNTIF($E$129,"จีรวัฒน์")+COUNTIF($E$132,"จีรวัฒน์")+COUNTIF($J$105,"จีรวัฒน์")+COUNTIF($J$108,"จีรวัฒน์")+COUNTIF($J$126,"จีรวัฒน์")+COUNTIF($J$129,"จีรวัฒน์")</f>
-        <v/>
-      </c>
-      <c r="V128" s="15">
-        <f>SUM(S128:U128)</f>
-        <v/>
-      </c>
-      <c r="X128" s="15" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="Y128" s="15">
+      <c r="Y128" s="7">
         <f>SUM(M128,S128)</f>
         <v/>
       </c>
-      <c r="Z128" s="15">
+      <c r="Z128" s="7">
         <f>SUM(N128,T128)</f>
         <v/>
       </c>
-      <c r="AA128" s="15">
+      <c r="AA128" s="7">
         <f>SUM(O128,U128)</f>
         <v/>
       </c>
-      <c r="AB128" s="15">
+      <c r="AB128" s="7">
         <f>SUM(P128,V128)</f>
         <v/>
       </c>
@@ -6990,19 +7078,19 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C129" s="9" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D129" s="15" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E129" s="16" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+      <c r="C129" s="15" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D129" s="14" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E129" s="8" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="F129" s="5" t="n"/>
@@ -7011,78 +7099,78 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="H129" s="19" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="I129" s="13" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
+      <c r="H129" s="9" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="I129" s="7" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="J129" s="14" t="inlineStr">
         <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="L129" s="10" t="inlineStr">
+        <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="L129" s="14" t="inlineStr">
+      <c r="M129" s="10" t="inlineStr"/>
+      <c r="N129" s="10">
+        <f>COUNTIF($E$98,"สุเมธร์")+COUNTIF($E$113,"สุเมธร์")+COUNTIF($E$116,"สุเมธร์")+COUNTIF($E$119,"สุเมธร์")+COUNTIF($E$122,"สุเมธร์")+COUNTIF($E$125,"สุเมธร์")+COUNTIF($E$134,"สุเมธร์")+COUNTIF($E$137,"สุเมธร์")+COUNTIF($E$140,"สุเมธร์")+COUNTIF($J$98,"สุเมธร์")+COUNTIF($J$101,"สุเมธร์")+COUNTIF($J$110,"สุเมธร์")+COUNTIF($J$113,"สุเมธร์")+COUNTIF($J$116,"สุเมธร์")+COUNTIF($J$119,"สุเมธร์")+COUNTIF($J$122,"สุเมธร์")+COUNTIF($J$131,"สุเมธร์")+COUNTIF($J$134,"สุเมธร์")+COUNTIF($J$137,"สุเมธร์")+COUNTIF($J$140,"สุเมธร์")+COUNTIF($J$143,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="O129" s="10">
+        <f>COUNTIF($E$99,"สุเมธร์")+COUNTIF($E$114,"สุเมธร์")+COUNTIF($E$117,"สุเมธร์")+COUNTIF($E$120,"สุเมธร์")+COUNTIF($E$123,"สุเมธร์")+COUNTIF($E$126,"สุเมธร์")+COUNTIF($E$135,"สุเมธร์")+COUNTIF($E$138,"สุเมธร์")+COUNTIF($E$141,"สุเมธร์")+COUNTIF($J$99,"สุเมธร์")+COUNTIF($J$102,"สุเมธร์")+COUNTIF($J$111,"สุเมธร์")+COUNTIF($J$114,"สุเมธร์")+COUNTIF($J$117,"สุเมธร์")+COUNTIF($J$120,"สุเมธร์")+COUNTIF($J$123,"สุเมธร์")+COUNTIF($J$132,"สุเมธร์")+COUNTIF($J$135,"สุเมธร์")+COUNTIF($J$138,"สุเมธร์")+COUNTIF($J$141,"สุเมธร์")+COUNTIF($J$144,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="P129" s="10">
+        <f>SUM(M129:O129)</f>
+        <v/>
+      </c>
+      <c r="R129" s="10" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="M129" s="14" t="inlineStr"/>
-      <c r="N129" s="14">
-        <f>COUNTIF($E$98,"สุเมธร์")+COUNTIF($E$101,"สุเมธร์")+COUNTIF($E$104,"สุเมธร์")+COUNTIF($E$113,"สุเมธร์")+COUNTIF($E$116,"สุเมธร์")+COUNTIF($E$119,"สุเมธร์")+COUNTIF($E$122,"สุเมธร์")+COUNTIF($E$125,"สุเมธร์")+COUNTIF($E$134,"สุเมธร์")+COUNTIF($E$137,"สุเมธร์")+COUNTIF($E$140,"สุเมธร์")+COUNTIF($J$98,"สุเมธร์")+COUNTIF($J$101,"สุเมธร์")+COUNTIF($J$110,"สุเมธร์")+COUNTIF($J$113,"สุเมธร์")+COUNTIF($J$116,"สุเมธร์")+COUNTIF($J$119,"สุเมธร์")+COUNTIF($J$122,"สุเมธร์")+COUNTIF($J$131,"สุเมธร์")+COUNTIF($J$134,"สุเมธร์")+COUNTIF($J$137,"สุเมธร์")+COUNTIF($J$140,"สุเมธร์")+COUNTIF($J$143,"สุเมธร์")</f>
-        <v/>
-      </c>
-      <c r="O129" s="14">
-        <f>COUNTIF($E$99,"สุเมธร์")+COUNTIF($E$102,"สุเมธร์")+COUNTIF($E$105,"สุเมธร์")+COUNTIF($E$114,"สุเมธร์")+COUNTIF($E$117,"สุเมธร์")+COUNTIF($E$120,"สุเมธร์")+COUNTIF($E$123,"สุเมธร์")+COUNTIF($E$126,"สุเมธร์")+COUNTIF($E$135,"สุเมธร์")+COUNTIF($E$138,"สุเมธร์")+COUNTIF($E$141,"สุเมธร์")+COUNTIF($J$99,"สุเมธร์")+COUNTIF($J$102,"สุเมธร์")+COUNTIF($J$111,"สุเมธร์")+COUNTIF($J$114,"สุเมธร์")+COUNTIF($J$117,"สุเมธร์")+COUNTIF($J$120,"สุเมธร์")+COUNTIF($J$123,"สุเมธร์")+COUNTIF($J$132,"สุเมธร์")+COUNTIF($J$135,"สุเมธร์")+COUNTIF($J$138,"สุเมธร์")+COUNTIF($J$141,"สุเมธร์")+COUNTIF($J$144,"สุเมธร์")</f>
-        <v/>
-      </c>
-      <c r="P129" s="14">
-        <f>SUM(M129:O129)</f>
-        <v/>
-      </c>
-      <c r="R129" s="14" t="inlineStr">
+      <c r="S129" s="10">
+        <f>COUNTIF($E$100,"สุเมธร์")+COUNTIF($E$103,"สุเมธร์")+COUNTIF($E$106,"สุเมธร์")+COUNTIF($E$109,"สุเมธร์")+COUNTIF($E$127,"สุเมธร์")+COUNTIF($E$130,"สุเมธร์")+COUNTIF($J$103,"สุเมธร์")+COUNTIF($J$106,"สุเมธร์")+COUNTIF($J$124,"สุเมธร์")+COUNTIF($J$127,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="T129" s="10">
+        <f>COUNTIF($E$101,"สุเมธร์")+COUNTIF($E$104,"สุเมธร์")+COUNTIF($E$107,"สุเมธร์")+COUNTIF($E$110,"สุเมธร์")+COUNTIF($E$128,"สุเมธร์")+COUNTIF($E$131,"สุเมธร์")+COUNTIF($J$104,"สุเมธร์")+COUNTIF($J$107,"สุเมธร์")+COUNTIF($J$125,"สุเมธร์")+COUNTIF($J$128,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="U129" s="10">
+        <f>COUNTIF($E$102,"สุเมธร์")+COUNTIF($E$105,"สุเมธร์")+COUNTIF($E$108,"สุเมธร์")+COUNTIF($E$111,"สุเมธร์")+COUNTIF($E$129,"สุเมธร์")+COUNTIF($E$132,"สุเมธร์")+COUNTIF($J$105,"สุเมธร์")+COUNTIF($J$108,"สุเมธร์")+COUNTIF($J$126,"สุเมธร์")+COUNTIF($J$129,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="V129" s="10">
+        <f>SUM(S129:U129)</f>
+        <v/>
+      </c>
+      <c r="X129" s="10" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="S129" s="14">
-        <f>COUNTIF($E$106,"สุเมธร์")+COUNTIF($E$109,"สุเมธร์")+COUNTIF($E$127,"สุเมธร์")+COUNTIF($E$130,"สุเมธร์")+COUNTIF($J$103,"สุเมธร์")+COUNTIF($J$106,"สุเมธร์")+COUNTIF($J$124,"สุเมธร์")+COUNTIF($J$127,"สุเมธร์")</f>
-        <v/>
-      </c>
-      <c r="T129" s="14">
-        <f>COUNTIF($E$107,"สุเมธร์")+COUNTIF($E$110,"สุเมธร์")+COUNTIF($E$128,"สุเมธร์")+COUNTIF($E$131,"สุเมธร์")+COUNTIF($J$104,"สุเมธร์")+COUNTIF($J$107,"สุเมธร์")+COUNTIF($J$125,"สุเมธร์")+COUNTIF($J$128,"สุเมธร์")</f>
-        <v/>
-      </c>
-      <c r="U129" s="14">
-        <f>COUNTIF($E$108,"สุเมธร์")+COUNTIF($E$111,"สุเมธร์")+COUNTIF($E$129,"สุเมธร์")+COUNTIF($E$132,"สุเมธร์")+COUNTIF($J$105,"สุเมธร์")+COUNTIF($J$108,"สุเมธร์")+COUNTIF($J$126,"สุเมธร์")+COUNTIF($J$129,"สุเมธร์")</f>
-        <v/>
-      </c>
-      <c r="V129" s="14">
-        <f>SUM(S129:U129)</f>
-        <v/>
-      </c>
-      <c r="X129" s="14" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="Y129" s="14">
+      <c r="Y129" s="10">
         <f>SUM(M129,S129)</f>
         <v/>
       </c>
-      <c r="Z129" s="14">
+      <c r="Z129" s="10">
         <f>SUM(N129,T129)</f>
         <v/>
       </c>
-      <c r="AA129" s="14">
+      <c r="AA129" s="10">
         <f>SUM(O129,U129)</f>
         <v/>
       </c>
-      <c r="AB129" s="14">
+      <c r="AB129" s="10">
         <f>SUM(P129,V129)</f>
         <v/>
       </c>
@@ -7098,83 +7186,83 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C130" s="18" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="D130" s="12" t="inlineStr">
+      <c r="C130" s="12" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D130" s="17" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E130" s="7" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="F130" s="1" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L130" s="19" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="E130" s="8" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="F130" s="1" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="L130" s="12" t="inlineStr">
+      <c r="M130" s="19" t="inlineStr"/>
+      <c r="N130" s="19">
+        <f>COUNTIF($E$98,"นที")+COUNTIF($E$113,"นที")+COUNTIF($E$116,"นที")+COUNTIF($E$119,"นที")+COUNTIF($E$122,"นที")+COUNTIF($E$125,"นที")+COUNTIF($E$134,"นที")+COUNTIF($E$137,"นที")+COUNTIF($E$140,"นที")+COUNTIF($J$98,"นที")+COUNTIF($J$101,"นที")+COUNTIF($J$110,"นที")+COUNTIF($J$113,"นที")+COUNTIF($J$116,"นที")+COUNTIF($J$119,"นที")+COUNTIF($J$122,"นที")+COUNTIF($J$131,"นที")+COUNTIF($J$134,"นที")+COUNTIF($J$137,"นที")+COUNTIF($J$140,"นที")+COUNTIF($J$143,"นที")</f>
+        <v/>
+      </c>
+      <c r="O130" s="19">
+        <f>COUNTIF($E$99,"นที")+COUNTIF($E$114,"นที")+COUNTIF($E$117,"นที")+COUNTIF($E$120,"นที")+COUNTIF($E$123,"นที")+COUNTIF($E$126,"นที")+COUNTIF($E$135,"นที")+COUNTIF($E$138,"นที")+COUNTIF($E$141,"นที")+COUNTIF($J$99,"นที")+COUNTIF($J$102,"นที")+COUNTIF($J$111,"นที")+COUNTIF($J$114,"นที")+COUNTIF($J$117,"นที")+COUNTIF($J$120,"นที")+COUNTIF($J$123,"นที")+COUNTIF($J$132,"นที")+COUNTIF($J$135,"นที")+COUNTIF($J$138,"นที")+COUNTIF($J$141,"นที")+COUNTIF($J$144,"นที")</f>
+        <v/>
+      </c>
+      <c r="P130" s="19">
+        <f>SUM(M130:O130)</f>
+        <v/>
+      </c>
+      <c r="R130" s="19" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="M130" s="12" t="inlineStr"/>
-      <c r="N130" s="12">
-        <f>COUNTIF($E$98,"นที")+COUNTIF($E$101,"นที")+COUNTIF($E$104,"นที")+COUNTIF($E$113,"นที")+COUNTIF($E$116,"นที")+COUNTIF($E$119,"นที")+COUNTIF($E$122,"นที")+COUNTIF($E$125,"นที")+COUNTIF($E$134,"นที")+COUNTIF($E$137,"นที")+COUNTIF($E$140,"นที")+COUNTIF($J$98,"นที")+COUNTIF($J$101,"นที")+COUNTIF($J$110,"นที")+COUNTIF($J$113,"นที")+COUNTIF($J$116,"นที")+COUNTIF($J$119,"นที")+COUNTIF($J$122,"นที")+COUNTIF($J$131,"นที")+COUNTIF($J$134,"นที")+COUNTIF($J$137,"นที")+COUNTIF($J$140,"นที")+COUNTIF($J$143,"นที")</f>
-        <v/>
-      </c>
-      <c r="O130" s="12">
-        <f>COUNTIF($E$99,"นที")+COUNTIF($E$102,"นที")+COUNTIF($E$105,"นที")+COUNTIF($E$114,"นที")+COUNTIF($E$117,"นที")+COUNTIF($E$120,"นที")+COUNTIF($E$123,"นที")+COUNTIF($E$126,"นที")+COUNTIF($E$135,"นที")+COUNTIF($E$138,"นที")+COUNTIF($E$141,"นที")+COUNTIF($J$99,"นที")+COUNTIF($J$102,"นที")+COUNTIF($J$111,"นที")+COUNTIF($J$114,"นที")+COUNTIF($J$117,"นที")+COUNTIF($J$120,"นที")+COUNTIF($J$123,"นที")+COUNTIF($J$132,"นที")+COUNTIF($J$135,"นที")+COUNTIF($J$138,"นที")+COUNTIF($J$141,"นที")+COUNTIF($J$144,"นที")</f>
-        <v/>
-      </c>
-      <c r="P130" s="12">
-        <f>SUM(M130:O130)</f>
-        <v/>
-      </c>
-      <c r="R130" s="12" t="inlineStr">
+      <c r="S130" s="19">
+        <f>COUNTIF($E$100,"นที")+COUNTIF($E$103,"นที")+COUNTIF($E$106,"นที")+COUNTIF($E$109,"นที")+COUNTIF($E$127,"นที")+COUNTIF($E$130,"นที")+COUNTIF($J$103,"นที")+COUNTIF($J$106,"นที")+COUNTIF($J$124,"นที")+COUNTIF($J$127,"นที")</f>
+        <v/>
+      </c>
+      <c r="T130" s="19">
+        <f>COUNTIF($E$101,"นที")+COUNTIF($E$104,"นที")+COUNTIF($E$107,"นที")+COUNTIF($E$110,"นที")+COUNTIF($E$128,"นที")+COUNTIF($E$131,"นที")+COUNTIF($J$104,"นที")+COUNTIF($J$107,"นที")+COUNTIF($J$125,"นที")+COUNTIF($J$128,"นที")</f>
+        <v/>
+      </c>
+      <c r="U130" s="19">
+        <f>COUNTIF($E$102,"นที")+COUNTIF($E$105,"นที")+COUNTIF($E$108,"นที")+COUNTIF($E$111,"นที")+COUNTIF($E$129,"นที")+COUNTIF($E$132,"นที")+COUNTIF($J$105,"นที")+COUNTIF($J$108,"นที")+COUNTIF($J$126,"นที")+COUNTIF($J$129,"นที")</f>
+        <v/>
+      </c>
+      <c r="V130" s="19">
+        <f>SUM(S130:U130)</f>
+        <v/>
+      </c>
+      <c r="X130" s="19" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="S130" s="12">
-        <f>COUNTIF($E$106,"นที")+COUNTIF($E$109,"นที")+COUNTIF($E$127,"นที")+COUNTIF($E$130,"นที")+COUNTIF($J$103,"นที")+COUNTIF($J$106,"นที")+COUNTIF($J$124,"นที")+COUNTIF($J$127,"นที")</f>
-        <v/>
-      </c>
-      <c r="T130" s="12">
-        <f>COUNTIF($E$107,"นที")+COUNTIF($E$110,"นที")+COUNTIF($E$128,"นที")+COUNTIF($E$131,"นที")+COUNTIF($J$104,"นที")+COUNTIF($J$107,"นที")+COUNTIF($J$125,"นที")+COUNTIF($J$128,"นที")</f>
-        <v/>
-      </c>
-      <c r="U130" s="12">
-        <f>COUNTIF($E$108,"นที")+COUNTIF($E$111,"นที")+COUNTIF($E$129,"นที")+COUNTIF($E$132,"นที")+COUNTIF($J$105,"นที")+COUNTIF($J$108,"นที")+COUNTIF($J$126,"นที")+COUNTIF($J$129,"นที")</f>
-        <v/>
-      </c>
-      <c r="V130" s="12">
-        <f>SUM(S130:U130)</f>
-        <v/>
-      </c>
-      <c r="X130" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="Y130" s="12">
+      <c r="Y130" s="19">
         <f>SUM(M130,S130)</f>
         <v/>
       </c>
-      <c r="Z130" s="12">
+      <c r="Z130" s="19">
         <f>SUM(N130,T130)</f>
         <v/>
       </c>
-      <c r="AA130" s="12">
+      <c r="AA130" s="19">
         <f>SUM(O130,U130)</f>
         <v/>
       </c>
-      <c r="AB130" s="12">
+      <c r="AB130" s="19">
         <f>SUM(P130,V130)</f>
         <v/>
       </c>
@@ -7186,39 +7274,39 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C131" s="17" t="inlineStr">
+      <c r="C131" s="15" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D131" s="7" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E131" s="16" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="G131" s="1" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H131" s="18" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="I131" s="19" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="J131" s="12" t="inlineStr">
         <is>
           <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D131" s="10" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E131" s="19" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="G131" s="1" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H131" s="17" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="I131" s="16" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="J131" s="13" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
         </is>
       </c>
     </row>
@@ -7229,19 +7317,19 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C132" s="17" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D132" s="10" t="inlineStr">
+      <c r="C132" s="9" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D132" s="13" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="E132" s="19" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="G132" s="1" t="inlineStr">
@@ -7251,17 +7339,17 @@
       </c>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="I132" s="11" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="J132" s="10" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="I132" s="19" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="J132" s="11" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
     </row>
@@ -7288,39 +7376,39 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C134" s="16" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D134" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E134" s="15" t="inlineStr">
+      <c r="C134" s="18" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D134" s="17" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E134" s="10" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="G134" s="1" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H134" s="15" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="I134" s="7" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="G134" s="1" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H134" s="6" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="I134" s="18" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="J134" s="10" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+      <c r="J134" s="8" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="M134" s="1" t="inlineStr">
@@ -7350,59 +7438,59 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C135" s="16" t="inlineStr">
+      <c r="C135" s="18" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D135" s="14" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E135" s="9" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="D135" s="7" t="inlineStr">
+      <c r="G135" s="1" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H135" s="12" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="I135" s="10" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="J135" s="14" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="E135" s="15" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="G135" s="1" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H135" s="17" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="I135" s="6" t="inlineStr">
+      <c r="L135" s="16" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="J135" s="8" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="L135" s="6" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="M135" s="6">
+      <c r="M135" s="16">
         <f>SUM(S100,S117)</f>
         <v/>
       </c>
-      <c r="N135" s="6">
+      <c r="N135" s="16">
         <f>SUM(V100,V117)</f>
         <v/>
       </c>
-      <c r="O135" s="6">
+      <c r="O135" s="16">
         <f>SUM(P100,P117)</f>
         <v/>
       </c>
-      <c r="P135" s="6">
+      <c r="P135" s="16">
         <f>SUM(O135,N135)</f>
         <v/>
       </c>
@@ -7418,24 +7506,24 @@
           <t>29</t>
         </is>
       </c>
-      <c r="L136" s="11" t="inlineStr">
+      <c r="L136" s="8" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="M136" s="11">
+      <c r="M136" s="8">
         <f>SUM(S101,S118)</f>
         <v/>
       </c>
-      <c r="N136" s="11">
+      <c r="N136" s="8">
         <f>SUM(V101,V118)</f>
         <v/>
       </c>
-      <c r="O136" s="11">
+      <c r="O136" s="8">
         <f>SUM(P101,P118)</f>
         <v/>
       </c>
-      <c r="P136" s="11">
+      <c r="P136" s="8">
         <f>SUM(O136,N136)</f>
         <v/>
       </c>
@@ -7446,59 +7534,59 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C137" s="8" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D137" s="12" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E137" s="9" t="inlineStr">
+      <c r="C137" s="12" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D137" s="14" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E137" s="7" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="G137" s="1" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H137" s="8" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="I137" s="11" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="G137" s="1" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H137" s="8" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="I137" s="9" t="inlineStr">
+      <c r="J137" s="7" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="L137" s="11" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="J137" s="18" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="L137" s="9" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="M137" s="9">
+      <c r="M137" s="11">
         <f>SUM(S102,S119)</f>
         <v/>
       </c>
-      <c r="N137" s="9">
+      <c r="N137" s="11">
         <f>SUM(V102,V119)</f>
         <v/>
       </c>
-      <c r="O137" s="9">
+      <c r="O137" s="11">
         <f>SUM(P102,P119)</f>
         <v/>
       </c>
-      <c r="P137" s="9">
+      <c r="P137" s="11">
         <f>SUM(O137,N137)</f>
         <v/>
       </c>
@@ -7509,59 +7597,59 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C138" s="8" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D138" s="12" t="inlineStr">
+      <c r="C138" s="12" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D138" s="7" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E138" s="6" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="G138" s="1" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H138" s="15" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="I138" s="16" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="J138" s="19" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="E138" s="9" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="G138" s="1" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H138" s="19" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="I138" s="9" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="J138" s="11" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="L138" s="16" t="inlineStr">
+      <c r="L138" s="9" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="M138" s="16">
+      <c r="M138" s="9">
         <f>SUM(S103,S120)</f>
         <v/>
       </c>
-      <c r="N138" s="16">
+      <c r="N138" s="9">
         <f>SUM(V103,V120)</f>
         <v/>
       </c>
-      <c r="O138" s="16">
+      <c r="O138" s="9">
         <f>SUM(P103,P120)</f>
         <v/>
       </c>
-      <c r="P138" s="16">
+      <c r="P138" s="9">
         <f>SUM(O138,N138)</f>
         <v/>
       </c>
@@ -7577,24 +7665,24 @@
           <t>30</t>
         </is>
       </c>
-      <c r="L139" s="8" t="inlineStr">
+      <c r="L139" s="18" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="M139" s="8">
+      <c r="M139" s="18">
         <f>SUM(S104,S121)</f>
         <v/>
       </c>
-      <c r="N139" s="8">
+      <c r="N139" s="18">
         <f>SUM(V104,V121)</f>
         <v/>
       </c>
-      <c r="O139" s="8">
+      <c r="O139" s="18">
         <f>SUM(P104,P121)</f>
         <v/>
       </c>
-      <c r="P139" s="8">
+      <c r="P139" s="18">
         <f>SUM(O139,N139)</f>
         <v/>
       </c>
@@ -7605,59 +7693,59 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C140" s="19" t="inlineStr">
+      <c r="C140" s="8" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D140" s="10" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E140" s="6" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="G140" s="1" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H140" s="6" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="I140" s="11" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="J140" s="17" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="L140" s="15" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="D140" s="14" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E140" s="18" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="G140" s="1" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H140" s="6" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="I140" s="11" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="J140" s="16" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="L140" s="19" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="M140" s="19">
+      <c r="M140" s="15">
         <f>SUM(S105,S122)</f>
         <v/>
       </c>
-      <c r="N140" s="19">
+      <c r="N140" s="15">
         <f>SUM(V105,V122)</f>
         <v/>
       </c>
-      <c r="O140" s="19">
+      <c r="O140" s="15">
         <f>SUM(P105,P122)</f>
         <v/>
       </c>
-      <c r="P140" s="19">
+      <c r="P140" s="15">
         <f>SUM(O140,N140)</f>
         <v/>
       </c>
@@ -7668,59 +7756,59 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C141" s="19" t="inlineStr">
+      <c r="C141" s="8" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D141" s="14" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E141" s="15" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="D141" s="14" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E141" s="18" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
       <c r="G141" s="1" t="inlineStr">
         <is>
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="H141" s="16" t="inlineStr">
+      <c r="H141" s="9" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
       <c r="I141" s="8" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="J141" s="6" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="L141" s="17" t="inlineStr">
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="J141" s="17" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="L141" s="12" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="M141" s="17">
+      <c r="M141" s="12">
         <f>SUM(S106,S123)</f>
         <v/>
       </c>
-      <c r="N141" s="17">
+      <c r="N141" s="12">
         <f>SUM(V106,V123)</f>
         <v/>
       </c>
-      <c r="O141" s="17">
+      <c r="O141" s="12">
         <f>SUM(P106,P123)</f>
         <v/>
       </c>
-      <c r="P141" s="17">
+      <c r="P141" s="12">
         <f>SUM(O141,N141)</f>
         <v/>
       </c>
@@ -7731,24 +7819,24 @@
           <t>31</t>
         </is>
       </c>
-      <c r="L142" s="18" t="inlineStr">
+      <c r="L142" s="6" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="M142" s="18">
+      <c r="M142" s="6">
         <f>SUM(S107,S124)</f>
         <v/>
       </c>
-      <c r="N142" s="18">
+      <c r="N142" s="6">
         <f>SUM(V107,V124)</f>
         <v/>
       </c>
-      <c r="O142" s="18">
+      <c r="O142" s="6">
         <f>SUM(P107,P124)</f>
         <v/>
       </c>
-      <c r="P142" s="18">
+      <c r="P142" s="6">
         <f>SUM(O142,N142)</f>
         <v/>
       </c>
@@ -7759,39 +7847,39 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="H143" s="8" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="I143" s="11" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
+      <c r="H143" s="16" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="I143" s="12" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="J143" s="9" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="L143" s="10" t="inlineStr">
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="L143" s="13" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="M143" s="10">
+      <c r="M143" s="13">
         <f>SUM(S108,S125)</f>
         <v/>
       </c>
-      <c r="N143" s="10">
+      <c r="N143" s="13">
         <f>SUM(V108,V125)</f>
         <v/>
       </c>
-      <c r="O143" s="10">
+      <c r="O143" s="13">
         <f>SUM(P108,P125)</f>
         <v/>
       </c>
-      <c r="P143" s="10">
+      <c r="P143" s="13">
         <f>SUM(O143,N143)</f>
         <v/>
       </c>
@@ -7802,131 +7890,131 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="H144" s="9" t="inlineStr">
+      <c r="H144" s="11" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="I144" s="17" t="inlineStr">
+      <c r="I144" s="9" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="J144" s="12" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="J144" s="13" t="inlineStr">
+      <c r="L144" s="14" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="M144" s="14">
+        <f>SUM(S109,S126)</f>
+        <v/>
+      </c>
+      <c r="N144" s="14">
+        <f>SUM(V109,V126)</f>
+        <v/>
+      </c>
+      <c r="O144" s="14">
+        <f>SUM(P109,P126)</f>
+        <v/>
+      </c>
+      <c r="P144" s="14">
+        <f>SUM(O144,N144)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145">
+      <c r="L145" s="17" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="L144" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="M144" s="7">
-        <f>SUM(S109,S126)</f>
-        <v/>
-      </c>
-      <c r="N144" s="7">
-        <f>SUM(V109,V126)</f>
-        <v/>
-      </c>
-      <c r="O144" s="7">
-        <f>SUM(P109,P126)</f>
-        <v/>
-      </c>
-      <c r="P144" s="7">
-        <f>SUM(O144,N144)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="145">
-      <c r="L145" s="13" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="M145" s="13">
+      <c r="M145" s="17">
         <f>SUM(S110,S127)</f>
         <v/>
       </c>
-      <c r="N145" s="13">
+      <c r="N145" s="17">
         <f>SUM(V110,V127)</f>
         <v/>
       </c>
-      <c r="O145" s="13">
+      <c r="O145" s="17">
         <f>SUM(P110,P127)</f>
         <v/>
       </c>
-      <c r="P145" s="13">
+      <c r="P145" s="17">
         <f>SUM(O145,N145)</f>
         <v/>
       </c>
     </row>
     <row r="146">
-      <c r="L146" s="15" t="inlineStr">
+      <c r="L146" s="7" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="M146" s="15">
+      <c r="M146" s="7">
         <f>SUM(S111,S128)</f>
         <v/>
       </c>
-      <c r="N146" s="15">
+      <c r="N146" s="7">
         <f>SUM(V111,V128)</f>
         <v/>
       </c>
-      <c r="O146" s="15">
+      <c r="O146" s="7">
         <f>SUM(P111,P128)</f>
         <v/>
       </c>
-      <c r="P146" s="15">
+      <c r="P146" s="7">
         <f>SUM(O146,N146)</f>
         <v/>
       </c>
     </row>
     <row r="147">
-      <c r="L147" s="14" t="inlineStr">
+      <c r="L147" s="10" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="M147" s="14">
+      <c r="M147" s="10">
         <f>SUM(S112,S129)</f>
         <v/>
       </c>
-      <c r="N147" s="14">
+      <c r="N147" s="10">
         <f>SUM(V112,V129)</f>
         <v/>
       </c>
-      <c r="O147" s="14">
+      <c r="O147" s="10">
         <f>SUM(P112,P129)</f>
         <v/>
       </c>
-      <c r="P147" s="14">
+      <c r="P147" s="10">
         <f>SUM(O147,N147)</f>
         <v/>
       </c>
     </row>
     <row r="148">
-      <c r="L148" s="12" t="inlineStr">
+      <c r="L148" s="19" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="M148" s="12">
+      <c r="M148" s="19">
         <f>SUM(S113,S130)</f>
         <v/>
       </c>
-      <c r="N148" s="12">
+      <c r="N148" s="19">
         <f>SUM(V113,V130)</f>
         <v/>
       </c>
-      <c r="O148" s="12">
+      <c r="O148" s="19">
         <f>SUM(P113,P130)</f>
         <v/>
       </c>
-      <c r="P148" s="12">
+      <c r="P148" s="19">
         <f>SUM(O148,N148)</f>
         <v/>
       </c>

--- a/sample3.xlsx
+++ b/sample3.xlsx
@@ -53,8 +53,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF7C80"/>
-        <bgColor rgb="00FF7C80"/>
+        <fgColor rgb="00D99594"/>
+        <bgColor rgb="00D99594"/>
       </patternFill>
     </fill>
     <fill>
@@ -65,26 +65,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0092D050"/>
-        <bgColor rgb="0092D050"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D99594"/>
-        <bgColor rgb="00D99594"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FF6B6B"/>
         <bgColor rgb="00FF6B6B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFC000"/>
-        <bgColor rgb="00FFC000"/>
       </patternFill>
     </fill>
     <fill>
@@ -101,20 +83,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000B050"/>
-        <bgColor rgb="0000B050"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00548DD4"/>
-        <bgColor rgb="00548DD4"/>
+        <fgColor rgb="0092D050"/>
+        <bgColor rgb="0092D050"/>
       </patternFill>
     </fill>
     <fill>
@@ -133,6 +103,36 @@
       <patternFill patternType="solid">
         <fgColor rgb="0000FFCC"/>
         <bgColor rgb="0000FFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC000"/>
+        <bgColor rgb="00FFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000B050"/>
+        <bgColor rgb="0000B050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00548DD4"/>
+        <bgColor rgb="00548DD4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF7C80"/>
+        <bgColor rgb="00FF7C80"/>
       </patternFill>
     </fill>
   </fills>
@@ -159,22 +159,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -588,32 +588,32 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>วินัย</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -693,29 +693,29 @@
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="L3" s="2" t="inlineStr">
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="S3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U3" s="1" t="n">
         <v>1</v>
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA3" s="1" t="n">
         <v>4</v>
@@ -783,17 +783,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="S4" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
@@ -841,16 +841,16 @@
         </is>
       </c>
       <c r="Y4" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="1" t="n">
         <v>4</v>
       </c>
       <c r="AA4" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB4" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -862,37 +862,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -956,37 +956,37 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="I6" s="3" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="S6" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6" s="1" t="n">
         <v>1</v>
@@ -1021,7 +1021,7 @@
         <v>2</v>
       </c>
       <c r="V6" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X6" s="2" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="Y6" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z6" s="1" t="n">
         <v>4</v>
@@ -1038,7 +1038,7 @@
         <v>5</v>
       </c>
       <c r="AB6" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -1054,34 +1054,34 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>18*</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>18*</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
           <t>นที</t>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="F8" s="5" t="n"/>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
-          <t>นที</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1213,13 +1213,13 @@
         <v>1</v>
       </c>
       <c r="T8" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="V8" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X8" s="2" t="inlineStr">
         <is>
@@ -1230,13 +1230,13 @@
         <v>1</v>
       </c>
       <c r="Z8" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA8" s="1" t="n">
         <v>4</v>
       </c>
       <c r="AB8" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1248,17 +1248,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="F9" s="5" t="n"/>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="I9" s="3" t="inlineStr">
@@ -1277,9 +1277,9 @@
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1305,16 +1305,16 @@
         </is>
       </c>
       <c r="S9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="T9" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="U9" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V9" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X9" s="2" t="inlineStr">
         <is>
@@ -1322,16 +1322,16 @@
         </is>
       </c>
       <c r="Y9" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA9" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB9" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -1347,42 +1347,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>19*</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t>19*</t>
-        </is>
-      </c>
-      <c r="G10" s="4" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>วินัย</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1411,30 +1411,30 @@
         <v>1</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="V10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X10" s="2" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="Y10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="1" t="n">
         <v>4</v>
-      </c>
-      <c r="X10" s="2" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="Y10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="1" t="n">
-        <v>5</v>
       </c>
       <c r="AA10" s="1" t="n">
         <v>4</v>
       </c>
       <c r="AB10" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="F11" s="5" t="n"/>
@@ -1467,17 +1467,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="L11" s="3" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="F12" s="5" t="n"/>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="I12" s="3" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="L12" s="3" t="inlineStr">
@@ -1601,10 +1601,10 @@
         <v>2</v>
       </c>
       <c r="T12" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U12" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V12" s="1" t="n">
         <v>5</v>
@@ -1618,10 +1618,10 @@
         <v>2</v>
       </c>
       <c r="Z12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="1" t="n">
         <v>4</v>
-      </c>
-      <c r="AA12" s="1" t="n">
-        <v>5</v>
       </c>
       <c r="AB12" s="1" t="n">
         <v>11</v>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>วินัย</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -1648,9 +1648,9 @@
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="F13" s="1" t="inlineStr">
@@ -1684,10 +1684,10 @@
         <v>2</v>
       </c>
       <c r="T13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="U13" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="V13" s="1" t="n">
         <v>5</v>
@@ -1701,10 +1701,10 @@
         <v>2</v>
       </c>
       <c r="Z13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA13" s="1" t="n">
         <v>5</v>
-      </c>
-      <c r="AA13" s="1" t="n">
-        <v>4</v>
       </c>
       <c r="AB13" s="1" t="n">
         <v>11</v>
@@ -1719,37 +1719,37 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="G14" s="1" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -1821,9 +1821,9 @@
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1969,19 +1969,19 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
           <t>16:00-24:00</t>
@@ -1994,12 +1994,12 @@
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
     </row>
@@ -2016,12 +2016,12 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
@@ -2031,12 +2031,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2140,37 +2140,37 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="G20" s="1" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="G20" s="1" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>นที</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
@@ -2202,10 +2202,10 @@
         <v>1</v>
       </c>
       <c r="U20" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X20" s="2" t="inlineStr">
         <is>
@@ -2219,10 +2219,10 @@
         <v>2</v>
       </c>
       <c r="AA20" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB20" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -2233,17 +2233,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="I21" s="3" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
@@ -2289,7 +2289,7 @@
         </is>
       </c>
       <c r="S21" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" s="1" t="n">
         <v>1</v>
@@ -2298,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="V21" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X21" s="2" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="Y21" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21" s="1" t="n">
         <v>3</v>
@@ -2315,7 +2315,7 @@
         <v>2</v>
       </c>
       <c r="AB21" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>นที</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
@@ -2409,17 +2409,17 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>วินัย</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="J23" s="3" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
@@ -2431,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="N23" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O23" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P23" s="1" t="n">
         <v>3</v>
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="S23" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" s="1" t="n">
         <v>1</v>
@@ -2454,24 +2454,24 @@
         <v>1</v>
       </c>
       <c r="V23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X23" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="Y23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="X23" s="2" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="Y23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="1" t="n">
+      <c r="AA23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AA23" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="AB23" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
@@ -2502,17 +2502,17 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="N24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="O24" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="P24" s="1" t="n">
         <v>3</v>
@@ -2558,10 +2558,10 @@
         <v>1</v>
       </c>
       <c r="Z24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="1" t="n">
         <v>3</v>
-      </c>
-      <c r="AA24" s="1" t="n">
-        <v>2</v>
       </c>
       <c r="AB24" s="1" t="n">
         <v>6</v>
@@ -2638,37 +2638,37 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="G26" s="1" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="I26" s="3" t="inlineStr">
+        <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="G26" s="1" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="I26" s="3" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
@@ -2697,10 +2697,10 @@
         <v>1</v>
       </c>
       <c r="T26" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" s="1" t="n">
         <v>2</v>
@@ -2714,10 +2714,10 @@
         <v>1</v>
       </c>
       <c r="Z26" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA26" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB26" s="1" t="n">
         <v>5</v>
@@ -2731,17 +2731,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="J27" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
@@ -2834,17 +2834,17 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
           <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="L28" s="3" t="inlineStr">
@@ -2856,10 +2856,10 @@
         <v>0</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O28" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P28" s="1" t="n">
         <v>3</v>
@@ -2870,13 +2870,13 @@
         </is>
       </c>
       <c r="S28" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="U28" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" s="1" t="n">
         <v>1</v>
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="Y28" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA28" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB28" s="1" t="n">
         <v>4</v>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -2915,9 +2915,9 @@
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="F29" s="5" t="n"/>
@@ -2928,17 +2928,17 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="L29" s="3" t="inlineStr">
@@ -2950,10 +2950,10 @@
         <v>0</v>
       </c>
       <c r="N29" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O29" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P29" s="1" t="n">
         <v>3</v>
@@ -2967,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="T29" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="1" t="n">
         <v>1</v>
       </c>
       <c r="V29" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X29" s="3" t="inlineStr">
         <is>
@@ -2984,13 +2984,13 @@
         <v>0</v>
       </c>
       <c r="Z29" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA29" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB29" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -3001,12 +3001,12 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>นที</t>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="I30" s="3" t="inlineStr">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="L30" s="3" t="inlineStr">
@@ -3044,10 +3044,10 @@
         <v>0</v>
       </c>
       <c r="N30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="O30" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="P30" s="1" t="n">
         <v>3</v>
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="S30" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" s="1" t="n">
         <v>1</v>
@@ -3067,24 +3067,24 @@
         <v>0</v>
       </c>
       <c r="V30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X30" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="Y30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="X30" s="3" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="Y30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="AA30" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB30" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -3100,42 +3100,42 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E31" s="3" t="inlineStr">
+      <c r="F31" s="4" t="inlineStr">
+        <is>
+          <t>26*</t>
+        </is>
+      </c>
+      <c r="G31" s="4" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="I31" s="3" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
-        <is>
-          <t>26*</t>
-        </is>
-      </c>
-      <c r="G31" s="4" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
+      <c r="J31" s="2" t="inlineStr">
         <is>
           <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="I31" s="3" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
         </is>
       </c>
       <c r="L31" s="3" t="inlineStr">
@@ -3147,10 +3147,10 @@
         <v>0</v>
       </c>
       <c r="N31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="O31" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="P31" s="1" t="n">
         <v>3</v>
@@ -3167,10 +3167,10 @@
         <v>0</v>
       </c>
       <c r="U31" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X31" s="3" t="inlineStr">
         <is>
@@ -3181,13 +3181,13 @@
         <v>1</v>
       </c>
       <c r="Z31" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA31" s="1" t="n">
         <v>2</v>
       </c>
       <c r="AB31" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -3199,17 +3199,17 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>วินัย</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="F32" s="5" t="n"/>
@@ -3220,17 +3220,17 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="I32" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
           <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="I32" s="3" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
         </is>
       </c>
       <c r="L32" s="3" t="inlineStr">
@@ -3294,17 +3294,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="F33" s="5" t="n"/>
@@ -3315,17 +3315,17 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="J33" s="3" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="L33" s="3" t="inlineStr">
@@ -3393,17 +3393,17 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>วินัย</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="F34" s="1" t="inlineStr">
@@ -3421,17 +3421,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
@@ -3441,12 +3441,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t>นที</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -3472,9 +3472,9 @@
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="E36" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
@@ -3484,17 +3484,17 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="I36" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
           <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="I36" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
         </is>
       </c>
       <c r="O36" s="1" t="inlineStr">
@@ -3543,55 +3543,55 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="D38" s="3" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E38" s="3" t="inlineStr">
+      <c r="G38" s="1" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="I38" s="3" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="J38" s="3" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="I38" s="3" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="M38" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N38" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O38" s="1" t="n">
         <v>9</v>
       </c>
       <c r="P38" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
@@ -3602,19 +3602,19 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="D39" s="3" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
           <t>24:00-08:00</t>
@@ -3622,17 +3622,17 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>วินัย</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="I39" s="3" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
@@ -3644,13 +3644,13 @@
         <v>2</v>
       </c>
       <c r="N39" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O39" s="1" t="n">
         <v>9</v>
       </c>
       <c r="P39" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -3690,7 +3690,7 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>วินัย</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -3698,9 +3698,9 @@
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="E41" s="3" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="G41" s="1" t="inlineStr">
@@ -3710,17 +3710,17 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="J41" s="3" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
@@ -3749,37 +3749,37 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="G42" s="1" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="D42" s="3" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="G42" s="1" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
+      <c r="J42" s="2" t="inlineStr">
         <is>
           <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>นที</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
@@ -3820,13 +3820,13 @@
         <v>2</v>
       </c>
       <c r="N43" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O43" s="1" t="n">
         <v>9</v>
       </c>
       <c r="P43" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -3837,55 +3837,55 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="G44" s="1" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="D44" s="3" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="G44" s="1" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="J44" s="3" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
       <c r="M44" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N44" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O44" s="1" t="n">
         <v>9</v>
       </c>
       <c r="P44" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -3896,17 +3896,17 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="G45" s="1" t="inlineStr">
@@ -3916,17 +3916,17 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="J45" s="3" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
@@ -3938,13 +3938,13 @@
         <v>2</v>
       </c>
       <c r="N45" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O45" s="1" t="n">
         <v>9</v>
       </c>
       <c r="P45" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
@@ -3959,7 +3959,7 @@
         </is>
       </c>
       <c r="M46" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N46" s="1" t="n">
         <v>6</v>
@@ -3979,17 +3979,17 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="J47" s="3" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="L47" s="3" t="inlineStr">
@@ -4001,13 +4001,13 @@
         <v>2</v>
       </c>
       <c r="N47" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O47" s="1" t="n">
         <v>9</v>
       </c>
       <c r="P47" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
@@ -4018,17 +4018,17 @@
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>วินัย</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="L48" s="3" t="inlineStr">
@@ -4037,16 +4037,16 @@
         </is>
       </c>
       <c r="M48" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N48" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O48" s="1" t="n">
         <v>9</v>
       </c>
       <c r="P48" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -4059,13 +4059,13 @@
         <v>2</v>
       </c>
       <c r="N49" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O49" s="1" t="n">
         <v>9</v>
       </c>
       <c r="P49" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
@@ -4176,32 +4176,32 @@
       </c>
       <c r="D98" s="7" t="inlineStr">
         <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E98" s="8" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="G98" s="1" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H98" s="9" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="I98" s="10" t="inlineStr">
+        <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="E98" s="8" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="G98" s="1" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H98" s="9" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="I98" s="10" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
       <c r="J98" s="11" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="O98" s="1" t="inlineStr">
@@ -4226,39 +4226,39 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C99" s="12" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D99" s="13" t="inlineStr">
+      <c r="C99" s="6" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D99" s="7" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="E99" s="7" t="inlineStr">
+      <c r="E99" s="8" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="G99" s="1" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H99" s="9" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="I99" s="10" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="G99" s="1" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H99" s="6" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="I99" s="14" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="J99" s="15" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
+      <c r="J99" s="11" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="M99" s="1" t="inlineStr">
@@ -4333,83 +4333,83 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C100" s="16" t="inlineStr">
+      <c r="C100" s="12" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D100" s="13" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E100" s="14" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="F100" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L100" s="15" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="D100" s="13" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E100" s="9" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="F100" s="1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="L100" s="16" t="inlineStr">
+      <c r="M100" s="15" t="inlineStr"/>
+      <c r="N100" s="15">
+        <f>COUNTIF($C$98:$D$98,"ภูวเนตร")+COUNTIF($C$113:$D$113,"ภูวเนตร")+COUNTIF($C$116:$D$116,"ภูวเนตร")+COUNTIF($C$119:$D$119,"ภูวเนตร")+COUNTIF($C$122:$D$122,"ภูวเนตร")+COUNTIF($C$125:$D$125,"ภูวเนตร")+COUNTIF($C$134:$D$134,"ภูวเนตร")+COUNTIF($C$137:$D$137,"ภูวเนตร")+COUNTIF($C$140:$D$140,"ภูวเนตร")+COUNTIF($H$98:$I$98,"ภูวเนตร")+COUNTIF($H$101:$I$101,"ภูวเนตร")+COUNTIF($H$110:$I$110,"ภูวเนตร")+COUNTIF($H$113:$I$113,"ภูวเนตร")+COUNTIF($H$116:$I$116,"ภูวเนตร")+COUNTIF($H$119:$I$119,"ภูวเนตร")+COUNTIF($H$122:$I$122,"ภูวเนตร")+COUNTIF($H$131:$I$131,"ภูวเนตร")+COUNTIF($H$134:$I$134,"ภูวเนตร")+COUNTIF($H$137:$I$137,"ภูวเนตร")+COUNTIF($H$140:$I$140,"ภูวเนตร")+COUNTIF($H$143:$I$143,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="O100" s="15">
+        <f>COUNTIF($C$99:$D$99,"ภูวเนตร")+COUNTIF($C$114:$D$114,"ภูวเนตร")+COUNTIF($C$117:$D$117,"ภูวเนตร")+COUNTIF($C$120:$D$120,"ภูวเนตร")+COUNTIF($C$123:$D$123,"ภูวเนตร")+COUNTIF($C$126:$D$126,"ภูวเนตร")+COUNTIF($C$135:$D$135,"ภูวเนตร")+COUNTIF($C$138:$D$138,"ภูวเนตร")+COUNTIF($C$141:$D$141,"ภูวเนตร")+COUNTIF($H$99:$I$99,"ภูวเนตร")+COUNTIF($H$102:$I$102,"ภูวเนตร")+COUNTIF($H$111:$I$111,"ภูวเนตร")+COUNTIF($H$114:$I$114,"ภูวเนตร")+COUNTIF($H$117:$I$117,"ภูวเนตร")+COUNTIF($H$120:$I$120,"ภูวเนตร")+COUNTIF($H$123:$I$123,"ภูวเนตร")+COUNTIF($H$132:$I$132,"ภูวเนตร")+COUNTIF($H$135:$I$135,"ภูวเนตร")+COUNTIF($H$138:$I$138,"ภูวเนตร")+COUNTIF($H$141:$I$141,"ภูวเนตร")+COUNTIF($H$144:$I$144,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="P100" s="15">
+        <f>SUM(M100:O100)</f>
+        <v/>
+      </c>
+      <c r="R100" s="15" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="M100" s="16" t="inlineStr"/>
-      <c r="N100" s="16">
-        <f>COUNTIF($C$98:$D$98,"ภูวเนตร")+COUNTIF($C$113:$D$113,"ภูวเนตร")+COUNTIF($C$116:$D$116,"ภูวเนตร")+COUNTIF($C$119:$D$119,"ภูวเนตร")+COUNTIF($C$122:$D$122,"ภูวเนตร")+COUNTIF($C$125:$D$125,"ภูวเนตร")+COUNTIF($C$134:$D$134,"ภูวเนตร")+COUNTIF($C$137:$D$137,"ภูวเนตร")+COUNTIF($C$140:$D$140,"ภูวเนตร")+COUNTIF($H$98:$I$98,"ภูวเนตร")+COUNTIF($H$101:$I$101,"ภูวเนตร")+COUNTIF($H$110:$I$110,"ภูวเนตร")+COUNTIF($H$113:$I$113,"ภูวเนตร")+COUNTIF($H$116:$I$116,"ภูวเนตร")+COUNTIF($H$119:$I$119,"ภูวเนตร")+COUNTIF($H$122:$I$122,"ภูวเนตร")+COUNTIF($H$131:$I$131,"ภูวเนตร")+COUNTIF($H$134:$I$134,"ภูวเนตร")+COUNTIF($H$137:$I$137,"ภูวเนตร")+COUNTIF($H$140:$I$140,"ภูวเนตร")+COUNTIF($H$143:$I$143,"ภูวเนตร")</f>
-        <v/>
-      </c>
-      <c r="O100" s="16">
-        <f>COUNTIF($C$99:$D$99,"ภูวเนตร")+COUNTIF($C$114:$D$114,"ภูวเนตร")+COUNTIF($C$117:$D$117,"ภูวเนตร")+COUNTIF($C$120:$D$120,"ภูวเนตร")+COUNTIF($C$123:$D$123,"ภูวเนตร")+COUNTIF($C$126:$D$126,"ภูวเนตร")+COUNTIF($C$135:$D$135,"ภูวเนตร")+COUNTIF($C$138:$D$138,"ภูวเนตร")+COUNTIF($C$141:$D$141,"ภูวเนตร")+COUNTIF($H$99:$I$99,"ภูวเนตร")+COUNTIF($H$102:$I$102,"ภูวเนตร")+COUNTIF($H$111:$I$111,"ภูวเนตร")+COUNTIF($H$114:$I$114,"ภูวเนตร")+COUNTIF($H$117:$I$117,"ภูวเนตร")+COUNTIF($H$120:$I$120,"ภูวเนตร")+COUNTIF($H$123:$I$123,"ภูวเนตร")+COUNTIF($H$132:$I$132,"ภูวเนตร")+COUNTIF($H$135:$I$135,"ภูวเนตร")+COUNTIF($H$138:$I$138,"ภูวเนตร")+COUNTIF($H$141:$I$141,"ภูวเนตร")+COUNTIF($H$144:$I$144,"ภูวเนตร")</f>
-        <v/>
-      </c>
-      <c r="P100" s="16">
-        <f>SUM(M100:O100)</f>
-        <v/>
-      </c>
-      <c r="R100" s="16" t="inlineStr">
+      <c r="S100" s="15">
+        <f>COUNTIF($C$100:$D$100,"ภูวเนตร")+COUNTIF($C$103:$D$103,"ภูวเนตร")+COUNTIF($C$106:$D$106,"ภูวเนตร")+COUNTIF($C$109:$D$109,"ภูวเนตร")+COUNTIF($C$127:$D$127,"ภูวเนตร")+COUNTIF($C$130:$D$130,"ภูวเนตร")+COUNTIF($H$103:$I$103,"ภูวเนตร")+COUNTIF($H$106:$I$106,"ภูวเนตร")+COUNTIF($H$124:$I$124,"ภูวเนตร")+COUNTIF($H$127:$I$127,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="T100" s="15">
+        <f>COUNTIF($C$101:$D$101,"ภูวเนตร")+COUNTIF($C$104:$D$104,"ภูวเนตร")+COUNTIF($C$107:$D$107,"ภูวเนตร")+COUNTIF($C$110:$D$110,"ภูวเนตร")+COUNTIF($C$128:$D$128,"ภูวเนตร")+COUNTIF($C$131:$D$131,"ภูวเนตร")+COUNTIF($H$104:$I$104,"ภูวเนตร")+COUNTIF($H$107:$I$107,"ภูวเนตร")+COUNTIF($H$125:$I$125,"ภูวเนตร")+COUNTIF($H$128:$I$128,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="U100" s="15">
+        <f>COUNTIF($C$102:$D$102,"ภูวเนตร")+COUNTIF($C$105:$D$105,"ภูวเนตร")+COUNTIF($C$108:$D$108,"ภูวเนตร")+COUNTIF($C$111:$D$111,"ภูวเนตร")+COUNTIF($C$129:$D$129,"ภูวเนตร")+COUNTIF($C$132:$D$132,"ภูวเนตร")+COUNTIF($H$105:$I$105,"ภูวเนตร")+COUNTIF($H$108:$I$108,"ภูวเนตร")+COUNTIF($H$126:$I$126,"ภูวเนตร")+COUNTIF($H$129:$I$129,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="V100" s="15">
+        <f>SUM(S100:U100)</f>
+        <v/>
+      </c>
+      <c r="X100" s="15" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="S100" s="16">
-        <f>COUNTIF($C$100:$D$100,"ภูวเนตร")+COUNTIF($C$103:$D$103,"ภูวเนตร")+COUNTIF($C$106:$D$106,"ภูวเนตร")+COUNTIF($C$109:$D$109,"ภูวเนตร")+COUNTIF($C$127:$D$127,"ภูวเนตร")+COUNTIF($C$130:$D$130,"ภูวเนตร")+COUNTIF($H$103:$I$103,"ภูวเนตร")+COUNTIF($H$106:$I$106,"ภูวเนตร")+COUNTIF($H$124:$I$124,"ภูวเนตร")+COUNTIF($H$127:$I$127,"ภูวเนตร")</f>
-        <v/>
-      </c>
-      <c r="T100" s="16">
-        <f>COUNTIF($C$101:$D$101,"ภูวเนตร")+COUNTIF($C$104:$D$104,"ภูวเนตร")+COUNTIF($C$107:$D$107,"ภูวเนตร")+COUNTIF($C$110:$D$110,"ภูวเนตร")+COUNTIF($C$128:$D$128,"ภูวเนตร")+COUNTIF($C$131:$D$131,"ภูวเนตร")+COUNTIF($H$104:$I$104,"ภูวเนตร")+COUNTIF($H$107:$I$107,"ภูวเนตร")+COUNTIF($H$125:$I$125,"ภูวเนตร")+COUNTIF($H$128:$I$128,"ภูวเนตร")</f>
-        <v/>
-      </c>
-      <c r="U100" s="16">
-        <f>COUNTIF($C$102:$D$102,"ภูวเนตร")+COUNTIF($C$105:$D$105,"ภูวเนตร")+COUNTIF($C$108:$D$108,"ภูวเนตร")+COUNTIF($C$111:$D$111,"ภูวเนตร")+COUNTIF($C$129:$D$129,"ภูวเนตร")+COUNTIF($C$132:$D$132,"ภูวเนตร")+COUNTIF($H$105:$I$105,"ภูวเนตร")+COUNTIF($H$108:$I$108,"ภูวเนตร")+COUNTIF($H$126:$I$126,"ภูวเนตร")+COUNTIF($H$129:$I$129,"ภูวเนตร")</f>
-        <v/>
-      </c>
-      <c r="V100" s="16">
-        <f>SUM(S100:U100)</f>
-        <v/>
-      </c>
-      <c r="X100" s="16" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="Y100" s="16">
+      <c r="Y100" s="15">
         <f>SUM(M100,S100)</f>
         <v/>
       </c>
-      <c r="Z100" s="16">
+      <c r="Z100" s="15">
         <f>SUM(N100,T100)</f>
         <v/>
       </c>
-      <c r="AA100" s="16">
+      <c r="AA100" s="15">
         <f>SUM(O100,U100)</f>
         <v/>
       </c>
-      <c r="AB100" s="16">
+      <c r="AB100" s="15">
         <f>SUM(P100,V100)</f>
         <v/>
       </c>
@@ -4423,37 +4423,37 @@
       </c>
       <c r="C101" s="9" t="inlineStr">
         <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D101" s="16" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E101" s="11" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="G101" s="1" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H101" s="14" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="I101" s="17" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="J101" s="12" t="inlineStr">
+        <is>
           <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D101" s="17" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E101" s="18" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="G101" s="1" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H101" s="15" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="I101" s="14" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="J101" s="17" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
         </is>
       </c>
       <c r="L101" s="8" t="inlineStr">
@@ -4524,98 +4524,98 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C102" s="12" t="inlineStr">
+      <c r="C102" s="9" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D102" s="16" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E102" s="11" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="G102" s="1" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H102" s="14" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="D102" s="10" t="inlineStr">
+      <c r="I102" s="17" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="E102" s="11" t="inlineStr">
+      <c r="J102" s="12" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="L102" s="18" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="G102" s="1" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H102" s="8" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="I102" s="13" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="J102" s="16" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="L102" s="11" t="inlineStr">
+      <c r="M102" s="18" t="inlineStr"/>
+      <c r="N102" s="18">
+        <f>COUNTIF($C$98:$D$98,"พลกฤต")+COUNTIF($C$113:$D$113,"พลกฤต")+COUNTIF($C$116:$D$116,"พลกฤต")+COUNTIF($C$119:$D$119,"พลกฤต")+COUNTIF($C$122:$D$122,"พลกฤต")+COUNTIF($C$125:$D$125,"พลกฤต")+COUNTIF($C$134:$D$134,"พลกฤต")+COUNTIF($C$137:$D$137,"พลกฤต")+COUNTIF($C$140:$D$140,"พลกฤต")+COUNTIF($H$98:$I$98,"พลกฤต")+COUNTIF($H$101:$I$101,"พลกฤต")+COUNTIF($H$110:$I$110,"พลกฤต")+COUNTIF($H$113:$I$113,"พลกฤต")+COUNTIF($H$116:$I$116,"พลกฤต")+COUNTIF($H$119:$I$119,"พลกฤต")+COUNTIF($H$122:$I$122,"พลกฤต")+COUNTIF($H$131:$I$131,"พลกฤต")+COUNTIF($H$134:$I$134,"พลกฤต")+COUNTIF($H$137:$I$137,"พลกฤต")+COUNTIF($H$140:$I$140,"พลกฤต")+COUNTIF($H$143:$I$143,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="O102" s="18">
+        <f>COUNTIF($C$99:$D$99,"พลกฤต")+COUNTIF($C$114:$D$114,"พลกฤต")+COUNTIF($C$117:$D$117,"พลกฤต")+COUNTIF($C$120:$D$120,"พลกฤต")+COUNTIF($C$123:$D$123,"พลกฤต")+COUNTIF($C$126:$D$126,"พลกฤต")+COUNTIF($C$135:$D$135,"พลกฤต")+COUNTIF($C$138:$D$138,"พลกฤต")+COUNTIF($C$141:$D$141,"พลกฤต")+COUNTIF($H$99:$I$99,"พลกฤต")+COUNTIF($H$102:$I$102,"พลกฤต")+COUNTIF($H$111:$I$111,"พลกฤต")+COUNTIF($H$114:$I$114,"พลกฤต")+COUNTIF($H$117:$I$117,"พลกฤต")+COUNTIF($H$120:$I$120,"พลกฤต")+COUNTIF($H$123:$I$123,"พลกฤต")+COUNTIF($H$132:$I$132,"พลกฤต")+COUNTIF($H$135:$I$135,"พลกฤต")+COUNTIF($H$138:$I$138,"พลกฤต")+COUNTIF($H$141:$I$141,"พลกฤต")+COUNTIF($H$144:$I$144,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="P102" s="18">
+        <f>SUM(M102:O102)</f>
+        <v/>
+      </c>
+      <c r="R102" s="18" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="M102" s="11" t="inlineStr"/>
-      <c r="N102" s="11">
-        <f>COUNTIF($C$98:$D$98,"พลกฤต")+COUNTIF($C$113:$D$113,"พลกฤต")+COUNTIF($C$116:$D$116,"พลกฤต")+COUNTIF($C$119:$D$119,"พลกฤต")+COUNTIF($C$122:$D$122,"พลกฤต")+COUNTIF($C$125:$D$125,"พลกฤต")+COUNTIF($C$134:$D$134,"พลกฤต")+COUNTIF($C$137:$D$137,"พลกฤต")+COUNTIF($C$140:$D$140,"พลกฤต")+COUNTIF($H$98:$I$98,"พลกฤต")+COUNTIF($H$101:$I$101,"พลกฤต")+COUNTIF($H$110:$I$110,"พลกฤต")+COUNTIF($H$113:$I$113,"พลกฤต")+COUNTIF($H$116:$I$116,"พลกฤต")+COUNTIF($H$119:$I$119,"พลกฤต")+COUNTIF($H$122:$I$122,"พลกฤต")+COUNTIF($H$131:$I$131,"พลกฤต")+COUNTIF($H$134:$I$134,"พลกฤต")+COUNTIF($H$137:$I$137,"พลกฤต")+COUNTIF($H$140:$I$140,"พลกฤต")+COUNTIF($H$143:$I$143,"พลกฤต")</f>
-        <v/>
-      </c>
-      <c r="O102" s="11">
-        <f>COUNTIF($C$99:$D$99,"พลกฤต")+COUNTIF($C$114:$D$114,"พลกฤต")+COUNTIF($C$117:$D$117,"พลกฤต")+COUNTIF($C$120:$D$120,"พลกฤต")+COUNTIF($C$123:$D$123,"พลกฤต")+COUNTIF($C$126:$D$126,"พลกฤต")+COUNTIF($C$135:$D$135,"พลกฤต")+COUNTIF($C$138:$D$138,"พลกฤต")+COUNTIF($C$141:$D$141,"พลกฤต")+COUNTIF($H$99:$I$99,"พลกฤต")+COUNTIF($H$102:$I$102,"พลกฤต")+COUNTIF($H$111:$I$111,"พลกฤต")+COUNTIF($H$114:$I$114,"พลกฤต")+COUNTIF($H$117:$I$117,"พลกฤต")+COUNTIF($H$120:$I$120,"พลกฤต")+COUNTIF($H$123:$I$123,"พลกฤต")+COUNTIF($H$132:$I$132,"พลกฤต")+COUNTIF($H$135:$I$135,"พลกฤต")+COUNTIF($H$138:$I$138,"พลกฤต")+COUNTIF($H$141:$I$141,"พลกฤต")+COUNTIF($H$144:$I$144,"พลกฤต")</f>
-        <v/>
-      </c>
-      <c r="P102" s="11">
-        <f>SUM(M102:O102)</f>
-        <v/>
-      </c>
-      <c r="R102" s="11" t="inlineStr">
+      <c r="S102" s="18">
+        <f>COUNTIF($C$100:$D$100,"พลกฤต")+COUNTIF($C$103:$D$103,"พลกฤต")+COUNTIF($C$106:$D$106,"พลกฤต")+COUNTIF($C$109:$D$109,"พลกฤต")+COUNTIF($C$127:$D$127,"พลกฤต")+COUNTIF($C$130:$D$130,"พลกฤต")+COUNTIF($H$103:$I$103,"พลกฤต")+COUNTIF($H$106:$I$106,"พลกฤต")+COUNTIF($H$124:$I$124,"พลกฤต")+COUNTIF($H$127:$I$127,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="T102" s="18">
+        <f>COUNTIF($C$101:$D$101,"พลกฤต")+COUNTIF($C$104:$D$104,"พลกฤต")+COUNTIF($C$107:$D$107,"พลกฤต")+COUNTIF($C$110:$D$110,"พลกฤต")+COUNTIF($C$128:$D$128,"พลกฤต")+COUNTIF($C$131:$D$131,"พลกฤต")+COUNTIF($H$104:$I$104,"พลกฤต")+COUNTIF($H$107:$I$107,"พลกฤต")+COUNTIF($H$125:$I$125,"พลกฤต")+COUNTIF($H$128:$I$128,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="U102" s="18">
+        <f>COUNTIF($C$102:$D$102,"พลกฤต")+COUNTIF($C$105:$D$105,"พลกฤต")+COUNTIF($C$108:$D$108,"พลกฤต")+COUNTIF($C$111:$D$111,"พลกฤต")+COUNTIF($C$129:$D$129,"พลกฤต")+COUNTIF($C$132:$D$132,"พลกฤต")+COUNTIF($H$105:$I$105,"พลกฤต")+COUNTIF($H$108:$I$108,"พลกฤต")+COUNTIF($H$126:$I$126,"พลกฤต")+COUNTIF($H$129:$I$129,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="V102" s="18">
+        <f>SUM(S102:U102)</f>
+        <v/>
+      </c>
+      <c r="X102" s="18" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="S102" s="11">
-        <f>COUNTIF($C$100:$D$100,"พลกฤต")+COUNTIF($C$103:$D$103,"พลกฤต")+COUNTIF($C$106:$D$106,"พลกฤต")+COUNTIF($C$109:$D$109,"พลกฤต")+COUNTIF($C$127:$D$127,"พลกฤต")+COUNTIF($C$130:$D$130,"พลกฤต")+COUNTIF($H$103:$I$103,"พลกฤต")+COUNTIF($H$106:$I$106,"พลกฤต")+COUNTIF($H$124:$I$124,"พลกฤต")+COUNTIF($H$127:$I$127,"พลกฤต")</f>
-        <v/>
-      </c>
-      <c r="T102" s="11">
-        <f>COUNTIF($C$101:$D$101,"พลกฤต")+COUNTIF($C$104:$D$104,"พลกฤต")+COUNTIF($C$107:$D$107,"พลกฤต")+COUNTIF($C$110:$D$110,"พลกฤต")+COUNTIF($C$128:$D$128,"พลกฤต")+COUNTIF($C$131:$D$131,"พลกฤต")+COUNTIF($H$104:$I$104,"พลกฤต")+COUNTIF($H$107:$I$107,"พลกฤต")+COUNTIF($H$125:$I$125,"พลกฤต")+COUNTIF($H$128:$I$128,"พลกฤต")</f>
-        <v/>
-      </c>
-      <c r="U102" s="11">
-        <f>COUNTIF($C$102:$D$102,"พลกฤต")+COUNTIF($C$105:$D$105,"พลกฤต")+COUNTIF($C$108:$D$108,"พลกฤต")+COUNTIF($C$111:$D$111,"พลกฤต")+COUNTIF($C$129:$D$129,"พลกฤต")+COUNTIF($C$132:$D$132,"พลกฤต")+COUNTIF($H$105:$I$105,"พลกฤต")+COUNTIF($H$108:$I$108,"พลกฤต")+COUNTIF($H$126:$I$126,"พลกฤต")+COUNTIF($H$129:$I$129,"พลกฤต")</f>
-        <v/>
-      </c>
-      <c r="V102" s="11">
-        <f>SUM(S102:U102)</f>
-        <v/>
-      </c>
-      <c r="X102" s="11" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="Y102" s="11">
+      <c r="Y102" s="18">
         <f>SUM(M102,S102)</f>
         <v/>
       </c>
-      <c r="Z102" s="11">
+      <c r="Z102" s="18">
         <f>SUM(N102,T102)</f>
         <v/>
       </c>
-      <c r="AA102" s="11">
+      <c r="AA102" s="18">
         <f>SUM(O102,U102)</f>
         <v/>
       </c>
-      <c r="AB102" s="11">
+      <c r="AB102" s="18">
         <f>SUM(P102,V102)</f>
         <v/>
       </c>
@@ -4631,103 +4631,103 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C103" s="8" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
+      <c r="C103" s="6" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D103" s="7" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E103" s="15" t="inlineStr">
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E103" s="19" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="F103" s="4" t="inlineStr">
+        <is>
+          <t>18*</t>
+        </is>
+      </c>
+      <c r="G103" s="4" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="H103" s="9" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="F103" s="4" t="inlineStr">
-        <is>
-          <t>18*</t>
-        </is>
-      </c>
-      <c r="G103" s="4" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="H103" s="11" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="I103" s="19" t="inlineStr">
+      <c r="I103" s="11" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="J103" s="18" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="L103" s="9" t="inlineStr">
+      <c r="J103" s="15" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="L103" s="12" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="M103" s="9" t="inlineStr"/>
-      <c r="N103" s="9">
+      <c r="M103" s="12" t="inlineStr"/>
+      <c r="N103" s="12">
         <f>COUNTIF($C$98:$D$98,"ชานนท์")+COUNTIF($C$113:$D$113,"ชานนท์")+COUNTIF($C$116:$D$116,"ชานนท์")+COUNTIF($C$119:$D$119,"ชานนท์")+COUNTIF($C$122:$D$122,"ชานนท์")+COUNTIF($C$125:$D$125,"ชานนท์")+COUNTIF($C$134:$D$134,"ชานนท์")+COUNTIF($C$137:$D$137,"ชานนท์")+COUNTIF($C$140:$D$140,"ชานนท์")+COUNTIF($H$98:$I$98,"ชานนท์")+COUNTIF($H$101:$I$101,"ชานนท์")+COUNTIF($H$110:$I$110,"ชานนท์")+COUNTIF($H$113:$I$113,"ชานนท์")+COUNTIF($H$116:$I$116,"ชานนท์")+COUNTIF($H$119:$I$119,"ชานนท์")+COUNTIF($H$122:$I$122,"ชานนท์")+COUNTIF($H$131:$I$131,"ชานนท์")+COUNTIF($H$134:$I$134,"ชานนท์")+COUNTIF($H$137:$I$137,"ชานนท์")+COUNTIF($H$140:$I$140,"ชานนท์")+COUNTIF($H$143:$I$143,"ชานนท์")</f>
         <v/>
       </c>
-      <c r="O103" s="9">
+      <c r="O103" s="12">
         <f>COUNTIF($C$99:$D$99,"ชานนท์")+COUNTIF($C$114:$D$114,"ชานนท์")+COUNTIF($C$117:$D$117,"ชานนท์")+COUNTIF($C$120:$D$120,"ชานนท์")+COUNTIF($C$123:$D$123,"ชานนท์")+COUNTIF($C$126:$D$126,"ชานนท์")+COUNTIF($C$135:$D$135,"ชานนท์")+COUNTIF($C$138:$D$138,"ชานนท์")+COUNTIF($C$141:$D$141,"ชานนท์")+COUNTIF($H$99:$I$99,"ชานนท์")+COUNTIF($H$102:$I$102,"ชานนท์")+COUNTIF($H$111:$I$111,"ชานนท์")+COUNTIF($H$114:$I$114,"ชานนท์")+COUNTIF($H$117:$I$117,"ชานนท์")+COUNTIF($H$120:$I$120,"ชานนท์")+COUNTIF($H$123:$I$123,"ชานนท์")+COUNTIF($H$132:$I$132,"ชานนท์")+COUNTIF($H$135:$I$135,"ชานนท์")+COUNTIF($H$138:$I$138,"ชานนท์")+COUNTIF($H$141:$I$141,"ชานนท์")+COUNTIF($H$144:$I$144,"ชานนท์")</f>
         <v/>
       </c>
-      <c r="P103" s="9">
+      <c r="P103" s="12">
         <f>SUM(M103:O103)</f>
         <v/>
       </c>
-      <c r="R103" s="9" t="inlineStr">
+      <c r="R103" s="12" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="S103" s="9">
+      <c r="S103" s="12">
         <f>COUNTIF($C$100:$D$100,"ชานนท์")+COUNTIF($C$103:$D$103,"ชานนท์")+COUNTIF($C$106:$D$106,"ชานนท์")+COUNTIF($C$109:$D$109,"ชานนท์")+COUNTIF($C$127:$D$127,"ชานนท์")+COUNTIF($C$130:$D$130,"ชานนท์")+COUNTIF($H$103:$I$103,"ชานนท์")+COUNTIF($H$106:$I$106,"ชานนท์")+COUNTIF($H$124:$I$124,"ชานนท์")+COUNTIF($H$127:$I$127,"ชานนท์")</f>
         <v/>
       </c>
-      <c r="T103" s="9">
+      <c r="T103" s="12">
         <f>COUNTIF($C$101:$D$101,"ชานนท์")+COUNTIF($C$104:$D$104,"ชานนท์")+COUNTIF($C$107:$D$107,"ชานนท์")+COUNTIF($C$110:$D$110,"ชานนท์")+COUNTIF($C$128:$D$128,"ชานนท์")+COUNTIF($C$131:$D$131,"ชานนท์")+COUNTIF($H$104:$I$104,"ชานนท์")+COUNTIF($H$107:$I$107,"ชานนท์")+COUNTIF($H$125:$I$125,"ชานนท์")+COUNTIF($H$128:$I$128,"ชานนท์")</f>
         <v/>
       </c>
-      <c r="U103" s="9">
+      <c r="U103" s="12">
         <f>COUNTIF($C$102:$D$102,"ชานนท์")+COUNTIF($C$105:$D$105,"ชานนท์")+COUNTIF($C$108:$D$108,"ชานนท์")+COUNTIF($C$111:$D$111,"ชานนท์")+COUNTIF($C$129:$D$129,"ชานนท์")+COUNTIF($C$132:$D$132,"ชานนท์")+COUNTIF($H$105:$I$105,"ชานนท์")+COUNTIF($H$108:$I$108,"ชานนท์")+COUNTIF($H$126:$I$126,"ชานนท์")+COUNTIF($H$129:$I$129,"ชานนท์")</f>
         <v/>
       </c>
-      <c r="V103" s="9">
+      <c r="V103" s="12">
         <f>SUM(S103:U103)</f>
         <v/>
       </c>
-      <c r="X103" s="9" t="inlineStr">
+      <c r="X103" s="12" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="Y103" s="9">
+      <c r="Y103" s="12">
         <f>SUM(M103,S103)</f>
         <v/>
       </c>
-      <c r="Z103" s="9">
+      <c r="Z103" s="12">
         <f>SUM(N103,T103)</f>
         <v/>
       </c>
-      <c r="AA103" s="9">
+      <c r="AA103" s="12">
         <f>SUM(O103,U103)</f>
         <v/>
       </c>
-      <c r="AB103" s="9">
+      <c r="AB103" s="12">
         <f>SUM(P103,V103)</f>
         <v/>
       </c>
@@ -4739,19 +4739,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C104" s="18" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D104" s="10" t="inlineStr">
+      <c r="C104" s="15" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D104" s="17" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="E104" s="6" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
+      <c r="E104" s="18" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="F104" s="5" t="n"/>
@@ -4765,73 +4765,73 @@
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="I104" s="7" t="inlineStr">
+      <c r="I104" s="10" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="J104" s="19" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="L104" s="18" t="inlineStr">
+      <c r="J104" s="16" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="L104" s="19" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="M104" s="18" t="inlineStr"/>
-      <c r="N104" s="18">
+      <c r="M104" s="19" t="inlineStr"/>
+      <c r="N104" s="19">
         <f>COUNTIF($C$98:$D$98,"ปรมะ")+COUNTIF($C$113:$D$113,"ปรมะ")+COUNTIF($C$116:$D$116,"ปรมะ")+COUNTIF($C$119:$D$119,"ปรมะ")+COUNTIF($C$122:$D$122,"ปรมะ")+COUNTIF($C$125:$D$125,"ปรมะ")+COUNTIF($C$134:$D$134,"ปรมะ")+COUNTIF($C$137:$D$137,"ปรมะ")+COUNTIF($C$140:$D$140,"ปรมะ")+COUNTIF($H$98:$I$98,"ปรมะ")+COUNTIF($H$101:$I$101,"ปรมะ")+COUNTIF($H$110:$I$110,"ปรมะ")+COUNTIF($H$113:$I$113,"ปรมะ")+COUNTIF($H$116:$I$116,"ปรมะ")+COUNTIF($H$119:$I$119,"ปรมะ")+COUNTIF($H$122:$I$122,"ปรมะ")+COUNTIF($H$131:$I$131,"ปรมะ")+COUNTIF($H$134:$I$134,"ปรมะ")+COUNTIF($H$137:$I$137,"ปรมะ")+COUNTIF($H$140:$I$140,"ปรมะ")+COUNTIF($H$143:$I$143,"ปรมะ")</f>
         <v/>
       </c>
-      <c r="O104" s="18">
+      <c r="O104" s="19">
         <f>COUNTIF($C$99:$D$99,"ปรมะ")+COUNTIF($C$114:$D$114,"ปรมะ")+COUNTIF($C$117:$D$117,"ปรมะ")+COUNTIF($C$120:$D$120,"ปรมะ")+COUNTIF($C$123:$D$123,"ปรมะ")+COUNTIF($C$126:$D$126,"ปรมะ")+COUNTIF($C$135:$D$135,"ปรมะ")+COUNTIF($C$138:$D$138,"ปรมะ")+COUNTIF($C$141:$D$141,"ปรมะ")+COUNTIF($H$99:$I$99,"ปรมะ")+COUNTIF($H$102:$I$102,"ปรมะ")+COUNTIF($H$111:$I$111,"ปรมะ")+COUNTIF($H$114:$I$114,"ปรมะ")+COUNTIF($H$117:$I$117,"ปรมะ")+COUNTIF($H$120:$I$120,"ปรมะ")+COUNTIF($H$123:$I$123,"ปรมะ")+COUNTIF($H$132:$I$132,"ปรมะ")+COUNTIF($H$135:$I$135,"ปรมะ")+COUNTIF($H$138:$I$138,"ปรมะ")+COUNTIF($H$141:$I$141,"ปรมะ")+COUNTIF($H$144:$I$144,"ปรมะ")</f>
         <v/>
       </c>
-      <c r="P104" s="18">
+      <c r="P104" s="19">
         <f>SUM(M104:O104)</f>
         <v/>
       </c>
-      <c r="R104" s="18" t="inlineStr">
+      <c r="R104" s="19" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="S104" s="18">
+      <c r="S104" s="19">
         <f>COUNTIF($C$100:$D$100,"ปรมะ")+COUNTIF($C$103:$D$103,"ปรมะ")+COUNTIF($C$106:$D$106,"ปรมะ")+COUNTIF($C$109:$D$109,"ปรมะ")+COUNTIF($C$127:$D$127,"ปรมะ")+COUNTIF($C$130:$D$130,"ปรมะ")+COUNTIF($H$103:$I$103,"ปรมะ")+COUNTIF($H$106:$I$106,"ปรมะ")+COUNTIF($H$124:$I$124,"ปรมะ")+COUNTIF($H$127:$I$127,"ปรมะ")</f>
         <v/>
       </c>
-      <c r="T104" s="18">
+      <c r="T104" s="19">
         <f>COUNTIF($C$101:$D$101,"ปรมะ")+COUNTIF($C$104:$D$104,"ปรมะ")+COUNTIF($C$107:$D$107,"ปรมะ")+COUNTIF($C$110:$D$110,"ปรมะ")+COUNTIF($C$128:$D$128,"ปรมะ")+COUNTIF($C$131:$D$131,"ปรมะ")+COUNTIF($H$104:$I$104,"ปรมะ")+COUNTIF($H$107:$I$107,"ปรมะ")+COUNTIF($H$125:$I$125,"ปรมะ")+COUNTIF($H$128:$I$128,"ปรมะ")</f>
         <v/>
       </c>
-      <c r="U104" s="18">
+      <c r="U104" s="19">
         <f>COUNTIF($C$102:$D$102,"ปรมะ")+COUNTIF($C$105:$D$105,"ปรมะ")+COUNTIF($C$108:$D$108,"ปรมะ")+COUNTIF($C$111:$D$111,"ปรมะ")+COUNTIF($C$129:$D$129,"ปรมะ")+COUNTIF($C$132:$D$132,"ปรมะ")+COUNTIF($H$105:$I$105,"ปรมะ")+COUNTIF($H$108:$I$108,"ปรมะ")+COUNTIF($H$126:$I$126,"ปรมะ")+COUNTIF($H$129:$I$129,"ปรมะ")</f>
         <v/>
       </c>
-      <c r="V104" s="18">
+      <c r="V104" s="19">
         <f>SUM(S104:U104)</f>
         <v/>
       </c>
-      <c r="X104" s="18" t="inlineStr">
+      <c r="X104" s="19" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="Y104" s="18">
+      <c r="Y104" s="19">
         <f>SUM(M104,S104)</f>
         <v/>
       </c>
-      <c r="Z104" s="18">
+      <c r="Z104" s="19">
         <f>SUM(N104,T104)</f>
         <v/>
       </c>
-      <c r="AA104" s="18">
+      <c r="AA104" s="19">
         <f>SUM(O104,U104)</f>
         <v/>
       </c>
-      <c r="AB104" s="18">
+      <c r="AB104" s="19">
         <f>SUM(P104,V104)</f>
         <v/>
       </c>
@@ -4843,19 +4843,19 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C105" s="11" t="inlineStr">
+      <c r="C105" s="15" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D105" s="17" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E105" s="18" t="inlineStr">
         <is>
           <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D105" s="14" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E105" s="13" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="F105" s="5" t="n"/>
@@ -4864,78 +4864,78 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="H105" s="8" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="I105" s="7" t="inlineStr">
+      <c r="H105" s="6" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="I105" s="10" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="J105" s="15" t="inlineStr">
+      <c r="J105" s="16" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="L105" s="9" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="L105" s="15" t="inlineStr">
+      <c r="M105" s="9" t="inlineStr"/>
+      <c r="N105" s="9">
+        <f>COUNTIF($C$98:$D$98,"สัญญา")+COUNTIF($C$113:$D$113,"สัญญา")+COUNTIF($C$116:$D$116,"สัญญา")+COUNTIF($C$119:$D$119,"สัญญา")+COUNTIF($C$122:$D$122,"สัญญา")+COUNTIF($C$125:$D$125,"สัญญา")+COUNTIF($C$134:$D$134,"สัญญา")+COUNTIF($C$137:$D$137,"สัญญา")+COUNTIF($C$140:$D$140,"สัญญา")+COUNTIF($H$98:$I$98,"สัญญา")+COUNTIF($H$101:$I$101,"สัญญา")+COUNTIF($H$110:$I$110,"สัญญา")+COUNTIF($H$113:$I$113,"สัญญา")+COUNTIF($H$116:$I$116,"สัญญา")+COUNTIF($H$119:$I$119,"สัญญา")+COUNTIF($H$122:$I$122,"สัญญา")+COUNTIF($H$131:$I$131,"สัญญา")+COUNTIF($H$134:$I$134,"สัญญา")+COUNTIF($H$137:$I$137,"สัญญา")+COUNTIF($H$140:$I$140,"สัญญา")+COUNTIF($H$143:$I$143,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="O105" s="9">
+        <f>COUNTIF($C$99:$D$99,"สัญญา")+COUNTIF($C$114:$D$114,"สัญญา")+COUNTIF($C$117:$D$117,"สัญญา")+COUNTIF($C$120:$D$120,"สัญญา")+COUNTIF($C$123:$D$123,"สัญญา")+COUNTIF($C$126:$D$126,"สัญญา")+COUNTIF($C$135:$D$135,"สัญญา")+COUNTIF($C$138:$D$138,"สัญญา")+COUNTIF($C$141:$D$141,"สัญญา")+COUNTIF($H$99:$I$99,"สัญญา")+COUNTIF($H$102:$I$102,"สัญญา")+COUNTIF($H$111:$I$111,"สัญญา")+COUNTIF($H$114:$I$114,"สัญญา")+COUNTIF($H$117:$I$117,"สัญญา")+COUNTIF($H$120:$I$120,"สัญญา")+COUNTIF($H$123:$I$123,"สัญญา")+COUNTIF($H$132:$I$132,"สัญญา")+COUNTIF($H$135:$I$135,"สัญญา")+COUNTIF($H$138:$I$138,"สัญญา")+COUNTIF($H$141:$I$141,"สัญญา")+COUNTIF($H$144:$I$144,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="P105" s="9">
+        <f>SUM(M105:O105)</f>
+        <v/>
+      </c>
+      <c r="R105" s="9" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="M105" s="15" t="inlineStr"/>
-      <c r="N105" s="15">
-        <f>COUNTIF($C$98:$D$98,"สัญญา")+COUNTIF($C$113:$D$113,"สัญญา")+COUNTIF($C$116:$D$116,"สัญญา")+COUNTIF($C$119:$D$119,"สัญญา")+COUNTIF($C$122:$D$122,"สัญญา")+COUNTIF($C$125:$D$125,"สัญญา")+COUNTIF($C$134:$D$134,"สัญญา")+COUNTIF($C$137:$D$137,"สัญญา")+COUNTIF($C$140:$D$140,"สัญญา")+COUNTIF($H$98:$I$98,"สัญญา")+COUNTIF($H$101:$I$101,"สัญญา")+COUNTIF($H$110:$I$110,"สัญญา")+COUNTIF($H$113:$I$113,"สัญญา")+COUNTIF($H$116:$I$116,"สัญญา")+COUNTIF($H$119:$I$119,"สัญญา")+COUNTIF($H$122:$I$122,"สัญญา")+COUNTIF($H$131:$I$131,"สัญญา")+COUNTIF($H$134:$I$134,"สัญญา")+COUNTIF($H$137:$I$137,"สัญญา")+COUNTIF($H$140:$I$140,"สัญญา")+COUNTIF($H$143:$I$143,"สัญญา")</f>
-        <v/>
-      </c>
-      <c r="O105" s="15">
-        <f>COUNTIF($C$99:$D$99,"สัญญา")+COUNTIF($C$114:$D$114,"สัญญา")+COUNTIF($C$117:$D$117,"สัญญา")+COUNTIF($C$120:$D$120,"สัญญา")+COUNTIF($C$123:$D$123,"สัญญา")+COUNTIF($C$126:$D$126,"สัญญา")+COUNTIF($C$135:$D$135,"สัญญา")+COUNTIF($C$138:$D$138,"สัญญา")+COUNTIF($C$141:$D$141,"สัญญา")+COUNTIF($H$99:$I$99,"สัญญา")+COUNTIF($H$102:$I$102,"สัญญา")+COUNTIF($H$111:$I$111,"สัญญา")+COUNTIF($H$114:$I$114,"สัญญา")+COUNTIF($H$117:$I$117,"สัญญา")+COUNTIF($H$120:$I$120,"สัญญา")+COUNTIF($H$123:$I$123,"สัญญา")+COUNTIF($H$132:$I$132,"สัญญา")+COUNTIF($H$135:$I$135,"สัญญา")+COUNTIF($H$138:$I$138,"สัญญา")+COUNTIF($H$141:$I$141,"สัญญา")+COUNTIF($H$144:$I$144,"สัญญา")</f>
-        <v/>
-      </c>
-      <c r="P105" s="15">
-        <f>SUM(M105:O105)</f>
-        <v/>
-      </c>
-      <c r="R105" s="15" t="inlineStr">
+      <c r="S105" s="9">
+        <f>COUNTIF($C$100:$D$100,"สัญญา")+COUNTIF($C$103:$D$103,"สัญญา")+COUNTIF($C$106:$D$106,"สัญญา")+COUNTIF($C$109:$D$109,"สัญญา")+COUNTIF($C$127:$D$127,"สัญญา")+COUNTIF($C$130:$D$130,"สัญญา")+COUNTIF($H$103:$I$103,"สัญญา")+COUNTIF($H$106:$I$106,"สัญญา")+COUNTIF($H$124:$I$124,"สัญญา")+COUNTIF($H$127:$I$127,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="T105" s="9">
+        <f>COUNTIF($C$101:$D$101,"สัญญา")+COUNTIF($C$104:$D$104,"สัญญา")+COUNTIF($C$107:$D$107,"สัญญา")+COUNTIF($C$110:$D$110,"สัญญา")+COUNTIF($C$128:$D$128,"สัญญา")+COUNTIF($C$131:$D$131,"สัญญา")+COUNTIF($H$104:$I$104,"สัญญา")+COUNTIF($H$107:$I$107,"สัญญา")+COUNTIF($H$125:$I$125,"สัญญา")+COUNTIF($H$128:$I$128,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="U105" s="9">
+        <f>COUNTIF($C$102:$D$102,"สัญญา")+COUNTIF($C$105:$D$105,"สัญญา")+COUNTIF($C$108:$D$108,"สัญญา")+COUNTIF($C$111:$D$111,"สัญญา")+COUNTIF($C$129:$D$129,"สัญญา")+COUNTIF($C$132:$D$132,"สัญญา")+COUNTIF($H$105:$I$105,"สัญญา")+COUNTIF($H$108:$I$108,"สัญญา")+COUNTIF($H$126:$I$126,"สัญญา")+COUNTIF($H$129:$I$129,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="V105" s="9">
+        <f>SUM(S105:U105)</f>
+        <v/>
+      </c>
+      <c r="X105" s="9" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="S105" s="15">
-        <f>COUNTIF($C$100:$D$100,"สัญญา")+COUNTIF($C$103:$D$103,"สัญญา")+COUNTIF($C$106:$D$106,"สัญญา")+COUNTIF($C$109:$D$109,"สัญญา")+COUNTIF($C$127:$D$127,"สัญญา")+COUNTIF($C$130:$D$130,"สัญญา")+COUNTIF($H$103:$I$103,"สัญญา")+COUNTIF($H$106:$I$106,"สัญญา")+COUNTIF($H$124:$I$124,"สัญญา")+COUNTIF($H$127:$I$127,"สัญญา")</f>
-        <v/>
-      </c>
-      <c r="T105" s="15">
-        <f>COUNTIF($C$101:$D$101,"สัญญา")+COUNTIF($C$104:$D$104,"สัญญา")+COUNTIF($C$107:$D$107,"สัญญา")+COUNTIF($C$110:$D$110,"สัญญา")+COUNTIF($C$128:$D$128,"สัญญา")+COUNTIF($C$131:$D$131,"สัญญา")+COUNTIF($H$104:$I$104,"สัญญา")+COUNTIF($H$107:$I$107,"สัญญา")+COUNTIF($H$125:$I$125,"สัญญา")+COUNTIF($H$128:$I$128,"สัญญา")</f>
-        <v/>
-      </c>
-      <c r="U105" s="15">
-        <f>COUNTIF($C$102:$D$102,"สัญญา")+COUNTIF($C$105:$D$105,"สัญญา")+COUNTIF($C$108:$D$108,"สัญญา")+COUNTIF($C$111:$D$111,"สัญญา")+COUNTIF($C$129:$D$129,"สัญญา")+COUNTIF($C$132:$D$132,"สัญญา")+COUNTIF($H$105:$I$105,"สัญญา")+COUNTIF($H$108:$I$108,"สัญญา")+COUNTIF($H$126:$I$126,"สัญญา")+COUNTIF($H$129:$I$129,"สัญญา")</f>
-        <v/>
-      </c>
-      <c r="V105" s="15">
-        <f>SUM(S105:U105)</f>
-        <v/>
-      </c>
-      <c r="X105" s="15" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="Y105" s="15">
+      <c r="Y105" s="9">
         <f>SUM(M105,S105)</f>
         <v/>
       </c>
-      <c r="Z105" s="15">
+      <c r="Z105" s="9">
         <f>SUM(N105,T105)</f>
         <v/>
       </c>
-      <c r="AA105" s="15">
+      <c r="AA105" s="9">
         <f>SUM(O105,U105)</f>
         <v/>
       </c>
-      <c r="AB105" s="15">
+      <c r="AB105" s="9">
         <f>SUM(P105,V105)</f>
         <v/>
       </c>
@@ -4951,103 +4951,103 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C106" s="18" t="inlineStr">
+      <c r="C106" s="14" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D106" s="13" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E106" s="10" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="F106" s="4" t="inlineStr">
+        <is>
+          <t>19*</t>
+        </is>
+      </c>
+      <c r="G106" s="4" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="H106" s="19" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="D106" s="10" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E106" s="16" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="F106" s="4" t="inlineStr">
-        <is>
-          <t>19*</t>
-        </is>
-      </c>
-      <c r="G106" s="4" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="H106" s="9" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="I106" s="14" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="J106" s="12" t="inlineStr">
+      <c r="I106" s="7" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="J106" s="8" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="L106" s="14" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="L106" s="12" t="inlineStr">
+      <c r="M106" s="14" t="inlineStr"/>
+      <c r="N106" s="14">
+        <f>COUNTIF($C$98:$D$98,"วินัย")+COUNTIF($C$113:$D$113,"วินัย")+COUNTIF($C$116:$D$116,"วินัย")+COUNTIF($C$119:$D$119,"วินัย")+COUNTIF($C$122:$D$122,"วินัย")+COUNTIF($C$125:$D$125,"วินัย")+COUNTIF($C$134:$D$134,"วินัย")+COUNTIF($C$137:$D$137,"วินัย")+COUNTIF($C$140:$D$140,"วินัย")+COUNTIF($H$98:$I$98,"วินัย")+COUNTIF($H$101:$I$101,"วินัย")+COUNTIF($H$110:$I$110,"วินัย")+COUNTIF($H$113:$I$113,"วินัย")+COUNTIF($H$116:$I$116,"วินัย")+COUNTIF($H$119:$I$119,"วินัย")+COUNTIF($H$122:$I$122,"วินัย")+COUNTIF($H$131:$I$131,"วินัย")+COUNTIF($H$134:$I$134,"วินัย")+COUNTIF($H$137:$I$137,"วินัย")+COUNTIF($H$140:$I$140,"วินัย")+COUNTIF($H$143:$I$143,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="O106" s="14">
+        <f>COUNTIF($C$99:$D$99,"วินัย")+COUNTIF($C$114:$D$114,"วินัย")+COUNTIF($C$117:$D$117,"วินัย")+COUNTIF($C$120:$D$120,"วินัย")+COUNTIF($C$123:$D$123,"วินัย")+COUNTIF($C$126:$D$126,"วินัย")+COUNTIF($C$135:$D$135,"วินัย")+COUNTIF($C$138:$D$138,"วินัย")+COUNTIF($C$141:$D$141,"วินัย")+COUNTIF($H$99:$I$99,"วินัย")+COUNTIF($H$102:$I$102,"วินัย")+COUNTIF($H$111:$I$111,"วินัย")+COUNTIF($H$114:$I$114,"วินัย")+COUNTIF($H$117:$I$117,"วินัย")+COUNTIF($H$120:$I$120,"วินัย")+COUNTIF($H$123:$I$123,"วินัย")+COUNTIF($H$132:$I$132,"วินัย")+COUNTIF($H$135:$I$135,"วินัย")+COUNTIF($H$138:$I$138,"วินัย")+COUNTIF($H$141:$I$141,"วินัย")+COUNTIF($H$144:$I$144,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="P106" s="14">
+        <f>SUM(M106:O106)</f>
+        <v/>
+      </c>
+      <c r="R106" s="14" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="M106" s="12" t="inlineStr"/>
-      <c r="N106" s="12">
-        <f>COUNTIF($C$98:$D$98,"วินัย")+COUNTIF($C$113:$D$113,"วินัย")+COUNTIF($C$116:$D$116,"วินัย")+COUNTIF($C$119:$D$119,"วินัย")+COUNTIF($C$122:$D$122,"วินัย")+COUNTIF($C$125:$D$125,"วินัย")+COUNTIF($C$134:$D$134,"วินัย")+COUNTIF($C$137:$D$137,"วินัย")+COUNTIF($C$140:$D$140,"วินัย")+COUNTIF($H$98:$I$98,"วินัย")+COUNTIF($H$101:$I$101,"วินัย")+COUNTIF($H$110:$I$110,"วินัย")+COUNTIF($H$113:$I$113,"วินัย")+COUNTIF($H$116:$I$116,"วินัย")+COUNTIF($H$119:$I$119,"วินัย")+COUNTIF($H$122:$I$122,"วินัย")+COUNTIF($H$131:$I$131,"วินัย")+COUNTIF($H$134:$I$134,"วินัย")+COUNTIF($H$137:$I$137,"วินัย")+COUNTIF($H$140:$I$140,"วินัย")+COUNTIF($H$143:$I$143,"วินัย")</f>
-        <v/>
-      </c>
-      <c r="O106" s="12">
-        <f>COUNTIF($C$99:$D$99,"วินัย")+COUNTIF($C$114:$D$114,"วินัย")+COUNTIF($C$117:$D$117,"วินัย")+COUNTIF($C$120:$D$120,"วินัย")+COUNTIF($C$123:$D$123,"วินัย")+COUNTIF($C$126:$D$126,"วินัย")+COUNTIF($C$135:$D$135,"วินัย")+COUNTIF($C$138:$D$138,"วินัย")+COUNTIF($C$141:$D$141,"วินัย")+COUNTIF($H$99:$I$99,"วินัย")+COUNTIF($H$102:$I$102,"วินัย")+COUNTIF($H$111:$I$111,"วินัย")+COUNTIF($H$114:$I$114,"วินัย")+COUNTIF($H$117:$I$117,"วินัย")+COUNTIF($H$120:$I$120,"วินัย")+COUNTIF($H$123:$I$123,"วินัย")+COUNTIF($H$132:$I$132,"วินัย")+COUNTIF($H$135:$I$135,"วินัย")+COUNTIF($H$138:$I$138,"วินัย")+COUNTIF($H$141:$I$141,"วินัย")+COUNTIF($H$144:$I$144,"วินัย")</f>
-        <v/>
-      </c>
-      <c r="P106" s="12">
-        <f>SUM(M106:O106)</f>
-        <v/>
-      </c>
-      <c r="R106" s="12" t="inlineStr">
+      <c r="S106" s="14">
+        <f>COUNTIF($C$100:$D$100,"วินัย")+COUNTIF($C$103:$D$103,"วินัย")+COUNTIF($C$106:$D$106,"วินัย")+COUNTIF($C$109:$D$109,"วินัย")+COUNTIF($C$127:$D$127,"วินัย")+COUNTIF($C$130:$D$130,"วินัย")+COUNTIF($H$103:$I$103,"วินัย")+COUNTIF($H$106:$I$106,"วินัย")+COUNTIF($H$124:$I$124,"วินัย")+COUNTIF($H$127:$I$127,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="T106" s="14">
+        <f>COUNTIF($C$101:$D$101,"วินัย")+COUNTIF($C$104:$D$104,"วินัย")+COUNTIF($C$107:$D$107,"วินัย")+COUNTIF($C$110:$D$110,"วินัย")+COUNTIF($C$128:$D$128,"วินัย")+COUNTIF($C$131:$D$131,"วินัย")+COUNTIF($H$104:$I$104,"วินัย")+COUNTIF($H$107:$I$107,"วินัย")+COUNTIF($H$125:$I$125,"วินัย")+COUNTIF($H$128:$I$128,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="U106" s="14">
+        <f>COUNTIF($C$102:$D$102,"วินัย")+COUNTIF($C$105:$D$105,"วินัย")+COUNTIF($C$108:$D$108,"วินัย")+COUNTIF($C$111:$D$111,"วินัย")+COUNTIF($C$129:$D$129,"วินัย")+COUNTIF($C$132:$D$132,"วินัย")+COUNTIF($H$105:$I$105,"วินัย")+COUNTIF($H$108:$I$108,"วินัย")+COUNTIF($H$126:$I$126,"วินัย")+COUNTIF($H$129:$I$129,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="V106" s="14">
+        <f>SUM(S106:U106)</f>
+        <v/>
+      </c>
+      <c r="X106" s="14" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="S106" s="12">
-        <f>COUNTIF($C$100:$D$100,"วินัย")+COUNTIF($C$103:$D$103,"วินัย")+COUNTIF($C$106:$D$106,"วินัย")+COUNTIF($C$109:$D$109,"วินัย")+COUNTIF($C$127:$D$127,"วินัย")+COUNTIF($C$130:$D$130,"วินัย")+COUNTIF($H$103:$I$103,"วินัย")+COUNTIF($H$106:$I$106,"วินัย")+COUNTIF($H$124:$I$124,"วินัย")+COUNTIF($H$127:$I$127,"วินัย")</f>
-        <v/>
-      </c>
-      <c r="T106" s="12">
-        <f>COUNTIF($C$101:$D$101,"วินัย")+COUNTIF($C$104:$D$104,"วินัย")+COUNTIF($C$107:$D$107,"วินัย")+COUNTIF($C$110:$D$110,"วินัย")+COUNTIF($C$128:$D$128,"วินัย")+COUNTIF($C$131:$D$131,"วินัย")+COUNTIF($H$104:$I$104,"วินัย")+COUNTIF($H$107:$I$107,"วินัย")+COUNTIF($H$125:$I$125,"วินัย")+COUNTIF($H$128:$I$128,"วินัย")</f>
-        <v/>
-      </c>
-      <c r="U106" s="12">
-        <f>COUNTIF($C$102:$D$102,"วินัย")+COUNTIF($C$105:$D$105,"วินัย")+COUNTIF($C$108:$D$108,"วินัย")+COUNTIF($C$111:$D$111,"วินัย")+COUNTIF($C$129:$D$129,"วินัย")+COUNTIF($C$132:$D$132,"วินัย")+COUNTIF($H$105:$I$105,"วินัย")+COUNTIF($H$108:$I$108,"วินัย")+COUNTIF($H$126:$I$126,"วินัย")+COUNTIF($H$129:$I$129,"วินัย")</f>
-        <v/>
-      </c>
-      <c r="V106" s="12">
-        <f>SUM(S106:U106)</f>
-        <v/>
-      </c>
-      <c r="X106" s="12" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="Y106" s="12">
+      <c r="Y106" s="14">
         <f>SUM(M106,S106)</f>
         <v/>
       </c>
-      <c r="Z106" s="12">
+      <c r="Z106" s="14">
         <f>SUM(N106,T106)</f>
         <v/>
       </c>
-      <c r="AA106" s="12">
+      <c r="AA106" s="14">
         <f>SUM(O106,U106)</f>
         <v/>
       </c>
-      <c r="AB106" s="12">
+      <c r="AB106" s="14">
         <f>SUM(P106,V106)</f>
         <v/>
       </c>
@@ -5064,14 +5064,14 @@
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="D107" s="17" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
+      <c r="D107" s="11" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="E107" s="9" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="F107" s="5" t="n"/>
@@ -5080,19 +5080,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="H107" s="11" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
+      <c r="H107" s="14" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="I107" s="13" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="J107" s="15" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="J107" s="12" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="L107" s="6" t="inlineStr">
@@ -5163,19 +5163,19 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C108" s="6" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="D108" s="19" t="inlineStr">
+      <c r="C108" s="8" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D108" s="11" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
       <c r="E108" s="9" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="F108" s="5" t="n"/>
@@ -5184,78 +5184,78 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="H108" s="18" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="I108" s="17" t="inlineStr">
+      <c r="H108" s="14" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="I108" s="13" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="J108" s="6" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="L108" s="13" t="inlineStr">
+      <c r="J108" s="12" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="L108" s="7" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="M108" s="13" t="inlineStr"/>
-      <c r="N108" s="13">
+      <c r="M108" s="7" t="inlineStr"/>
+      <c r="N108" s="7">
         <f>COUNTIF($C$98:$D$98,"วัฒพงษ์")+COUNTIF($C$113:$D$113,"วัฒพงษ์")+COUNTIF($C$116:$D$116,"วัฒพงษ์")+COUNTIF($C$119:$D$119,"วัฒพงษ์")+COUNTIF($C$122:$D$122,"วัฒพงษ์")+COUNTIF($C$125:$D$125,"วัฒพงษ์")+COUNTIF($C$134:$D$134,"วัฒพงษ์")+COUNTIF($C$137:$D$137,"วัฒพงษ์")+COUNTIF($C$140:$D$140,"วัฒพงษ์")+COUNTIF($H$98:$I$98,"วัฒพงษ์")+COUNTIF($H$101:$I$101,"วัฒพงษ์")+COUNTIF($H$110:$I$110,"วัฒพงษ์")+COUNTIF($H$113:$I$113,"วัฒพงษ์")+COUNTIF($H$116:$I$116,"วัฒพงษ์")+COUNTIF($H$119:$I$119,"วัฒพงษ์")+COUNTIF($H$122:$I$122,"วัฒพงษ์")+COUNTIF($H$131:$I$131,"วัฒพงษ์")+COUNTIF($H$134:$I$134,"วัฒพงษ์")+COUNTIF($H$137:$I$137,"วัฒพงษ์")+COUNTIF($H$140:$I$140,"วัฒพงษ์")+COUNTIF($H$143:$I$143,"วัฒพงษ์")</f>
         <v/>
       </c>
-      <c r="O108" s="13">
+      <c r="O108" s="7">
         <f>COUNTIF($C$99:$D$99,"วัฒพงษ์")+COUNTIF($C$114:$D$114,"วัฒพงษ์")+COUNTIF($C$117:$D$117,"วัฒพงษ์")+COUNTIF($C$120:$D$120,"วัฒพงษ์")+COUNTIF($C$123:$D$123,"วัฒพงษ์")+COUNTIF($C$126:$D$126,"วัฒพงษ์")+COUNTIF($C$135:$D$135,"วัฒพงษ์")+COUNTIF($C$138:$D$138,"วัฒพงษ์")+COUNTIF($C$141:$D$141,"วัฒพงษ์")+COUNTIF($H$99:$I$99,"วัฒพงษ์")+COUNTIF($H$102:$I$102,"วัฒพงษ์")+COUNTIF($H$111:$I$111,"วัฒพงษ์")+COUNTIF($H$114:$I$114,"วัฒพงษ์")+COUNTIF($H$117:$I$117,"วัฒพงษ์")+COUNTIF($H$120:$I$120,"วัฒพงษ์")+COUNTIF($H$123:$I$123,"วัฒพงษ์")+COUNTIF($H$132:$I$132,"วัฒพงษ์")+COUNTIF($H$135:$I$135,"วัฒพงษ์")+COUNTIF($H$138:$I$138,"วัฒพงษ์")+COUNTIF($H$141:$I$141,"วัฒพงษ์")+COUNTIF($H$144:$I$144,"วัฒพงษ์")</f>
         <v/>
       </c>
-      <c r="P108" s="13">
+      <c r="P108" s="7">
         <f>SUM(M108:O108)</f>
         <v/>
       </c>
-      <c r="R108" s="13" t="inlineStr">
+      <c r="R108" s="7" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="S108" s="13">
+      <c r="S108" s="7">
         <f>COUNTIF($C$100:$D$100,"วัฒพงษ์")+COUNTIF($C$103:$D$103,"วัฒพงษ์")+COUNTIF($C$106:$D$106,"วัฒพงษ์")+COUNTIF($C$109:$D$109,"วัฒพงษ์")+COUNTIF($C$127:$D$127,"วัฒพงษ์")+COUNTIF($C$130:$D$130,"วัฒพงษ์")+COUNTIF($H$103:$I$103,"วัฒพงษ์")+COUNTIF($H$106:$I$106,"วัฒพงษ์")+COUNTIF($H$124:$I$124,"วัฒพงษ์")+COUNTIF($H$127:$I$127,"วัฒพงษ์")</f>
         <v/>
       </c>
-      <c r="T108" s="13">
+      <c r="T108" s="7">
         <f>COUNTIF($C$101:$D$101,"วัฒพงษ์")+COUNTIF($C$104:$D$104,"วัฒพงษ์")+COUNTIF($C$107:$D$107,"วัฒพงษ์")+COUNTIF($C$110:$D$110,"วัฒพงษ์")+COUNTIF($C$128:$D$128,"วัฒพงษ์")+COUNTIF($C$131:$D$131,"วัฒพงษ์")+COUNTIF($H$104:$I$104,"วัฒพงษ์")+COUNTIF($H$107:$I$107,"วัฒพงษ์")+COUNTIF($H$125:$I$125,"วัฒพงษ์")+COUNTIF($H$128:$I$128,"วัฒพงษ์")</f>
         <v/>
       </c>
-      <c r="U108" s="13">
+      <c r="U108" s="7">
         <f>COUNTIF($C$102:$D$102,"วัฒพงษ์")+COUNTIF($C$105:$D$105,"วัฒพงษ์")+COUNTIF($C$108:$D$108,"วัฒพงษ์")+COUNTIF($C$111:$D$111,"วัฒพงษ์")+COUNTIF($C$129:$D$129,"วัฒพงษ์")+COUNTIF($C$132:$D$132,"วัฒพงษ์")+COUNTIF($H$105:$I$105,"วัฒพงษ์")+COUNTIF($H$108:$I$108,"วัฒพงษ์")+COUNTIF($H$126:$I$126,"วัฒพงษ์")+COUNTIF($H$129:$I$129,"วัฒพงษ์")</f>
         <v/>
       </c>
-      <c r="V108" s="13">
+      <c r="V108" s="7">
         <f>SUM(S108:U108)</f>
         <v/>
       </c>
-      <c r="X108" s="13" t="inlineStr">
+      <c r="X108" s="7" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="Y108" s="13">
+      <c r="Y108" s="7">
         <f>SUM(M108,S108)</f>
         <v/>
       </c>
-      <c r="Z108" s="13">
+      <c r="Z108" s="7">
         <f>SUM(N108,T108)</f>
         <v/>
       </c>
-      <c r="AA108" s="13">
+      <c r="AA108" s="7">
         <f>SUM(O108,U108)</f>
         <v/>
       </c>
-      <c r="AB108" s="13">
+      <c r="AB108" s="7">
         <f>SUM(P108,V108)</f>
         <v/>
       </c>
@@ -5271,19 +5271,19 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C109" s="12" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D109" s="14" t="inlineStr">
+      <c r="C109" s="15" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D109" s="16" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="E109" s="17" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
+      <c r="E109" s="18" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="F109" s="1" t="inlineStr">
@@ -5291,63 +5291,63 @@
           <t>20</t>
         </is>
       </c>
-      <c r="L109" s="14" t="inlineStr">
+      <c r="L109" s="16" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="M109" s="14" t="inlineStr"/>
-      <c r="N109" s="14">
+      <c r="M109" s="16" t="inlineStr"/>
+      <c r="N109" s="16">
         <f>COUNTIF($C$98:$D$98,"ราเชน")+COUNTIF($C$113:$D$113,"ราเชน")+COUNTIF($C$116:$D$116,"ราเชน")+COUNTIF($C$119:$D$119,"ราเชน")+COUNTIF($C$122:$D$122,"ราเชน")+COUNTIF($C$125:$D$125,"ราเชน")+COUNTIF($C$134:$D$134,"ราเชน")+COUNTIF($C$137:$D$137,"ราเชน")+COUNTIF($C$140:$D$140,"ราเชน")+COUNTIF($H$98:$I$98,"ราเชน")+COUNTIF($H$101:$I$101,"ราเชน")+COUNTIF($H$110:$I$110,"ราเชน")+COUNTIF($H$113:$I$113,"ราเชน")+COUNTIF($H$116:$I$116,"ราเชน")+COUNTIF($H$119:$I$119,"ราเชน")+COUNTIF($H$122:$I$122,"ราเชน")+COUNTIF($H$131:$I$131,"ราเชน")+COUNTIF($H$134:$I$134,"ราเชน")+COUNTIF($H$137:$I$137,"ราเชน")+COUNTIF($H$140:$I$140,"ราเชน")+COUNTIF($H$143:$I$143,"ราเชน")</f>
         <v/>
       </c>
-      <c r="O109" s="14">
+      <c r="O109" s="16">
         <f>COUNTIF($C$99:$D$99,"ราเชน")+COUNTIF($C$114:$D$114,"ราเชน")+COUNTIF($C$117:$D$117,"ราเชน")+COUNTIF($C$120:$D$120,"ราเชน")+COUNTIF($C$123:$D$123,"ราเชน")+COUNTIF($C$126:$D$126,"ราเชน")+COUNTIF($C$135:$D$135,"ราเชน")+COUNTIF($C$138:$D$138,"ราเชน")+COUNTIF($C$141:$D$141,"ราเชน")+COUNTIF($H$99:$I$99,"ราเชน")+COUNTIF($H$102:$I$102,"ราเชน")+COUNTIF($H$111:$I$111,"ราเชน")+COUNTIF($H$114:$I$114,"ราเชน")+COUNTIF($H$117:$I$117,"ราเชน")+COUNTIF($H$120:$I$120,"ราเชน")+COUNTIF($H$123:$I$123,"ราเชน")+COUNTIF($H$132:$I$132,"ราเชน")+COUNTIF($H$135:$I$135,"ราเชน")+COUNTIF($H$138:$I$138,"ราเชน")+COUNTIF($H$141:$I$141,"ราเชน")+COUNTIF($H$144:$I$144,"ราเชน")</f>
         <v/>
       </c>
-      <c r="P109" s="14">
+      <c r="P109" s="16">
         <f>SUM(M109:O109)</f>
         <v/>
       </c>
-      <c r="R109" s="14" t="inlineStr">
+      <c r="R109" s="16" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="S109" s="14">
+      <c r="S109" s="16">
         <f>COUNTIF($C$100:$D$100,"ราเชน")+COUNTIF($C$103:$D$103,"ราเชน")+COUNTIF($C$106:$D$106,"ราเชน")+COUNTIF($C$109:$D$109,"ราเชน")+COUNTIF($C$127:$D$127,"ราเชน")+COUNTIF($C$130:$D$130,"ราเชน")+COUNTIF($H$103:$I$103,"ราเชน")+COUNTIF($H$106:$I$106,"ราเชน")+COUNTIF($H$124:$I$124,"ราเชน")+COUNTIF($H$127:$I$127,"ราเชน")</f>
         <v/>
       </c>
-      <c r="T109" s="14">
+      <c r="T109" s="16">
         <f>COUNTIF($C$101:$D$101,"ราเชน")+COUNTIF($C$104:$D$104,"ราเชน")+COUNTIF($C$107:$D$107,"ราเชน")+COUNTIF($C$110:$D$110,"ราเชน")+COUNTIF($C$128:$D$128,"ราเชน")+COUNTIF($C$131:$D$131,"ราเชน")+COUNTIF($H$104:$I$104,"ราเชน")+COUNTIF($H$107:$I$107,"ราเชน")+COUNTIF($H$125:$I$125,"ราเชน")+COUNTIF($H$128:$I$128,"ราเชน")</f>
         <v/>
       </c>
-      <c r="U109" s="14">
+      <c r="U109" s="16">
         <f>COUNTIF($C$102:$D$102,"ราเชน")+COUNTIF($C$105:$D$105,"ราเชน")+COUNTIF($C$108:$D$108,"ราเชน")+COUNTIF($C$111:$D$111,"ราเชน")+COUNTIF($C$129:$D$129,"ราเชน")+COUNTIF($C$132:$D$132,"ราเชน")+COUNTIF($H$105:$I$105,"ราเชน")+COUNTIF($H$108:$I$108,"ราเชน")+COUNTIF($H$126:$I$126,"ราเชน")+COUNTIF($H$129:$I$129,"ราเชน")</f>
         <v/>
       </c>
-      <c r="V109" s="14">
+      <c r="V109" s="16">
         <f>SUM(S109:U109)</f>
         <v/>
       </c>
-      <c r="X109" s="14" t="inlineStr">
+      <c r="X109" s="16" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="Y109" s="14">
+      <c r="Y109" s="16">
         <f>SUM(M109,S109)</f>
         <v/>
       </c>
-      <c r="Z109" s="14">
+      <c r="Z109" s="16">
         <f>SUM(N109,T109)</f>
         <v/>
       </c>
-      <c r="AA109" s="14">
+      <c r="AA109" s="16">
         <f>SUM(O109,U109)</f>
         <v/>
       </c>
-      <c r="AB109" s="14">
+      <c r="AB109" s="16">
         <f>SUM(P109,V109)</f>
         <v/>
       </c>
@@ -5359,98 +5359,98 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C110" s="16" t="inlineStr">
+      <c r="C110" s="12" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D110" s="17" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E110" s="19" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="G110" s="1" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H110" s="15" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="D110" s="19" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E110" s="11" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="G110" s="1" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H110" s="9" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="I110" s="13" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="J110" s="11" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="L110" s="17" t="inlineStr">
+      <c r="I110" s="16" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="J110" s="17" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="L110" s="13" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="M110" s="17" t="inlineStr"/>
-      <c r="N110" s="17">
+      <c r="M110" s="13" t="inlineStr"/>
+      <c r="N110" s="13">
         <f>COUNTIF($C$98:$D$98,"นฤชิต")+COUNTIF($C$113:$D$113,"นฤชิต")+COUNTIF($C$116:$D$116,"นฤชิต")+COUNTIF($C$119:$D$119,"นฤชิต")+COUNTIF($C$122:$D$122,"นฤชิต")+COUNTIF($C$125:$D$125,"นฤชิต")+COUNTIF($C$134:$D$134,"นฤชิต")+COUNTIF($C$137:$D$137,"นฤชิต")+COUNTIF($C$140:$D$140,"นฤชิต")+COUNTIF($H$98:$I$98,"นฤชิต")+COUNTIF($H$101:$I$101,"นฤชิต")+COUNTIF($H$110:$I$110,"นฤชิต")+COUNTIF($H$113:$I$113,"นฤชิต")+COUNTIF($H$116:$I$116,"นฤชิต")+COUNTIF($H$119:$I$119,"นฤชิต")+COUNTIF($H$122:$I$122,"นฤชิต")+COUNTIF($H$131:$I$131,"นฤชิต")+COUNTIF($H$134:$I$134,"นฤชิต")+COUNTIF($H$137:$I$137,"นฤชิต")+COUNTIF($H$140:$I$140,"นฤชิต")+COUNTIF($H$143:$I$143,"นฤชิต")</f>
         <v/>
       </c>
-      <c r="O110" s="17">
+      <c r="O110" s="13">
         <f>COUNTIF($C$99:$D$99,"นฤชิต")+COUNTIF($C$114:$D$114,"นฤชิต")+COUNTIF($C$117:$D$117,"นฤชิต")+COUNTIF($C$120:$D$120,"นฤชิต")+COUNTIF($C$123:$D$123,"นฤชิต")+COUNTIF($C$126:$D$126,"นฤชิต")+COUNTIF($C$135:$D$135,"นฤชิต")+COUNTIF($C$138:$D$138,"นฤชิต")+COUNTIF($C$141:$D$141,"นฤชิต")+COUNTIF($H$99:$I$99,"นฤชิต")+COUNTIF($H$102:$I$102,"นฤชิต")+COUNTIF($H$111:$I$111,"นฤชิต")+COUNTIF($H$114:$I$114,"นฤชิต")+COUNTIF($H$117:$I$117,"นฤชิต")+COUNTIF($H$120:$I$120,"นฤชิต")+COUNTIF($H$123:$I$123,"นฤชิต")+COUNTIF($H$132:$I$132,"นฤชิต")+COUNTIF($H$135:$I$135,"นฤชิต")+COUNTIF($H$138:$I$138,"นฤชิต")+COUNTIF($H$141:$I$141,"นฤชิต")+COUNTIF($H$144:$I$144,"นฤชิต")</f>
         <v/>
       </c>
-      <c r="P110" s="17">
+      <c r="P110" s="13">
         <f>SUM(M110:O110)</f>
         <v/>
       </c>
-      <c r="R110" s="17" t="inlineStr">
+      <c r="R110" s="13" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="S110" s="17">
+      <c r="S110" s="13">
         <f>COUNTIF($C$100:$D$100,"นฤชิต")+COUNTIF($C$103:$D$103,"นฤชิต")+COUNTIF($C$106:$D$106,"นฤชิต")+COUNTIF($C$109:$D$109,"นฤชิต")+COUNTIF($C$127:$D$127,"นฤชิต")+COUNTIF($C$130:$D$130,"นฤชิต")+COUNTIF($H$103:$I$103,"นฤชิต")+COUNTIF($H$106:$I$106,"นฤชิต")+COUNTIF($H$124:$I$124,"นฤชิต")+COUNTIF($H$127:$I$127,"นฤชิต")</f>
         <v/>
       </c>
-      <c r="T110" s="17">
+      <c r="T110" s="13">
         <f>COUNTIF($C$101:$D$101,"นฤชิต")+COUNTIF($C$104:$D$104,"นฤชิต")+COUNTIF($C$107:$D$107,"นฤชิต")+COUNTIF($C$110:$D$110,"นฤชิต")+COUNTIF($C$128:$D$128,"นฤชิต")+COUNTIF($C$131:$D$131,"นฤชิต")+COUNTIF($H$104:$I$104,"นฤชิต")+COUNTIF($H$107:$I$107,"นฤชิต")+COUNTIF($H$125:$I$125,"นฤชิต")+COUNTIF($H$128:$I$128,"นฤชิต")</f>
         <v/>
       </c>
-      <c r="U110" s="17">
+      <c r="U110" s="13">
         <f>COUNTIF($C$102:$D$102,"นฤชิต")+COUNTIF($C$105:$D$105,"นฤชิต")+COUNTIF($C$108:$D$108,"นฤชิต")+COUNTIF($C$111:$D$111,"นฤชิต")+COUNTIF($C$129:$D$129,"นฤชิต")+COUNTIF($C$132:$D$132,"นฤชิต")+COUNTIF($H$105:$I$105,"นฤชิต")+COUNTIF($H$108:$I$108,"นฤชิต")+COUNTIF($H$126:$I$126,"นฤชิต")+COUNTIF($H$129:$I$129,"นฤชิต")</f>
         <v/>
       </c>
-      <c r="V110" s="17">
+      <c r="V110" s="13">
         <f>SUM(S110:U110)</f>
         <v/>
       </c>
-      <c r="X110" s="17" t="inlineStr">
+      <c r="X110" s="13" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="Y110" s="17">
+      <c r="Y110" s="13">
         <f>SUM(M110,S110)</f>
         <v/>
       </c>
-      <c r="Z110" s="17">
+      <c r="Z110" s="13">
         <f>SUM(N110,T110)</f>
         <v/>
       </c>
-      <c r="AA110" s="17">
+      <c r="AA110" s="13">
         <f>SUM(O110,U110)</f>
         <v/>
       </c>
-      <c r="AB110" s="17">
+      <c r="AB110" s="13">
         <f>SUM(P110,V110)</f>
         <v/>
       </c>
@@ -5462,98 +5462,98 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C111" s="8" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D111" s="10" t="inlineStr">
+      <c r="C111" s="12" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D111" s="17" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="E111" s="7" t="inlineStr">
+      <c r="E111" s="19" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="G111" s="1" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H111" s="15" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="I111" s="16" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="J111" s="17" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="L111" s="10" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="G111" s="1" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H111" s="16" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="I111" s="17" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="J111" s="10" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="L111" s="7" t="inlineStr">
+      <c r="M111" s="10" t="inlineStr"/>
+      <c r="N111" s="10">
+        <f>COUNTIF($C$98:$D$98,"จีรวัฒน์")+COUNTIF($C$113:$D$113,"จีรวัฒน์")+COUNTIF($C$116:$D$116,"จีรวัฒน์")+COUNTIF($C$119:$D$119,"จีรวัฒน์")+COUNTIF($C$122:$D$122,"จีรวัฒน์")+COUNTIF($C$125:$D$125,"จีรวัฒน์")+COUNTIF($C$134:$D$134,"จีรวัฒน์")+COUNTIF($C$137:$D$137,"จีรวัฒน์")+COUNTIF($C$140:$D$140,"จีรวัฒน์")+COUNTIF($H$98:$I$98,"จีรวัฒน์")+COUNTIF($H$101:$I$101,"จีรวัฒน์")+COUNTIF($H$110:$I$110,"จีรวัฒน์")+COUNTIF($H$113:$I$113,"จีรวัฒน์")+COUNTIF($H$116:$I$116,"จีรวัฒน์")+COUNTIF($H$119:$I$119,"จีรวัฒน์")+COUNTIF($H$122:$I$122,"จีรวัฒน์")+COUNTIF($H$131:$I$131,"จีรวัฒน์")+COUNTIF($H$134:$I$134,"จีรวัฒน์")+COUNTIF($H$137:$I$137,"จีรวัฒน์")+COUNTIF($H$140:$I$140,"จีรวัฒน์")+COUNTIF($H$143:$I$143,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="O111" s="10">
+        <f>COUNTIF($C$99:$D$99,"จีรวัฒน์")+COUNTIF($C$114:$D$114,"จีรวัฒน์")+COUNTIF($C$117:$D$117,"จีรวัฒน์")+COUNTIF($C$120:$D$120,"จีรวัฒน์")+COUNTIF($C$123:$D$123,"จีรวัฒน์")+COUNTIF($C$126:$D$126,"จีรวัฒน์")+COUNTIF($C$135:$D$135,"จีรวัฒน์")+COUNTIF($C$138:$D$138,"จีรวัฒน์")+COUNTIF($C$141:$D$141,"จีรวัฒน์")+COUNTIF($H$99:$I$99,"จีรวัฒน์")+COUNTIF($H$102:$I$102,"จีรวัฒน์")+COUNTIF($H$111:$I$111,"จีรวัฒน์")+COUNTIF($H$114:$I$114,"จีรวัฒน์")+COUNTIF($H$117:$I$117,"จีรวัฒน์")+COUNTIF($H$120:$I$120,"จีรวัฒน์")+COUNTIF($H$123:$I$123,"จีรวัฒน์")+COUNTIF($H$132:$I$132,"จีรวัฒน์")+COUNTIF($H$135:$I$135,"จีรวัฒน์")+COUNTIF($H$138:$I$138,"จีรวัฒน์")+COUNTIF($H$141:$I$141,"จีรวัฒน์")+COUNTIF($H$144:$I$144,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="P111" s="10">
+        <f>SUM(M111:O111)</f>
+        <v/>
+      </c>
+      <c r="R111" s="10" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="M111" s="7" t="inlineStr"/>
-      <c r="N111" s="7">
-        <f>COUNTIF($C$98:$D$98,"จีรวัฒน์")+COUNTIF($C$113:$D$113,"จีรวัฒน์")+COUNTIF($C$116:$D$116,"จีรวัฒน์")+COUNTIF($C$119:$D$119,"จีรวัฒน์")+COUNTIF($C$122:$D$122,"จีรวัฒน์")+COUNTIF($C$125:$D$125,"จีรวัฒน์")+COUNTIF($C$134:$D$134,"จีรวัฒน์")+COUNTIF($C$137:$D$137,"จีรวัฒน์")+COUNTIF($C$140:$D$140,"จีรวัฒน์")+COUNTIF($H$98:$I$98,"จีรวัฒน์")+COUNTIF($H$101:$I$101,"จีรวัฒน์")+COUNTIF($H$110:$I$110,"จีรวัฒน์")+COUNTIF($H$113:$I$113,"จีรวัฒน์")+COUNTIF($H$116:$I$116,"จีรวัฒน์")+COUNTIF($H$119:$I$119,"จีรวัฒน์")+COUNTIF($H$122:$I$122,"จีรวัฒน์")+COUNTIF($H$131:$I$131,"จีรวัฒน์")+COUNTIF($H$134:$I$134,"จีรวัฒน์")+COUNTIF($H$137:$I$137,"จีรวัฒน์")+COUNTIF($H$140:$I$140,"จีรวัฒน์")+COUNTIF($H$143:$I$143,"จีรวัฒน์")</f>
-        <v/>
-      </c>
-      <c r="O111" s="7">
-        <f>COUNTIF($C$99:$D$99,"จีรวัฒน์")+COUNTIF($C$114:$D$114,"จีรวัฒน์")+COUNTIF($C$117:$D$117,"จีรวัฒน์")+COUNTIF($C$120:$D$120,"จีรวัฒน์")+COUNTIF($C$123:$D$123,"จีรวัฒน์")+COUNTIF($C$126:$D$126,"จีรวัฒน์")+COUNTIF($C$135:$D$135,"จีรวัฒน์")+COUNTIF($C$138:$D$138,"จีรวัฒน์")+COUNTIF($C$141:$D$141,"จีรวัฒน์")+COUNTIF($H$99:$I$99,"จีรวัฒน์")+COUNTIF($H$102:$I$102,"จีรวัฒน์")+COUNTIF($H$111:$I$111,"จีรวัฒน์")+COUNTIF($H$114:$I$114,"จีรวัฒน์")+COUNTIF($H$117:$I$117,"จีรวัฒน์")+COUNTIF($H$120:$I$120,"จีรวัฒน์")+COUNTIF($H$123:$I$123,"จีรวัฒน์")+COUNTIF($H$132:$I$132,"จีรวัฒน์")+COUNTIF($H$135:$I$135,"จีรวัฒน์")+COUNTIF($H$138:$I$138,"จีรวัฒน์")+COUNTIF($H$141:$I$141,"จีรวัฒน์")+COUNTIF($H$144:$I$144,"จีรวัฒน์")</f>
-        <v/>
-      </c>
-      <c r="P111" s="7">
-        <f>SUM(M111:O111)</f>
-        <v/>
-      </c>
-      <c r="R111" s="7" t="inlineStr">
+      <c r="S111" s="10">
+        <f>COUNTIF($C$100:$D$100,"จีรวัฒน์")+COUNTIF($C$103:$D$103,"จีรวัฒน์")+COUNTIF($C$106:$D$106,"จีรวัฒน์")+COUNTIF($C$109:$D$109,"จีรวัฒน์")+COUNTIF($C$127:$D$127,"จีรวัฒน์")+COUNTIF($C$130:$D$130,"จีรวัฒน์")+COUNTIF($H$103:$I$103,"จีรวัฒน์")+COUNTIF($H$106:$I$106,"จีรวัฒน์")+COUNTIF($H$124:$I$124,"จีรวัฒน์")+COUNTIF($H$127:$I$127,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="T111" s="10">
+        <f>COUNTIF($C$101:$D$101,"จีรวัฒน์")+COUNTIF($C$104:$D$104,"จีรวัฒน์")+COUNTIF($C$107:$D$107,"จีรวัฒน์")+COUNTIF($C$110:$D$110,"จีรวัฒน์")+COUNTIF($C$128:$D$128,"จีรวัฒน์")+COUNTIF($C$131:$D$131,"จีรวัฒน์")+COUNTIF($H$104:$I$104,"จีรวัฒน์")+COUNTIF($H$107:$I$107,"จีรวัฒน์")+COUNTIF($H$125:$I$125,"จีรวัฒน์")+COUNTIF($H$128:$I$128,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="U111" s="10">
+        <f>COUNTIF($C$102:$D$102,"จีรวัฒน์")+COUNTIF($C$105:$D$105,"จีรวัฒน์")+COUNTIF($C$108:$D$108,"จีรวัฒน์")+COUNTIF($C$111:$D$111,"จีรวัฒน์")+COUNTIF($C$129:$D$129,"จีรวัฒน์")+COUNTIF($C$132:$D$132,"จีรวัฒน์")+COUNTIF($H$105:$I$105,"จีรวัฒน์")+COUNTIF($H$108:$I$108,"จีรวัฒน์")+COUNTIF($H$126:$I$126,"จีรวัฒน์")+COUNTIF($H$129:$I$129,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="V111" s="10">
+        <f>SUM(S111:U111)</f>
+        <v/>
+      </c>
+      <c r="X111" s="10" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="S111" s="7">
-        <f>COUNTIF($C$100:$D$100,"จีรวัฒน์")+COUNTIF($C$103:$D$103,"จีรวัฒน์")+COUNTIF($C$106:$D$106,"จีรวัฒน์")+COUNTIF($C$109:$D$109,"จีรวัฒน์")+COUNTIF($C$127:$D$127,"จีรวัฒน์")+COUNTIF($C$130:$D$130,"จีรวัฒน์")+COUNTIF($H$103:$I$103,"จีรวัฒน์")+COUNTIF($H$106:$I$106,"จีรวัฒน์")+COUNTIF($H$124:$I$124,"จีรวัฒน์")+COUNTIF($H$127:$I$127,"จีรวัฒน์")</f>
-        <v/>
-      </c>
-      <c r="T111" s="7">
-        <f>COUNTIF($C$101:$D$101,"จีรวัฒน์")+COUNTIF($C$104:$D$104,"จีรวัฒน์")+COUNTIF($C$107:$D$107,"จีรวัฒน์")+COUNTIF($C$110:$D$110,"จีรวัฒน์")+COUNTIF($C$128:$D$128,"จีรวัฒน์")+COUNTIF($C$131:$D$131,"จีรวัฒน์")+COUNTIF($H$104:$I$104,"จีรวัฒน์")+COUNTIF($H$107:$I$107,"จีรวัฒน์")+COUNTIF($H$125:$I$125,"จีรวัฒน์")+COUNTIF($H$128:$I$128,"จีรวัฒน์")</f>
-        <v/>
-      </c>
-      <c r="U111" s="7">
-        <f>COUNTIF($C$102:$D$102,"จีรวัฒน์")+COUNTIF($C$105:$D$105,"จีรวัฒน์")+COUNTIF($C$108:$D$108,"จีรวัฒน์")+COUNTIF($C$111:$D$111,"จีรวัฒน์")+COUNTIF($C$129:$D$129,"จีรวัฒน์")+COUNTIF($C$132:$D$132,"จีรวัฒน์")+COUNTIF($H$105:$I$105,"จีรวัฒน์")+COUNTIF($H$108:$I$108,"จีรวัฒน์")+COUNTIF($H$126:$I$126,"จีรวัฒน์")+COUNTIF($H$129:$I$129,"จีรวัฒน์")</f>
-        <v/>
-      </c>
-      <c r="V111" s="7">
-        <f>SUM(S111:U111)</f>
-        <v/>
-      </c>
-      <c r="X111" s="7" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="Y111" s="7">
+      <c r="Y111" s="10">
         <f>SUM(M111,S111)</f>
         <v/>
       </c>
-      <c r="Z111" s="7">
+      <c r="Z111" s="10">
         <f>SUM(N111,T111)</f>
         <v/>
       </c>
-      <c r="AA111" s="7">
+      <c r="AA111" s="10">
         <f>SUM(O111,U111)</f>
         <v/>
       </c>
-      <c r="AB111" s="7">
+      <c r="AB111" s="10">
         <f>SUM(P111,V111)</f>
         <v/>
       </c>
@@ -5569,63 +5569,63 @@
           <t>21</t>
         </is>
       </c>
-      <c r="L112" s="10" t="inlineStr">
+      <c r="L112" s="17" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="M112" s="10" t="inlineStr"/>
-      <c r="N112" s="10">
+      <c r="M112" s="17" t="inlineStr"/>
+      <c r="N112" s="17">
         <f>COUNTIF($C$98:$D$98,"สุเมธร์")+COUNTIF($C$113:$D$113,"สุเมธร์")+COUNTIF($C$116:$D$116,"สุเมธร์")+COUNTIF($C$119:$D$119,"สุเมธร์")+COUNTIF($C$122:$D$122,"สุเมธร์")+COUNTIF($C$125:$D$125,"สุเมธร์")+COUNTIF($C$134:$D$134,"สุเมธร์")+COUNTIF($C$137:$D$137,"สุเมธร์")+COUNTIF($C$140:$D$140,"สุเมธร์")+COUNTIF($H$98:$I$98,"สุเมธร์")+COUNTIF($H$101:$I$101,"สุเมธร์")+COUNTIF($H$110:$I$110,"สุเมธร์")+COUNTIF($H$113:$I$113,"สุเมธร์")+COUNTIF($H$116:$I$116,"สุเมธร์")+COUNTIF($H$119:$I$119,"สุเมธร์")+COUNTIF($H$122:$I$122,"สุเมธร์")+COUNTIF($H$131:$I$131,"สุเมธร์")+COUNTIF($H$134:$I$134,"สุเมธร์")+COUNTIF($H$137:$I$137,"สุเมธร์")+COUNTIF($H$140:$I$140,"สุเมธร์")+COUNTIF($H$143:$I$143,"สุเมธร์")</f>
         <v/>
       </c>
-      <c r="O112" s="10">
+      <c r="O112" s="17">
         <f>COUNTIF($C$99:$D$99,"สุเมธร์")+COUNTIF($C$114:$D$114,"สุเมธร์")+COUNTIF($C$117:$D$117,"สุเมธร์")+COUNTIF($C$120:$D$120,"สุเมธร์")+COUNTIF($C$123:$D$123,"สุเมธร์")+COUNTIF($C$126:$D$126,"สุเมธร์")+COUNTIF($C$135:$D$135,"สุเมธร์")+COUNTIF($C$138:$D$138,"สุเมธร์")+COUNTIF($C$141:$D$141,"สุเมธร์")+COUNTIF($H$99:$I$99,"สุเมธร์")+COUNTIF($H$102:$I$102,"สุเมธร์")+COUNTIF($H$111:$I$111,"สุเมธร์")+COUNTIF($H$114:$I$114,"สุเมธร์")+COUNTIF($H$117:$I$117,"สุเมธร์")+COUNTIF($H$120:$I$120,"สุเมธร์")+COUNTIF($H$123:$I$123,"สุเมธร์")+COUNTIF($H$132:$I$132,"สุเมธร์")+COUNTIF($H$135:$I$135,"สุเมธร์")+COUNTIF($H$138:$I$138,"สุเมธร์")+COUNTIF($H$141:$I$141,"สุเมธร์")+COUNTIF($H$144:$I$144,"สุเมธร์")</f>
         <v/>
       </c>
-      <c r="P112" s="10">
+      <c r="P112" s="17">
         <f>SUM(M112:O112)</f>
         <v/>
       </c>
-      <c r="R112" s="10" t="inlineStr">
+      <c r="R112" s="17" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="S112" s="10">
+      <c r="S112" s="17">
         <f>COUNTIF($C$100:$D$100,"สุเมธร์")+COUNTIF($C$103:$D$103,"สุเมธร์")+COUNTIF($C$106:$D$106,"สุเมธร์")+COUNTIF($C$109:$D$109,"สุเมธร์")+COUNTIF($C$127:$D$127,"สุเมธร์")+COUNTIF($C$130:$D$130,"สุเมธร์")+COUNTIF($H$103:$I$103,"สุเมธร์")+COUNTIF($H$106:$I$106,"สุเมธร์")+COUNTIF($H$124:$I$124,"สุเมธร์")+COUNTIF($H$127:$I$127,"สุเมธร์")</f>
         <v/>
       </c>
-      <c r="T112" s="10">
+      <c r="T112" s="17">
         <f>COUNTIF($C$101:$D$101,"สุเมธร์")+COUNTIF($C$104:$D$104,"สุเมธร์")+COUNTIF($C$107:$D$107,"สุเมธร์")+COUNTIF($C$110:$D$110,"สุเมธร์")+COUNTIF($C$128:$D$128,"สุเมธร์")+COUNTIF($C$131:$D$131,"สุเมธร์")+COUNTIF($H$104:$I$104,"สุเมธร์")+COUNTIF($H$107:$I$107,"สุเมธร์")+COUNTIF($H$125:$I$125,"สุเมธร์")+COUNTIF($H$128:$I$128,"สุเมธร์")</f>
         <v/>
       </c>
-      <c r="U112" s="10">
+      <c r="U112" s="17">
         <f>COUNTIF($C$102:$D$102,"สุเมธร์")+COUNTIF($C$105:$D$105,"สุเมธร์")+COUNTIF($C$108:$D$108,"สุเมธร์")+COUNTIF($C$111:$D$111,"สุเมธร์")+COUNTIF($C$129:$D$129,"สุเมธร์")+COUNTIF($C$132:$D$132,"สุเมธร์")+COUNTIF($H$105:$I$105,"สุเมธร์")+COUNTIF($H$108:$I$108,"สุเมธร์")+COUNTIF($H$126:$I$126,"สุเมธร์")+COUNTIF($H$129:$I$129,"สุเมธร์")</f>
         <v/>
       </c>
-      <c r="V112" s="10">
+      <c r="V112" s="17">
         <f>SUM(S112:U112)</f>
         <v/>
       </c>
-      <c r="X112" s="10" t="inlineStr">
+      <c r="X112" s="17" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="Y112" s="10">
+      <c r="Y112" s="17">
         <f>SUM(M112,S112)</f>
         <v/>
       </c>
-      <c r="Z112" s="10">
+      <c r="Z112" s="17">
         <f>SUM(N112,T112)</f>
         <v/>
       </c>
-      <c r="AA112" s="10">
+      <c r="AA112" s="17">
         <f>SUM(O112,U112)</f>
         <v/>
       </c>
-      <c r="AB112" s="10">
+      <c r="AB112" s="17">
         <f>SUM(P112,V112)</f>
         <v/>
       </c>
@@ -5636,98 +5636,98 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C113" s="8" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D113" s="13" t="inlineStr">
+      <c r="C113" s="6" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D113" s="10" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E113" s="7" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="E113" s="10" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
       <c r="G113" s="1" t="inlineStr">
         <is>
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="H113" s="15" t="inlineStr">
+      <c r="H113" s="9" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
       <c r="I113" s="13" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="J113" s="16" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="L113" s="19" t="inlineStr">
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="J113" s="6" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="L113" s="11" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="M113" s="19" t="inlineStr"/>
-      <c r="N113" s="19">
+      <c r="M113" s="11" t="inlineStr"/>
+      <c r="N113" s="11">
         <f>COUNTIF($C$98:$D$98,"นที")+COUNTIF($C$113:$D$113,"นที")+COUNTIF($C$116:$D$116,"นที")+COUNTIF($C$119:$D$119,"นที")+COUNTIF($C$122:$D$122,"นที")+COUNTIF($C$125:$D$125,"นที")+COUNTIF($C$134:$D$134,"นที")+COUNTIF($C$137:$D$137,"นที")+COUNTIF($C$140:$D$140,"นที")+COUNTIF($H$98:$I$98,"นที")+COUNTIF($H$101:$I$101,"นที")+COUNTIF($H$110:$I$110,"นที")+COUNTIF($H$113:$I$113,"นที")+COUNTIF($H$116:$I$116,"นที")+COUNTIF($H$119:$I$119,"นที")+COUNTIF($H$122:$I$122,"นที")+COUNTIF($H$131:$I$131,"นที")+COUNTIF($H$134:$I$134,"นที")+COUNTIF($H$137:$I$137,"นที")+COUNTIF($H$140:$I$140,"นที")+COUNTIF($H$143:$I$143,"นที")</f>
         <v/>
       </c>
-      <c r="O113" s="19">
+      <c r="O113" s="11">
         <f>COUNTIF($C$99:$D$99,"นที")+COUNTIF($C$114:$D$114,"นที")+COUNTIF($C$117:$D$117,"นที")+COUNTIF($C$120:$D$120,"นที")+COUNTIF($C$123:$D$123,"นที")+COUNTIF($C$126:$D$126,"นที")+COUNTIF($C$135:$D$135,"นที")+COUNTIF($C$138:$D$138,"นที")+COUNTIF($C$141:$D$141,"นที")+COUNTIF($H$99:$I$99,"นที")+COUNTIF($H$102:$I$102,"นที")+COUNTIF($H$111:$I$111,"นที")+COUNTIF($H$114:$I$114,"นที")+COUNTIF($H$117:$I$117,"นที")+COUNTIF($H$120:$I$120,"นที")+COUNTIF($H$123:$I$123,"นที")+COUNTIF($H$132:$I$132,"นที")+COUNTIF($H$135:$I$135,"นที")+COUNTIF($H$138:$I$138,"นที")+COUNTIF($H$141:$I$141,"นที")+COUNTIF($H$144:$I$144,"นที")</f>
         <v/>
       </c>
-      <c r="P113" s="19">
+      <c r="P113" s="11">
         <f>SUM(M113:O113)</f>
         <v/>
       </c>
-      <c r="R113" s="19" t="inlineStr">
+      <c r="R113" s="11" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="S113" s="19">
+      <c r="S113" s="11">
         <f>COUNTIF($C$100:$D$100,"นที")+COUNTIF($C$103:$D$103,"นที")+COUNTIF($C$106:$D$106,"นที")+COUNTIF($C$109:$D$109,"นที")+COUNTIF($C$127:$D$127,"นที")+COUNTIF($C$130:$D$130,"นที")+COUNTIF($H$103:$I$103,"นที")+COUNTIF($H$106:$I$106,"นที")+COUNTIF($H$124:$I$124,"นที")+COUNTIF($H$127:$I$127,"นที")</f>
         <v/>
       </c>
-      <c r="T113" s="19">
+      <c r="T113" s="11">
         <f>COUNTIF($C$101:$D$101,"นที")+COUNTIF($C$104:$D$104,"นที")+COUNTIF($C$107:$D$107,"นที")+COUNTIF($C$110:$D$110,"นที")+COUNTIF($C$128:$D$128,"นที")+COUNTIF($C$131:$D$131,"นที")+COUNTIF($H$104:$I$104,"นที")+COUNTIF($H$107:$I$107,"นที")+COUNTIF($H$125:$I$125,"นที")+COUNTIF($H$128:$I$128,"นที")</f>
         <v/>
       </c>
-      <c r="U113" s="19">
+      <c r="U113" s="11">
         <f>COUNTIF($C$102:$D$102,"นที")+COUNTIF($C$105:$D$105,"นที")+COUNTIF($C$108:$D$108,"นที")+COUNTIF($C$111:$D$111,"นที")+COUNTIF($C$129:$D$129,"นที")+COUNTIF($C$132:$D$132,"นที")+COUNTIF($H$105:$I$105,"นที")+COUNTIF($H$108:$I$108,"นที")+COUNTIF($H$126:$I$126,"นที")+COUNTIF($H$129:$I$129,"นที")</f>
         <v/>
       </c>
-      <c r="V113" s="19">
+      <c r="V113" s="11">
         <f>SUM(S113:U113)</f>
         <v/>
       </c>
-      <c r="X113" s="19" t="inlineStr">
+      <c r="X113" s="11" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="Y113" s="19">
+      <c r="Y113" s="11">
         <f>SUM(M113,S113)</f>
         <v/>
       </c>
-      <c r="Z113" s="19">
+      <c r="Z113" s="11">
         <f>SUM(N113,T113)</f>
         <v/>
       </c>
-      <c r="AA113" s="19">
+      <c r="AA113" s="11">
         <f>SUM(O113,U113)</f>
         <v/>
       </c>
-      <c r="AB113" s="19">
+      <c r="AB113" s="11">
         <f>SUM(P113,V113)</f>
         <v/>
       </c>
@@ -5743,14 +5743,14 @@
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="D114" s="19" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E114" s="9" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+      <c r="D114" s="10" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E114" s="7" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="G114" s="1" t="inlineStr">
@@ -5758,14 +5758,14 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="H114" s="18" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="I114" s="10" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
+      <c r="H114" s="9" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="I114" s="13" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="J114" s="6" t="inlineStr">
@@ -5807,39 +5807,39 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C116" s="16" t="inlineStr">
+      <c r="C116" s="14" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D116" s="11" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E116" s="13" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="G116" s="1" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H116" s="15" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="D116" s="19" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E116" s="18" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="G116" s="1" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H116" s="9" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="I116" s="19" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="J116" s="18" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
+      <c r="I116" s="10" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="J116" s="14" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="M116" s="1" t="inlineStr">
@@ -5909,19 +5909,19 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C117" s="6" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="D117" s="13" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E117" s="18" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
+      <c r="C117" s="14" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D117" s="11" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E117" s="13" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="G117" s="1" t="inlineStr">
@@ -5929,78 +5929,78 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="H117" s="9" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="I117" s="7" t="inlineStr">
+      <c r="H117" s="15" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="I117" s="10" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="J117" s="8" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="L117" s="16" t="inlineStr">
+      <c r="J117" s="14" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="L117" s="15" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="M117" s="16" t="inlineStr"/>
-      <c r="N117" s="16">
+      <c r="M117" s="15" t="inlineStr"/>
+      <c r="N117" s="15">
         <f>COUNTIF($E$98,"ภูวเนตร")+COUNTIF($E$113,"ภูวเนตร")+COUNTIF($E$116,"ภูวเนตร")+COUNTIF($E$119,"ภูวเนตร")+COUNTIF($E$122,"ภูวเนตร")+COUNTIF($E$125,"ภูวเนตร")+COUNTIF($E$134,"ภูวเนตร")+COUNTIF($E$137,"ภูวเนตร")+COUNTIF($E$140,"ภูวเนตร")+COUNTIF($J$98,"ภูวเนตร")+COUNTIF($J$101,"ภูวเนตร")+COUNTIF($J$110,"ภูวเนตร")+COUNTIF($J$113,"ภูวเนตร")+COUNTIF($J$116,"ภูวเนตร")+COUNTIF($J$119,"ภูวเนตร")+COUNTIF($J$122,"ภูวเนตร")+COUNTIF($J$131,"ภูวเนตร")+COUNTIF($J$134,"ภูวเนตร")+COUNTIF($J$137,"ภูวเนตร")+COUNTIF($J$140,"ภูวเนตร")+COUNTIF($J$143,"ภูวเนตร")</f>
         <v/>
       </c>
-      <c r="O117" s="16">
+      <c r="O117" s="15">
         <f>COUNTIF($E$99,"ภูวเนตร")+COUNTIF($E$114,"ภูวเนตร")+COUNTIF($E$117,"ภูวเนตร")+COUNTIF($E$120,"ภูวเนตร")+COUNTIF($E$123,"ภูวเนตร")+COUNTIF($E$126,"ภูวเนตร")+COUNTIF($E$135,"ภูวเนตร")+COUNTIF($E$138,"ภูวเนตร")+COUNTIF($E$141,"ภูวเนตร")+COUNTIF($J$99,"ภูวเนตร")+COUNTIF($J$102,"ภูวเนตร")+COUNTIF($J$111,"ภูวเนตร")+COUNTIF($J$114,"ภูวเนตร")+COUNTIF($J$117,"ภูวเนตร")+COUNTIF($J$120,"ภูวเนตร")+COUNTIF($J$123,"ภูวเนตร")+COUNTIF($J$132,"ภูวเนตร")+COUNTIF($J$135,"ภูวเนตร")+COUNTIF($J$138,"ภูวเนตร")+COUNTIF($J$141,"ภูวเนตร")+COUNTIF($J$144,"ภูวเนตร")</f>
         <v/>
       </c>
-      <c r="P117" s="16">
+      <c r="P117" s="15">
         <f>SUM(M117:O117)</f>
         <v/>
       </c>
-      <c r="R117" s="16" t="inlineStr">
+      <c r="R117" s="15" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="S117" s="16">
+      <c r="S117" s="15">
         <f>COUNTIF($E$100,"ภูวเนตร")+COUNTIF($E$103,"ภูวเนตร")+COUNTIF($E$106,"ภูวเนตร")+COUNTIF($E$109,"ภูวเนตร")+COUNTIF($E$127,"ภูวเนตร")+COUNTIF($E$130,"ภูวเนตร")+COUNTIF($J$103,"ภูวเนตร")+COUNTIF($J$106,"ภูวเนตร")+COUNTIF($J$124,"ภูวเนตร")+COUNTIF($J$127,"ภูวเนตร")</f>
         <v/>
       </c>
-      <c r="T117" s="16">
+      <c r="T117" s="15">
         <f>COUNTIF($E$101,"ภูวเนตร")+COUNTIF($E$104,"ภูวเนตร")+COUNTIF($E$107,"ภูวเนตร")+COUNTIF($E$110,"ภูวเนตร")+COUNTIF($E$128,"ภูวเนตร")+COUNTIF($E$131,"ภูวเนตร")+COUNTIF($J$104,"ภูวเนตร")+COUNTIF($J$107,"ภูวเนตร")+COUNTIF($J$125,"ภูวเนตร")+COUNTIF($J$128,"ภูวเนตร")</f>
         <v/>
       </c>
-      <c r="U117" s="16">
+      <c r="U117" s="15">
         <f>COUNTIF($E$102,"ภูวเนตร")+COUNTIF($E$105,"ภูวเนตร")+COUNTIF($E$108,"ภูวเนตร")+COUNTIF($E$111,"ภูวเนตร")+COUNTIF($E$129,"ภูวเนตร")+COUNTIF($E$132,"ภูวเนตร")+COUNTIF($J$105,"ภูวเนตร")+COUNTIF($J$108,"ภูวเนตร")+COUNTIF($J$126,"ภูวเนตร")+COUNTIF($J$129,"ภูวเนตร")</f>
         <v/>
       </c>
-      <c r="V117" s="16">
+      <c r="V117" s="15">
         <f>SUM(S117:U117)</f>
         <v/>
       </c>
-      <c r="X117" s="16" t="inlineStr">
+      <c r="X117" s="15" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="Y117" s="16">
+      <c r="Y117" s="15">
         <f>SUM(M117,S117)</f>
         <v/>
       </c>
-      <c r="Z117" s="16">
+      <c r="Z117" s="15">
         <f>SUM(N117,T117)</f>
         <v/>
       </c>
-      <c r="AA117" s="16">
+      <c r="AA117" s="15">
         <f>SUM(O117,U117)</f>
         <v/>
       </c>
-      <c r="AB117" s="16">
+      <c r="AB117" s="15">
         <f>SUM(P117,V117)</f>
         <v/>
       </c>
@@ -6083,19 +6083,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C119" s="16" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="D119" s="10" t="inlineStr">
+      <c r="C119" s="6" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D119" s="17" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="E119" s="19" t="inlineStr">
-        <is>
-          <t>นที</t>
+      <c r="E119" s="10" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="G119" s="1" t="inlineStr">
@@ -6103,78 +6103,78 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="H119" s="12" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="I119" s="7" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="J119" s="13" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="L119" s="11" t="inlineStr">
+      <c r="H119" s="19" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="I119" s="17" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="J119" s="18" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="M119" s="11" t="inlineStr"/>
-      <c r="N119" s="11">
+      <c r="L119" s="18" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="M119" s="18" t="inlineStr"/>
+      <c r="N119" s="18">
         <f>COUNTIF($E$98,"พลกฤต")+COUNTIF($E$113,"พลกฤต")+COUNTIF($E$116,"พลกฤต")+COUNTIF($E$119,"พลกฤต")+COUNTIF($E$122,"พลกฤต")+COUNTIF($E$125,"พลกฤต")+COUNTIF($E$134,"พลกฤต")+COUNTIF($E$137,"พลกฤต")+COUNTIF($E$140,"พลกฤต")+COUNTIF($J$98,"พลกฤต")+COUNTIF($J$101,"พลกฤต")+COUNTIF($J$110,"พลกฤต")+COUNTIF($J$113,"พลกฤต")+COUNTIF($J$116,"พลกฤต")+COUNTIF($J$119,"พลกฤต")+COUNTIF($J$122,"พลกฤต")+COUNTIF($J$131,"พลกฤต")+COUNTIF($J$134,"พลกฤต")+COUNTIF($J$137,"พลกฤต")+COUNTIF($J$140,"พลกฤต")+COUNTIF($J$143,"พลกฤต")</f>
         <v/>
       </c>
-      <c r="O119" s="11">
+      <c r="O119" s="18">
         <f>COUNTIF($E$99,"พลกฤต")+COUNTIF($E$114,"พลกฤต")+COUNTIF($E$117,"พลกฤต")+COUNTIF($E$120,"พลกฤต")+COUNTIF($E$123,"พลกฤต")+COUNTIF($E$126,"พลกฤต")+COUNTIF($E$135,"พลกฤต")+COUNTIF($E$138,"พลกฤต")+COUNTIF($E$141,"พลกฤต")+COUNTIF($J$99,"พลกฤต")+COUNTIF($J$102,"พลกฤต")+COUNTIF($J$111,"พลกฤต")+COUNTIF($J$114,"พลกฤต")+COUNTIF($J$117,"พลกฤต")+COUNTIF($J$120,"พลกฤต")+COUNTIF($J$123,"พลกฤต")+COUNTIF($J$132,"พลกฤต")+COUNTIF($J$135,"พลกฤต")+COUNTIF($J$138,"พลกฤต")+COUNTIF($J$141,"พลกฤต")+COUNTIF($J$144,"พลกฤต")</f>
         <v/>
       </c>
-      <c r="P119" s="11">
+      <c r="P119" s="18">
         <f>SUM(M119:O119)</f>
         <v/>
       </c>
-      <c r="R119" s="11" t="inlineStr">
+      <c r="R119" s="18" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="S119" s="11">
+      <c r="S119" s="18">
         <f>COUNTIF($E$100,"พลกฤต")+COUNTIF($E$103,"พลกฤต")+COUNTIF($E$106,"พลกฤต")+COUNTIF($E$109,"พลกฤต")+COUNTIF($E$127,"พลกฤต")+COUNTIF($E$130,"พลกฤต")+COUNTIF($J$103,"พลกฤต")+COUNTIF($J$106,"พลกฤต")+COUNTIF($J$124,"พลกฤต")+COUNTIF($J$127,"พลกฤต")</f>
         <v/>
       </c>
-      <c r="T119" s="11">
+      <c r="T119" s="18">
         <f>COUNTIF($E$101,"พลกฤต")+COUNTIF($E$104,"พลกฤต")+COUNTIF($E$107,"พลกฤต")+COUNTIF($E$110,"พลกฤต")+COUNTIF($E$128,"พลกฤต")+COUNTIF($E$131,"พลกฤต")+COUNTIF($J$104,"พลกฤต")+COUNTIF($J$107,"พลกฤต")+COUNTIF($J$125,"พลกฤต")+COUNTIF($J$128,"พลกฤต")</f>
         <v/>
       </c>
-      <c r="U119" s="11">
+      <c r="U119" s="18">
         <f>COUNTIF($E$102,"พลกฤต")+COUNTIF($E$105,"พลกฤต")+COUNTIF($E$108,"พลกฤต")+COUNTIF($E$111,"พลกฤต")+COUNTIF($E$129,"พลกฤต")+COUNTIF($E$132,"พลกฤต")+COUNTIF($J$105,"พลกฤต")+COUNTIF($J$108,"พลกฤต")+COUNTIF($J$126,"พลกฤต")+COUNTIF($J$129,"พลกฤต")</f>
         <v/>
       </c>
-      <c r="V119" s="11">
+      <c r="V119" s="18">
         <f>SUM(S119:U119)</f>
         <v/>
       </c>
-      <c r="X119" s="11" t="inlineStr">
+      <c r="X119" s="18" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="Y119" s="11">
+      <c r="Y119" s="18">
         <f>SUM(M119,S119)</f>
         <v/>
       </c>
-      <c r="Z119" s="11">
+      <c r="Z119" s="18">
         <f>SUM(N119,T119)</f>
         <v/>
       </c>
-      <c r="AA119" s="11">
+      <c r="AA119" s="18">
         <f>SUM(O119,U119)</f>
         <v/>
       </c>
-      <c r="AB119" s="11">
+      <c r="AB119" s="18">
         <f>SUM(P119,V119)</f>
         <v/>
       </c>
@@ -6185,19 +6185,19 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C120" s="15" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="D120" s="10" t="inlineStr">
+      <c r="C120" s="6" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D120" s="17" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="E120" s="13" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+      <c r="E120" s="10" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="G120" s="1" t="inlineStr">
@@ -6205,78 +6205,78 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="H120" s="18" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="I120" s="17" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="J120" s="13" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="L120" s="9" t="inlineStr">
+      <c r="H120" s="12" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="M120" s="9" t="inlineStr"/>
-      <c r="N120" s="9">
+      <c r="I120" s="16" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="J120" s="11" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="L120" s="12" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="M120" s="12" t="inlineStr"/>
+      <c r="N120" s="12">
         <f>COUNTIF($E$98,"ชานนท์")+COUNTIF($E$113,"ชานนท์")+COUNTIF($E$116,"ชานนท์")+COUNTIF($E$119,"ชานนท์")+COUNTIF($E$122,"ชานนท์")+COUNTIF($E$125,"ชานนท์")+COUNTIF($E$134,"ชานนท์")+COUNTIF($E$137,"ชานนท์")+COUNTIF($E$140,"ชานนท์")+COUNTIF($J$98,"ชานนท์")+COUNTIF($J$101,"ชานนท์")+COUNTIF($J$110,"ชานนท์")+COUNTIF($J$113,"ชานนท์")+COUNTIF($J$116,"ชานนท์")+COUNTIF($J$119,"ชานนท์")+COUNTIF($J$122,"ชานนท์")+COUNTIF($J$131,"ชานนท์")+COUNTIF($J$134,"ชานนท์")+COUNTIF($J$137,"ชานนท์")+COUNTIF($J$140,"ชานนท์")+COUNTIF($J$143,"ชานนท์")</f>
         <v/>
       </c>
-      <c r="O120" s="9">
+      <c r="O120" s="12">
         <f>COUNTIF($E$99,"ชานนท์")+COUNTIF($E$114,"ชานนท์")+COUNTIF($E$117,"ชานนท์")+COUNTIF($E$120,"ชานนท์")+COUNTIF($E$123,"ชานนท์")+COUNTIF($E$126,"ชานนท์")+COUNTIF($E$135,"ชานนท์")+COUNTIF($E$138,"ชานนท์")+COUNTIF($E$141,"ชานนท์")+COUNTIF($J$99,"ชานนท์")+COUNTIF($J$102,"ชานนท์")+COUNTIF($J$111,"ชานนท์")+COUNTIF($J$114,"ชานนท์")+COUNTIF($J$117,"ชานนท์")+COUNTIF($J$120,"ชานนท์")+COUNTIF($J$123,"ชานนท์")+COUNTIF($J$132,"ชานนท์")+COUNTIF($J$135,"ชานนท์")+COUNTIF($J$138,"ชานนท์")+COUNTIF($J$141,"ชานนท์")+COUNTIF($J$144,"ชานนท์")</f>
         <v/>
       </c>
-      <c r="P120" s="9">
+      <c r="P120" s="12">
         <f>SUM(M120:O120)</f>
         <v/>
       </c>
-      <c r="R120" s="9" t="inlineStr">
+      <c r="R120" s="12" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="S120" s="9">
+      <c r="S120" s="12">
         <f>COUNTIF($E$100,"ชานนท์")+COUNTIF($E$103,"ชานนท์")+COUNTIF($E$106,"ชานนท์")+COUNTIF($E$109,"ชานนท์")+COUNTIF($E$127,"ชานนท์")+COUNTIF($E$130,"ชานนท์")+COUNTIF($J$103,"ชานนท์")+COUNTIF($J$106,"ชานนท์")+COUNTIF($J$124,"ชานนท์")+COUNTIF($J$127,"ชานนท์")</f>
         <v/>
       </c>
-      <c r="T120" s="9">
+      <c r="T120" s="12">
         <f>COUNTIF($E$101,"ชานนท์")+COUNTIF($E$104,"ชานนท์")+COUNTIF($E$107,"ชานนท์")+COUNTIF($E$110,"ชานนท์")+COUNTIF($E$128,"ชานนท์")+COUNTIF($E$131,"ชานนท์")+COUNTIF($J$104,"ชานนท์")+COUNTIF($J$107,"ชานนท์")+COUNTIF($J$125,"ชานนท์")+COUNTIF($J$128,"ชานนท์")</f>
         <v/>
       </c>
-      <c r="U120" s="9">
+      <c r="U120" s="12">
         <f>COUNTIF($E$102,"ชานนท์")+COUNTIF($E$105,"ชานนท์")+COUNTIF($E$108,"ชานนท์")+COUNTIF($E$111,"ชานนท์")+COUNTIF($E$129,"ชานนท์")+COUNTIF($E$132,"ชานนท์")+COUNTIF($J$105,"ชานนท์")+COUNTIF($J$108,"ชานนท์")+COUNTIF($J$126,"ชานนท์")+COUNTIF($J$129,"ชานนท์")</f>
         <v/>
       </c>
-      <c r="V120" s="9">
+      <c r="V120" s="12">
         <f>SUM(S120:U120)</f>
         <v/>
       </c>
-      <c r="X120" s="9" t="inlineStr">
+      <c r="X120" s="12" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="Y120" s="9">
+      <c r="Y120" s="12">
         <f>SUM(M120,S120)</f>
         <v/>
       </c>
-      <c r="Z120" s="9">
+      <c r="Z120" s="12">
         <f>SUM(N120,T120)</f>
         <v/>
       </c>
-      <c r="AA120" s="9">
+      <c r="AA120" s="12">
         <f>SUM(O120,U120)</f>
         <v/>
       </c>
-      <c r="AB120" s="9">
+      <c r="AB120" s="12">
         <f>SUM(P120,V120)</f>
         <v/>
       </c>
@@ -6292,63 +6292,63 @@
           <t>24</t>
         </is>
       </c>
-      <c r="L121" s="18" t="inlineStr">
+      <c r="L121" s="19" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="M121" s="18" t="inlineStr"/>
-      <c r="N121" s="18">
+      <c r="M121" s="19" t="inlineStr"/>
+      <c r="N121" s="19">
         <f>COUNTIF($E$98,"ปรมะ")+COUNTIF($E$113,"ปรมะ")+COUNTIF($E$116,"ปรมะ")+COUNTIF($E$119,"ปรมะ")+COUNTIF($E$122,"ปรมะ")+COUNTIF($E$125,"ปรมะ")+COUNTIF($E$134,"ปรมะ")+COUNTIF($E$137,"ปรมะ")+COUNTIF($E$140,"ปรมะ")+COUNTIF($J$98,"ปรมะ")+COUNTIF($J$101,"ปรมะ")+COUNTIF($J$110,"ปรมะ")+COUNTIF($J$113,"ปรมะ")+COUNTIF($J$116,"ปรมะ")+COUNTIF($J$119,"ปรมะ")+COUNTIF($J$122,"ปรมะ")+COUNTIF($J$131,"ปรมะ")+COUNTIF($J$134,"ปรมะ")+COUNTIF($J$137,"ปรมะ")+COUNTIF($J$140,"ปรมะ")+COUNTIF($J$143,"ปรมะ")</f>
         <v/>
       </c>
-      <c r="O121" s="18">
+      <c r="O121" s="19">
         <f>COUNTIF($E$99,"ปรมะ")+COUNTIF($E$114,"ปรมะ")+COUNTIF($E$117,"ปรมะ")+COUNTIF($E$120,"ปรมะ")+COUNTIF($E$123,"ปรมะ")+COUNTIF($E$126,"ปรมะ")+COUNTIF($E$135,"ปรมะ")+COUNTIF($E$138,"ปรมะ")+COUNTIF($E$141,"ปรมะ")+COUNTIF($J$99,"ปรมะ")+COUNTIF($J$102,"ปรมะ")+COUNTIF($J$111,"ปรมะ")+COUNTIF($J$114,"ปรมะ")+COUNTIF($J$117,"ปรมะ")+COUNTIF($J$120,"ปรมะ")+COUNTIF($J$123,"ปรมะ")+COUNTIF($J$132,"ปรมะ")+COUNTIF($J$135,"ปรมะ")+COUNTIF($J$138,"ปรมะ")+COUNTIF($J$141,"ปรมะ")+COUNTIF($J$144,"ปรมะ")</f>
         <v/>
       </c>
-      <c r="P121" s="18">
+      <c r="P121" s="19">
         <f>SUM(M121:O121)</f>
         <v/>
       </c>
-      <c r="R121" s="18" t="inlineStr">
+      <c r="R121" s="19" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="S121" s="18">
+      <c r="S121" s="19">
         <f>COUNTIF($E$100,"ปรมะ")+COUNTIF($E$103,"ปรมะ")+COUNTIF($E$106,"ปรมะ")+COUNTIF($E$109,"ปรมะ")+COUNTIF($E$127,"ปรมะ")+COUNTIF($E$130,"ปรมะ")+COUNTIF($J$103,"ปรมะ")+COUNTIF($J$106,"ปรมะ")+COUNTIF($J$124,"ปรมะ")+COUNTIF($J$127,"ปรมะ")</f>
         <v/>
       </c>
-      <c r="T121" s="18">
+      <c r="T121" s="19">
         <f>COUNTIF($E$101,"ปรมะ")+COUNTIF($E$104,"ปรมะ")+COUNTIF($E$107,"ปรมะ")+COUNTIF($E$110,"ปรมะ")+COUNTIF($E$128,"ปรมะ")+COUNTIF($E$131,"ปรมะ")+COUNTIF($J$104,"ปรมะ")+COUNTIF($J$107,"ปรมะ")+COUNTIF($J$125,"ปรมะ")+COUNTIF($J$128,"ปรมะ")</f>
         <v/>
       </c>
-      <c r="U121" s="18">
+      <c r="U121" s="19">
         <f>COUNTIF($E$102,"ปรมะ")+COUNTIF($E$105,"ปรมะ")+COUNTIF($E$108,"ปรมะ")+COUNTIF($E$111,"ปรมะ")+COUNTIF($E$129,"ปรมะ")+COUNTIF($E$132,"ปรมะ")+COUNTIF($J$105,"ปรมะ")+COUNTIF($J$108,"ปรมะ")+COUNTIF($J$126,"ปรมะ")+COUNTIF($J$129,"ปรมะ")</f>
         <v/>
       </c>
-      <c r="V121" s="18">
+      <c r="V121" s="19">
         <f>SUM(S121:U121)</f>
         <v/>
       </c>
-      <c r="X121" s="18" t="inlineStr">
+      <c r="X121" s="19" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="Y121" s="18">
+      <c r="Y121" s="19">
         <f>SUM(M121,S121)</f>
         <v/>
       </c>
-      <c r="Z121" s="18">
+      <c r="Z121" s="19">
         <f>SUM(N121,T121)</f>
         <v/>
       </c>
-      <c r="AA121" s="18">
+      <c r="AA121" s="19">
         <f>SUM(O121,U121)</f>
         <v/>
       </c>
-      <c r="AB121" s="18">
+      <c r="AB121" s="19">
         <f>SUM(P121,V121)</f>
         <v/>
       </c>
@@ -6359,98 +6359,98 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C122" s="11" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D122" s="14" t="inlineStr">
+      <c r="C122" s="8" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D122" s="11" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E122" s="9" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="G122" s="1" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H122" s="8" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="E122" s="15" t="inlineStr">
+      <c r="J122" s="12" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="L122" s="9" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="G122" s="1" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H122" s="18" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="I122" s="17" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="J122" s="14" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="L122" s="15" t="inlineStr">
+      <c r="M122" s="9" t="inlineStr"/>
+      <c r="N122" s="9">
+        <f>COUNTIF($E$98,"สัญญา")+COUNTIF($E$113,"สัญญา")+COUNTIF($E$116,"สัญญา")+COUNTIF($E$119,"สัญญา")+COUNTIF($E$122,"สัญญา")+COUNTIF($E$125,"สัญญา")+COUNTIF($E$134,"สัญญา")+COUNTIF($E$137,"สัญญา")+COUNTIF($E$140,"สัญญา")+COUNTIF($J$98,"สัญญา")+COUNTIF($J$101,"สัญญา")+COUNTIF($J$110,"สัญญา")+COUNTIF($J$113,"สัญญา")+COUNTIF($J$116,"สัญญา")+COUNTIF($J$119,"สัญญา")+COUNTIF($J$122,"สัญญา")+COUNTIF($J$131,"สัญญา")+COUNTIF($J$134,"สัญญา")+COUNTIF($J$137,"สัญญา")+COUNTIF($J$140,"สัญญา")+COUNTIF($J$143,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="O122" s="9">
+        <f>COUNTIF($E$99,"สัญญา")+COUNTIF($E$114,"สัญญา")+COUNTIF($E$117,"สัญญา")+COUNTIF($E$120,"สัญญา")+COUNTIF($E$123,"สัญญา")+COUNTIF($E$126,"สัญญา")+COUNTIF($E$135,"สัญญา")+COUNTIF($E$138,"สัญญา")+COUNTIF($E$141,"สัญญา")+COUNTIF($J$99,"สัญญา")+COUNTIF($J$102,"สัญญา")+COUNTIF($J$111,"สัญญา")+COUNTIF($J$114,"สัญญา")+COUNTIF($J$117,"สัญญา")+COUNTIF($J$120,"สัญญา")+COUNTIF($J$123,"สัญญา")+COUNTIF($J$132,"สัญญา")+COUNTIF($J$135,"สัญญา")+COUNTIF($J$138,"สัญญา")+COUNTIF($J$141,"สัญญา")+COUNTIF($J$144,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="P122" s="9">
+        <f>SUM(M122:O122)</f>
+        <v/>
+      </c>
+      <c r="R122" s="9" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="M122" s="15" t="inlineStr"/>
-      <c r="N122" s="15">
-        <f>COUNTIF($E$98,"สัญญา")+COUNTIF($E$113,"สัญญา")+COUNTIF($E$116,"สัญญา")+COUNTIF($E$119,"สัญญา")+COUNTIF($E$122,"สัญญา")+COUNTIF($E$125,"สัญญา")+COUNTIF($E$134,"สัญญา")+COUNTIF($E$137,"สัญญา")+COUNTIF($E$140,"สัญญา")+COUNTIF($J$98,"สัญญา")+COUNTIF($J$101,"สัญญา")+COUNTIF($J$110,"สัญญา")+COUNTIF($J$113,"สัญญา")+COUNTIF($J$116,"สัญญา")+COUNTIF($J$119,"สัญญา")+COUNTIF($J$122,"สัญญา")+COUNTIF($J$131,"สัญญา")+COUNTIF($J$134,"สัญญา")+COUNTIF($J$137,"สัญญา")+COUNTIF($J$140,"สัญญา")+COUNTIF($J$143,"สัญญา")</f>
-        <v/>
-      </c>
-      <c r="O122" s="15">
-        <f>COUNTIF($E$99,"สัญญา")+COUNTIF($E$114,"สัญญา")+COUNTIF($E$117,"สัญญา")+COUNTIF($E$120,"สัญญา")+COUNTIF($E$123,"สัญญา")+COUNTIF($E$126,"สัญญา")+COUNTIF($E$135,"สัญญา")+COUNTIF($E$138,"สัญญา")+COUNTIF($E$141,"สัญญา")+COUNTIF($J$99,"สัญญา")+COUNTIF($J$102,"สัญญา")+COUNTIF($J$111,"สัญญา")+COUNTIF($J$114,"สัญญา")+COUNTIF($J$117,"สัญญา")+COUNTIF($J$120,"สัญญา")+COUNTIF($J$123,"สัญญา")+COUNTIF($J$132,"สัญญา")+COUNTIF($J$135,"สัญญา")+COUNTIF($J$138,"สัญญา")+COUNTIF($J$141,"สัญญา")+COUNTIF($J$144,"สัญญา")</f>
-        <v/>
-      </c>
-      <c r="P122" s="15">
-        <f>SUM(M122:O122)</f>
-        <v/>
-      </c>
-      <c r="R122" s="15" t="inlineStr">
+      <c r="S122" s="9">
+        <f>COUNTIF($E$100,"สัญญา")+COUNTIF($E$103,"สัญญา")+COUNTIF($E$106,"สัญญา")+COUNTIF($E$109,"สัญญา")+COUNTIF($E$127,"สัญญา")+COUNTIF($E$130,"สัญญา")+COUNTIF($J$103,"สัญญา")+COUNTIF($J$106,"สัญญา")+COUNTIF($J$124,"สัญญา")+COUNTIF($J$127,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="T122" s="9">
+        <f>COUNTIF($E$101,"สัญญา")+COUNTIF($E$104,"สัญญา")+COUNTIF($E$107,"สัญญา")+COUNTIF($E$110,"สัญญา")+COUNTIF($E$128,"สัญญา")+COUNTIF($E$131,"สัญญา")+COUNTIF($J$104,"สัญญา")+COUNTIF($J$107,"สัญญา")+COUNTIF($J$125,"สัญญา")+COUNTIF($J$128,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="U122" s="9">
+        <f>COUNTIF($E$102,"สัญญา")+COUNTIF($E$105,"สัญญา")+COUNTIF($E$108,"สัญญา")+COUNTIF($E$111,"สัญญา")+COUNTIF($E$129,"สัญญา")+COUNTIF($E$132,"สัญญา")+COUNTIF($J$105,"สัญญา")+COUNTIF($J$108,"สัญญา")+COUNTIF($J$126,"สัญญา")+COUNTIF($J$129,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="V122" s="9">
+        <f>SUM(S122:U122)</f>
+        <v/>
+      </c>
+      <c r="X122" s="9" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="S122" s="15">
-        <f>COUNTIF($E$100,"สัญญา")+COUNTIF($E$103,"สัญญา")+COUNTIF($E$106,"สัญญา")+COUNTIF($E$109,"สัญญา")+COUNTIF($E$127,"สัญญา")+COUNTIF($E$130,"สัญญา")+COUNTIF($J$103,"สัญญา")+COUNTIF($J$106,"สัญญา")+COUNTIF($J$124,"สัญญา")+COUNTIF($J$127,"สัญญา")</f>
-        <v/>
-      </c>
-      <c r="T122" s="15">
-        <f>COUNTIF($E$101,"สัญญา")+COUNTIF($E$104,"สัญญา")+COUNTIF($E$107,"สัญญา")+COUNTIF($E$110,"สัญญา")+COUNTIF($E$128,"สัญญา")+COUNTIF($E$131,"สัญญา")+COUNTIF($J$104,"สัญญา")+COUNTIF($J$107,"สัญญา")+COUNTIF($J$125,"สัญญา")+COUNTIF($J$128,"สัญญา")</f>
-        <v/>
-      </c>
-      <c r="U122" s="15">
-        <f>COUNTIF($E$102,"สัญญา")+COUNTIF($E$105,"สัญญา")+COUNTIF($E$108,"สัญญา")+COUNTIF($E$111,"สัญญา")+COUNTIF($E$129,"สัญญา")+COUNTIF($E$132,"สัญญา")+COUNTIF($J$105,"สัญญา")+COUNTIF($J$108,"สัญญา")+COUNTIF($J$126,"สัญญา")+COUNTIF($J$129,"สัญญา")</f>
-        <v/>
-      </c>
-      <c r="V122" s="15">
-        <f>SUM(S122:U122)</f>
-        <v/>
-      </c>
-      <c r="X122" s="15" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="Y122" s="15">
+      <c r="Y122" s="9">
         <f>SUM(M122,S122)</f>
         <v/>
       </c>
-      <c r="Z122" s="15">
+      <c r="Z122" s="9">
         <f>SUM(N122,T122)</f>
         <v/>
       </c>
-      <c r="AA122" s="15">
+      <c r="AA122" s="9">
         <f>SUM(O122,U122)</f>
         <v/>
       </c>
-      <c r="AB122" s="15">
+      <c r="AB122" s="9">
         <f>SUM(P122,V122)</f>
         <v/>
       </c>
@@ -6461,19 +6461,19 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C123" s="11" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D123" s="17" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E123" s="16" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
+      <c r="C123" s="8" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D123" s="11" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E123" s="9" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="G123" s="1" t="inlineStr">
@@ -6481,78 +6481,78 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="H123" s="11" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="I123" s="7" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="J123" s="19" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="L123" s="12" t="inlineStr">
+      <c r="H123" s="8" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="I123" s="17" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="J123" s="6" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="L123" s="14" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="M123" s="12" t="inlineStr"/>
-      <c r="N123" s="12">
+      <c r="M123" s="14" t="inlineStr"/>
+      <c r="N123" s="14">
         <f>COUNTIF($E$98,"วินัย")+COUNTIF($E$113,"วินัย")+COUNTIF($E$116,"วินัย")+COUNTIF($E$119,"วินัย")+COUNTIF($E$122,"วินัย")+COUNTIF($E$125,"วินัย")+COUNTIF($E$134,"วินัย")+COUNTIF($E$137,"วินัย")+COUNTIF($E$140,"วินัย")+COUNTIF($J$98,"วินัย")+COUNTIF($J$101,"วินัย")+COUNTIF($J$110,"วินัย")+COUNTIF($J$113,"วินัย")+COUNTIF($J$116,"วินัย")+COUNTIF($J$119,"วินัย")+COUNTIF($J$122,"วินัย")+COUNTIF($J$131,"วินัย")+COUNTIF($J$134,"วินัย")+COUNTIF($J$137,"วินัย")+COUNTIF($J$140,"วินัย")+COUNTIF($J$143,"วินัย")</f>
         <v/>
       </c>
-      <c r="O123" s="12">
+      <c r="O123" s="14">
         <f>COUNTIF($E$99,"วินัย")+COUNTIF($E$114,"วินัย")+COUNTIF($E$117,"วินัย")+COUNTIF($E$120,"วินัย")+COUNTIF($E$123,"วินัย")+COUNTIF($E$126,"วินัย")+COUNTIF($E$135,"วินัย")+COUNTIF($E$138,"วินัย")+COUNTIF($E$141,"วินัย")+COUNTIF($J$99,"วินัย")+COUNTIF($J$102,"วินัย")+COUNTIF($J$111,"วินัย")+COUNTIF($J$114,"วินัย")+COUNTIF($J$117,"วินัย")+COUNTIF($J$120,"วินัย")+COUNTIF($J$123,"วินัย")+COUNTIF($J$132,"วินัย")+COUNTIF($J$135,"วินัย")+COUNTIF($J$138,"วินัย")+COUNTIF($J$141,"วินัย")+COUNTIF($J$144,"วินัย")</f>
         <v/>
       </c>
-      <c r="P123" s="12">
+      <c r="P123" s="14">
         <f>SUM(M123:O123)</f>
         <v/>
       </c>
-      <c r="R123" s="12" t="inlineStr">
+      <c r="R123" s="14" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="S123" s="12">
+      <c r="S123" s="14">
         <f>COUNTIF($E$100,"วินัย")+COUNTIF($E$103,"วินัย")+COUNTIF($E$106,"วินัย")+COUNTIF($E$109,"วินัย")+COUNTIF($E$127,"วินัย")+COUNTIF($E$130,"วินัย")+COUNTIF($J$103,"วินัย")+COUNTIF($J$106,"วินัย")+COUNTIF($J$124,"วินัย")+COUNTIF($J$127,"วินัย")</f>
         <v/>
       </c>
-      <c r="T123" s="12">
+      <c r="T123" s="14">
         <f>COUNTIF($E$101,"วินัย")+COUNTIF($E$104,"วินัย")+COUNTIF($E$107,"วินัย")+COUNTIF($E$110,"วินัย")+COUNTIF($E$128,"วินัย")+COUNTIF($E$131,"วินัย")+COUNTIF($J$104,"วินัย")+COUNTIF($J$107,"วินัย")+COUNTIF($J$125,"วินัย")+COUNTIF($J$128,"วินัย")</f>
         <v/>
       </c>
-      <c r="U123" s="12">
+      <c r="U123" s="14">
         <f>COUNTIF($E$102,"วินัย")+COUNTIF($E$105,"วินัย")+COUNTIF($E$108,"วินัย")+COUNTIF($E$111,"วินัย")+COUNTIF($E$129,"วินัย")+COUNTIF($E$132,"วินัย")+COUNTIF($J$105,"วินัย")+COUNTIF($J$108,"วินัย")+COUNTIF($J$126,"วินัย")+COUNTIF($J$129,"วินัย")</f>
         <v/>
       </c>
-      <c r="V123" s="12">
+      <c r="V123" s="14">
         <f>SUM(S123:U123)</f>
         <v/>
       </c>
-      <c r="X123" s="12" t="inlineStr">
+      <c r="X123" s="14" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="Y123" s="12">
+      <c r="Y123" s="14">
         <f>SUM(M123,S123)</f>
         <v/>
       </c>
-      <c r="Z123" s="12">
+      <c r="Z123" s="14">
         <f>SUM(N123,T123)</f>
         <v/>
       </c>
-      <c r="AA123" s="12">
+      <c r="AA123" s="14">
         <f>SUM(O123,U123)</f>
         <v/>
       </c>
-      <c r="AB123" s="12">
+      <c r="AB123" s="14">
         <f>SUM(P123,V123)</f>
         <v/>
       </c>
@@ -6573,19 +6573,19 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="H124" s="8" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="I124" s="13" t="inlineStr">
+      <c r="H124" s="15" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="I124" s="10" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="J124" s="7" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="J124" s="6" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="L124" s="6" t="inlineStr">
@@ -6655,19 +6655,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C125" s="6" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="D125" s="17" t="inlineStr">
+      <c r="C125" s="12" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D125" s="13" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="E125" s="12" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+      <c r="E125" s="16" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="F125" s="5" t="n"/>
@@ -6676,78 +6676,78 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="H125" s="16" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="I125" s="14" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="J125" s="12" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="L125" s="13" t="inlineStr">
+      <c r="H125" s="18" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="I125" s="7" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="M125" s="13" t="inlineStr"/>
-      <c r="N125" s="13">
+      <c r="J125" s="13" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="L125" s="7" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="M125" s="7" t="inlineStr"/>
+      <c r="N125" s="7">
         <f>COUNTIF($E$98,"วัฒพงษ์")+COUNTIF($E$113,"วัฒพงษ์")+COUNTIF($E$116,"วัฒพงษ์")+COUNTIF($E$119,"วัฒพงษ์")+COUNTIF($E$122,"วัฒพงษ์")+COUNTIF($E$125,"วัฒพงษ์")+COUNTIF($E$134,"วัฒพงษ์")+COUNTIF($E$137,"วัฒพงษ์")+COUNTIF($E$140,"วัฒพงษ์")+COUNTIF($J$98,"วัฒพงษ์")+COUNTIF($J$101,"วัฒพงษ์")+COUNTIF($J$110,"วัฒพงษ์")+COUNTIF($J$113,"วัฒพงษ์")+COUNTIF($J$116,"วัฒพงษ์")+COUNTIF($J$119,"วัฒพงษ์")+COUNTIF($J$122,"วัฒพงษ์")+COUNTIF($J$131,"วัฒพงษ์")+COUNTIF($J$134,"วัฒพงษ์")+COUNTIF($J$137,"วัฒพงษ์")+COUNTIF($J$140,"วัฒพงษ์")+COUNTIF($J$143,"วัฒพงษ์")</f>
         <v/>
       </c>
-      <c r="O125" s="13">
+      <c r="O125" s="7">
         <f>COUNTIF($E$99,"วัฒพงษ์")+COUNTIF($E$114,"วัฒพงษ์")+COUNTIF($E$117,"วัฒพงษ์")+COUNTIF($E$120,"วัฒพงษ์")+COUNTIF($E$123,"วัฒพงษ์")+COUNTIF($E$126,"วัฒพงษ์")+COUNTIF($E$135,"วัฒพงษ์")+COUNTIF($E$138,"วัฒพงษ์")+COUNTIF($E$141,"วัฒพงษ์")+COUNTIF($J$99,"วัฒพงษ์")+COUNTIF($J$102,"วัฒพงษ์")+COUNTIF($J$111,"วัฒพงษ์")+COUNTIF($J$114,"วัฒพงษ์")+COUNTIF($J$117,"วัฒพงษ์")+COUNTIF($J$120,"วัฒพงษ์")+COUNTIF($J$123,"วัฒพงษ์")+COUNTIF($J$132,"วัฒพงษ์")+COUNTIF($J$135,"วัฒพงษ์")+COUNTIF($J$138,"วัฒพงษ์")+COUNTIF($J$141,"วัฒพงษ์")+COUNTIF($J$144,"วัฒพงษ์")</f>
         <v/>
       </c>
-      <c r="P125" s="13">
+      <c r="P125" s="7">
         <f>SUM(M125:O125)</f>
         <v/>
       </c>
-      <c r="R125" s="13" t="inlineStr">
+      <c r="R125" s="7" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="S125" s="13">
+      <c r="S125" s="7">
         <f>COUNTIF($E$100,"วัฒพงษ์")+COUNTIF($E$103,"วัฒพงษ์")+COUNTIF($E$106,"วัฒพงษ์")+COUNTIF($E$109,"วัฒพงษ์")+COUNTIF($E$127,"วัฒพงษ์")+COUNTIF($E$130,"วัฒพงษ์")+COUNTIF($J$103,"วัฒพงษ์")+COUNTIF($J$106,"วัฒพงษ์")+COUNTIF($J$124,"วัฒพงษ์")+COUNTIF($J$127,"วัฒพงษ์")</f>
         <v/>
       </c>
-      <c r="T125" s="13">
+      <c r="T125" s="7">
         <f>COUNTIF($E$101,"วัฒพงษ์")+COUNTIF($E$104,"วัฒพงษ์")+COUNTIF($E$107,"วัฒพงษ์")+COUNTIF($E$110,"วัฒพงษ์")+COUNTIF($E$128,"วัฒพงษ์")+COUNTIF($E$131,"วัฒพงษ์")+COUNTIF($J$104,"วัฒพงษ์")+COUNTIF($J$107,"วัฒพงษ์")+COUNTIF($J$125,"วัฒพงษ์")+COUNTIF($J$128,"วัฒพงษ์")</f>
         <v/>
       </c>
-      <c r="U125" s="13">
+      <c r="U125" s="7">
         <f>COUNTIF($E$102,"วัฒพงษ์")+COUNTIF($E$105,"วัฒพงษ์")+COUNTIF($E$108,"วัฒพงษ์")+COUNTIF($E$111,"วัฒพงษ์")+COUNTIF($E$129,"วัฒพงษ์")+COUNTIF($E$132,"วัฒพงษ์")+COUNTIF($J$105,"วัฒพงษ์")+COUNTIF($J$108,"วัฒพงษ์")+COUNTIF($J$126,"วัฒพงษ์")+COUNTIF($J$129,"วัฒพงษ์")</f>
         <v/>
       </c>
-      <c r="V125" s="13">
+      <c r="V125" s="7">
         <f>SUM(S125:U125)</f>
         <v/>
       </c>
-      <c r="X125" s="13" t="inlineStr">
+      <c r="X125" s="7" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="Y125" s="13">
+      <c r="Y125" s="7">
         <f>SUM(M125,S125)</f>
         <v/>
       </c>
-      <c r="Z125" s="13">
+      <c r="Z125" s="7">
         <f>SUM(N125,T125)</f>
         <v/>
       </c>
-      <c r="AA125" s="13">
+      <c r="AA125" s="7">
         <f>SUM(O125,U125)</f>
         <v/>
       </c>
-      <c r="AB125" s="13">
+      <c r="AB125" s="7">
         <f>SUM(P125,V125)</f>
         <v/>
       </c>
@@ -6758,17 +6758,17 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C126" s="15" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="D126" s="19" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E126" s="14" t="inlineStr">
+      <c r="C126" s="12" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D126" s="13" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E126" s="16" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
@@ -6779,78 +6779,78 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="H126" s="16" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="I126" s="19" t="inlineStr">
+      <c r="H126" s="12" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="I126" s="11" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="J126" s="18" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="L126" s="14" t="inlineStr">
+      <c r="J126" s="14" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="L126" s="16" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="M126" s="14" t="inlineStr"/>
-      <c r="N126" s="14">
+      <c r="M126" s="16" t="inlineStr"/>
+      <c r="N126" s="16">
         <f>COUNTIF($E$98,"ราเชน")+COUNTIF($E$113,"ราเชน")+COUNTIF($E$116,"ราเชน")+COUNTIF($E$119,"ราเชน")+COUNTIF($E$122,"ราเชน")+COUNTIF($E$125,"ราเชน")+COUNTIF($E$134,"ราเชน")+COUNTIF($E$137,"ราเชน")+COUNTIF($E$140,"ราเชน")+COUNTIF($J$98,"ราเชน")+COUNTIF($J$101,"ราเชน")+COUNTIF($J$110,"ราเชน")+COUNTIF($J$113,"ราเชน")+COUNTIF($J$116,"ราเชน")+COUNTIF($J$119,"ราเชน")+COUNTIF($J$122,"ราเชน")+COUNTIF($J$131,"ราเชน")+COUNTIF($J$134,"ราเชน")+COUNTIF($J$137,"ราเชน")+COUNTIF($J$140,"ราเชน")+COUNTIF($J$143,"ราเชน")</f>
         <v/>
       </c>
-      <c r="O126" s="14">
+      <c r="O126" s="16">
         <f>COUNTIF($E$99,"ราเชน")+COUNTIF($E$114,"ราเชน")+COUNTIF($E$117,"ราเชน")+COUNTIF($E$120,"ราเชน")+COUNTIF($E$123,"ราเชน")+COUNTIF($E$126,"ราเชน")+COUNTIF($E$135,"ราเชน")+COUNTIF($E$138,"ราเชน")+COUNTIF($E$141,"ราเชน")+COUNTIF($J$99,"ราเชน")+COUNTIF($J$102,"ราเชน")+COUNTIF($J$111,"ราเชน")+COUNTIF($J$114,"ราเชน")+COUNTIF($J$117,"ราเชน")+COUNTIF($J$120,"ราเชน")+COUNTIF($J$123,"ราเชน")+COUNTIF($J$132,"ราเชน")+COUNTIF($J$135,"ราเชน")+COUNTIF($J$138,"ราเชน")+COUNTIF($J$141,"ราเชน")+COUNTIF($J$144,"ราเชน")</f>
         <v/>
       </c>
-      <c r="P126" s="14">
+      <c r="P126" s="16">
         <f>SUM(M126:O126)</f>
         <v/>
       </c>
-      <c r="R126" s="14" t="inlineStr">
+      <c r="R126" s="16" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="S126" s="14">
+      <c r="S126" s="16">
         <f>COUNTIF($E$100,"ราเชน")+COUNTIF($E$103,"ราเชน")+COUNTIF($E$106,"ราเชน")+COUNTIF($E$109,"ราเชน")+COUNTIF($E$127,"ราเชน")+COUNTIF($E$130,"ราเชน")+COUNTIF($J$103,"ราเชน")+COUNTIF($J$106,"ราเชน")+COUNTIF($J$124,"ราเชน")+COUNTIF($J$127,"ราเชน")</f>
         <v/>
       </c>
-      <c r="T126" s="14">
+      <c r="T126" s="16">
         <f>COUNTIF($E$101,"ราเชน")+COUNTIF($E$104,"ราเชน")+COUNTIF($E$107,"ราเชน")+COUNTIF($E$110,"ราเชน")+COUNTIF($E$128,"ราเชน")+COUNTIF($E$131,"ราเชน")+COUNTIF($J$104,"ราเชน")+COUNTIF($J$107,"ราเชน")+COUNTIF($J$125,"ราเชน")+COUNTIF($J$128,"ราเชน")</f>
         <v/>
       </c>
-      <c r="U126" s="14">
+      <c r="U126" s="16">
         <f>COUNTIF($E$102,"ราเชน")+COUNTIF($E$105,"ราเชน")+COUNTIF($E$108,"ราเชน")+COUNTIF($E$111,"ราเชน")+COUNTIF($E$129,"ราเชน")+COUNTIF($E$132,"ราเชน")+COUNTIF($J$105,"ราเชน")+COUNTIF($J$108,"ราเชน")+COUNTIF($J$126,"ราเชน")+COUNTIF($J$129,"ราเชน")</f>
         <v/>
       </c>
-      <c r="V126" s="14">
+      <c r="V126" s="16">
         <f>SUM(S126:U126)</f>
         <v/>
       </c>
-      <c r="X126" s="14" t="inlineStr">
+      <c r="X126" s="16" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="Y126" s="14">
+      <c r="Y126" s="16">
         <f>SUM(M126,S126)</f>
         <v/>
       </c>
-      <c r="Z126" s="14">
+      <c r="Z126" s="16">
         <f>SUM(N126,T126)</f>
         <v/>
       </c>
-      <c r="AA126" s="14">
+      <c r="AA126" s="16">
         <f>SUM(O126,U126)</f>
         <v/>
       </c>
-      <c r="AB126" s="14">
+      <c r="AB126" s="16">
         <f>SUM(P126,V126)</f>
         <v/>
       </c>
@@ -6866,103 +6866,103 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C127" s="6" t="inlineStr">
+      <c r="C127" s="18" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D127" s="11" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E127" s="6" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="D127" s="19" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E127" s="10" t="inlineStr">
+      <c r="F127" s="4" t="inlineStr">
+        <is>
+          <t>26*</t>
+        </is>
+      </c>
+      <c r="G127" s="4" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="H127" s="8" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="I127" s="17" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="F127" s="4" t="inlineStr">
-        <is>
-          <t>26*</t>
-        </is>
-      </c>
-      <c r="G127" s="4" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="H127" s="15" t="inlineStr">
+      <c r="J127" s="9" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="I127" s="17" t="inlineStr">
+      <c r="L127" s="13" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="J127" s="11" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="L127" s="17" t="inlineStr">
+      <c r="M127" s="13" t="inlineStr"/>
+      <c r="N127" s="13">
+        <f>COUNTIF($E$98,"นฤชิต")+COUNTIF($E$113,"นฤชิต")+COUNTIF($E$116,"นฤชิต")+COUNTIF($E$119,"นฤชิต")+COUNTIF($E$122,"นฤชิต")+COUNTIF($E$125,"นฤชิต")+COUNTIF($E$134,"นฤชิต")+COUNTIF($E$137,"นฤชิต")+COUNTIF($E$140,"นฤชิต")+COUNTIF($J$98,"นฤชิต")+COUNTIF($J$101,"นฤชิต")+COUNTIF($J$110,"นฤชิต")+COUNTIF($J$113,"นฤชิต")+COUNTIF($J$116,"นฤชิต")+COUNTIF($J$119,"นฤชิต")+COUNTIF($J$122,"นฤชิต")+COUNTIF($J$131,"นฤชิต")+COUNTIF($J$134,"นฤชิต")+COUNTIF($J$137,"นฤชิต")+COUNTIF($J$140,"นฤชิต")+COUNTIF($J$143,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="O127" s="13">
+        <f>COUNTIF($E$99,"นฤชิต")+COUNTIF($E$114,"นฤชิต")+COUNTIF($E$117,"นฤชิต")+COUNTIF($E$120,"นฤชิต")+COUNTIF($E$123,"นฤชิต")+COUNTIF($E$126,"นฤชิต")+COUNTIF($E$135,"นฤชิต")+COUNTIF($E$138,"นฤชิต")+COUNTIF($E$141,"นฤชิต")+COUNTIF($J$99,"นฤชิต")+COUNTIF($J$102,"นฤชิต")+COUNTIF($J$111,"นฤชิต")+COUNTIF($J$114,"นฤชิต")+COUNTIF($J$117,"นฤชิต")+COUNTIF($J$120,"นฤชิต")+COUNTIF($J$123,"นฤชิต")+COUNTIF($J$132,"นฤชิต")+COUNTIF($J$135,"นฤชิต")+COUNTIF($J$138,"นฤชิต")+COUNTIF($J$141,"นฤชิต")+COUNTIF($J$144,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="P127" s="13">
+        <f>SUM(M127:O127)</f>
+        <v/>
+      </c>
+      <c r="R127" s="13" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="M127" s="17" t="inlineStr"/>
-      <c r="N127" s="17">
-        <f>COUNTIF($E$98,"นฤชิต")+COUNTIF($E$113,"นฤชิต")+COUNTIF($E$116,"นฤชิต")+COUNTIF($E$119,"นฤชิต")+COUNTIF($E$122,"นฤชิต")+COUNTIF($E$125,"นฤชิต")+COUNTIF($E$134,"นฤชิต")+COUNTIF($E$137,"นฤชิต")+COUNTIF($E$140,"นฤชิต")+COUNTIF($J$98,"นฤชิต")+COUNTIF($J$101,"นฤชิต")+COUNTIF($J$110,"นฤชิต")+COUNTIF($J$113,"นฤชิต")+COUNTIF($J$116,"นฤชิต")+COUNTIF($J$119,"นฤชิต")+COUNTIF($J$122,"นฤชิต")+COUNTIF($J$131,"นฤชิต")+COUNTIF($J$134,"นฤชิต")+COUNTIF($J$137,"นฤชิต")+COUNTIF($J$140,"นฤชิต")+COUNTIF($J$143,"นฤชิต")</f>
-        <v/>
-      </c>
-      <c r="O127" s="17">
-        <f>COUNTIF($E$99,"นฤชิต")+COUNTIF($E$114,"นฤชิต")+COUNTIF($E$117,"นฤชิต")+COUNTIF($E$120,"นฤชิต")+COUNTIF($E$123,"นฤชิต")+COUNTIF($E$126,"นฤชิต")+COUNTIF($E$135,"นฤชิต")+COUNTIF($E$138,"นฤชิต")+COUNTIF($E$141,"นฤชิต")+COUNTIF($J$99,"นฤชิต")+COUNTIF($J$102,"นฤชิต")+COUNTIF($J$111,"นฤชิต")+COUNTIF($J$114,"นฤชิต")+COUNTIF($J$117,"นฤชิต")+COUNTIF($J$120,"นฤชิต")+COUNTIF($J$123,"นฤชิต")+COUNTIF($J$132,"นฤชิต")+COUNTIF($J$135,"นฤชิต")+COUNTIF($J$138,"นฤชิต")+COUNTIF($J$141,"นฤชิต")+COUNTIF($J$144,"นฤชิต")</f>
-        <v/>
-      </c>
-      <c r="P127" s="17">
-        <f>SUM(M127:O127)</f>
-        <v/>
-      </c>
-      <c r="R127" s="17" t="inlineStr">
+      <c r="S127" s="13">
+        <f>COUNTIF($E$100,"นฤชิต")+COUNTIF($E$103,"นฤชิต")+COUNTIF($E$106,"นฤชิต")+COUNTIF($E$109,"นฤชิต")+COUNTIF($E$127,"นฤชิต")+COUNTIF($E$130,"นฤชิต")+COUNTIF($J$103,"นฤชิต")+COUNTIF($J$106,"นฤชิต")+COUNTIF($J$124,"นฤชิต")+COUNTIF($J$127,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="T127" s="13">
+        <f>COUNTIF($E$101,"นฤชิต")+COUNTIF($E$104,"นฤชิต")+COUNTIF($E$107,"นฤชิต")+COUNTIF($E$110,"นฤชิต")+COUNTIF($E$128,"นฤชิต")+COUNTIF($E$131,"นฤชิต")+COUNTIF($J$104,"นฤชิต")+COUNTIF($J$107,"นฤชิต")+COUNTIF($J$125,"นฤชิต")+COUNTIF($J$128,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="U127" s="13">
+        <f>COUNTIF($E$102,"นฤชิต")+COUNTIF($E$105,"นฤชิต")+COUNTIF($E$108,"นฤชิต")+COUNTIF($E$111,"นฤชิต")+COUNTIF($E$129,"นฤชิต")+COUNTIF($E$132,"นฤชิต")+COUNTIF($J$105,"นฤชิต")+COUNTIF($J$108,"นฤชิต")+COUNTIF($J$126,"นฤชิต")+COUNTIF($J$129,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="V127" s="13">
+        <f>SUM(S127:U127)</f>
+        <v/>
+      </c>
+      <c r="X127" s="13" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="S127" s="17">
-        <f>COUNTIF($E$100,"นฤชิต")+COUNTIF($E$103,"นฤชิต")+COUNTIF($E$106,"นฤชิต")+COUNTIF($E$109,"นฤชิต")+COUNTIF($E$127,"นฤชิต")+COUNTIF($E$130,"นฤชิต")+COUNTIF($J$103,"นฤชิต")+COUNTIF($J$106,"นฤชิต")+COUNTIF($J$124,"นฤชิต")+COUNTIF($J$127,"นฤชิต")</f>
-        <v/>
-      </c>
-      <c r="T127" s="17">
-        <f>COUNTIF($E$101,"นฤชิต")+COUNTIF($E$104,"นฤชิต")+COUNTIF($E$107,"นฤชิต")+COUNTIF($E$110,"นฤชิต")+COUNTIF($E$128,"นฤชิต")+COUNTIF($E$131,"นฤชิต")+COUNTIF($J$104,"นฤชิต")+COUNTIF($J$107,"นฤชิต")+COUNTIF($J$125,"นฤชิต")+COUNTIF($J$128,"นฤชิต")</f>
-        <v/>
-      </c>
-      <c r="U127" s="17">
-        <f>COUNTIF($E$102,"นฤชิต")+COUNTIF($E$105,"นฤชิต")+COUNTIF($E$108,"นฤชิต")+COUNTIF($E$111,"นฤชิต")+COUNTIF($E$129,"นฤชิต")+COUNTIF($E$132,"นฤชิต")+COUNTIF($J$105,"นฤชิต")+COUNTIF($J$108,"นฤชิต")+COUNTIF($J$126,"นฤชิต")+COUNTIF($J$129,"นฤชิต")</f>
-        <v/>
-      </c>
-      <c r="V127" s="17">
-        <f>SUM(S127:U127)</f>
-        <v/>
-      </c>
-      <c r="X127" s="17" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="Y127" s="17">
+      <c r="Y127" s="13">
         <f>SUM(M127,S127)</f>
         <v/>
       </c>
-      <c r="Z127" s="17">
+      <c r="Z127" s="13">
         <f>SUM(N127,T127)</f>
         <v/>
       </c>
-      <c r="AA127" s="17">
+      <c r="AA127" s="13">
         <f>SUM(O127,U127)</f>
         <v/>
       </c>
-      <c r="AB127" s="17">
+      <c r="AB127" s="13">
         <f>SUM(P127,V127)</f>
         <v/>
       </c>
@@ -6974,19 +6974,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C128" s="12" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+      <c r="C128" s="19" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D128" s="10" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E128" s="8" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E128" s="15" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="F128" s="5" t="n"/>
@@ -6995,78 +6995,78 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="H128" s="6" t="inlineStr">
+      <c r="H128" s="9" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="I128" s="16" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="J128" s="6" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="I128" s="13" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="J128" s="17" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="L128" s="7" t="inlineStr">
+      <c r="L128" s="10" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="M128" s="7" t="inlineStr"/>
-      <c r="N128" s="7">
+      <c r="M128" s="10" t="inlineStr"/>
+      <c r="N128" s="10">
         <f>COUNTIF($E$98,"จีรวัฒน์")+COUNTIF($E$113,"จีรวัฒน์")+COUNTIF($E$116,"จีรวัฒน์")+COUNTIF($E$119,"จีรวัฒน์")+COUNTIF($E$122,"จีรวัฒน์")+COUNTIF($E$125,"จีรวัฒน์")+COUNTIF($E$134,"จีรวัฒน์")+COUNTIF($E$137,"จีรวัฒน์")+COUNTIF($E$140,"จีรวัฒน์")+COUNTIF($J$98,"จีรวัฒน์")+COUNTIF($J$101,"จีรวัฒน์")+COUNTIF($J$110,"จีรวัฒน์")+COUNTIF($J$113,"จีรวัฒน์")+COUNTIF($J$116,"จีรวัฒน์")+COUNTIF($J$119,"จีรวัฒน์")+COUNTIF($J$122,"จีรวัฒน์")+COUNTIF($J$131,"จีรวัฒน์")+COUNTIF($J$134,"จีรวัฒน์")+COUNTIF($J$137,"จีรวัฒน์")+COUNTIF($J$140,"จีรวัฒน์")+COUNTIF($J$143,"จีรวัฒน์")</f>
         <v/>
       </c>
-      <c r="O128" s="7">
+      <c r="O128" s="10">
         <f>COUNTIF($E$99,"จีรวัฒน์")+COUNTIF($E$114,"จีรวัฒน์")+COUNTIF($E$117,"จีรวัฒน์")+COUNTIF($E$120,"จีรวัฒน์")+COUNTIF($E$123,"จีรวัฒน์")+COUNTIF($E$126,"จีรวัฒน์")+COUNTIF($E$135,"จีรวัฒน์")+COUNTIF($E$138,"จีรวัฒน์")+COUNTIF($E$141,"จีรวัฒน์")+COUNTIF($J$99,"จีรวัฒน์")+COUNTIF($J$102,"จีรวัฒน์")+COUNTIF($J$111,"จีรวัฒน์")+COUNTIF($J$114,"จีรวัฒน์")+COUNTIF($J$117,"จีรวัฒน์")+COUNTIF($J$120,"จีรวัฒน์")+COUNTIF($J$123,"จีรวัฒน์")+COUNTIF($J$132,"จีรวัฒน์")+COUNTIF($J$135,"จีรวัฒน์")+COUNTIF($J$138,"จีรวัฒน์")+COUNTIF($J$141,"จีรวัฒน์")+COUNTIF($J$144,"จีรวัฒน์")</f>
         <v/>
       </c>
-      <c r="P128" s="7">
+      <c r="P128" s="10">
         <f>SUM(M128:O128)</f>
         <v/>
       </c>
-      <c r="R128" s="7" t="inlineStr">
+      <c r="R128" s="10" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="S128" s="7">
+      <c r="S128" s="10">
         <f>COUNTIF($E$100,"จีรวัฒน์")+COUNTIF($E$103,"จีรวัฒน์")+COUNTIF($E$106,"จีรวัฒน์")+COUNTIF($E$109,"จีรวัฒน์")+COUNTIF($E$127,"จีรวัฒน์")+COUNTIF($E$130,"จีรวัฒน์")+COUNTIF($J$103,"จีรวัฒน์")+COUNTIF($J$106,"จีรวัฒน์")+COUNTIF($J$124,"จีรวัฒน์")+COUNTIF($J$127,"จีรวัฒน์")</f>
         <v/>
       </c>
-      <c r="T128" s="7">
+      <c r="T128" s="10">
         <f>COUNTIF($E$101,"จีรวัฒน์")+COUNTIF($E$104,"จีรวัฒน์")+COUNTIF($E$107,"จีรวัฒน์")+COUNTIF($E$110,"จีรวัฒน์")+COUNTIF($E$128,"จีรวัฒน์")+COUNTIF($E$131,"จีรวัฒน์")+COUNTIF($J$104,"จีรวัฒน์")+COUNTIF($J$107,"จีรวัฒน์")+COUNTIF($J$125,"จีรวัฒน์")+COUNTIF($J$128,"จีรวัฒน์")</f>
         <v/>
       </c>
-      <c r="U128" s="7">
+      <c r="U128" s="10">
         <f>COUNTIF($E$102,"จีรวัฒน์")+COUNTIF($E$105,"จีรวัฒน์")+COUNTIF($E$108,"จีรวัฒน์")+COUNTIF($E$111,"จีรวัฒน์")+COUNTIF($E$129,"จีรวัฒน์")+COUNTIF($E$132,"จีรวัฒน์")+COUNTIF($J$105,"จีรวัฒน์")+COUNTIF($J$108,"จีรวัฒน์")+COUNTIF($J$126,"จีรวัฒน์")+COUNTIF($J$129,"จีรวัฒน์")</f>
         <v/>
       </c>
-      <c r="V128" s="7">
+      <c r="V128" s="10">
         <f>SUM(S128:U128)</f>
         <v/>
       </c>
-      <c r="X128" s="7" t="inlineStr">
+      <c r="X128" s="10" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="Y128" s="7">
+      <c r="Y128" s="10">
         <f>SUM(M128,S128)</f>
         <v/>
       </c>
-      <c r="Z128" s="7">
+      <c r="Z128" s="10">
         <f>SUM(N128,T128)</f>
         <v/>
       </c>
-      <c r="AA128" s="7">
+      <c r="AA128" s="10">
         <f>SUM(O128,U128)</f>
         <v/>
       </c>
-      <c r="AB128" s="7">
+      <c r="AB128" s="10">
         <f>SUM(P128,V128)</f>
         <v/>
       </c>
@@ -7078,19 +7078,19 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C129" s="15" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="D129" s="14" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E129" s="8" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
+      <c r="C129" s="19" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D129" s="10" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E129" s="15" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="F129" s="5" t="n"/>
@@ -7099,78 +7099,78 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="H129" s="9" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="I129" s="7" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="J129" s="14" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="L129" s="10" t="inlineStr">
+      <c r="H129" s="18" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="I129" s="13" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="J129" s="6" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="L129" s="17" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="M129" s="10" t="inlineStr"/>
-      <c r="N129" s="10">
+      <c r="M129" s="17" t="inlineStr"/>
+      <c r="N129" s="17">
         <f>COUNTIF($E$98,"สุเมธร์")+COUNTIF($E$113,"สุเมธร์")+COUNTIF($E$116,"สุเมธร์")+COUNTIF($E$119,"สุเมธร์")+COUNTIF($E$122,"สุเมธร์")+COUNTIF($E$125,"สุเมธร์")+COUNTIF($E$134,"สุเมธร์")+COUNTIF($E$137,"สุเมธร์")+COUNTIF($E$140,"สุเมธร์")+COUNTIF($J$98,"สุเมธร์")+COUNTIF($J$101,"สุเมธร์")+COUNTIF($J$110,"สุเมธร์")+COUNTIF($J$113,"สุเมธร์")+COUNTIF($J$116,"สุเมธร์")+COUNTIF($J$119,"สุเมธร์")+COUNTIF($J$122,"สุเมธร์")+COUNTIF($J$131,"สุเมธร์")+COUNTIF($J$134,"สุเมธร์")+COUNTIF($J$137,"สุเมธร์")+COUNTIF($J$140,"สุเมธร์")+COUNTIF($J$143,"สุเมธร์")</f>
         <v/>
       </c>
-      <c r="O129" s="10">
+      <c r="O129" s="17">
         <f>COUNTIF($E$99,"สุเมธร์")+COUNTIF($E$114,"สุเมธร์")+COUNTIF($E$117,"สุเมธร์")+COUNTIF($E$120,"สุเมธร์")+COUNTIF($E$123,"สุเมธร์")+COUNTIF($E$126,"สุเมธร์")+COUNTIF($E$135,"สุเมธร์")+COUNTIF($E$138,"สุเมธร์")+COUNTIF($E$141,"สุเมธร์")+COUNTIF($J$99,"สุเมธร์")+COUNTIF($J$102,"สุเมธร์")+COUNTIF($J$111,"สุเมธร์")+COUNTIF($J$114,"สุเมธร์")+COUNTIF($J$117,"สุเมธร์")+COUNTIF($J$120,"สุเมธร์")+COUNTIF($J$123,"สุเมธร์")+COUNTIF($J$132,"สุเมธร์")+COUNTIF($J$135,"สุเมธร์")+COUNTIF($J$138,"สุเมธร์")+COUNTIF($J$141,"สุเมธร์")+COUNTIF($J$144,"สุเมธร์")</f>
         <v/>
       </c>
-      <c r="P129" s="10">
+      <c r="P129" s="17">
         <f>SUM(M129:O129)</f>
         <v/>
       </c>
-      <c r="R129" s="10" t="inlineStr">
+      <c r="R129" s="17" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="S129" s="10">
+      <c r="S129" s="17">
         <f>COUNTIF($E$100,"สุเมธร์")+COUNTIF($E$103,"สุเมธร์")+COUNTIF($E$106,"สุเมธร์")+COUNTIF($E$109,"สุเมธร์")+COUNTIF($E$127,"สุเมธร์")+COUNTIF($E$130,"สุเมธร์")+COUNTIF($J$103,"สุเมธร์")+COUNTIF($J$106,"สุเมธร์")+COUNTIF($J$124,"สุเมธร์")+COUNTIF($J$127,"สุเมธร์")</f>
         <v/>
       </c>
-      <c r="T129" s="10">
+      <c r="T129" s="17">
         <f>COUNTIF($E$101,"สุเมธร์")+COUNTIF($E$104,"สุเมธร์")+COUNTIF($E$107,"สุเมธร์")+COUNTIF($E$110,"สุเมธร์")+COUNTIF($E$128,"สุเมธร์")+COUNTIF($E$131,"สุเมธร์")+COUNTIF($J$104,"สุเมธร์")+COUNTIF($J$107,"สุเมธร์")+COUNTIF($J$125,"สุเมธร์")+COUNTIF($J$128,"สุเมธร์")</f>
         <v/>
       </c>
-      <c r="U129" s="10">
+      <c r="U129" s="17">
         <f>COUNTIF($E$102,"สุเมธร์")+COUNTIF($E$105,"สุเมธร์")+COUNTIF($E$108,"สุเมธร์")+COUNTIF($E$111,"สุเมธร์")+COUNTIF($E$129,"สุเมธร์")+COUNTIF($E$132,"สุเมธร์")+COUNTIF($J$105,"สุเมธร์")+COUNTIF($J$108,"สุเมธร์")+COUNTIF($J$126,"สุเมธร์")+COUNTIF($J$129,"สุเมธร์")</f>
         <v/>
       </c>
-      <c r="V129" s="10">
+      <c r="V129" s="17">
         <f>SUM(S129:U129)</f>
         <v/>
       </c>
-      <c r="X129" s="10" t="inlineStr">
+      <c r="X129" s="17" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="Y129" s="10">
+      <c r="Y129" s="17">
         <f>SUM(M129,S129)</f>
         <v/>
       </c>
-      <c r="Z129" s="10">
+      <c r="Z129" s="17">
         <f>SUM(N129,T129)</f>
         <v/>
       </c>
-      <c r="AA129" s="10">
+      <c r="AA129" s="17">
         <f>SUM(O129,U129)</f>
         <v/>
       </c>
-      <c r="AB129" s="10">
+      <c r="AB129" s="17">
         <f>SUM(P129,V129)</f>
         <v/>
       </c>
@@ -7188,17 +7188,17 @@
       </c>
       <c r="C130" s="12" t="inlineStr">
         <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D130" s="17" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E130" s="7" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D130" s="16" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E130" s="17" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="F130" s="1" t="inlineStr">
@@ -7206,63 +7206,63 @@
           <t>27</t>
         </is>
       </c>
-      <c r="L130" s="19" t="inlineStr">
+      <c r="L130" s="11" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="M130" s="19" t="inlineStr"/>
-      <c r="N130" s="19">
+      <c r="M130" s="11" t="inlineStr"/>
+      <c r="N130" s="11">
         <f>COUNTIF($E$98,"นที")+COUNTIF($E$113,"นที")+COUNTIF($E$116,"นที")+COUNTIF($E$119,"นที")+COUNTIF($E$122,"นที")+COUNTIF($E$125,"นที")+COUNTIF($E$134,"นที")+COUNTIF($E$137,"นที")+COUNTIF($E$140,"นที")+COUNTIF($J$98,"นที")+COUNTIF($J$101,"นที")+COUNTIF($J$110,"นที")+COUNTIF($J$113,"นที")+COUNTIF($J$116,"นที")+COUNTIF($J$119,"นที")+COUNTIF($J$122,"นที")+COUNTIF($J$131,"นที")+COUNTIF($J$134,"นที")+COUNTIF($J$137,"นที")+COUNTIF($J$140,"นที")+COUNTIF($J$143,"นที")</f>
         <v/>
       </c>
-      <c r="O130" s="19">
+      <c r="O130" s="11">
         <f>COUNTIF($E$99,"นที")+COUNTIF($E$114,"นที")+COUNTIF($E$117,"นที")+COUNTIF($E$120,"นที")+COUNTIF($E$123,"นที")+COUNTIF($E$126,"นที")+COUNTIF($E$135,"นที")+COUNTIF($E$138,"นที")+COUNTIF($E$141,"นที")+COUNTIF($J$99,"นที")+COUNTIF($J$102,"นที")+COUNTIF($J$111,"นที")+COUNTIF($J$114,"นที")+COUNTIF($J$117,"นที")+COUNTIF($J$120,"นที")+COUNTIF($J$123,"นที")+COUNTIF($J$132,"นที")+COUNTIF($J$135,"นที")+COUNTIF($J$138,"นที")+COUNTIF($J$141,"นที")+COUNTIF($J$144,"นที")</f>
         <v/>
       </c>
-      <c r="P130" s="19">
+      <c r="P130" s="11">
         <f>SUM(M130:O130)</f>
         <v/>
       </c>
-      <c r="R130" s="19" t="inlineStr">
+      <c r="R130" s="11" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="S130" s="19">
+      <c r="S130" s="11">
         <f>COUNTIF($E$100,"นที")+COUNTIF($E$103,"นที")+COUNTIF($E$106,"นที")+COUNTIF($E$109,"นที")+COUNTIF($E$127,"นที")+COUNTIF($E$130,"นที")+COUNTIF($J$103,"นที")+COUNTIF($J$106,"นที")+COUNTIF($J$124,"นที")+COUNTIF($J$127,"นที")</f>
         <v/>
       </c>
-      <c r="T130" s="19">
+      <c r="T130" s="11">
         <f>COUNTIF($E$101,"นที")+COUNTIF($E$104,"นที")+COUNTIF($E$107,"นที")+COUNTIF($E$110,"นที")+COUNTIF($E$128,"นที")+COUNTIF($E$131,"นที")+COUNTIF($J$104,"นที")+COUNTIF($J$107,"นที")+COUNTIF($J$125,"นที")+COUNTIF($J$128,"นที")</f>
         <v/>
       </c>
-      <c r="U130" s="19">
+      <c r="U130" s="11">
         <f>COUNTIF($E$102,"นที")+COUNTIF($E$105,"นที")+COUNTIF($E$108,"นที")+COUNTIF($E$111,"นที")+COUNTIF($E$129,"นที")+COUNTIF($E$132,"นที")+COUNTIF($J$105,"นที")+COUNTIF($J$108,"นที")+COUNTIF($J$126,"นที")+COUNTIF($J$129,"นที")</f>
         <v/>
       </c>
-      <c r="V130" s="19">
+      <c r="V130" s="11">
         <f>SUM(S130:U130)</f>
         <v/>
       </c>
-      <c r="X130" s="19" t="inlineStr">
+      <c r="X130" s="11" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="Y130" s="19">
+      <c r="Y130" s="11">
         <f>SUM(M130,S130)</f>
         <v/>
       </c>
-      <c r="Z130" s="19">
+      <c r="Z130" s="11">
         <f>SUM(N130,T130)</f>
         <v/>
       </c>
-      <c r="AA130" s="19">
+      <c r="AA130" s="11">
         <f>SUM(O130,U130)</f>
         <v/>
       </c>
-      <c r="AB130" s="19">
+      <c r="AB130" s="11">
         <f>SUM(P130,V130)</f>
         <v/>
       </c>
@@ -7274,19 +7274,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C131" s="15" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
+      <c r="C131" s="14" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D131" s="7" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E131" s="16" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E131" s="8" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="G131" s="1" t="inlineStr">
@@ -7294,17 +7294,17 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="H131" s="18" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="I131" s="19" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="J131" s="12" t="inlineStr">
+      <c r="H131" s="8" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="I131" s="7" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="J131" s="14" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
@@ -7317,19 +7317,19 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C132" s="9" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D132" s="13" t="inlineStr">
+      <c r="C132" s="14" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D132" s="7" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="E132" s="19" t="inlineStr">
-        <is>
-          <t>นที</t>
+      <c r="E132" s="8" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="G132" s="1" t="inlineStr">
@@ -7337,19 +7337,19 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="H132" s="16" t="inlineStr">
+      <c r="H132" s="18" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="I132" s="7" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="J132" s="15" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="I132" s="19" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="J132" s="11" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
         </is>
       </c>
     </row>
@@ -7378,37 +7378,37 @@
       </c>
       <c r="C134" s="18" t="inlineStr">
         <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D134" s="13" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E134" s="19" t="inlineStr">
+        <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="D134" s="17" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E134" s="10" t="inlineStr">
+      <c r="G134" s="1" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H134" s="15" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="I134" s="11" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="J134" s="17" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="G134" s="1" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H134" s="15" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="I134" s="7" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="J134" s="8" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="M134" s="1" t="inlineStr">
@@ -7440,57 +7440,57 @@
       </c>
       <c r="C135" s="18" t="inlineStr">
         <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D135" s="13" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E135" s="19" t="inlineStr">
+        <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="D135" s="14" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E135" s="9" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
       <c r="G135" s="1" t="inlineStr">
         <is>
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="H135" s="12" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="I135" s="10" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="J135" s="14" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="L135" s="16" t="inlineStr">
+      <c r="H135" s="19" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="I135" s="11" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="J135" s="13" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="L135" s="15" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="M135" s="16">
+      <c r="M135" s="15">
         <f>SUM(S100,S117)</f>
         <v/>
       </c>
-      <c r="N135" s="16">
+      <c r="N135" s="15">
         <f>SUM(V100,V117)</f>
         <v/>
       </c>
-      <c r="O135" s="16">
+      <c r="O135" s="15">
         <f>SUM(P100,P117)</f>
         <v/>
       </c>
-      <c r="P135" s="16">
+      <c r="P135" s="15">
         <f>SUM(O135,N135)</f>
         <v/>
       </c>
@@ -7536,17 +7536,17 @@
       </c>
       <c r="C137" s="12" t="inlineStr">
         <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D137" s="14" t="inlineStr">
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D137" s="16" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="E137" s="7" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
+      <c r="E137" s="15" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="G137" s="1" t="inlineStr">
@@ -7554,39 +7554,39 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="H137" s="8" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="I137" s="11" t="inlineStr">
+      <c r="H137" s="18" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="J137" s="7" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="L137" s="11" t="inlineStr">
+      <c r="I137" s="9" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="J137" s="16" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="L137" s="18" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="M137" s="11">
+      <c r="M137" s="18">
         <f>SUM(S102,S119)</f>
         <v/>
       </c>
-      <c r="N137" s="11">
+      <c r="N137" s="18">
         <f>SUM(V102,V119)</f>
         <v/>
       </c>
-      <c r="O137" s="11">
+      <c r="O137" s="18">
         <f>SUM(P102,P119)</f>
         <v/>
       </c>
-      <c r="P137" s="11">
+      <c r="P137" s="18">
         <f>SUM(O137,N137)</f>
         <v/>
       </c>
@@ -7599,57 +7599,57 @@
       </c>
       <c r="C138" s="12" t="inlineStr">
         <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D138" s="16" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E138" s="15" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="G138" s="1" t="inlineStr">
+        <is>
+          <t>24:00-08:00</t>
+        </is>
+      </c>
+      <c r="H138" s="8" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="I138" s="14" t="inlineStr">
+        <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="D138" s="7" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E138" s="6" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="G138" s="1" t="inlineStr">
-        <is>
-          <t>24:00-08:00</t>
-        </is>
-      </c>
-      <c r="H138" s="15" t="inlineStr">
+      <c r="J138" s="9" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="I138" s="16" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="J138" s="19" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="L138" s="9" t="inlineStr">
+      <c r="L138" s="12" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="M138" s="9">
+      <c r="M138" s="12">
         <f>SUM(S103,S120)</f>
         <v/>
       </c>
-      <c r="N138" s="9">
+      <c r="N138" s="12">
         <f>SUM(V103,V120)</f>
         <v/>
       </c>
-      <c r="O138" s="9">
+      <c r="O138" s="12">
         <f>SUM(P103,P120)</f>
         <v/>
       </c>
-      <c r="P138" s="9">
+      <c r="P138" s="12">
         <f>SUM(O138,N138)</f>
         <v/>
       </c>
@@ -7665,24 +7665,24 @@
           <t>30</t>
         </is>
       </c>
-      <c r="L139" s="18" t="inlineStr">
+      <c r="L139" s="19" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="M139" s="18">
+      <c r="M139" s="19">
         <f>SUM(S104,S121)</f>
         <v/>
       </c>
-      <c r="N139" s="18">
+      <c r="N139" s="19">
         <f>SUM(V104,V121)</f>
         <v/>
       </c>
-      <c r="O139" s="18">
+      <c r="O139" s="19">
         <f>SUM(P104,P121)</f>
         <v/>
       </c>
-      <c r="P139" s="18">
+      <c r="P139" s="19">
         <f>SUM(O139,N139)</f>
         <v/>
       </c>
@@ -7693,59 +7693,59 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C140" s="8" t="inlineStr">
+      <c r="C140" s="19" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D140" s="7" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E140" s="18" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="G140" s="1" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="H140" s="14" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="I140" s="12" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="J140" s="8" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="D140" s="10" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E140" s="6" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="G140" s="1" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="H140" s="6" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="I140" s="11" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="J140" s="17" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="L140" s="15" t="inlineStr">
+      <c r="L140" s="9" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="M140" s="15">
+      <c r="M140" s="9">
         <f>SUM(S105,S122)</f>
         <v/>
       </c>
-      <c r="N140" s="15">
+      <c r="N140" s="9">
         <f>SUM(V105,V122)</f>
         <v/>
       </c>
-      <c r="O140" s="15">
+      <c r="O140" s="9">
         <f>SUM(P105,P122)</f>
         <v/>
       </c>
-      <c r="P140" s="15">
+      <c r="P140" s="9">
         <f>SUM(O140,N140)</f>
         <v/>
       </c>
@@ -7756,19 +7756,19 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="C141" s="8" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D141" s="14" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E141" s="15" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
+      <c r="C141" s="19" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D141" s="7" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E141" s="18" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="G141" s="1" t="inlineStr">
@@ -7776,39 +7776,39 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="H141" s="9" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="I141" s="8" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="J141" s="17" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="L141" s="12" t="inlineStr">
+      <c r="H141" s="19" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="I141" s="18" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="J141" s="10" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="L141" s="14" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="M141" s="12">
+      <c r="M141" s="14">
         <f>SUM(S106,S123)</f>
         <v/>
       </c>
-      <c r="N141" s="12">
+      <c r="N141" s="14">
         <f>SUM(V106,V123)</f>
         <v/>
       </c>
-      <c r="O141" s="12">
+      <c r="O141" s="14">
         <f>SUM(P106,P123)</f>
         <v/>
       </c>
-      <c r="P141" s="12">
+      <c r="P141" s="14">
         <f>SUM(O141,N141)</f>
         <v/>
       </c>
@@ -7847,39 +7847,39 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="H143" s="16" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="I143" s="12" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="J143" s="9" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="L143" s="13" t="inlineStr">
+      <c r="H143" s="19" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="I143" s="18" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="J143" s="7" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="M143" s="13">
+      <c r="L143" s="7" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="M143" s="7">
         <f>SUM(S108,S125)</f>
         <v/>
       </c>
-      <c r="N143" s="13">
+      <c r="N143" s="7">
         <f>SUM(V108,V125)</f>
         <v/>
       </c>
-      <c r="O143" s="13">
+      <c r="O143" s="7">
         <f>SUM(P108,P125)</f>
         <v/>
       </c>
-      <c r="P143" s="13">
+      <c r="P143" s="7">
         <f>SUM(O143,N143)</f>
         <v/>
       </c>
@@ -7890,131 +7890,131 @@
           <t>24:00-08:00</t>
         </is>
       </c>
-      <c r="H144" s="11" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="I144" s="9" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="J144" s="12" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="L144" s="14" t="inlineStr">
+      <c r="H144" s="9" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="I144" s="15" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="J144" s="19" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="L144" s="16" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="M144" s="14">
+      <c r="M144" s="16">
         <f>SUM(S109,S126)</f>
         <v/>
       </c>
-      <c r="N144" s="14">
+      <c r="N144" s="16">
         <f>SUM(V109,V126)</f>
         <v/>
       </c>
-      <c r="O144" s="14">
+      <c r="O144" s="16">
         <f>SUM(P109,P126)</f>
         <v/>
       </c>
-      <c r="P144" s="14">
+      <c r="P144" s="16">
         <f>SUM(O144,N144)</f>
         <v/>
       </c>
     </row>
     <row r="145">
-      <c r="L145" s="17" t="inlineStr">
+      <c r="L145" s="13" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="M145" s="17">
+      <c r="M145" s="13">
         <f>SUM(S110,S127)</f>
         <v/>
       </c>
-      <c r="N145" s="17">
+      <c r="N145" s="13">
         <f>SUM(V110,V127)</f>
         <v/>
       </c>
-      <c r="O145" s="17">
+      <c r="O145" s="13">
         <f>SUM(P110,P127)</f>
         <v/>
       </c>
-      <c r="P145" s="17">
+      <c r="P145" s="13">
         <f>SUM(O145,N145)</f>
         <v/>
       </c>
     </row>
     <row r="146">
-      <c r="L146" s="7" t="inlineStr">
+      <c r="L146" s="10" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="M146" s="7">
+      <c r="M146" s="10">
         <f>SUM(S111,S128)</f>
         <v/>
       </c>
-      <c r="N146" s="7">
+      <c r="N146" s="10">
         <f>SUM(V111,V128)</f>
         <v/>
       </c>
-      <c r="O146" s="7">
+      <c r="O146" s="10">
         <f>SUM(P111,P128)</f>
         <v/>
       </c>
-      <c r="P146" s="7">
+      <c r="P146" s="10">
         <f>SUM(O146,N146)</f>
         <v/>
       </c>
     </row>
     <row r="147">
-      <c r="L147" s="10" t="inlineStr">
+      <c r="L147" s="17" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="M147" s="10">
+      <c r="M147" s="17">
         <f>SUM(S112,S129)</f>
         <v/>
       </c>
-      <c r="N147" s="10">
+      <c r="N147" s="17">
         <f>SUM(V112,V129)</f>
         <v/>
       </c>
-      <c r="O147" s="10">
+      <c r="O147" s="17">
         <f>SUM(P112,P129)</f>
         <v/>
       </c>
-      <c r="P147" s="10">
+      <c r="P147" s="17">
         <f>SUM(O147,N147)</f>
         <v/>
       </c>
     </row>
     <row r="148">
-      <c r="L148" s="19" t="inlineStr">
+      <c r="L148" s="11" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="M148" s="19">
+      <c r="M148" s="11">
         <f>SUM(S113,S130)</f>
         <v/>
       </c>
-      <c r="N148" s="19">
+      <c r="N148" s="11">
         <f>SUM(V113,V130)</f>
         <v/>
       </c>
-      <c r="O148" s="19">
+      <c r="O148" s="11">
         <f>SUM(P113,P130)</f>
         <v/>
       </c>
-      <c r="P148" s="19">
+      <c r="P148" s="11">
         <f>SUM(O148,N148)</f>
         <v/>
       </c>
